--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="pictuer_config" sheetId="2" r:id="rId1"/>
-    <sheet name="pictuer_data" sheetId="3" r:id="rId2"/>
-    <sheet name="pictuer_activate" sheetId="4" r:id="rId3"/>
+    <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
+    <sheet name="pictuer_card_data" sheetId="3" r:id="rId2"/>
+    <sheet name="pictuer_fetter_attr" sheetId="4" r:id="rId3"/>
+    <sheet name="pictuer_fetter_ability" sheetId="6" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pictuer_config!$A$1:$G$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -52,7 +50,10 @@
     <t>激活卡牌id</t>
   </si>
   <si>
-    <t>分类标签(-1类型不会显示)</t>
+    <t>羁绊属性id</t>
+  </si>
+  <si>
+    <t>羁绊技能id</t>
   </si>
   <si>
     <t>pictuer_suit</t>
@@ -70,10 +71,13 @@
     <t>attr_type</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>图鉴A</t>
+    <t>attr_ids</t>
+  </si>
+  <si>
+    <t>ability_id</t>
+  </si>
+  <si>
+    <t>狗头人联盟</t>
   </si>
   <si>
     <t>abyssal_underlord_pit_of_malice</t>
@@ -82,7 +86,7 @@
     <t>1|2|3</t>
   </si>
   <si>
-    <t>图鉴B</t>
+    <t>丘陵巨魔的狂躁</t>
   </si>
   <si>
     <t>ancient_apparition_chilling_touch</t>
@@ -94,31 +98,76 @@
     <t>卡片索引</t>
   </si>
   <si>
+    <t>存档物品id</t>
+  </si>
+  <si>
     <t>卡片名字</t>
   </si>
   <si>
+    <t>合成方式 1 普通 2需要特殊卡片</t>
+  </si>
+  <si>
+    <t>合成所需特殊卡片id</t>
+  </si>
+  <si>
     <t>卡片图片</t>
   </si>
   <si>
     <t>稀有度</t>
   </si>
   <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>compound_type</t>
+  </si>
+  <si>
+    <t>special_compound</t>
+  </si>
+  <si>
     <t>rarity</t>
   </si>
   <si>
-    <t>卡片1</t>
-  </si>
-  <si>
-    <t>卡片2</t>
-  </si>
-  <si>
-    <t>卡片3</t>
-  </si>
-  <si>
-    <t>卡片4</t>
-  </si>
-  <si>
-    <t>卡片5</t>
+    <t>小狗头人</t>
+  </si>
+  <si>
+    <t>null|null</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>狗头人士兵</t>
+  </si>
+  <si>
+    <t>狗头人长官</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>丘陵巨魔狂战士</t>
+  </si>
+  <si>
+    <t>丘陵巨魔牧师</t>
+  </si>
+  <si>
+    <t>肉山</t>
+  </si>
+  <si>
+    <t>38|39</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>肉山幼崽</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>变异肉山幼崽</t>
   </si>
   <si>
     <t>激活索引</t>
@@ -127,63 +176,115 @@
     <t>激活描述</t>
   </si>
   <si>
-    <t>归属图鉴</t>
-  </si>
-  <si>
-    <t>所需激活数量</t>
-  </si>
-  <si>
-    <t>类型 ( 1 属性 2 技能)</t>
-  </si>
-  <si>
-    <t>属性或技能id</t>
-  </si>
-  <si>
-    <t>数值</t>
-  </si>
-  <si>
-    <t>activate_id</t>
-  </si>
-  <si>
-    <t>activate_count</t>
-  </si>
-  <si>
-    <t>attr_or_ali_id</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>攻击力增加5点</t>
-  </si>
-  <si>
-    <t>暴击时增加5点攻击</t>
-  </si>
-  <si>
-    <t>被攻击时增加5点攻击</t>
-  </si>
-  <si>
-    <t>使用技能时增加5点攻击</t>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>attr_id</t>
+  </si>
+  <si>
+    <t>ObjectValues[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>防御力+15</t>
+  </si>
+  <si>
+    <t>PhyicalArmor {
+"Base" "15"
+}</t>
+  </si>
+  <si>
+    <t>生命恢复+5/s</t>
+  </si>
+  <si>
+    <t>HealthRegen {
+"Base" "5"
+}</t>
+  </si>
+  <si>
+    <t>攻击力+5</t>
+  </si>
+  <si>
+    <t>AttackDamage {
+"Base" "5"
+}</t>
+  </si>
+  <si>
+    <t>生命值+100</t>
+  </si>
+  <si>
+    <t>MaxHealth {
+"Base" "100"
+}</t>
+  </si>
+  <si>
+    <t>攻击速度+10%</t>
+  </si>
+  <si>
+    <t>AttackSpeed {
+"Base" "10"
+}</t>
+  </si>
+  <si>
+    <t>技能分类（用于区分同类型取最高技能等级）</t>
+  </si>
+  <si>
+    <t>技能等级</t>
+  </si>
+  <si>
+    <t>普通技能值</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>ability_type</t>
+  </si>
+  <si>
+    <t>ability_level</t>
+  </si>
+  <si>
+    <t>AbilityValues[{]</t>
+  </si>
+  <si>
+    <t>极速lv5：击杀敌人时有15%概率提高10%移动速度，持续5秒，可叠加3层。</t>
+  </si>
+  <si>
+    <t>治疗lv5：每过5秒，恢复2%最大生命值。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -194,21 +295,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -357,7 +451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,7 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor theme="1" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -566,203 +672,310 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1" tint="0.66"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1" tint="0.66"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,76 +1097,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,10 +1169,10 @@
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,10 +1181,10 @@
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,10 +1193,10 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,10 +1205,10 @@
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,11 +1217,17 @@
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,94 +1237,136 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1166,7 +1421,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="1"/>
@@ -1300,16 +1555,481 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFB6C7EA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="medium">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFFFFFF"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal style="medium">
+          <color rgb="FFFFFFFF"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3C59CB72-1AEE-4A65-927C-798B0A9CC2C2}">
+  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B29A951D-FCF0-4427-9390-7436659940A4}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{CCA9638E-2F52-49F5-A964-8797D30AADAA}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E6BB9891-71FB-4B74-A8C4-82AEADBFEB9A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{03AFC23C-EDA3-4310-97EE-9461B4982C76}">
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C94FD08D-4ECE-4AC3-8A44-7DADFFF5BE31}">
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="19"/>
+      <tableStyleElement type="firstColumn" dxfId="18"/>
+      <tableStyleElement type="lastColumn" dxfId="17"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="14"/>
+      <tableStyleElement type="firstTotalCell" dxfId="13"/>
+      <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1613,118 +2333,125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="14.675" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.3416666666667" style="29" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="29" customWidth="1"/>
-    <col min="5" max="6" width="16.0083333333333" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="17.8416666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="36.675" customWidth="1"/>
+    <col min="5" max="5" width="15.675" customWidth="1"/>
+    <col min="6" max="8" width="16.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="101" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="31.25" customHeight="1" spans="1:8">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="38" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="35" customHeight="1" spans="1:7">
-      <c r="A2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
+    <row r="2" ht="31.25" customHeight="1" spans="1:8">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="39" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A3" s="13">
+    <row r="3" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="20">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="28">
-        <v>3</v>
+      <c r="F3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="18.5" customHeight="1" spans="1:7">
-      <c r="A4" s="17">
+    <row r="4" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="18">
+      <c r="B4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="31">
+      <c r="D4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="44">
         <v>2</v>
       </c>
-      <c r="F4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="32">
-        <v>6</v>
+      <c r="F4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="46">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G4">
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1733,157 +2460,249 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="33.875" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="17.8416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.8416666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.8416666666667" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="27.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="36.675" customWidth="1"/>
+    <col min="7" max="7" width="13.0083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="48.5" customHeight="1" spans="1:7">
+      <c r="A1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="31.25" customHeight="1" spans="1:7">
+      <c r="A2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="G4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A8" s="32">
+        <v>37</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="33">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>6</v>
+      <c r="E8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>12</v>
+    <row r="9" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A9" s="32">
+        <v>38</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="33">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="13">
+    <row r="10" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A10" s="34">
+        <v>39</v>
+      </c>
+      <c r="B10" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="27">
-        <v>1</v>
-      </c>
-      <c r="F3" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="13">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="27">
-        <v>2</v>
-      </c>
-      <c r="F4" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="27">
-        <v>3</v>
-      </c>
-      <c r="F5" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="27">
-        <v>4</v>
-      </c>
-      <c r="F6" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="17.25" spans="1:6">
-      <c r="A7" s="17">
-        <v>5</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="27">
-        <v>5</v>
-      </c>
-      <c r="F7" s="20">
-        <v>2</v>
+      <c r="E10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1895,293 +2714,231 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="B6:E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="15.0083333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.5083333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.0083333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.24166666666667" customWidth="1"/>
+    <col min="6" max="6" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" ht="31.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
-    <row r="2" ht="15" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>39</v>
+    <row r="2" ht="30.5" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" ht="63.5" customHeight="1" spans="1:6">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" ht="63.5" customHeight="1" spans="1:6">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" ht="63.5" customHeight="1" spans="1:6">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" ht="63.5" customHeight="1" spans="1:6">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" ht="63.5" customHeight="1" spans="1:6">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.3416666666667" customWidth="1"/>
+    <col min="6" max="7" width="8.24166666666667" customWidth="1"/>
+    <col min="8" max="8" width="10.3416666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="G2" s="10">
+        <v>2</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
-        <v>3</v>
-      </c>
-      <c r="G3" s="12">
+      <c r="D3" s="13">
         <v>5</v>
       </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11"/>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="13">
+    <row r="4" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="D4" s="16">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="13">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>3</v>
-      </c>
-      <c r="G5" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="13">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="13">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="14">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15">
-        <v>2</v>
-      </c>
-      <c r="G7" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15">
-        <v>2</v>
-      </c>
-      <c r="F8" s="15">
-        <v>3</v>
-      </c>
-      <c r="G8" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="13">
-        <v>7</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>3</v>
-      </c>
-      <c r="G9" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="14">
-        <v>2</v>
-      </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>3</v>
-      </c>
-      <c r="G10" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="13">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="14">
-        <v>2</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="17">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="18">
-        <v>2</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2</v>
-      </c>
-      <c r="E12" s="18">
-        <v>2</v>
-      </c>
-      <c r="F12" s="19">
-        <v>2</v>
-      </c>
-      <c r="G12" s="20">
-        <v>5</v>
-      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="3"/>
+    <workbookView windowWidth="23145" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="221">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -95,6 +95,174 @@
     <t>4|5</t>
   </si>
   <si>
+    <t>复生的黑暗巨魔</t>
+  </si>
+  <si>
+    <t>4|5|28|29</t>
+  </si>
+  <si>
+    <t>豺狼人刺客组织</t>
+  </si>
+  <si>
+    <t>6|7</t>
+  </si>
+  <si>
+    <t>鬼魂之幽冥之主</t>
+  </si>
+  <si>
+    <t>8|9|10|11</t>
+  </si>
+  <si>
+    <t>鹰眼女妖的狂妄</t>
+  </si>
+  <si>
+    <t>12|13</t>
+  </si>
+  <si>
+    <t>半人马的征服</t>
+  </si>
+  <si>
+    <t>14|15</t>
+  </si>
+  <si>
+    <t>野狼？？？</t>
+  </si>
+  <si>
+    <t>16|17</t>
+  </si>
+  <si>
+    <t>萨特阵营的邪恶魔法</t>
+  </si>
+  <si>
+    <t>18|19|20</t>
+  </si>
+  <si>
+    <t>食人魔的先驱者</t>
+  </si>
+  <si>
+    <t>21|22</t>
+  </si>
+  <si>
+    <t>来自地狱的熊</t>
+  </si>
+  <si>
+    <t>24|25</t>
+  </si>
+  <si>
+    <t>被折翼的枭兽</t>
+  </si>
+  <si>
+    <t>26|27</t>
+  </si>
+  <si>
+    <t>黑龙的诅咒</t>
+  </si>
+  <si>
+    <t>30|31</t>
+  </si>
+  <si>
+    <t>来自远古的恐惧</t>
+  </si>
+  <si>
+    <t>33|34|35|36</t>
+  </si>
+  <si>
+    <t>傀儡的主人</t>
+  </si>
+  <si>
+    <t>23|32</t>
+  </si>
+  <si>
+    <t>不朽之守护</t>
+  </si>
+  <si>
+    <t>37|38|39</t>
+  </si>
+  <si>
+    <t>象牙海民的亡灵</t>
+  </si>
+  <si>
+    <t>66|67|68</t>
+  </si>
+  <si>
+    <t>传说的象牙三圣母</t>
+  </si>
+  <si>
+    <t>69|70|71</t>
+  </si>
+  <si>
+    <t>遥远的寒霜巨兽</t>
+  </si>
+  <si>
+    <t>72|73|74|75</t>
+  </si>
+  <si>
+    <t>喜欢做鳄梦</t>
+  </si>
+  <si>
+    <t>78|79|80|81</t>
+  </si>
+  <si>
+    <t>彩虹的颜色</t>
+  </si>
+  <si>
+    <t>82|83|84|85</t>
+  </si>
+  <si>
+    <t>坚持了两年半</t>
+  </si>
+  <si>
+    <t>89|90|104</t>
+  </si>
+  <si>
+    <t>远古的三巨头</t>
+  </si>
+  <si>
+    <t>86|87|88</t>
+  </si>
+  <si>
+    <t>有肉的和没肉的</t>
+  </si>
+  <si>
+    <t>91|92|93|94|95</t>
+  </si>
+  <si>
+    <t>来自地狱</t>
+  </si>
+  <si>
+    <t>100|101|102</t>
+  </si>
+  <si>
+    <t>爱吃树墩</t>
+  </si>
+  <si>
+    <t>103|105</t>
+  </si>
+  <si>
+    <t>正牌天辉军</t>
+  </si>
+  <si>
+    <t>40|42|49|47|48</t>
+  </si>
+  <si>
+    <t>正牌夜魇部队</t>
+  </si>
+  <si>
+    <t>54|55|58|64|63</t>
+  </si>
+  <si>
+    <t>元素大陆的掌控者</t>
+  </si>
+  <si>
+    <t>501|502|503</t>
+  </si>
+  <si>
+    <t>四元素圣使</t>
+  </si>
+  <si>
+    <t>502|503|504|505</t>
+  </si>
+  <si>
     <t>卡片索引</t>
   </si>
   <si>
@@ -104,7 +272,7 @@
     <t>卡片名字</t>
   </si>
   <si>
-    <t>合成方式 1 普通 2需要特殊卡片</t>
+    <t>合成方式 1 普通 2需要特殊卡片 0无法被合成</t>
   </si>
   <si>
     <t>合成所需特殊卡片id</t>
@@ -152,6 +320,102 @@
     <t>丘陵巨魔牧师</t>
   </si>
   <si>
+    <t>丘陵巨魔</t>
+  </si>
+  <si>
+    <t>黑暗巨魔召唤法师</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>豺狼人刺客</t>
+  </si>
+  <si>
+    <t>冰霜豺狼人刺客</t>
+  </si>
+  <si>
+    <t>魔能之魂</t>
+  </si>
+  <si>
+    <t>鬼魂</t>
+  </si>
+  <si>
+    <t>怨念之魂</t>
+  </si>
+  <si>
+    <t>冰霜之魂</t>
+  </si>
+  <si>
+    <t>鹰眼女妖侦察者</t>
+  </si>
+  <si>
+    <t>鹰眼女妖风暴巫师</t>
+  </si>
+  <si>
+    <t>半人马猎手</t>
+  </si>
+  <si>
+    <t>半人马征服者</t>
+  </si>
+  <si>
+    <t>巨狼</t>
+  </si>
+  <si>
+    <t>头狼</t>
+  </si>
+  <si>
+    <t>萨特放逐者</t>
+  </si>
+  <si>
+    <t>萨特窃神者</t>
+  </si>
+  <si>
+    <t>萨特苦难行者</t>
+  </si>
+  <si>
+    <t>食人魔拳手</t>
+  </si>
+  <si>
+    <t>食人魔冰霜法师</t>
+  </si>
+  <si>
+    <t>地狱熊怪</t>
+  </si>
+  <si>
+    <t>地狱熊怪粉碎者</t>
+  </si>
+  <si>
+    <t>枭兽</t>
+  </si>
+  <si>
+    <t>枭兽撕裂者</t>
+  </si>
+  <si>
+    <t>远古黑蜉蝣</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>远古岚肤兽</t>
+  </si>
+  <si>
+    <t>远古雷肤兽</t>
+  </si>
+  <si>
+    <t>远古侍僧潜行者</t>
+  </si>
+  <si>
+    <t>远古萨满潜行者</t>
+  </si>
+  <si>
+    <t>泥土傀儡</t>
+  </si>
+  <si>
+    <t>远古岩石傀儡</t>
+  </si>
+  <si>
     <t>肉山</t>
   </si>
   <si>
@@ -164,10 +428,160 @@
     <t>肉山幼崽</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>变异肉山幼崽</t>
+  </si>
+  <si>
+    <t>象牙骷髅甲士</t>
+  </si>
+  <si>
+    <t>象牙鬼魂</t>
+  </si>
+  <si>
+    <t>象牙骷髅战士</t>
+  </si>
+  <si>
+    <t>象牙婶婶</t>
+  </si>
+  <si>
+    <t>象牙婆婆</t>
+  </si>
+  <si>
+    <t>象牙姥姥</t>
+  </si>
+  <si>
+    <t>寒霜术士</t>
+  </si>
+  <si>
+    <t>寒霜战士</t>
+  </si>
+  <si>
+    <t>寒霜萨满</t>
+  </si>
+  <si>
+    <t>寒霜召唤法师</t>
+  </si>
+  <si>
+    <t>鳄鱼术士</t>
+  </si>
+  <si>
+    <t>鳄鱼法师</t>
+  </si>
+  <si>
+    <t>鳄鱼狂战士</t>
+  </si>
+  <si>
+    <t>鳄鱼士兵</t>
+  </si>
+  <si>
+    <t>变色龙术士</t>
+  </si>
+  <si>
+    <t>变色龙勇士</t>
+  </si>
+  <si>
+    <t>变色龙近卫兵</t>
+  </si>
+  <si>
+    <t>变色龙战士</t>
+  </si>
+  <si>
+    <t>坤法师</t>
+  </si>
+  <si>
+    <t>坤战士</t>
+  </si>
+  <si>
+    <t>坤哥</t>
+  </si>
+  <si>
+    <t>远古寒冬巨人</t>
+  </si>
+  <si>
+    <t>远古森林巨人</t>
+  </si>
+  <si>
+    <t>远古地狱巨人</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>行尸</t>
+  </si>
+  <si>
+    <t>骷髅兵</t>
+  </si>
+  <si>
+    <t>骷髅勇士</t>
+  </si>
+  <si>
+    <t>骷髅魔剑士</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>远古地狱火</t>
+  </si>
+  <si>
+    <t>地狱火精灵</t>
+  </si>
+  <si>
+    <t>宝箱树墩</t>
+  </si>
+  <si>
+    <t>超级贪魔</t>
+  </si>
+  <si>
+    <t>天辉近战兵</t>
+  </si>
+  <si>
+    <t>天辉远程兵</t>
+  </si>
+  <si>
+    <t>天辉投石车</t>
+  </si>
+  <si>
+    <t>天辉水晶卫士</t>
+  </si>
+  <si>
+    <t>天辉超级远程兵</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>夜魇投石车</t>
+  </si>
+  <si>
+    <t>炽甲虫战士</t>
+  </si>
+  <si>
+    <t>炽甲虫术士</t>
+  </si>
+  <si>
+    <t>元素之主</t>
+  </si>
+  <si>
+    <t>502|503</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>祈风使</t>
+  </si>
+  <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>烈火使</t>
   </si>
   <si>
     <t>激活索引</t>
@@ -220,7 +634,7 @@
 }</t>
   </si>
   <si>
-    <t>攻击速度+10%</t>
+    <t>攻击速度+10</t>
   </si>
   <si>
     <t>AttackSpeed {
@@ -253,6 +667,45 @@
   </si>
   <si>
     <t>治疗lv5：每过5秒，恢复2%最大生命值。</t>
+  </si>
+  <si>
+    <t>治疗LV10:每过5秒，恢复5%最大生命值。</t>
+  </si>
+  <si>
+    <t>背刺LV5：从背后对敌人造成伤害时，伤害提高25%。</t>
+  </si>
+  <si>
+    <t>幽冥lv5：受到伤害有15%概率进入幽冥状态，幽冥状态下不会受到伤害但也无法使用技能。
+幽冥状态持续3秒</t>
+  </si>
+  <si>
+    <t>致命LV5:使用技能时有5%概率进入致命状态，使接下来3秒内所有伤害均暴击</t>
+  </si>
+  <si>
+    <t>坚毅lv5：免疫致命伤害，并恢复25%最大生命值，每360秒只触发一次效果。</t>
+  </si>
+  <si>
+    <t>disco lv5：野狼disco，造成暴击时暴击伤害提高45%。</t>
+  </si>
+  <si>
+    <t>邪恶LV5：周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</t>
+  </si>
+  <si>
+    <t>双重LV5:释放技能时有10%概率消耗双倍蓝量造成2.3倍伤害。</t>
+  </si>
+  <si>
+    <t>雷霆LV5：英雄阵亡时，将触发雷霆自爆，消灭自身半径500码所有敌方单位。
+（不包括精英怪和boss）</t>
+  </si>
+  <si>
+    <t>飓风LV5：使用基础技能时有15%概率提高50%攻击速度持续3秒。</t>
+  </si>
+  <si>
+    <t>坚毅lv10：免疫致命伤害，并恢复25%最大生命值，每180秒只触发一次效果。</t>
+  </si>
+  <si>
+    <t>弱点LV5:造成敌人弱点元素伤害时，该伤害近提升至200%。
+（弱点元素伤害：基于元素克制效果，例如火克制冰，火元素克制冰元素敌人，火元素伤害对冰元素敌人造成伤害正常为120%，此效果将该伤害提升至200%）</t>
   </si>
 </sst>
 </file>
@@ -819,7 +1272,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1"/>
+        <color theme="1" tint="0.66"/>
       </left>
       <right style="thin">
         <color theme="1" tint="0.66"/>
@@ -834,7 +1287,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.66"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color theme="1" tint="0.66"/>
@@ -1227,10 +1680,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1271,10 +1727,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1282,6 +1738,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1303,6 +1762,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,43 +1792,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2001,16 +2448,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B29A951D-FCF0-4427-9390-7436659940A4}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DFA50351-83C6-47B2-8AAA-8BB1B71268C3}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E6BB9891-71FB-4B74-A8C4-82AEADBFEB9A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4BE25986-829C-42E4-AEB1-B91154C761DC}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{03AFC23C-EDA3-4310-97EE-9461B4982C76}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DFC94C41-75D0-458A-B12F-936616EAA4BD}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -2019,7 +2466,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C94FD08D-4ECE-4AC3-8A44-7DADFFF5BE31}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{187D6A06-1E90-43EA-85FE-FDC63A425E8A}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -2333,121 +2780,795 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="15.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="36.675" customWidth="1"/>
-    <col min="5" max="5" width="15.675" customWidth="1"/>
-    <col min="6" max="8" width="16.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.8416666666667" style="27" customWidth="1"/>
+    <col min="2" max="2" width="25.5083333333333" style="27" customWidth="1"/>
+    <col min="3" max="3" width="15.0083333333333" style="27" customWidth="1"/>
+    <col min="4" max="4" width="36.675" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15.675" style="27" customWidth="1"/>
+    <col min="6" max="6" width="20.5083333333333" style="27" customWidth="1"/>
+    <col min="7" max="8" width="16.8416666666667" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="31.25" customHeight="1" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="43" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="22">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36">
+        <v>4</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36">
+        <v>2</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36">
+        <v>4</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36">
+        <v>2</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36">
+        <v>2</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36">
+        <v>3</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36">
+        <v>2</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36">
+        <v>2</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A14" s="10">
+        <v>12</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36">
+        <v>2</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36">
+        <v>2</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="36">
+        <v>1</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36">
+        <v>4</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="36">
+        <v>1</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36">
+        <v>2</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="36">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36">
+        <v>3</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36">
+        <v>3</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="36">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36">
+        <v>3</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36">
+        <v>4</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="36">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36">
+        <v>4</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="36">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36">
+        <v>4</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="36">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36">
+        <v>3</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="36">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36">
+        <v>3</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="36">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36">
+        <v>5</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A27" s="10">
+        <v>25</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="36">
+        <v>1</v>
+      </c>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36">
+        <v>3</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A28" s="10">
+        <v>26</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36">
+        <v>2</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A29" s="10">
+        <v>27</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="36">
+        <v>1</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36">
+        <v>5</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A30" s="10">
+        <v>28</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="36">
+        <v>1</v>
+      </c>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36">
+        <v>5</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A31" s="10">
+        <v>29</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="36">
+        <v>1</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36">
+        <v>3</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A32" s="17">
+        <v>30</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="39">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39">
+        <v>4</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="18">
         <v>2</v>
       </c>
     </row>
@@ -2460,250 +3581,1928 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="16.8416666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.8416666666667" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="27.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="36.675" customWidth="1"/>
-    <col min="7" max="7" width="13.0083333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.8416666666667" style="27" customWidth="1"/>
+    <col min="2" max="2" width="16.8416666666667" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23.675" style="27" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="27.0083333333333" style="27" customWidth="1"/>
+    <col min="6" max="6" width="36.675" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.0083333333333" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.5" customHeight="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="31.25" customHeight="1" spans="1:7">
+      <c r="A2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A8" s="35">
+        <v>28</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A9" s="35">
+        <v>29</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A10" s="35">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1008</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A11" s="35">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1009</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A12" s="35">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A13" s="35">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A14" s="35">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A15" s="35">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A16" s="35">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14">
+        <v>1014</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A17" s="35">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14">
+        <v>1015</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A18" s="35">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1016</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A19" s="35">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A20" s="35">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A21" s="35">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1019</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A22" s="35">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A23" s="35">
+        <v>19</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1021</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A24" s="35">
+        <v>20</v>
+      </c>
+      <c r="B24" s="14">
+        <v>1022</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A25" s="35">
         <v>21</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B25" s="14">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A26" s="35">
         <v>22</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="B26" s="14">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A27" s="35">
+        <v>24</v>
+      </c>
+      <c r="B27" s="14">
+        <v>1025</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A28" s="35">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1026</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A29" s="35">
+        <v>26</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1027</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A30" s="35">
+        <v>27</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1028</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A31" s="35">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1029</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A32" s="35">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>1030</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="G32" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A33" s="35">
+        <v>33</v>
+      </c>
+      <c r="B33" s="14">
+        <v>1031</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A34" s="35">
+        <v>34</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1032</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="14">
+        <v>1</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="36"/>
+      <c r="G34" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A35" s="35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="14">
+        <v>1033</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A36" s="35">
+        <v>36</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1034</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A37" s="35">
         <v>23</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="31.25" customHeight="1" spans="1:7">
-      <c r="A2" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B37" s="14">
+        <v>1035</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A38" s="35">
         <v>32</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A4" s="9">
+      <c r="B38" s="14">
+        <v>1036</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="36"/>
+      <c r="G38" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A39" s="35">
+        <v>37</v>
+      </c>
+      <c r="B39" s="14">
+        <v>1037</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1003</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1004</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="E39" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A40" s="35">
         <v>38</v>
       </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1005</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B40" s="14">
+        <v>1038</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="36">
+        <v>1</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A41" s="35">
         <v>39</v>
       </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A8" s="32">
-        <v>37</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1006</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B41" s="14">
+        <v>1039</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="36">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A42" s="35">
+        <v>66</v>
+      </c>
+      <c r="B42" s="14">
+        <v>1040</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="36">
+        <v>1</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A43" s="35">
+        <v>67</v>
+      </c>
+      <c r="B43" s="14">
+        <v>1041</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="36">
+        <v>1</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="36"/>
+      <c r="G43" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A44" s="35">
+        <v>68</v>
+      </c>
+      <c r="B44" s="14">
+        <v>1042</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="36">
+        <v>1</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A45" s="35">
+        <v>69</v>
+      </c>
+      <c r="B45" s="14">
+        <v>1043</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="36">
+        <v>1</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="36"/>
+      <c r="G45" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A46" s="35">
+        <v>70</v>
+      </c>
+      <c r="B46" s="14">
+        <v>1044</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="36">
+        <v>1</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="36"/>
+      <c r="G46" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A47" s="35">
+        <v>71</v>
+      </c>
+      <c r="B47" s="14">
+        <v>1045</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="36">
+        <v>1</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A48" s="35">
+        <v>72</v>
+      </c>
+      <c r="B48" s="14">
+        <v>1046</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="36">
+        <v>1</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A49" s="35">
+        <v>73</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1047</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="36">
+        <v>1</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A50" s="35">
+        <v>74</v>
+      </c>
+      <c r="B50" s="14">
+        <v>1048</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="36">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A51" s="35">
+        <v>75</v>
+      </c>
+      <c r="B51" s="14">
+        <v>1049</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="36">
+        <v>1</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A52" s="35">
+        <v>78</v>
+      </c>
+      <c r="B52" s="14">
+        <v>1050</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="36">
+        <v>1</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A53" s="35">
+        <v>79</v>
+      </c>
+      <c r="B53" s="14">
+        <v>1051</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="36">
+        <v>1</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="36"/>
+      <c r="G53" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A54" s="35">
+        <v>80</v>
+      </c>
+      <c r="B54" s="14">
+        <v>1052</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="36">
+        <v>1</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="36"/>
+      <c r="G54" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A55" s="35">
+        <v>81</v>
+      </c>
+      <c r="B55" s="14">
+        <v>1053</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="36">
+        <v>1</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="36"/>
+      <c r="G55" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A56" s="35">
+        <v>82</v>
+      </c>
+      <c r="B56" s="14">
+        <v>1054</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="36">
+        <v>1</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="36"/>
+      <c r="G56" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A57" s="35">
+        <v>83</v>
+      </c>
+      <c r="B57" s="14">
+        <v>1055</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="36">
+        <v>1</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A58" s="35">
+        <v>84</v>
+      </c>
+      <c r="B58" s="14">
+        <v>1056</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="36">
+        <v>1</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="36"/>
+      <c r="G58" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A59" s="35">
+        <v>85</v>
+      </c>
+      <c r="B59" s="14">
+        <v>1057</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="36">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F59" s="36"/>
+      <c r="G59" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A60" s="35">
+        <v>89</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1058</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="36">
+        <v>1</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A61" s="35">
+        <v>90</v>
+      </c>
+      <c r="B61" s="14">
+        <v>1059</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="36">
+        <v>1</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="36"/>
+      <c r="G61" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A62" s="35">
+        <v>104</v>
+      </c>
+      <c r="B62" s="14">
+        <v>1060</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="36">
+        <v>1</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="36"/>
+      <c r="G62" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A63" s="35">
+        <v>86</v>
+      </c>
+      <c r="B63" s="14">
+        <v>1061</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="36">
+        <v>1</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="36"/>
+      <c r="G63" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A64" s="35">
+        <v>87</v>
+      </c>
+      <c r="B64" s="14">
+        <v>1062</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="36">
+        <v>1</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="36"/>
+      <c r="G64" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A65" s="35">
+        <v>88</v>
+      </c>
+      <c r="B65" s="14">
+        <v>1063</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="36">
+        <v>1</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="36"/>
+      <c r="G65" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A66" s="35">
+        <v>91</v>
+      </c>
+      <c r="B66" s="14">
+        <v>1064</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="36">
+        <v>1</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="36"/>
+      <c r="G66" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A67" s="35">
+        <v>92</v>
+      </c>
+      <c r="B67" s="14">
+        <v>1065</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="36">
+        <v>1</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="36"/>
+      <c r="G67" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A68" s="35">
+        <v>93</v>
+      </c>
+      <c r="B68" s="14">
+        <v>1066</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="36">
+        <v>1</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="36"/>
+      <c r="G68" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A69" s="35">
+        <v>94</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1067</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="36">
+        <v>1</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="36"/>
+      <c r="G69" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A70" s="35">
+        <v>95</v>
+      </c>
+      <c r="B70" s="14">
+        <v>1068</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="36">
+        <v>1</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="36"/>
+      <c r="G70" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A71" s="35">
+        <v>100</v>
+      </c>
+      <c r="B71" s="14">
+        <v>1069</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="36">
+        <v>1</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="36"/>
+      <c r="G71" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A72" s="35">
+        <v>101</v>
+      </c>
+      <c r="B72" s="14">
+        <v>1070</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="36">
+        <v>1</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="36"/>
+      <c r="G72" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A73" s="35">
+        <v>102</v>
+      </c>
+      <c r="B73" s="14">
+        <v>1071</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="36">
+        <v>1</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A74" s="35">
+        <v>103</v>
+      </c>
+      <c r="B74" s="14">
+        <v>1072</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="36">
+        <v>1</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="36"/>
+      <c r="G74" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A75" s="35">
+        <v>105</v>
+      </c>
+      <c r="B75" s="14">
+        <v>1073</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="36">
+        <v>1</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A76" s="35">
         <v>40</v>
       </c>
-      <c r="D8" s="33">
+      <c r="B76" s="14">
+        <v>1074</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="36">
+        <v>1</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" s="36"/>
+      <c r="G76" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A77" s="35">
+        <v>42</v>
+      </c>
+      <c r="B77" s="14">
+        <v>1075</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="36">
+        <v>1</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="36"/>
+      <c r="G77" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A78" s="35">
+        <v>49</v>
+      </c>
+      <c r="B78" s="14">
+        <v>1076</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="36">
+        <v>1</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A79" s="35">
+        <v>47</v>
+      </c>
+      <c r="B79" s="14">
+        <v>1077</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="36">
+        <v>1</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="36"/>
+      <c r="G79" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A80" s="35">
+        <v>48</v>
+      </c>
+      <c r="B80" s="14">
+        <v>1078</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" s="36">
+        <v>1</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="36"/>
+      <c r="G80" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A81" s="35">
+        <v>54</v>
+      </c>
+      <c r="B81" s="14">
+        <v>1079</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D81" s="36">
+        <v>1</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F81" s="36"/>
+      <c r="G81" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A82" s="35">
+        <v>55</v>
+      </c>
+      <c r="B82" s="14">
+        <v>1080</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="36">
+        <v>1</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F82" s="36"/>
+      <c r="G82" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A83" s="35">
+        <v>58</v>
+      </c>
+      <c r="B83" s="14">
+        <v>1081</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83" s="36">
+        <v>1</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F83" s="36"/>
+      <c r="G83" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A84" s="35">
+        <v>64</v>
+      </c>
+      <c r="B84" s="14">
+        <v>1082</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="36">
+        <v>1</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="36"/>
+      <c r="G84" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A85" s="35">
+        <v>63</v>
+      </c>
+      <c r="B85" s="14">
+        <v>1083</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="36">
+        <v>1</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="36"/>
+      <c r="G85" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A86" s="35">
+        <v>501</v>
+      </c>
+      <c r="B86" s="14">
+        <v>1084</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="36">
         <v>2</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A9" s="32">
-        <v>38</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1007</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A10" s="34">
-        <v>39</v>
-      </c>
-      <c r="B10" s="16">
-        <v>1008</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="35">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>44</v>
-      </c>
+      <c r="E86" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="F86" s="36"/>
+      <c r="G86" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A87" s="35">
+        <v>502</v>
+      </c>
+      <c r="B87" s="14">
+        <v>1085</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="36">
+        <v>1</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="36"/>
+      <c r="G87" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A88" s="35">
+        <v>503</v>
+      </c>
+      <c r="B88" s="14">
+        <v>1086</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="36">
+        <v>1</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" s="36"/>
+      <c r="G88" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A89" s="35">
+        <v>504</v>
+      </c>
+      <c r="B89" s="14">
+        <v>1087</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="36">
+        <v>1</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" s="36"/>
+      <c r="G89" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" ht="30.5" customHeight="1" spans="1:7">
+      <c r="A90" s="38">
+        <v>505</v>
+      </c>
+      <c r="B90" s="16">
+        <v>1088</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="39">
+        <v>1</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" s="39"/>
+      <c r="G90" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="5:5">
+      <c r="E91" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2717,7 +5516,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -2731,106 +5530,106 @@
   </cols>
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" ht="30.5" customHeight="1" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="21">
+      <c r="A2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
         <v>2</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>51</v>
+      <c r="F2" s="24" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" ht="63.5" customHeight="1" spans="1:6">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" ht="63.5" customHeight="1" spans="1:6">
-      <c r="A4" s="9">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" ht="63.5" customHeight="1" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" ht="63.5" customHeight="1" spans="1:6">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" ht="63.5" customHeight="1" spans="1:6">
-      <c r="A7" s="14">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="24"/>
+        <v>199</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2841,16 +5640,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="70.75" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
     <col min="5" max="5" width="20.3416666666667" customWidth="1"/>
@@ -2858,87 +5657,234 @@
     <col min="8" max="8" width="10.3416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
-        <v>65</v>
+    <row r="1" s="1" customFormat="1" ht="51" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="2" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11">
         <v>2</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>51</v>
+      <c r="H2" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="B4" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" ht="30.5" customHeight="1" spans="1:8">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" ht="49.5" spans="1:8">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="16">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="2:4">
+      <c r="B13" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="2:2">
+      <c r="B16" s="19" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -793,7 +793,7 @@
     <t>防御力+15</t>
   </si>
   <si>
-    <t>PhyicalArmor{
+    <t>PhyicalArmor {
 "Base" "15"
 }</t>
   </si>
@@ -2304,7 +2304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2350,15 +2350,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2368,9 +2359,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2410,12 +2398,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2423,9 +2405,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2454,9 +2433,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3108,16 +3084,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2D1BBEB6-F41C-4B9A-8509-71EB4C951A4F}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6C30CBA5-616F-497B-8CBE-83FA918246DF}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{384FF952-7ED2-444D-A7CF-E8015C5B6D46}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{59FDBB4B-2281-4396-BCAE-F7F50AF3B3F9}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{9DBB196C-03B5-4579-8C1E-C073DD392753}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{FB7D75D0-EE52-4076-A643-6C15D64CC582}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -3126,7 +3102,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{D891ECC2-AC0D-4FBC-8C9F-CB65A0AAD092}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0DAB23DF-26DA-4DD8-9CE8-A83450DEDC6C}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3442,69 +3418,69 @@
   <sheetPr/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.8416666666667" style="42" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="42" customWidth="1"/>
-    <col min="3" max="3" width="15.0083333333333" style="42" customWidth="1"/>
-    <col min="4" max="4" width="36.675" style="42" customWidth="1"/>
-    <col min="5" max="5" width="15.675" style="42" customWidth="1"/>
-    <col min="6" max="6" width="20.5083333333333" style="42" customWidth="1"/>
-    <col min="7" max="8" width="16.8416666666667" style="42" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="17.8416666666667" style="35" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="15.0083333333333" style="35" customWidth="1"/>
+    <col min="4" max="4" width="36.675" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.675" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.5083333333333" style="35" customWidth="1"/>
+    <col min="7" max="8" width="16.8416666666667" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:8">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="31.25" customHeight="1" spans="1:8">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="46" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3524,7 +3500,7 @@
       <c r="E3" s="9">
         <v>3</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="47" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -3547,10 +3523,10 @@
       <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="48">
         <v>2</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="47" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="13" t="s">
@@ -3574,7 +3550,7 @@
       <c r="E5" s="13">
         <v>4</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="47" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -3598,7 +3574,7 @@
       <c r="E6" s="13">
         <v>2</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="47" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -3622,7 +3598,7 @@
       <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -3646,7 +3622,7 @@
       <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="47" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -3670,7 +3646,7 @@
       <c r="E9" s="13">
         <v>2</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="47" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -3694,7 +3670,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="47" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="13" t="s">
@@ -3718,7 +3694,7 @@
       <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="47" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -3742,7 +3718,7 @@
       <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="47" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -3766,7 +3742,7 @@
       <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="47" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -3790,7 +3766,7 @@
       <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="47" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -3814,7 +3790,7 @@
       <c r="E15" s="13">
         <v>2</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="47" t="s">
         <v>54</v>
       </c>
       <c r="G15" s="13" t="s">
@@ -3838,7 +3814,7 @@
       <c r="E16" s="13">
         <v>4</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="47" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="13" t="s">
@@ -3862,7 +3838,7 @@
       <c r="E17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="47" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -3886,7 +3862,7 @@
       <c r="E18" s="13">
         <v>3</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="47" t="s">
         <v>63</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -3910,7 +3886,7 @@
       <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="47" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="13" t="s">
@@ -3934,7 +3910,7 @@
       <c r="E20" s="13">
         <v>3</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="47" t="s">
         <v>70</v>
       </c>
       <c r="G20" s="13" t="s">
@@ -3958,7 +3934,7 @@
       <c r="E21" s="13">
         <v>4</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="47" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="13" t="s">
@@ -3982,7 +3958,7 @@
       <c r="E22" s="13">
         <v>4</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="47" t="s">
         <v>77</v>
       </c>
       <c r="G22" s="13" t="s">
@@ -4006,7 +3982,7 @@
       <c r="E23" s="13">
         <v>4</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="47" t="s">
         <v>80</v>
       </c>
       <c r="G23" s="13" t="s">
@@ -4030,7 +4006,7 @@
       <c r="E24" s="13">
         <v>3</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="47" t="s">
         <v>83</v>
       </c>
       <c r="G24" s="13" t="s">
@@ -4054,7 +4030,7 @@
       <c r="E25" s="13">
         <v>3</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="47" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="13" t="s">
@@ -4078,7 +4054,7 @@
       <c r="E26" s="13">
         <v>5</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="47" t="s">
         <v>90</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -4102,7 +4078,7 @@
       <c r="E27" s="13">
         <v>3</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="47" t="s">
         <v>93</v>
       </c>
       <c r="G27" s="13" t="s">
@@ -4126,7 +4102,7 @@
       <c r="E28" s="13">
         <v>2</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="47" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="13" t="s">
@@ -4150,7 +4126,7 @@
       <c r="E29" s="13">
         <v>5</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="47" t="s">
         <v>98</v>
       </c>
       <c r="G29" s="13" t="s">
@@ -4174,7 +4150,7 @@
       <c r="E30" s="13">
         <v>5</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="47" t="s">
         <v>102</v>
       </c>
       <c r="G30" s="13" t="s">
@@ -4198,7 +4174,7 @@
       <c r="E31" s="13">
         <v>3</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="47" t="s">
         <v>106</v>
       </c>
       <c r="G31" s="13" t="s">
@@ -4209,26 +4185,26 @@
       </c>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A32" s="18">
+      <c r="A32" s="15">
         <v>30</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="20">
-        <v>1</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20">
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17">
         <v>4</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="18" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4249,62 +4225,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11" style="42" customWidth="1"/>
-    <col min="2" max="2" width="16.8416666666667" style="42" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="27.0083333333333" style="42" customWidth="1"/>
-    <col min="6" max="6" width="36.675" style="42" customWidth="1"/>
-    <col min="7" max="7" width="13.0083333333333" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="11" style="35" customWidth="1"/>
+    <col min="2" max="2" width="16.8416666666667" style="35" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="27.0083333333333" style="35" customWidth="1"/>
+    <col min="6" max="6" width="36.675" style="35" customWidth="1"/>
+    <col min="7" max="7" width="13.0083333333333" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" ht="48.5" customHeight="1" spans="1:7">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="38" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" ht="31.25" customHeight="1" spans="1:7">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A3" s="49">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
       <c r="B3" s="8">
@@ -4327,7 +4303,7 @@
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A4" s="49">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
       <c r="B4" s="13">
@@ -4350,7 +4326,7 @@
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A5" s="49">
+      <c r="A5" s="42">
         <v>3</v>
       </c>
       <c r="B5" s="13">
@@ -4373,7 +4349,7 @@
       </c>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A6" s="49">
+      <c r="A6" s="42">
         <v>4</v>
       </c>
       <c r="B6" s="13">
@@ -4396,7 +4372,7 @@
       </c>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A7" s="49">
+      <c r="A7" s="42">
         <v>5</v>
       </c>
       <c r="B7" s="13">
@@ -4419,7 +4395,7 @@
       </c>
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A8" s="49">
+      <c r="A8" s="42">
         <v>6</v>
       </c>
       <c r="B8" s="13">
@@ -4440,7 +4416,7 @@
       </c>
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A9" s="49">
+      <c r="A9" s="42">
         <v>7</v>
       </c>
       <c r="B9" s="13">
@@ -4461,7 +4437,7 @@
       </c>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A10" s="49">
+      <c r="A10" s="42">
         <v>8</v>
       </c>
       <c r="B10" s="13">
@@ -4482,7 +4458,7 @@
       </c>
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A11" s="49">
+      <c r="A11" s="42">
         <v>9</v>
       </c>
       <c r="B11" s="13">
@@ -4503,7 +4479,7 @@
       </c>
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A12" s="49">
+      <c r="A12" s="42">
         <v>10</v>
       </c>
       <c r="B12" s="13">
@@ -4524,7 +4500,7 @@
       </c>
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A13" s="49">
+      <c r="A13" s="42">
         <v>11</v>
       </c>
       <c r="B13" s="13">
@@ -4545,7 +4521,7 @@
       </c>
     </row>
     <row r="14" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A14" s="49">
+      <c r="A14" s="42">
         <v>12</v>
       </c>
       <c r="B14" s="13">
@@ -4566,7 +4542,7 @@
       </c>
     </row>
     <row r="15" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A15" s="49">
+      <c r="A15" s="42">
         <v>13</v>
       </c>
       <c r="B15" s="13">
@@ -4587,7 +4563,7 @@
       </c>
     </row>
     <row r="16" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A16" s="49">
+      <c r="A16" s="42">
         <v>14</v>
       </c>
       <c r="B16" s="13">
@@ -4608,7 +4584,7 @@
       </c>
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A17" s="49">
+      <c r="A17" s="42">
         <v>15</v>
       </c>
       <c r="B17" s="13">
@@ -4629,7 +4605,7 @@
       </c>
     </row>
     <row r="18" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A18" s="49">
+      <c r="A18" s="42">
         <v>16</v>
       </c>
       <c r="B18" s="13">
@@ -4650,7 +4626,7 @@
       </c>
     </row>
     <row r="19" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A19" s="49">
+      <c r="A19" s="42">
         <v>17</v>
       </c>
       <c r="B19" s="13">
@@ -4671,7 +4647,7 @@
       </c>
     </row>
     <row r="20" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A20" s="49">
+      <c r="A20" s="42">
         <v>18</v>
       </c>
       <c r="B20" s="13">
@@ -4692,7 +4668,7 @@
       </c>
     </row>
     <row r="21" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A21" s="49">
+      <c r="A21" s="42">
         <v>19</v>
       </c>
       <c r="B21" s="13">
@@ -4713,7 +4689,7 @@
       </c>
     </row>
     <row r="22" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A22" s="49">
+      <c r="A22" s="42">
         <v>20</v>
       </c>
       <c r="B22" s="13">
@@ -4734,7 +4710,7 @@
       </c>
     </row>
     <row r="23" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A23" s="49">
+      <c r="A23" s="42">
         <v>21</v>
       </c>
       <c r="B23" s="13">
@@ -4755,7 +4731,7 @@
       </c>
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A24" s="49">
+      <c r="A24" s="42">
         <v>22</v>
       </c>
       <c r="B24" s="13">
@@ -4776,7 +4752,7 @@
       </c>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A25" s="49">
+      <c r="A25" s="42">
         <v>23</v>
       </c>
       <c r="B25" s="13">
@@ -4797,7 +4773,7 @@
       </c>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A26" s="49">
+      <c r="A26" s="42">
         <v>24</v>
       </c>
       <c r="B26" s="13">
@@ -4818,7 +4794,7 @@
       </c>
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A27" s="49">
+      <c r="A27" s="42">
         <v>25</v>
       </c>
       <c r="B27" s="13">
@@ -4839,7 +4815,7 @@
       </c>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A28" s="49">
+      <c r="A28" s="42">
         <v>26</v>
       </c>
       <c r="B28" s="13">
@@ -4860,7 +4836,7 @@
       </c>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A29" s="49">
+      <c r="A29" s="42">
         <v>27</v>
       </c>
       <c r="B29" s="13">
@@ -4881,7 +4857,7 @@
       </c>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A30" s="49">
+      <c r="A30" s="42">
         <v>28</v>
       </c>
       <c r="B30" s="13">
@@ -4902,7 +4878,7 @@
       </c>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A31" s="49">
+      <c r="A31" s="42">
         <v>29</v>
       </c>
       <c r="B31" s="13">
@@ -4923,7 +4899,7 @@
       </c>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A32" s="49">
+      <c r="A32" s="42">
         <v>30</v>
       </c>
       <c r="B32" s="13">
@@ -4944,7 +4920,7 @@
       </c>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A33" s="49">
+      <c r="A33" s="42">
         <v>31</v>
       </c>
       <c r="B33" s="13">
@@ -4965,7 +4941,7 @@
       </c>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A34" s="49">
+      <c r="A34" s="42">
         <v>32</v>
       </c>
       <c r="B34" s="13">
@@ -4986,7 +4962,7 @@
       </c>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A35" s="49">
+      <c r="A35" s="42">
         <v>33</v>
       </c>
       <c r="B35" s="13">
@@ -5007,7 +4983,7 @@
       </c>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A36" s="49">
+      <c r="A36" s="42">
         <v>34</v>
       </c>
       <c r="B36" s="13">
@@ -5028,7 +5004,7 @@
       </c>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A37" s="49">
+      <c r="A37" s="42">
         <v>35</v>
       </c>
       <c r="B37" s="13">
@@ -5049,7 +5025,7 @@
       </c>
     </row>
     <row r="38" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A38" s="49">
+      <c r="A38" s="42">
         <v>36</v>
       </c>
       <c r="B38" s="13">
@@ -5070,7 +5046,7 @@
       </c>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A39" s="49">
+      <c r="A39" s="42">
         <v>37</v>
       </c>
       <c r="B39" s="13">
@@ -5091,7 +5067,7 @@
       </c>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A40" s="49">
+      <c r="A40" s="42">
         <v>38</v>
       </c>
       <c r="B40" s="13">
@@ -5112,7 +5088,7 @@
       </c>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A41" s="49">
+      <c r="A41" s="42">
         <v>39</v>
       </c>
       <c r="B41" s="13">
@@ -5133,7 +5109,7 @@
       </c>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A42" s="49">
+      <c r="A42" s="42">
         <v>40</v>
       </c>
       <c r="B42" s="13">
@@ -5154,7 +5130,7 @@
       </c>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A43" s="49">
+      <c r="A43" s="42">
         <v>41</v>
       </c>
       <c r="B43" s="13">
@@ -5175,7 +5151,7 @@
       </c>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A44" s="49">
+      <c r="A44" s="42">
         <v>42</v>
       </c>
       <c r="B44" s="13">
@@ -5196,7 +5172,7 @@
       </c>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A45" s="49">
+      <c r="A45" s="42">
         <v>43</v>
       </c>
       <c r="B45" s="13">
@@ -5217,7 +5193,7 @@
       </c>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A46" s="49">
+      <c r="A46" s="42">
         <v>44</v>
       </c>
       <c r="B46" s="13">
@@ -5238,7 +5214,7 @@
       </c>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A47" s="49">
+      <c r="A47" s="42">
         <v>45</v>
       </c>
       <c r="B47" s="13">
@@ -5259,7 +5235,7 @@
       </c>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A48" s="49">
+      <c r="A48" s="42">
         <v>46</v>
       </c>
       <c r="B48" s="13">
@@ -5280,7 +5256,7 @@
       </c>
     </row>
     <row r="49" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A49" s="49">
+      <c r="A49" s="42">
         <v>47</v>
       </c>
       <c r="B49" s="13">
@@ -5301,7 +5277,7 @@
       </c>
     </row>
     <row r="50" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A50" s="49">
+      <c r="A50" s="42">
         <v>48</v>
       </c>
       <c r="B50" s="13">
@@ -5322,7 +5298,7 @@
       </c>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A51" s="49">
+      <c r="A51" s="42">
         <v>49</v>
       </c>
       <c r="B51" s="13">
@@ -5343,7 +5319,7 @@
       </c>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A52" s="49">
+      <c r="A52" s="42">
         <v>50</v>
       </c>
       <c r="B52" s="13">
@@ -5364,7 +5340,7 @@
       </c>
     </row>
     <row r="53" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A53" s="49">
+      <c r="A53" s="42">
         <v>51</v>
       </c>
       <c r="B53" s="13">
@@ -5385,7 +5361,7 @@
       </c>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A54" s="49">
+      <c r="A54" s="42">
         <v>52</v>
       </c>
       <c r="B54" s="13">
@@ -5406,7 +5382,7 @@
       </c>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A55" s="49">
+      <c r="A55" s="42">
         <v>53</v>
       </c>
       <c r="B55" s="13">
@@ -5427,7 +5403,7 @@
       </c>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A56" s="49">
+      <c r="A56" s="42">
         <v>54</v>
       </c>
       <c r="B56" s="13">
@@ -5448,7 +5424,7 @@
       </c>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A57" s="49">
+      <c r="A57" s="42">
         <v>55</v>
       </c>
       <c r="B57" s="13">
@@ -5469,7 +5445,7 @@
       </c>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A58" s="49">
+      <c r="A58" s="42">
         <v>56</v>
       </c>
       <c r="B58" s="13">
@@ -5490,7 +5466,7 @@
       </c>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A59" s="49">
+      <c r="A59" s="42">
         <v>57</v>
       </c>
       <c r="B59" s="13">
@@ -5511,7 +5487,7 @@
       </c>
     </row>
     <row r="60" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A60" s="49">
+      <c r="A60" s="42">
         <v>58</v>
       </c>
       <c r="B60" s="13">
@@ -5532,7 +5508,7 @@
       </c>
     </row>
     <row r="61" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A61" s="49">
+      <c r="A61" s="42">
         <v>59</v>
       </c>
       <c r="B61" s="13">
@@ -5553,7 +5529,7 @@
       </c>
     </row>
     <row r="62" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A62" s="49">
+      <c r="A62" s="42">
         <v>60</v>
       </c>
       <c r="B62" s="13">
@@ -5574,7 +5550,7 @@
       </c>
     </row>
     <row r="63" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A63" s="49">
+      <c r="A63" s="42">
         <v>61</v>
       </c>
       <c r="B63" s="13">
@@ -5595,7 +5571,7 @@
       </c>
     </row>
     <row r="64" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A64" s="49">
+      <c r="A64" s="42">
         <v>62</v>
       </c>
       <c r="B64" s="13">
@@ -5616,7 +5592,7 @@
       </c>
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A65" s="49">
+      <c r="A65" s="42">
         <v>63</v>
       </c>
       <c r="B65" s="13">
@@ -5637,7 +5613,7 @@
       </c>
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A66" s="49">
+      <c r="A66" s="42">
         <v>64</v>
       </c>
       <c r="B66" s="13">
@@ -5658,7 +5634,7 @@
       </c>
     </row>
     <row r="67" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A67" s="49">
+      <c r="A67" s="42">
         <v>65</v>
       </c>
       <c r="B67" s="13">
@@ -5679,7 +5655,7 @@
       </c>
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A68" s="49">
+      <c r="A68" s="42">
         <v>66</v>
       </c>
       <c r="B68" s="13">
@@ -5700,7 +5676,7 @@
       </c>
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A69" s="49">
+      <c r="A69" s="42">
         <v>67</v>
       </c>
       <c r="B69" s="13">
@@ -5721,7 +5697,7 @@
       </c>
     </row>
     <row r="70" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A70" s="49">
+      <c r="A70" s="42">
         <v>68</v>
       </c>
       <c r="B70" s="13">
@@ -5742,7 +5718,7 @@
       </c>
     </row>
     <row r="71" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A71" s="49">
+      <c r="A71" s="42">
         <v>69</v>
       </c>
       <c r="B71" s="13">
@@ -5763,7 +5739,7 @@
       </c>
     </row>
     <row r="72" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A72" s="49">
+      <c r="A72" s="42">
         <v>70</v>
       </c>
       <c r="B72" s="13">
@@ -5784,7 +5760,7 @@
       </c>
     </row>
     <row r="73" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A73" s="49">
+      <c r="A73" s="42">
         <v>71</v>
       </c>
       <c r="B73" s="13">
@@ -5805,7 +5781,7 @@
       </c>
     </row>
     <row r="74" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A74" s="49">
+      <c r="A74" s="42">
         <v>72</v>
       </c>
       <c r="B74" s="13">
@@ -5826,7 +5802,7 @@
       </c>
     </row>
     <row r="75" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A75" s="49">
+      <c r="A75" s="42">
         <v>73</v>
       </c>
       <c r="B75" s="13">
@@ -5847,7 +5823,7 @@
       </c>
     </row>
     <row r="76" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A76" s="49">
+      <c r="A76" s="42">
         <v>74</v>
       </c>
       <c r="B76" s="13">
@@ -5868,7 +5844,7 @@
       </c>
     </row>
     <row r="77" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A77" s="49">
+      <c r="A77" s="42">
         <v>75</v>
       </c>
       <c r="B77" s="13">
@@ -5889,7 +5865,7 @@
       </c>
     </row>
     <row r="78" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A78" s="49">
+      <c r="A78" s="42">
         <v>76</v>
       </c>
       <c r="B78" s="13">
@@ -5910,7 +5886,7 @@
       </c>
     </row>
     <row r="79" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A79" s="49">
+      <c r="A79" s="42">
         <v>77</v>
       </c>
       <c r="B79" s="13">
@@ -5931,7 +5907,7 @@
       </c>
     </row>
     <row r="80" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A80" s="49">
+      <c r="A80" s="42">
         <v>78</v>
       </c>
       <c r="B80" s="13">
@@ -5952,7 +5928,7 @@
       </c>
     </row>
     <row r="81" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A81" s="49">
+      <c r="A81" s="42">
         <v>79</v>
       </c>
       <c r="B81" s="13">
@@ -5973,7 +5949,7 @@
       </c>
     </row>
     <row r="82" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A82" s="49">
+      <c r="A82" s="42">
         <v>80</v>
       </c>
       <c r="B82" s="13">
@@ -5994,7 +5970,7 @@
       </c>
     </row>
     <row r="83" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A83" s="49">
+      <c r="A83" s="42">
         <v>81</v>
       </c>
       <c r="B83" s="13">
@@ -6015,7 +5991,7 @@
       </c>
     </row>
     <row r="84" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A84" s="49">
+      <c r="A84" s="42">
         <v>82</v>
       </c>
       <c r="B84" s="13">
@@ -6036,7 +6012,7 @@
       </c>
     </row>
     <row r="85" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A85" s="49">
+      <c r="A85" s="42">
         <v>83</v>
       </c>
       <c r="B85" s="13">
@@ -6057,7 +6033,7 @@
       </c>
     </row>
     <row r="86" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A86" s="49">
+      <c r="A86" s="42">
         <v>84</v>
       </c>
       <c r="B86" s="13">
@@ -6078,7 +6054,7 @@
       </c>
     </row>
     <row r="87" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A87" s="49">
+      <c r="A87" s="42">
         <v>85</v>
       </c>
       <c r="B87" s="13">
@@ -6099,7 +6075,7 @@
       </c>
     </row>
     <row r="88" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A88" s="49">
+      <c r="A88" s="42">
         <v>86</v>
       </c>
       <c r="B88" s="13">
@@ -6120,7 +6096,7 @@
       </c>
     </row>
     <row r="89" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A89" s="49">
+      <c r="A89" s="42">
         <v>87</v>
       </c>
       <c r="B89" s="13">
@@ -6141,23 +6117,23 @@
       </c>
     </row>
     <row r="90" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A90" s="49">
+      <c r="A90" s="42">
         <v>88</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="17">
         <v>1088</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D90" s="20">
-        <v>1</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="50" t="s">
+      <c r="D90" s="17">
+        <v>1</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="18" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6175,8 +6151,8 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6201,732 +6177,732 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="23"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:6">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="27">
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="3" ht="51.5" customHeight="1" spans="1:6">
-      <c r="A3" s="29">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:6">
-      <c r="A4" s="29">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:6">
-      <c r="A5" s="29">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:6">
-      <c r="A6" s="29">
+      <c r="A6" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:6">
-      <c r="A7" s="29">
+      <c r="A7" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="34"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A8" s="29">
+      <c r="A8" s="25">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A9" s="29">
+      <c r="A9" s="25">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="31" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A10" s="29">
+      <c r="A10" s="25">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A11" s="29">
+      <c r="A11" s="25">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A12" s="29">
+      <c r="A12" s="25">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="31" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A13" s="29">
+      <c r="A13" s="25">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="31" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A14" s="29">
+      <c r="A14" s="25">
         <v>12</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="31" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="36"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A15" s="29">
+      <c r="A15" s="25">
         <v>13</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A16" s="29">
+      <c r="A16" s="25">
         <v>14</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A17" s="29">
+      <c r="A17" s="25">
         <v>15</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A18" s="29">
+      <c r="A18" s="25">
         <v>16</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A19" s="29">
+      <c r="A19" s="25">
         <v>17</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A20" s="29">
+      <c r="A20" s="25">
         <v>18</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A21" s="29">
+      <c r="A21" s="25">
         <v>19</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A22" s="29">
+      <c r="A22" s="25">
         <v>20</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="31" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A23" s="29">
+      <c r="A23" s="25">
         <v>21</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A24" s="29">
+      <c r="A24" s="25">
         <v>22</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="31" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A25" s="29">
+      <c r="A25" s="25">
         <v>23</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A26" s="29">
+      <c r="A26" s="25">
         <v>24</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A27" s="29">
+      <c r="A27" s="25">
         <v>25</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="E27" s="36"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A28" s="29">
+      <c r="A28" s="25">
         <v>26</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A29" s="29">
+      <c r="A29" s="25">
         <v>27</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A30" s="29">
+      <c r="A30" s="25">
         <v>28</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A31" s="29">
+      <c r="A31" s="25">
         <v>29</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A32" s="29">
+      <c r="A32" s="25">
         <v>30</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="31" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A33" s="29">
+      <c r="A33" s="25">
         <v>31</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A34" s="29">
+      <c r="A34" s="25">
         <v>32</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="36"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A35" s="29">
+      <c r="A35" s="25">
         <v>33</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="36"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A36" s="29">
+      <c r="A36" s="25">
         <v>34</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="E36" s="36"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A37" s="29">
+      <c r="A37" s="25">
         <v>35</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="31" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="E37" s="36"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A38" s="29">
+      <c r="A38" s="25">
         <v>36</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="31" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A39" s="29">
+      <c r="A39" s="25">
         <v>37</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="31" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A40" s="29">
+      <c r="A40" s="25">
         <v>38</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="31" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A41" s="29">
+      <c r="A41" s="25">
         <v>39</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="31" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="E41" s="36"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A42" s="29">
+      <c r="A42" s="25">
         <v>40</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="31" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="36"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A43" s="29">
+      <c r="A43" s="25">
         <v>41</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="E43" s="36"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A44" s="29">
+      <c r="A44" s="25">
         <v>42</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="31" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="E44" s="36"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A45" s="29">
+      <c r="A45" s="25">
         <v>43</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="31" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="E45" s="36"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A46" s="29">
+      <c r="A46" s="25">
         <v>44</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="31" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="E46" s="36"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A47" s="29">
+      <c r="A47" s="25">
         <v>45</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="31" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="E47" s="36"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A48" s="29">
+      <c r="A48" s="25">
         <v>46</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="31" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="E48" s="36"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A49" s="29">
+      <c r="A49" s="25">
         <v>47</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="31" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="E49" s="36"/>
+      <c r="E49" s="28"/>
     </row>
     <row r="50" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A50" s="29">
+      <c r="A50" s="25">
         <v>48</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="31" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="E50" s="36"/>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A51" s="29">
+      <c r="A51" s="25">
         <v>49</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="31" t="s">
+      <c r="C51" s="26"/>
+      <c r="D51" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="E51" s="36"/>
+      <c r="E51" s="28"/>
     </row>
     <row r="52" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A52" s="29">
+      <c r="A52" s="25">
         <v>50</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="31" t="s">
+      <c r="C52" s="26"/>
+      <c r="D52" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="E52" s="36"/>
+      <c r="E52" s="28"/>
     </row>
     <row r="53" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A53" s="29">
+      <c r="A53" s="25">
         <v>51</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="31" t="s">
+      <c r="C53" s="26"/>
+      <c r="D53" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="E53" s="36"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="54" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A54" s="29">
+      <c r="A54" s="25">
         <v>52</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="C54" s="35"/>
-      <c r="D54" s="31" t="s">
+      <c r="C54" s="26"/>
+      <c r="D54" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="E54" s="36"/>
+      <c r="E54" s="28"/>
     </row>
     <row r="55" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A55" s="29">
+      <c r="A55" s="25">
         <v>53</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C55" s="35"/>
-      <c r="D55" s="31" t="s">
+      <c r="C55" s="26"/>
+      <c r="D55" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="E55" s="36"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" ht="51.5" customHeight="1" spans="1:5">
-      <c r="A56" s="37">
+      <c r="A56" s="31">
         <v>54</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40" t="s">
+      <c r="C56" s="32"/>
+      <c r="D56" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="E56" s="41"/>
+      <c r="E56" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7094,7 +7070,7 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>346</v>
       </c>
       <c r="C8" s="13">
@@ -7103,16 +7079,16 @@
       <c r="D8" s="13">
         <v>10</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:8">
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>347</v>
       </c>
       <c r="C9" s="13">
@@ -7121,16 +7097,16 @@
       <c r="D9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:8">
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>348</v>
       </c>
       <c r="C10" s="13">
@@ -7139,16 +7115,16 @@
       <c r="D10" s="13">
         <v>5</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:8">
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>349</v>
       </c>
       <c r="C11" s="13">
@@ -7157,16 +7133,16 @@
       <c r="D11" s="13">
         <v>10</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" ht="47" customHeight="1" spans="1:8">
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>350</v>
       </c>
       <c r="C12" s="13">
@@ -7175,10 +7151,10 @@
       <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" ht="47" customHeight="1" spans="1:8">
       <c r="A13" s="11">
@@ -7193,16 +7169,16 @@
       <c r="D13" s="13">
         <v>5</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" ht="47" customHeight="1" spans="1:8">
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>352</v>
       </c>
       <c r="C14" s="13">
@@ -7211,16 +7187,16 @@
       <c r="D14" s="13">
         <v>10</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" ht="47" customHeight="1" spans="1:8">
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>353</v>
       </c>
       <c r="C15" s="13">
@@ -7229,10 +7205,10 @@
       <c r="D15" s="13">
         <v>1</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" ht="47" customHeight="1" spans="1:8">
       <c r="A16" s="11">
@@ -7247,16 +7223,16 @@
       <c r="D16" s="13">
         <v>5</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" ht="47" customHeight="1" spans="1:8">
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>355</v>
       </c>
       <c r="C17" s="13">
@@ -7265,16 +7241,16 @@
       <c r="D17" s="13">
         <v>10</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:8">
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>356</v>
       </c>
       <c r="C18" s="13">
@@ -7283,16 +7259,16 @@
       <c r="D18" s="13">
         <v>1</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" ht="47" customHeight="1" spans="1:8">
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>357</v>
       </c>
       <c r="C19" s="13">
@@ -7301,16 +7277,16 @@
       <c r="D19" s="13">
         <v>5</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" ht="47" customHeight="1" spans="1:8">
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>358</v>
       </c>
       <c r="C20" s="13">
@@ -7319,16 +7295,16 @@
       <c r="D20" s="13">
         <v>10</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" ht="47" customHeight="1" spans="1:8">
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>359</v>
       </c>
       <c r="C21" s="13">
@@ -7337,16 +7313,16 @@
       <c r="D21" s="13">
         <v>1</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" ht="47" customHeight="1" spans="1:8">
       <c r="A22" s="11">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>360</v>
       </c>
       <c r="C22" s="13">
@@ -7355,16 +7331,16 @@
       <c r="D22" s="13">
         <v>5</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" ht="47" customHeight="1" spans="1:8">
       <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>361</v>
       </c>
       <c r="C23" s="13">
@@ -7373,16 +7349,16 @@
       <c r="D23" s="13">
         <v>10</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:8">
       <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>362</v>
       </c>
       <c r="C24" s="13">
@@ -7391,16 +7367,16 @@
       <c r="D24" s="13">
         <v>1</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:8">
       <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>363</v>
       </c>
       <c r="C25" s="13">
@@ -7409,16 +7385,16 @@
       <c r="D25" s="13">
         <v>5</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:8">
       <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>364</v>
       </c>
       <c r="C26" s="13">
@@ -7427,16 +7403,16 @@
       <c r="D26" s="13">
         <v>10</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" ht="47" customHeight="1" spans="1:8">
       <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>365</v>
       </c>
       <c r="C27" s="13">
@@ -7445,16 +7421,16 @@
       <c r="D27" s="13">
         <v>1</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" ht="47" customHeight="1" spans="1:8">
       <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>366</v>
       </c>
       <c r="C28" s="13">
@@ -7463,16 +7439,16 @@
       <c r="D28" s="13">
         <v>5</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" ht="47" customHeight="1" spans="1:8">
       <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>367</v>
       </c>
       <c r="C29" s="13">
@@ -7481,16 +7457,16 @@
       <c r="D29" s="13">
         <v>10</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:8">
       <c r="A30" s="11">
         <v>28</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>368</v>
       </c>
       <c r="C30" s="13">
@@ -7499,16 +7475,16 @@
       <c r="D30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:8">
       <c r="A31" s="11">
         <v>29</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>369</v>
       </c>
       <c r="C31" s="13">
@@ -7517,16 +7493,16 @@
       <c r="D31" s="13">
         <v>5</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:8">
       <c r="A32" s="11">
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>370</v>
       </c>
       <c r="C32" s="13">
@@ -7535,16 +7511,16 @@
       <c r="D32" s="13">
         <v>10</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:8">
       <c r="A33" s="11">
         <v>31</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>371</v>
       </c>
       <c r="C33" s="13">
@@ -7553,16 +7529,16 @@
       <c r="D33" s="13">
         <v>1</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:8">
       <c r="A34" s="11">
         <v>32</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>372</v>
       </c>
       <c r="C34" s="13">
@@ -7571,16 +7547,16 @@
       <c r="D34" s="13">
         <v>5</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:8">
       <c r="A35" s="11">
         <v>33</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>373</v>
       </c>
       <c r="C35" s="13">
@@ -7589,16 +7565,16 @@
       <c r="D35" s="13">
         <v>10</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:8">
       <c r="A36" s="11">
         <v>34</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="12" t="s">
         <v>374</v>
       </c>
       <c r="C36" s="13">
@@ -7607,16 +7583,16 @@
       <c r="D36" s="13">
         <v>1</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:8">
       <c r="A37" s="11">
         <v>35</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="12" t="s">
         <v>375</v>
       </c>
       <c r="C37" s="13">
@@ -7625,16 +7601,16 @@
       <c r="D37" s="13">
         <v>5</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" ht="47" customHeight="1" spans="1:8">
       <c r="A38" s="11">
         <v>36</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="12" t="s">
         <v>376</v>
       </c>
       <c r="C38" s="13">
@@ -7643,16 +7619,16 @@
       <c r="D38" s="13">
         <v>10</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" ht="47" customHeight="1" spans="1:8">
       <c r="A39" s="11">
         <v>37</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="12" t="s">
         <v>377</v>
       </c>
       <c r="C39" s="13">
@@ -7661,16 +7637,16 @@
       <c r="D39" s="13">
         <v>1</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" ht="47" customHeight="1" spans="1:8">
       <c r="A40" s="11">
         <v>38</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>378</v>
       </c>
       <c r="C40" s="13">
@@ -7679,16 +7655,16 @@
       <c r="D40" s="13">
         <v>5</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" ht="47" customHeight="1" spans="1:8">
       <c r="A41" s="11">
         <v>39</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>379</v>
       </c>
       <c r="C41" s="13">
@@ -7697,16 +7673,16 @@
       <c r="D41" s="13">
         <v>10</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14"/>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:8">
       <c r="A42" s="11">
         <v>40</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="12" t="s">
         <v>380</v>
       </c>
       <c r="C42" s="13">
@@ -7715,16 +7691,16 @@
       <c r="D42" s="13">
         <v>1</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:8">
       <c r="A43" s="11">
         <v>41</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="12" t="s">
         <v>381</v>
       </c>
       <c r="C43" s="13">
@@ -7733,16 +7709,16 @@
       <c r="D43" s="13">
         <v>5</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:8">
       <c r="A44" s="11">
         <v>42</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="12" t="s">
         <v>382</v>
       </c>
       <c r="C44" s="13">
@@ -7751,16 +7727,16 @@
       <c r="D44" s="13">
         <v>10</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" ht="47" customHeight="1" spans="1:8">
       <c r="A45" s="11">
         <v>43</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
         <v>383</v>
       </c>
       <c r="C45" s="13">
@@ -7769,16 +7745,16 @@
       <c r="D45" s="13">
         <v>1</v>
       </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" ht="47" customHeight="1" spans="1:8">
       <c r="A46" s="11">
         <v>44</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="12" t="s">
         <v>384</v>
       </c>
       <c r="C46" s="13">
@@ -7787,16 +7763,16 @@
       <c r="D46" s="13">
         <v>5</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" ht="47" customHeight="1" spans="1:8">
       <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="12" t="s">
         <v>385</v>
       </c>
       <c r="C47" s="13">
@@ -7805,10 +7781,10 @@
       <c r="D47" s="13">
         <v>10</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" ht="63.5" customHeight="1" spans="1:8">
       <c r="A48" s="11">
@@ -7823,10 +7799,10 @@
       <c r="D48" s="13">
         <v>1</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" ht="63.5" customHeight="1" spans="1:8">
       <c r="A49" s="11">
@@ -7841,10 +7817,10 @@
       <c r="D49" s="13">
         <v>5</v>
       </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" ht="63.5" customHeight="1" spans="1:8">
       <c r="A50" s="11">
@@ -7859,16 +7835,16 @@
       <c r="D50" s="13">
         <v>10</v>
       </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:8">
       <c r="A51" s="11">
         <v>49</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="12" t="s">
         <v>389</v>
       </c>
       <c r="C51" s="13">
@@ -7877,16 +7853,16 @@
       <c r="D51" s="13">
         <v>1</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:8">
       <c r="A52" s="11">
         <v>50</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="12" t="s">
         <v>390</v>
       </c>
       <c r="C52" s="13">
@@ -7895,16 +7871,16 @@
       <c r="D52" s="13">
         <v>5</v>
       </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" ht="30.5" customHeight="1" spans="1:8">
       <c r="A53" s="11">
         <v>51</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="12" t="s">
         <v>391</v>
       </c>
       <c r="C53" s="13">
@@ -7913,16 +7889,16 @@
       <c r="D53" s="13">
         <v>10</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:8">
       <c r="A54" s="11">
         <v>52</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="12" t="s">
         <v>392</v>
       </c>
       <c r="C54" s="13">
@@ -7931,16 +7907,16 @@
       <c r="D54" s="13">
         <v>1</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:8">
       <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="12" t="s">
         <v>393</v>
       </c>
       <c r="C55" s="13">
@@ -7949,16 +7925,16 @@
       <c r="D55" s="13">
         <v>5</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:8">
       <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="12" t="s">
         <v>394</v>
       </c>
       <c r="C56" s="13">
@@ -7967,16 +7943,16 @@
       <c r="D56" s="13">
         <v>10</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:8">
       <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="12" t="s">
         <v>395</v>
       </c>
       <c r="C57" s="13">
@@ -7985,16 +7961,16 @@
       <c r="D57" s="13">
         <v>1</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:8">
       <c r="A58" s="11">
         <v>56</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="12" t="s">
         <v>396</v>
       </c>
       <c r="C58" s="13">
@@ -8003,16 +7979,16 @@
       <c r="D58" s="13">
         <v>5</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:8">
       <c r="A59" s="11">
         <v>57</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="12" t="s">
         <v>397</v>
       </c>
       <c r="C59" s="13">
@@ -8021,16 +7997,16 @@
       <c r="D59" s="13">
         <v>10</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" ht="47" customHeight="1" spans="1:8">
       <c r="A60" s="11">
         <v>58</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="12" t="s">
         <v>398</v>
       </c>
       <c r="C60" s="13">
@@ -8039,16 +8015,16 @@
       <c r="D60" s="13">
         <v>1</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" ht="47" customHeight="1" spans="1:8">
       <c r="A61" s="11">
         <v>59</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="12" t="s">
         <v>399</v>
       </c>
       <c r="C61" s="13">
@@ -8057,28 +8033,28 @@
       <c r="D61" s="13">
         <v>5</v>
       </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" ht="47" customHeight="1" spans="1:8">
-      <c r="A62" s="18">
+      <c r="A62" s="15">
         <v>60</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="17">
         <v>20</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="17">
         <v>10</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="22"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -986,7 +986,7 @@
   </si>
   <si>
     <t>SingleExpeIncrease {
-"BasePercent" "15"
+"Base" "15"
 }</t>
   </si>
   <si>
@@ -994,7 +994,7 @@
   </si>
   <si>
     <t>SoulGetRate {
-"BasePercent" "15"
+"Base" "15"
 }</t>
   </si>
   <si>
@@ -1002,7 +1002,7 @@
   </si>
   <si>
     <t>CriticalChance {
-"BasePercent" "5"
+"Base" "5"
 }</t>
   </si>
   <si>
@@ -1010,7 +1010,7 @@
   </si>
   <si>
     <t>CriticalDamage {
-"BasePercent" "10"
+"Base" "10"
 }</t>
   </si>
   <si>
@@ -1018,7 +1018,7 @@
   </si>
   <si>
     <t>CriticalDamage {
-"BasePercent" "15"
+"Base" "15"
 }</t>
   </si>
   <si>
@@ -1026,7 +1026,7 @@
   </si>
   <si>
     <t>CriticalDamage {
-"BasePercent" "20"
+"Base" "20"
 }</t>
   </si>
   <si>
@@ -1034,7 +1034,7 @@
   </si>
   <si>
     <t>CriticalDamage {
-"BasePercent" "45"
+"Base" "45"
 }</t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
   </si>
   <si>
     <t>DamageBonusMul {
-"BasePercent" "4"
+"Base" "4"
 }</t>
   </si>
   <si>
@@ -1050,7 +1050,7 @@
   </si>
   <si>
     <t>DamageBonusMul {
-"BasePercent" "5"
+"Base" "5"
 }</t>
   </si>
   <si>
@@ -1058,7 +1058,7 @@
   </si>
   <si>
     <t>AllElementDamageBonus {
-"BasePercent" "5"
+"Base" "5"
 }</t>
   </si>
   <si>
@@ -1066,7 +1066,7 @@
   </si>
   <si>
     <t>AllElementDamageBonus {
-"BasePercent" "10"
+"Base" "10"
 }</t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
   </si>
   <si>
     <t>AllElementDamageBonus {
-"BasePercent" "12"
+"Base" "12"
 }</t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
   </si>
   <si>
     <t>AllElementPent {
-"BasePercent" "10"
+"Base" "10"
 }</t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
   </si>
   <si>
     <t>AllElementPent {
-"BasePercent" "15"
+"Base" "15"
 }</t>
   </si>
   <si>
@@ -1098,7 +1098,7 @@
   </si>
   <si>
     <t>DamageBonusMul {
-"BasePercent" "10"
+"Base" "10"
 }</t>
   </si>
   <si>
@@ -1106,7 +1106,7 @@
   </si>
   <si>
     <t>DmgReductionPct {
-"BasePercent" "3"
+"Base" "3"
 }</t>
   </si>
   <si>
@@ -1114,7 +1114,7 @@
   </si>
   <si>
     <t>DmgReductionPct {
-"BasePercent" "5"
+"Base" "5"
 }</t>
   </si>
   <si>
@@ -1138,7 +1138,7 @@
   </si>
   <si>
     <t>DmgReductionPct {
-"BasePercent" "18"
+"Base" "18"
 }</t>
   </si>
   <si>
@@ -3084,16 +3084,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6C30CBA5-616F-497B-8CBE-83FA918246DF}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2D1D6844-E59D-4658-92D4-8FDD38349216}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{59FDBB4B-2281-4396-BCAE-F7F50AF3B3F9}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BA2C2D3E-4674-4EDF-99C0-0ADCB8142F84}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{FB7D75D0-EE52-4076-A643-6C15D64CC582}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C01F9ADB-9195-428B-824E-40EAEA18B29C}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -3102,7 +3102,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0DAB23DF-26DA-4DD8-9CE8-A83450DEDC6C}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5C47578F-2A13-48A9-8D52-2FC9E3237917}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -6151,8 +6151,8 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="22185" windowHeight="10155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="396">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -68,7 +68,7 @@
     <t>consume</t>
   </si>
   <si>
-    <t>attr_type</t>
+    <t>card_ids</t>
   </si>
   <si>
     <t>attr_ids</t>
@@ -407,10 +407,7 @@
     <t>小狗头人</t>
   </si>
   <si>
-    <t>null|null</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>99|99</t>
   </si>
   <si>
     <t>狗头人士兵</t>
@@ -419,9 +416,6 @@
     <t>狗头人长官</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>丘陵巨魔狂战士</t>
   </si>
   <si>
@@ -434,9 +428,6 @@
     <t>黑暗巨魔召唤法师</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>豺狼人刺客</t>
   </si>
   <si>
@@ -530,9 +521,6 @@
     <t>38|39</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>肉山幼崽</t>
   </si>
   <si>
@@ -675,9 +663,6 @@
   </si>
   <si>
     <t>85|87</t>
-  </si>
-  <si>
-    <t>SS</t>
   </si>
   <si>
     <t>祈风使</t>
@@ -3084,16 +3069,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2D1D6844-E59D-4658-92D4-8FDD38349216}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BBDFCF3A-96C7-46F4-BFEF-37BF407AE04C}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BA2C2D3E-4674-4EDF-99C0-0ADCB8142F84}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F3DF4C95-F72D-48B4-8976-5B0DE98BA175}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C01F9ADB-9195-428B-824E-40EAEA18B29C}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2D8636C3-A51C-4840-B93A-0A60BB57BF0E}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -3102,7 +3087,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5C47578F-2A13-48A9-8D52-2FC9E3237917}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A6240B88-3F49-45D8-BDAE-D72C6AF606CB}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3418,8 +3403,8 @@
   <sheetPr/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4219,8 +4204,8 @@
   <sheetPr/>
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4298,8 +4283,8 @@
       <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>126</v>
+      <c r="G3" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:7">
@@ -4310,7 +4295,7 @@
         <v>1002</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="13">
         <v>1</v>
@@ -4321,8 +4306,8 @@
       <c r="F4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>126</v>
+      <c r="G4" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:7">
@@ -4333,7 +4318,7 @@
         <v>1003</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="13">
         <v>1</v>
@@ -4344,8 +4329,8 @@
       <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>129</v>
+      <c r="G5" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:7">
@@ -4356,7 +4341,7 @@
         <v>1004</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
@@ -4367,8 +4352,8 @@
       <c r="F6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>126</v>
+      <c r="G6" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:7">
@@ -4379,7 +4364,7 @@
         <v>1005</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="13">
         <v>1</v>
@@ -4390,8 +4375,8 @@
       <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>126</v>
+      <c r="G7" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="8" ht="30.5" customHeight="1" spans="1:7">
@@ -4402,7 +4387,7 @@
         <v>1006</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
@@ -4411,8 +4396,8 @@
         <v>125</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="14" t="s">
-        <v>126</v>
+      <c r="G8" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="30.5" customHeight="1" spans="1:7">
@@ -4423,7 +4408,7 @@
         <v>1007</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -4432,8 +4417,8 @@
         <v>125</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="14" t="s">
-        <v>134</v>
+      <c r="G9" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="10" ht="30.5" customHeight="1" spans="1:7">
@@ -4444,7 +4429,7 @@
         <v>1008</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -4453,8 +4438,8 @@
         <v>125</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="14" t="s">
-        <v>126</v>
+      <c r="G10" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="30.5" customHeight="1" spans="1:7">
@@ -4465,7 +4450,7 @@
         <v>1009</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -4474,8 +4459,8 @@
         <v>125</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="14" t="s">
-        <v>129</v>
+      <c r="G11" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="12" ht="30.5" customHeight="1" spans="1:7">
@@ -4486,7 +4471,7 @@
         <v>1010</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" s="13">
         <v>1</v>
@@ -4495,8 +4480,8 @@
         <v>125</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="14" t="s">
-        <v>126</v>
+      <c r="G12" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="13" ht="30.5" customHeight="1" spans="1:7">
@@ -4507,7 +4492,7 @@
         <v>1011</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D13" s="13">
         <v>1</v>
@@ -4516,8 +4501,8 @@
         <v>125</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="14" t="s">
-        <v>126</v>
+      <c r="G13" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="30.5" customHeight="1" spans="1:7">
@@ -4528,7 +4513,7 @@
         <v>1012</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D14" s="13">
         <v>1</v>
@@ -4537,8 +4522,8 @@
         <v>125</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="14" t="s">
-        <v>129</v>
+      <c r="G14" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" ht="30.5" customHeight="1" spans="1:7">
@@ -4549,7 +4534,7 @@
         <v>1013</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D15" s="13">
         <v>1</v>
@@ -4558,8 +4543,8 @@
         <v>125</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="14" t="s">
-        <v>134</v>
+      <c r="G15" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="16" ht="30.5" customHeight="1" spans="1:7">
@@ -4570,7 +4555,7 @@
         <v>1014</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D16" s="13">
         <v>1</v>
@@ -4579,8 +4564,8 @@
         <v>125</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="14" t="s">
-        <v>129</v>
+      <c r="G16" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="17" ht="30.5" customHeight="1" spans="1:7">
@@ -4591,7 +4576,7 @@
         <v>1015</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -4600,8 +4585,8 @@
         <v>125</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="14" t="s">
-        <v>129</v>
+      <c r="G17" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="18" ht="30.5" customHeight="1" spans="1:7">
@@ -4612,7 +4597,7 @@
         <v>1016</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18" s="13">
         <v>1</v>
@@ -4621,8 +4606,8 @@
         <v>125</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="14" t="s">
-        <v>129</v>
+      <c r="G18" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="19" ht="30.5" customHeight="1" spans="1:7">
@@ -4633,7 +4618,7 @@
         <v>1017</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D19" s="13">
         <v>1</v>
@@ -4642,8 +4627,8 @@
         <v>125</v>
       </c>
       <c r="F19" s="13"/>
-      <c r="G19" s="14" t="s">
-        <v>129</v>
+      <c r="G19" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="20" ht="30.5" customHeight="1" spans="1:7">
@@ -4654,7 +4639,7 @@
         <v>1018</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -4663,8 +4648,8 @@
         <v>125</v>
       </c>
       <c r="F20" s="13"/>
-      <c r="G20" s="14" t="s">
-        <v>126</v>
+      <c r="G20" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="30.5" customHeight="1" spans="1:7">
@@ -4675,7 +4660,7 @@
         <v>1019</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D21" s="13">
         <v>1</v>
@@ -4684,8 +4669,8 @@
         <v>125</v>
       </c>
       <c r="F21" s="13"/>
-      <c r="G21" s="14" t="s">
-        <v>134</v>
+      <c r="G21" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="30.5" customHeight="1" spans="1:7">
@@ -4696,7 +4681,7 @@
         <v>1020</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D22" s="13">
         <v>1</v>
@@ -4705,8 +4690,8 @@
         <v>125</v>
       </c>
       <c r="F22" s="13"/>
-      <c r="G22" s="14" t="s">
-        <v>129</v>
+      <c r="G22" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="23" ht="30.5" customHeight="1" spans="1:7">
@@ -4717,7 +4702,7 @@
         <v>1021</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D23" s="13">
         <v>1</v>
@@ -4726,8 +4711,8 @@
         <v>125</v>
       </c>
       <c r="F23" s="13"/>
-      <c r="G23" s="14" t="s">
-        <v>126</v>
+      <c r="G23" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="30.5" customHeight="1" spans="1:7">
@@ -4738,7 +4723,7 @@
         <v>1022</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D24" s="13">
         <v>1</v>
@@ -4747,8 +4732,8 @@
         <v>125</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="14" t="s">
-        <v>134</v>
+      <c r="G24" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:7">
@@ -4759,7 +4744,7 @@
         <v>1023</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" s="13">
         <v>1</v>
@@ -4768,8 +4753,8 @@
         <v>125</v>
       </c>
       <c r="F25" s="13"/>
-      <c r="G25" s="14" t="s">
-        <v>126</v>
+      <c r="G25" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:7">
@@ -4780,7 +4765,7 @@
         <v>1024</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D26" s="13">
         <v>1</v>
@@ -4789,8 +4774,8 @@
         <v>125</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="14" t="s">
-        <v>129</v>
+      <c r="G26" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:7">
@@ -4801,7 +4786,7 @@
         <v>1025</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D27" s="13">
         <v>1</v>
@@ -4810,8 +4795,8 @@
         <v>125</v>
       </c>
       <c r="F27" s="13"/>
-      <c r="G27" s="14" t="s">
-        <v>126</v>
+      <c r="G27" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:7">
@@ -4822,7 +4807,7 @@
         <v>1026</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D28" s="13">
         <v>1</v>
@@ -4831,8 +4816,8 @@
         <v>125</v>
       </c>
       <c r="F28" s="13"/>
-      <c r="G28" s="14" t="s">
-        <v>129</v>
+      <c r="G28" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:7">
@@ -4843,7 +4828,7 @@
         <v>1027</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D29" s="13">
         <v>1</v>
@@ -4852,8 +4837,8 @@
         <v>125</v>
       </c>
       <c r="F29" s="13"/>
-      <c r="G29" s="14" t="s">
-        <v>126</v>
+      <c r="G29" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:7">
@@ -4864,7 +4849,7 @@
         <v>1028</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D30" s="13">
         <v>1</v>
@@ -4873,8 +4858,8 @@
         <v>125</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="14" t="s">
-        <v>129</v>
+      <c r="G30" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:7">
@@ -4885,7 +4870,7 @@
         <v>1029</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D31" s="13">
         <v>1</v>
@@ -4894,8 +4879,8 @@
         <v>125</v>
       </c>
       <c r="F31" s="13"/>
-      <c r="G31" s="14" t="s">
-        <v>129</v>
+      <c r="G31" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:7">
@@ -4906,7 +4891,7 @@
         <v>1030</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D32" s="13">
         <v>1</v>
@@ -4915,8 +4900,8 @@
         <v>125</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="14" t="s">
-        <v>134</v>
+      <c r="G32" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="33" ht="30.5" customHeight="1" spans="1:7">
@@ -4927,7 +4912,7 @@
         <v>1031</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
@@ -4936,8 +4921,8 @@
         <v>125</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="14" t="s">
-        <v>129</v>
+      <c r="G33" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="30.5" customHeight="1" spans="1:7">
@@ -4948,7 +4933,7 @@
         <v>1032</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D34" s="13">
         <v>1</v>
@@ -4957,8 +4942,8 @@
         <v>125</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="14" t="s">
-        <v>134</v>
+      <c r="G34" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="35" ht="30.5" customHeight="1" spans="1:7">
@@ -4969,7 +4954,7 @@
         <v>1033</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D35" s="13">
         <v>1</v>
@@ -4978,8 +4963,8 @@
         <v>125</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="14" t="s">
-        <v>129</v>
+      <c r="G35" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="36" ht="30.5" customHeight="1" spans="1:7">
@@ -4990,7 +4975,7 @@
         <v>1034</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D36" s="13">
         <v>1</v>
@@ -4999,8 +4984,8 @@
         <v>125</v>
       </c>
       <c r="F36" s="13"/>
-      <c r="G36" s="14" t="s">
-        <v>134</v>
+      <c r="G36" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="37" ht="30.5" customHeight="1" spans="1:7">
@@ -5011,7 +4996,7 @@
         <v>1035</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D37" s="13">
         <v>1</v>
@@ -5020,8 +5005,8 @@
         <v>125</v>
       </c>
       <c r="F37" s="13"/>
-      <c r="G37" s="14" t="s">
-        <v>126</v>
+      <c r="G37" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="38" ht="30.5" customHeight="1" spans="1:7">
@@ -5032,7 +5017,7 @@
         <v>1036</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D38" s="13">
         <v>1</v>
@@ -5041,8 +5026,8 @@
         <v>125</v>
       </c>
       <c r="F38" s="13"/>
-      <c r="G38" s="14" t="s">
-        <v>134</v>
+      <c r="G38" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="39" ht="30.5" customHeight="1" spans="1:7">
@@ -5053,17 +5038,17 @@
         <v>1037</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D39" s="13">
         <v>2</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F39" s="13"/>
-      <c r="G39" s="14" t="s">
-        <v>166</v>
+      <c r="G39" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="40" ht="30.5" customHeight="1" spans="1:7">
@@ -5074,7 +5059,7 @@
         <v>1038</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D40" s="13">
         <v>1</v>
@@ -5083,8 +5068,8 @@
         <v>125</v>
       </c>
       <c r="F40" s="13"/>
-      <c r="G40" s="14" t="s">
-        <v>134</v>
+      <c r="G40" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="30.5" customHeight="1" spans="1:7">
@@ -5095,7 +5080,7 @@
         <v>1039</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D41" s="13">
         <v>1</v>
@@ -5104,8 +5089,8 @@
         <v>125</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="G41" s="14" t="s">
-        <v>134</v>
+      <c r="G41" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="30.5" customHeight="1" spans="1:7">
@@ -5116,7 +5101,7 @@
         <v>1040</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D42" s="13">
         <v>1</v>
@@ -5125,8 +5110,8 @@
         <v>125</v>
       </c>
       <c r="F42" s="13"/>
-      <c r="G42" s="14" t="s">
-        <v>126</v>
+      <c r="G42" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="30.5" customHeight="1" spans="1:7">
@@ -5137,7 +5122,7 @@
         <v>1041</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
@@ -5146,8 +5131,8 @@
         <v>125</v>
       </c>
       <c r="F43" s="13"/>
-      <c r="G43" s="14" t="s">
-        <v>129</v>
+      <c r="G43" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="44" ht="30.5" customHeight="1" spans="1:7">
@@ -5158,7 +5143,7 @@
         <v>1042</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D44" s="13">
         <v>1</v>
@@ -5167,8 +5152,8 @@
         <v>125</v>
       </c>
       <c r="F44" s="13"/>
-      <c r="G44" s="14" t="s">
-        <v>126</v>
+      <c r="G44" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="45" ht="30.5" customHeight="1" spans="1:7">
@@ -5179,7 +5164,7 @@
         <v>1043</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D45" s="13">
         <v>1</v>
@@ -5188,8 +5173,8 @@
         <v>125</v>
       </c>
       <c r="F45" s="13"/>
-      <c r="G45" s="14" t="s">
-        <v>129</v>
+      <c r="G45" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="46" ht="30.5" customHeight="1" spans="1:7">
@@ -5200,7 +5185,7 @@
         <v>1044</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D46" s="13">
         <v>1</v>
@@ -5209,8 +5194,8 @@
         <v>125</v>
       </c>
       <c r="F46" s="13"/>
-      <c r="G46" s="14" t="s">
-        <v>129</v>
+      <c r="G46" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="47" ht="30.5" customHeight="1" spans="1:7">
@@ -5221,7 +5206,7 @@
         <v>1045</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
@@ -5230,8 +5215,8 @@
         <v>125</v>
       </c>
       <c r="F47" s="13"/>
-      <c r="G47" s="14" t="s">
-        <v>134</v>
+      <c r="G47" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="48" ht="30.5" customHeight="1" spans="1:7">
@@ -5242,7 +5227,7 @@
         <v>1046</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D48" s="13">
         <v>1</v>
@@ -5251,8 +5236,8 @@
         <v>125</v>
       </c>
       <c r="F48" s="13"/>
-      <c r="G48" s="14" t="s">
-        <v>126</v>
+      <c r="G48" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="49" ht="30.5" customHeight="1" spans="1:7">
@@ -5263,7 +5248,7 @@
         <v>1047</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
@@ -5272,8 +5257,8 @@
         <v>125</v>
       </c>
       <c r="F49" s="13"/>
-      <c r="G49" s="14" t="s">
-        <v>126</v>
+      <c r="G49" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="30.5" customHeight="1" spans="1:7">
@@ -5284,7 +5269,7 @@
         <v>1048</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D50" s="13">
         <v>1</v>
@@ -5293,8 +5278,8 @@
         <v>125</v>
       </c>
       <c r="F50" s="13"/>
-      <c r="G50" s="14" t="s">
-        <v>126</v>
+      <c r="G50" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="51" ht="30.5" customHeight="1" spans="1:7">
@@ -5305,7 +5290,7 @@
         <v>1049</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D51" s="13">
         <v>1</v>
@@ -5314,8 +5299,8 @@
         <v>125</v>
       </c>
       <c r="F51" s="13"/>
-      <c r="G51" s="14" t="s">
-        <v>134</v>
+      <c r="G51" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="52" ht="30.5" customHeight="1" spans="1:7">
@@ -5326,7 +5311,7 @@
         <v>1050</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D52" s="13">
         <v>1</v>
@@ -5335,8 +5320,8 @@
         <v>125</v>
       </c>
       <c r="F52" s="13"/>
-      <c r="G52" s="14" t="s">
-        <v>129</v>
+      <c r="G52" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="53" ht="30.5" customHeight="1" spans="1:7">
@@ -5347,7 +5332,7 @@
         <v>1051</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D53" s="13">
         <v>1</v>
@@ -5356,8 +5341,8 @@
         <v>125</v>
       </c>
       <c r="F53" s="13"/>
-      <c r="G53" s="14" t="s">
-        <v>129</v>
+      <c r="G53" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="54" ht="30.5" customHeight="1" spans="1:7">
@@ -5368,7 +5353,7 @@
         <v>1052</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D54" s="13">
         <v>1</v>
@@ -5377,8 +5362,8 @@
         <v>125</v>
       </c>
       <c r="F54" s="13"/>
-      <c r="G54" s="14" t="s">
-        <v>129</v>
+      <c r="G54" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="30.5" customHeight="1" spans="1:7">
@@ -5389,7 +5374,7 @@
         <v>1053</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
@@ -5398,8 +5383,8 @@
         <v>125</v>
       </c>
       <c r="F55" s="13"/>
-      <c r="G55" s="14" t="s">
-        <v>129</v>
+      <c r="G55" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="30.5" customHeight="1" spans="1:7">
@@ -5410,7 +5395,7 @@
         <v>1054</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D56" s="13">
         <v>1</v>
@@ -5419,8 +5404,8 @@
         <v>125</v>
       </c>
       <c r="F56" s="13"/>
-      <c r="G56" s="14" t="s">
-        <v>134</v>
+      <c r="G56" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="57" ht="30.5" customHeight="1" spans="1:7">
@@ -5431,7 +5416,7 @@
         <v>1055</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
@@ -5440,8 +5425,8 @@
         <v>125</v>
       </c>
       <c r="F57" s="13"/>
-      <c r="G57" s="14" t="s">
-        <v>129</v>
+      <c r="G57" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="58" ht="30.5" customHeight="1" spans="1:7">
@@ -5452,7 +5437,7 @@
         <v>1056</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D58" s="13">
         <v>1</v>
@@ -5461,8 +5446,8 @@
         <v>125</v>
       </c>
       <c r="F58" s="13"/>
-      <c r="G58" s="14" t="s">
-        <v>126</v>
+      <c r="G58" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="59" ht="30.5" customHeight="1" spans="1:7">
@@ -5473,7 +5458,7 @@
         <v>1057</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D59" s="13">
         <v>1</v>
@@ -5482,8 +5467,8 @@
         <v>125</v>
       </c>
       <c r="F59" s="13"/>
-      <c r="G59" s="14" t="s">
-        <v>126</v>
+      <c r="G59" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="60" ht="30.5" customHeight="1" spans="1:7">
@@ -5494,7 +5479,7 @@
         <v>1058</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D60" s="13">
         <v>1</v>
@@ -5503,8 +5488,8 @@
         <v>125</v>
       </c>
       <c r="F60" s="13"/>
-      <c r="G60" s="14" t="s">
-        <v>129</v>
+      <c r="G60" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="61" ht="30.5" customHeight="1" spans="1:7">
@@ -5515,7 +5500,7 @@
         <v>1059</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D61" s="13">
         <v>1</v>
@@ -5524,8 +5509,8 @@
         <v>125</v>
       </c>
       <c r="F61" s="13"/>
-      <c r="G61" s="14" t="s">
-        <v>129</v>
+      <c r="G61" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="62" ht="30.5" customHeight="1" spans="1:7">
@@ -5536,7 +5521,7 @@
         <v>1060</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D62" s="13">
         <v>1</v>
@@ -5545,8 +5530,8 @@
         <v>125</v>
       </c>
       <c r="F62" s="13"/>
-      <c r="G62" s="14" t="s">
-        <v>126</v>
+      <c r="G62" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="63" ht="30.5" customHeight="1" spans="1:7">
@@ -5557,7 +5542,7 @@
         <v>1061</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D63" s="13">
         <v>1</v>
@@ -5566,8 +5551,8 @@
         <v>125</v>
       </c>
       <c r="F63" s="13"/>
-      <c r="G63" s="14" t="s">
-        <v>134</v>
+      <c r="G63" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="64" ht="30.5" customHeight="1" spans="1:7">
@@ -5578,7 +5563,7 @@
         <v>1062</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" s="13">
         <v>1</v>
@@ -5587,8 +5572,8 @@
         <v>125</v>
       </c>
       <c r="F64" s="13"/>
-      <c r="G64" s="14" t="s">
-        <v>134</v>
+      <c r="G64" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="65" ht="30.5" customHeight="1" spans="1:7">
@@ -5599,7 +5584,7 @@
         <v>1063</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D65" s="13">
         <v>1</v>
@@ -5608,8 +5593,8 @@
         <v>125</v>
       </c>
       <c r="F65" s="13"/>
-      <c r="G65" s="14" t="s">
-        <v>134</v>
+      <c r="G65" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="66" ht="30.5" customHeight="1" spans="1:7">
@@ -5620,7 +5605,7 @@
         <v>1064</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D66" s="13">
         <v>1</v>
@@ -5629,8 +5614,8 @@
         <v>125</v>
       </c>
       <c r="F66" s="13"/>
-      <c r="G66" s="14" t="s">
-        <v>126</v>
+      <c r="G66" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="67" ht="30.5" customHeight="1" spans="1:7">
@@ -5641,7 +5626,7 @@
         <v>1065</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D67" s="13">
         <v>1</v>
@@ -5650,8 +5635,8 @@
         <v>125</v>
       </c>
       <c r="F67" s="13"/>
-      <c r="G67" s="14" t="s">
-        <v>129</v>
+      <c r="G67" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="30.5" customHeight="1" spans="1:7">
@@ -5662,7 +5647,7 @@
         <v>1066</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D68" s="13">
         <v>1</v>
@@ -5671,8 +5656,8 @@
         <v>125</v>
       </c>
       <c r="F68" s="13"/>
-      <c r="G68" s="14" t="s">
-        <v>126</v>
+      <c r="G68" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="30.5" customHeight="1" spans="1:7">
@@ -5683,7 +5668,7 @@
         <v>1067</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D69" s="13">
         <v>1</v>
@@ -5692,8 +5677,8 @@
         <v>125</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="14" t="s">
-        <v>126</v>
+      <c r="G69" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="30.5" customHeight="1" spans="1:7">
@@ -5704,7 +5689,7 @@
         <v>1068</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D70" s="13">
         <v>1</v>
@@ -5713,8 +5698,8 @@
         <v>125</v>
       </c>
       <c r="F70" s="13"/>
-      <c r="G70" s="14" t="s">
-        <v>129</v>
+      <c r="G70" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="71" ht="30.5" customHeight="1" spans="1:7">
@@ -5725,7 +5710,7 @@
         <v>1069</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D71" s="13">
         <v>1</v>
@@ -5734,8 +5719,8 @@
         <v>125</v>
       </c>
       <c r="F71" s="13"/>
-      <c r="G71" s="14" t="s">
-        <v>129</v>
+      <c r="G71" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="72" ht="30.5" customHeight="1" spans="1:7">
@@ -5746,7 +5731,7 @@
         <v>1070</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D72" s="13">
         <v>1</v>
@@ -5755,8 +5740,8 @@
         <v>125</v>
       </c>
       <c r="F72" s="13"/>
-      <c r="G72" s="14" t="s">
-        <v>134</v>
+      <c r="G72" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="73" ht="30.5" customHeight="1" spans="1:7">
@@ -5767,7 +5752,7 @@
         <v>1071</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D73" s="13">
         <v>1</v>
@@ -5776,8 +5761,8 @@
         <v>125</v>
       </c>
       <c r="F73" s="13"/>
-      <c r="G73" s="14" t="s">
-        <v>134</v>
+      <c r="G73" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="74" ht="30.5" customHeight="1" spans="1:7">
@@ -5788,7 +5773,7 @@
         <v>1072</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D74" s="13">
         <v>1</v>
@@ -5797,8 +5782,8 @@
         <v>125</v>
       </c>
       <c r="F74" s="13"/>
-      <c r="G74" s="14" t="s">
-        <v>126</v>
+      <c r="G74" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="75" ht="30.5" customHeight="1" spans="1:7">
@@ -5809,7 +5794,7 @@
         <v>1073</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D75" s="13">
         <v>1</v>
@@ -5818,8 +5803,8 @@
         <v>125</v>
       </c>
       <c r="F75" s="13"/>
-      <c r="G75" s="14" t="s">
-        <v>126</v>
+      <c r="G75" s="14">
+        <v>2</v>
       </c>
     </row>
     <row r="76" ht="30.5" customHeight="1" spans="1:7">
@@ -5830,7 +5815,7 @@
         <v>1074</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D76" s="13">
         <v>1</v>
@@ -5839,8 +5824,8 @@
         <v>125</v>
       </c>
       <c r="F76" s="13"/>
-      <c r="G76" s="14" t="s">
-        <v>129</v>
+      <c r="G76" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="77" ht="30.5" customHeight="1" spans="1:7">
@@ -5851,7 +5836,7 @@
         <v>1075</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D77" s="13">
         <v>1</v>
@@ -5860,8 +5845,8 @@
         <v>125</v>
       </c>
       <c r="F77" s="13"/>
-      <c r="G77" s="14" t="s">
-        <v>129</v>
+      <c r="G77" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="78" ht="30.5" customHeight="1" spans="1:7">
@@ -5872,7 +5857,7 @@
         <v>1076</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D78" s="13">
         <v>1</v>
@@ -5881,8 +5866,8 @@
         <v>125</v>
       </c>
       <c r="F78" s="13"/>
-      <c r="G78" s="14" t="s">
-        <v>129</v>
+      <c r="G78" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="79" ht="30.5" customHeight="1" spans="1:7">
@@ -5893,7 +5878,7 @@
         <v>1077</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D79" s="13">
         <v>1</v>
@@ -5902,8 +5887,8 @@
         <v>125</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="14" t="s">
-        <v>134</v>
+      <c r="G79" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="30.5" customHeight="1" spans="1:7">
@@ -5914,7 +5899,7 @@
         <v>1078</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D80" s="13">
         <v>1</v>
@@ -5923,8 +5908,8 @@
         <v>125</v>
       </c>
       <c r="F80" s="13"/>
-      <c r="G80" s="14" t="s">
-        <v>134</v>
+      <c r="G80" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="81" ht="30.5" customHeight="1" spans="1:7">
@@ -5935,7 +5920,7 @@
         <v>1079</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D81" s="13">
         <v>1</v>
@@ -5944,8 +5929,8 @@
         <v>125</v>
       </c>
       <c r="F81" s="13"/>
-      <c r="G81" s="14" t="s">
-        <v>129</v>
+      <c r="G81" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="82" ht="30.5" customHeight="1" spans="1:7">
@@ -5956,7 +5941,7 @@
         <v>1080</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D82" s="13">
         <v>1</v>
@@ -5965,8 +5950,8 @@
         <v>125</v>
       </c>
       <c r="F82" s="13"/>
-      <c r="G82" s="14" t="s">
-        <v>129</v>
+      <c r="G82" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="83" ht="30.5" customHeight="1" spans="1:7">
@@ -5977,7 +5962,7 @@
         <v>1081</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D83" s="13">
         <v>1</v>
@@ -5986,8 +5971,8 @@
         <v>125</v>
       </c>
       <c r="F83" s="13"/>
-      <c r="G83" s="14" t="s">
-        <v>129</v>
+      <c r="G83" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="84" ht="30.5" customHeight="1" spans="1:7">
@@ -5998,7 +5983,7 @@
         <v>1082</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D84" s="13">
         <v>1</v>
@@ -6007,8 +5992,8 @@
         <v>125</v>
       </c>
       <c r="F84" s="13"/>
-      <c r="G84" s="14" t="s">
-        <v>134</v>
+      <c r="G84" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="85" ht="30.5" customHeight="1" spans="1:7">
@@ -6019,7 +6004,7 @@
         <v>1083</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D85" s="13">
         <v>1</v>
@@ -6028,8 +6013,8 @@
         <v>125</v>
       </c>
       <c r="F85" s="13"/>
-      <c r="G85" s="14" t="s">
-        <v>134</v>
+      <c r="G85" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="86" ht="30.5" customHeight="1" spans="1:7">
@@ -6040,17 +6025,17 @@
         <v>1084</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D86" s="13">
         <v>2</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F86" s="13"/>
-      <c r="G86" s="14" t="s">
-        <v>215</v>
+      <c r="G86" s="14">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="30.5" customHeight="1" spans="1:7">
@@ -6061,7 +6046,7 @@
         <v>1085</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D87" s="13">
         <v>1</v>
@@ -6070,8 +6055,8 @@
         <v>125</v>
       </c>
       <c r="F87" s="13"/>
-      <c r="G87" s="14" t="s">
-        <v>166</v>
+      <c r="G87" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="30.5" customHeight="1" spans="1:7">
@@ -6082,7 +6067,7 @@
         <v>1086</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D88" s="13">
         <v>1</v>
@@ -6091,8 +6076,8 @@
         <v>125</v>
       </c>
       <c r="F88" s="13"/>
-      <c r="G88" s="14" t="s">
-        <v>134</v>
+      <c r="G88" s="14">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="30.5" customHeight="1" spans="1:7">
@@ -6103,7 +6088,7 @@
         <v>1087</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D89" s="13">
         <v>1</v>
@@ -6112,8 +6097,8 @@
         <v>125</v>
       </c>
       <c r="F89" s="13"/>
-      <c r="G89" s="14" t="s">
-        <v>166</v>
+      <c r="G89" s="14">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="30.5" customHeight="1" spans="1:7">
@@ -6124,7 +6109,7 @@
         <v>1088</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D90" s="17">
         <v>1</v>
@@ -6133,8 +6118,8 @@
         <v>125</v>
       </c>
       <c r="F90" s="17"/>
-      <c r="G90" s="18" t="s">
-        <v>134</v>
+      <c r="G90" s="18">
+        <v>4</v>
       </c>
     </row>
     <row r="91" ht="16.5" customHeight="1" spans="5:5">
@@ -6151,8 +6136,8 @@
   <sheetPr/>
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6167,13 +6152,13 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -6181,11 +6166,11 @@
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -6194,7 +6179,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" ht="51.5" customHeight="1" spans="1:6">
@@ -6202,11 +6187,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
@@ -6216,11 +6201,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="27" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="30"/>
@@ -6230,11 +6215,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
@@ -6244,11 +6229,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
@@ -6258,11 +6243,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="30"/>
@@ -6272,11 +6257,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -6285,11 +6270,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E9" s="28"/>
     </row>
@@ -6298,11 +6283,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E10" s="28"/>
     </row>
@@ -6311,11 +6296,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E11" s="28"/>
     </row>
@@ -6324,11 +6309,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E12" s="28"/>
     </row>
@@ -6337,11 +6322,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E13" s="28"/>
     </row>
@@ -6350,11 +6335,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E14" s="28"/>
     </row>
@@ -6363,11 +6348,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E15" s="28"/>
     </row>
@@ -6376,11 +6361,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E16" s="28"/>
     </row>
@@ -6389,11 +6374,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E17" s="28"/>
     </row>
@@ -6402,11 +6387,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E18" s="28"/>
     </row>
@@ -6415,11 +6400,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E19" s="28"/>
     </row>
@@ -6428,11 +6413,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E20" s="28"/>
     </row>
@@ -6441,11 +6426,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E21" s="28"/>
     </row>
@@ -6454,11 +6439,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -6467,11 +6452,11 @@
         <v>21</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E23" s="28"/>
     </row>
@@ -6480,11 +6465,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="27" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E24" s="28"/>
     </row>
@@ -6493,11 +6478,11 @@
         <v>23</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E25" s="28"/>
     </row>
@@ -6506,11 +6491,11 @@
         <v>24</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E26" s="28"/>
     </row>
@@ -6519,11 +6504,11 @@
         <v>25</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E27" s="28"/>
     </row>
@@ -6532,11 +6517,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E28" s="28"/>
     </row>
@@ -6545,11 +6530,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E29" s="28"/>
     </row>
@@ -6558,11 +6543,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="27" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E30" s="28"/>
     </row>
@@ -6571,11 +6556,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E31" s="28"/>
     </row>
@@ -6584,11 +6569,11 @@
         <v>30</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="27" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E32" s="28"/>
     </row>
@@ -6597,11 +6582,11 @@
         <v>31</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="27" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E33" s="28"/>
     </row>
@@ -6610,11 +6595,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="27" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E34" s="28"/>
     </row>
@@ -6623,11 +6608,11 @@
         <v>33</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="27" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E35" s="28"/>
     </row>
@@ -6636,11 +6621,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="27" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E36" s="28"/>
     </row>
@@ -6649,11 +6634,11 @@
         <v>35</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E37" s="28"/>
     </row>
@@ -6662,11 +6647,11 @@
         <v>36</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="27" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E38" s="28"/>
     </row>
@@ -6675,11 +6660,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E39" s="28"/>
     </row>
@@ -6688,11 +6673,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E40" s="28"/>
     </row>
@@ -6701,11 +6686,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E41" s="28"/>
     </row>
@@ -6714,11 +6699,11 @@
         <v>40</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E42" s="28"/>
     </row>
@@ -6727,11 +6712,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="27" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E43" s="28"/>
     </row>
@@ -6740,11 +6725,11 @@
         <v>42</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="27" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E44" s="28"/>
     </row>
@@ -6753,11 +6738,11 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="27" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E45" s="28"/>
     </row>
@@ -6766,11 +6751,11 @@
         <v>44</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="27" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E46" s="28"/>
     </row>
@@ -6779,11 +6764,11 @@
         <v>45</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="27" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E47" s="28"/>
     </row>
@@ -6792,11 +6777,11 @@
         <v>46</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E48" s="28"/>
     </row>
@@ -6805,11 +6790,11 @@
         <v>47</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="27" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E49" s="28"/>
     </row>
@@ -6818,11 +6803,11 @@
         <v>48</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="27" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E50" s="28"/>
     </row>
@@ -6831,11 +6816,11 @@
         <v>49</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E51" s="28"/>
     </row>
@@ -6844,11 +6829,11 @@
         <v>50</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="27" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E52" s="28"/>
     </row>
@@ -6857,11 +6842,11 @@
         <v>51</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E53" s="28"/>
     </row>
@@ -6870,11 +6855,11 @@
         <v>52</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E54" s="28"/>
     </row>
@@ -6883,11 +6868,11 @@
         <v>53</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="27" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E55" s="28"/>
     </row>
@@ -6896,11 +6881,11 @@
         <v>54</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="33" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E56" s="34"/>
     </row>
@@ -6916,7 +6901,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -6932,24 +6917,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" ht="30.5" customHeight="1" spans="1:8">
@@ -6958,13 +6943,13 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -6973,7 +6958,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" ht="30.5" customHeight="1" spans="1:8">
@@ -6981,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -6999,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -7017,7 +7002,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7035,7 +7020,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -7053,7 +7038,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -7071,7 +7056,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -7089,7 +7074,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C9" s="13">
         <v>3</v>
@@ -7107,7 +7092,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
@@ -7125,7 +7110,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
@@ -7143,7 +7128,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C12" s="13">
         <v>4</v>
@@ -7161,7 +7146,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C13" s="13">
         <v>4</v>
@@ -7179,7 +7164,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C14" s="13">
         <v>4</v>
@@ -7197,7 +7182,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C15" s="13">
         <v>5</v>
@@ -7215,7 +7200,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C16" s="13">
         <v>5</v>
@@ -7233,7 +7218,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C17" s="13">
         <v>5</v>
@@ -7251,7 +7236,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C18" s="13">
         <v>6</v>
@@ -7269,7 +7254,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C19" s="13">
         <v>6</v>
@@ -7287,7 +7272,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C20" s="13">
         <v>6</v>
@@ -7305,7 +7290,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C21" s="13">
         <v>7</v>
@@ -7323,7 +7308,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C22" s="13">
         <v>7</v>
@@ -7341,7 +7326,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C23" s="13">
         <v>7</v>
@@ -7359,7 +7344,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C24" s="13">
         <v>8</v>
@@ -7377,7 +7362,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -7395,7 +7380,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C26" s="13">
         <v>8</v>
@@ -7413,7 +7398,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C27" s="13">
         <v>9</v>
@@ -7431,7 +7416,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C28" s="13">
         <v>9</v>
@@ -7449,7 +7434,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C29" s="13">
         <v>9</v>
@@ -7467,7 +7452,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C30" s="13">
         <v>10</v>
@@ -7485,7 +7470,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C31" s="13">
         <v>10</v>
@@ -7503,7 +7488,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C32" s="13">
         <v>10</v>
@@ -7521,7 +7506,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C33" s="13">
         <v>11</v>
@@ -7539,7 +7524,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C34" s="13">
         <v>11</v>
@@ -7557,7 +7542,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C35" s="13">
         <v>11</v>
@@ -7575,7 +7560,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C36" s="13">
         <v>12</v>
@@ -7593,7 +7578,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C37" s="13">
         <v>12</v>
@@ -7611,7 +7596,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C38" s="13">
         <v>12</v>
@@ -7629,7 +7614,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C39" s="13">
         <v>13</v>
@@ -7647,7 +7632,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C40" s="13">
         <v>13</v>
@@ -7665,7 +7650,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C41" s="13">
         <v>13</v>
@@ -7683,7 +7668,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C42" s="13">
         <v>14</v>
@@ -7701,7 +7686,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C43" s="13">
         <v>14</v>
@@ -7719,7 +7704,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C44" s="13">
         <v>14</v>
@@ -7737,7 +7722,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C45" s="13">
         <v>15</v>
@@ -7755,7 +7740,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C46" s="13">
         <v>15</v>
@@ -7773,7 +7758,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C47" s="13">
         <v>15</v>
@@ -7791,7 +7776,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C48" s="13">
         <v>16</v>
@@ -7809,7 +7794,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C49" s="13">
         <v>16</v>
@@ -7827,7 +7812,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C50" s="13">
         <v>16</v>
@@ -7845,7 +7830,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C51" s="13">
         <v>17</v>
@@ -7863,7 +7848,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C52" s="13">
         <v>17</v>
@@ -7881,7 +7866,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C53" s="13">
         <v>17</v>
@@ -7899,7 +7884,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C54" s="13">
         <v>18</v>
@@ -7917,7 +7902,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C55" s="13">
         <v>18</v>
@@ -7935,7 +7920,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C56" s="13">
         <v>18</v>
@@ -7953,7 +7938,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C57" s="13">
         <v>19</v>
@@ -7971,7 +7956,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C58" s="13">
         <v>19</v>
@@ -7989,7 +7974,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C59" s="13">
         <v>19</v>
@@ -8007,7 +7992,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C60" s="13">
         <v>20</v>
@@ -8025,7 +8010,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C61" s="13">
         <v>20</v>
@@ -8043,7 +8028,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C62" s="17">
         <v>20</v>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="438">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -56,6 +56,9 @@
     <t>羁绊技能id</t>
   </si>
   <si>
+    <t>地狱熊怪粉碎者</t>
+  </si>
+  <si>
     <t>pictuer_suit</t>
   </si>
   <si>
@@ -77,93 +80,117 @@
     <t>ability_id</t>
   </si>
   <si>
-    <t>狗头人联盟</t>
-  </si>
-  <si>
-    <t>abyssal_underlord_pit_of_malice</t>
-  </si>
-  <si>
-    <t>1|2|3</t>
+    <t>小狗头人</t>
+  </si>
+  <si>
+    <t>游荡的鬼魂</t>
+  </si>
+  <si>
+    <t>33|64|95</t>
   </si>
   <si>
     <t>11|29|1</t>
   </si>
   <si>
-    <t>丘陵巨魔的狂躁</t>
-  </si>
-  <si>
-    <t>ancient_apparition_chilling_touch</t>
+    <t>冰川鬼魂</t>
+  </si>
+  <si>
+    <t>爱吃石甲虫</t>
+  </si>
+  <si>
+    <t>74|14</t>
+  </si>
+  <si>
+    <t>14|22</t>
+  </si>
+  <si>
+    <t>绿洲鬼魂</t>
+  </si>
+  <si>
+    <t>龟龟，我的龟龟</t>
+  </si>
+  <si>
+    <t>68|108|17|40</t>
+  </si>
+  <si>
+    <t>37|46|21|29</t>
+  </si>
+  <si>
+    <t>雷电之魂</t>
+  </si>
+  <si>
+    <t>极地吉祥物</t>
+  </si>
+  <si>
+    <t>76|77</t>
+  </si>
+  <si>
+    <t>23|3</t>
+  </si>
+  <si>
+    <t>幼年沙龙</t>
+  </si>
+  <si>
+    <t>是鹫不是舅</t>
+  </si>
+  <si>
+    <t>42|43|44|106</t>
+  </si>
+  <si>
+    <t>43|26|31</t>
+  </si>
+  <si>
+    <t>绿洲精灵幼龙</t>
+  </si>
+  <si>
+    <t>冰与火S</t>
+  </si>
+  <si>
+    <t>5|71</t>
+  </si>
+  <si>
+    <t>10|9</t>
+  </si>
+  <si>
+    <t>炼狱亡魂</t>
+  </si>
+  <si>
+    <t>沙漠和绿洲S</t>
+  </si>
+  <si>
+    <t>97|98</t>
+  </si>
+  <si>
+    <t>18|11</t>
+  </si>
+  <si>
+    <t>炼狱狼</t>
+  </si>
+  <si>
+    <t>炼狱disco</t>
   </si>
   <si>
     <t>4|5</t>
   </si>
   <si>
-    <t>14|22</t>
-  </si>
-  <si>
-    <t>复生的黑暗巨魔</t>
-  </si>
-  <si>
-    <t>4|5|6|7</t>
-  </si>
-  <si>
-    <t>37|46|21|29</t>
-  </si>
-  <si>
-    <t>豺狼人刺客组织</t>
-  </si>
-  <si>
-    <t>8|9</t>
-  </si>
-  <si>
-    <t>23|3</t>
-  </si>
-  <si>
-    <t>鬼魂之幽冥之主</t>
-  </si>
-  <si>
-    <t>10|11|12|13</t>
-  </si>
-  <si>
-    <t>43|26|31</t>
-  </si>
-  <si>
-    <t>鹰眼女妖的狂妄</t>
-  </si>
-  <si>
-    <t>14|15</t>
-  </si>
-  <si>
-    <t>10|9</t>
-  </si>
-  <si>
-    <t>半人马的征服</t>
-  </si>
-  <si>
-    <t>16|17</t>
-  </si>
-  <si>
-    <t>18|11</t>
-  </si>
-  <si>
-    <t>野狼？？？</t>
-  </si>
-  <si>
-    <t>18|19</t>
-  </si>
-  <si>
     <t>37|37</t>
   </si>
   <si>
-    <t>萨特阵营的邪恶魔法</t>
-  </si>
-  <si>
-    <t>20|21|22</t>
+    <t>烈焰战龟</t>
+  </si>
+  <si>
+    <t>讨厌的手</t>
+  </si>
+  <si>
+    <t>39|102|105</t>
   </si>
   <si>
     <t>7|19|44</t>
   </si>
   <si>
+    <t>雷霆晶龟</t>
+  </si>
+  <si>
     <t>食人魔的先驱者</t>
   </si>
   <si>
@@ -173,6 +200,9 @@
     <t>45|31</t>
   </si>
   <si>
+    <t>冰川幼龟</t>
+  </si>
+  <si>
     <t>来自地狱的熊</t>
   </si>
   <si>
@@ -182,6 +212,9 @@
     <t>43|34</t>
   </si>
   <si>
+    <t>沙漠金龟</t>
+  </si>
+  <si>
     <t>被折翼的枭兽</t>
   </si>
   <si>
@@ -191,6 +224,9 @@
     <t>24|9</t>
   </si>
   <si>
+    <t>炼狱石甲虫</t>
+  </si>
+  <si>
     <t>黑龙的诅咒</t>
   </si>
   <si>
@@ -200,6 +236,9 @@
     <t>6|28</t>
   </si>
   <si>
+    <t>冰晶石甲虫</t>
+  </si>
+  <si>
     <t>来自远古的恐惧</t>
   </si>
   <si>
@@ -209,6 +248,9 @@
     <t>52|51|13|49</t>
   </si>
   <si>
+    <t>霹雳怪手</t>
+  </si>
+  <si>
     <t>傀儡的主人</t>
   </si>
   <si>
@@ -218,6 +260,9 @@
     <t>17|17</t>
   </si>
   <si>
+    <t>狂沙怪手</t>
+  </si>
+  <si>
     <t>不朽之守护</t>
   </si>
   <si>
@@ -230,6 +275,9 @@
     <t>9|60</t>
   </si>
   <si>
+    <t>绿洲怪手</t>
+  </si>
+  <si>
     <t>象牙海民的亡灵</t>
   </si>
   <si>
@@ -239,6 +287,9 @@
     <t>51|26|29</t>
   </si>
   <si>
+    <t>雷羽鹫</t>
+  </si>
+  <si>
     <t>传说的象牙三圣母</t>
   </si>
   <si>
@@ -248,6 +299,9 @@
     <t>37|10|5</t>
   </si>
   <si>
+    <t>雷山鹫</t>
+  </si>
+  <si>
     <t>遥远的寒霜巨兽</t>
   </si>
   <si>
@@ -260,6 +314,9 @@
     <t>32|44</t>
   </si>
   <si>
+    <t>雷翼鹫</t>
+  </si>
+  <si>
     <t>喜欢做鳄梦</t>
   </si>
   <si>
@@ -269,6 +326,9 @@
     <t>37|34|29|31</t>
   </si>
   <si>
+    <t>毒风鹫</t>
+  </si>
+  <si>
     <t>彩虹的颜色</t>
   </si>
   <si>
@@ -278,6 +338,9 @@
     <t>25|18|9|11</t>
   </si>
   <si>
+    <t>冰原狐</t>
+  </si>
+  <si>
     <t>坚持了两年半</t>
   </si>
   <si>
@@ -287,6 +350,9 @@
     <t>15|2|50</t>
   </si>
   <si>
+    <t>冰原犬</t>
+  </si>
+  <si>
     <t>远古的三巨头</t>
   </si>
   <si>
@@ -299,6 +365,9 @@
     <t>23|17</t>
   </si>
   <si>
+    <t>极地虎</t>
+  </si>
+  <si>
     <t>有肉的和没肉的</t>
   </si>
   <si>
@@ -392,6 +461,9 @@
     <t>稀有度</t>
   </si>
   <si>
+    <t>2绿3蓝4紫5金</t>
+  </si>
+  <si>
     <t>item_id</t>
   </si>
   <si>
@@ -404,277 +476,325 @@
     <t>rarity</t>
   </si>
   <si>
-    <t>小狗头人</t>
-  </si>
-  <si>
     <t>99|99</t>
   </si>
   <si>
-    <t>狗头人士兵</t>
-  </si>
-  <si>
-    <t>狗头人长官</t>
-  </si>
-  <si>
-    <t>丘陵巨魔狂战士</t>
-  </si>
-  <si>
-    <t>丘陵巨魔牧师</t>
-  </si>
-  <si>
-    <t>丘陵巨魔</t>
-  </si>
-  <si>
-    <t>黑暗巨魔召唤法师</t>
-  </si>
-  <si>
-    <t>豺狼人刺客</t>
-  </si>
-  <si>
-    <t>冰霜豺狼人刺客</t>
-  </si>
-  <si>
-    <t>魔能之魂</t>
-  </si>
-  <si>
-    <t>鬼魂</t>
-  </si>
-  <si>
-    <t>怨念之魂</t>
-  </si>
-  <si>
-    <t>冰霜之魂</t>
-  </si>
-  <si>
-    <t>鹰眼女妖侦察者</t>
-  </si>
-  <si>
-    <t>鹰眼女妖风暴巫师</t>
-  </si>
-  <si>
-    <t>半人马猎手</t>
-  </si>
-  <si>
-    <t>半人马征服者</t>
-  </si>
-  <si>
-    <t>巨狼</t>
-  </si>
-  <si>
-    <t>头狼</t>
-  </si>
-  <si>
-    <t>萨特放逐者</t>
+    <t>地狱羚羊</t>
+  </si>
+  <si>
+    <t>疾行火熊</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>夜魇超级近战兵</t>
+  </si>
+  <si>
+    <t>炽甲虫战士</t>
+  </si>
+  <si>
+    <t>炽甲虫战车</t>
+  </si>
+  <si>
+    <t>远古地狱巨人</t>
+  </si>
+  <si>
+    <t>骷髅勇士</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>炼狱战熊</t>
+  </si>
+  <si>
+    <t>炼狱界弓</t>
+  </si>
+  <si>
+    <t>炼狱蜘蛛</t>
+  </si>
+  <si>
+    <t>地狱猎蜥</t>
+  </si>
+  <si>
+    <t>地狱火精灵</t>
+  </si>
+  <si>
+    <t>地狱领主</t>
+  </si>
+  <si>
+    <t>熔岩飞翼兽</t>
+  </si>
+  <si>
+    <t>冥火剑圣</t>
+  </si>
+  <si>
+    <t>双斧狂战</t>
+  </si>
+  <si>
+    <t>熔岩卫兵</t>
+  </si>
+  <si>
+    <t>远古地狱火</t>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+  </si>
+  <si>
+    <t>烈焰神狐</t>
+  </si>
+  <si>
+    <t>地狱双头犬</t>
+  </si>
+  <si>
+    <t>烈焰战神</t>
+  </si>
+  <si>
+    <t>炼狱之王</t>
   </si>
   <si>
     <t>萨特窃神者</t>
   </si>
   <si>
-    <t>萨特苦难行者</t>
-  </si>
-  <si>
-    <t>食人魔拳手</t>
-  </si>
-  <si>
-    <t>食人魔冰霜法师</t>
-  </si>
-  <si>
-    <t>地狱熊怪</t>
-  </si>
-  <si>
-    <t>地狱熊怪粉碎者</t>
-  </si>
-  <si>
-    <t>枭兽</t>
-  </si>
-  <si>
-    <t>枭兽撕裂者</t>
-  </si>
-  <si>
-    <t>远古黑蜉蝣</t>
+    <t>远古岚肤兽</t>
+  </si>
+  <si>
+    <t>雷树精兽</t>
+  </si>
+  <si>
+    <t>雷角兽</t>
+  </si>
+  <si>
+    <t>38|39</t>
+  </si>
+  <si>
+    <t>雷须兽</t>
+  </si>
+  <si>
+    <t>幼年青眼雷龙</t>
+  </si>
+  <si>
+    <t>霹雳怪虫</t>
+  </si>
+  <si>
+    <t>独角雷兽</t>
+  </si>
+  <si>
+    <t>雷电见习者</t>
+  </si>
+  <si>
+    <t>雷霆拍熊</t>
+  </si>
+  <si>
+    <t>雷翼飞狐</t>
   </si>
   <si>
     <t>远古黑龙</t>
   </si>
   <si>
-    <t>远古岚肤兽</t>
-  </si>
-  <si>
-    <t>远古雷肤兽</t>
-  </si>
-  <si>
-    <t>远古侍僧潜行者</t>
-  </si>
-  <si>
-    <t>远古萨满潜行者</t>
-  </si>
-  <si>
-    <t>泥土傀儡</t>
-  </si>
-  <si>
-    <t>远古岩石傀儡</t>
-  </si>
-  <si>
-    <t>肉山</t>
-  </si>
-  <si>
-    <t>38|39</t>
-  </si>
-  <si>
-    <t>肉山幼崽</t>
-  </si>
-  <si>
-    <t>变异肉山幼崽</t>
-  </si>
-  <si>
-    <t>象牙骷髅甲士</t>
-  </si>
-  <si>
-    <t>象牙鬼魂</t>
-  </si>
-  <si>
-    <t>象牙骷髅战士</t>
-  </si>
-  <si>
-    <t>象牙婶婶</t>
-  </si>
-  <si>
-    <t>象牙婆婆</t>
-  </si>
-  <si>
-    <t>象牙姥姥</t>
-  </si>
-  <si>
-    <t>寒霜术士</t>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>青眼雷龙</t>
+  </si>
+  <si>
+    <t>霹雳怪泥</t>
+  </si>
+  <si>
+    <t>雷霆战蜥</t>
+  </si>
+  <si>
+    <t>霹雳女妖</t>
+  </si>
+  <si>
+    <t>雷压巨兽</t>
+  </si>
+  <si>
+    <t>雷压射手</t>
+  </si>
+  <si>
+    <t>雷霆梦魇</t>
+  </si>
+  <si>
+    <t>雷压飞翼兽</t>
+  </si>
+  <si>
+    <t>雷电掌控者</t>
+  </si>
+  <si>
+    <t>雷神鸟</t>
+  </si>
+  <si>
+    <t>闪电制造者</t>
+  </si>
+  <si>
+    <t>雷神</t>
+  </si>
+  <si>
+    <t>极寒精灵</t>
+  </si>
+  <si>
+    <t>极寒冰狐</t>
+  </si>
+  <si>
+    <t>极地少女</t>
+  </si>
+  <si>
+    <t>冰原行者</t>
+  </si>
+  <si>
+    <t>近代冰魂（远程）</t>
+  </si>
+  <si>
+    <t>极地小冰龙</t>
+  </si>
+  <si>
+    <t>极地小飞龙（远程）</t>
+  </si>
+  <si>
+    <t>冰晶小海马</t>
+  </si>
+  <si>
+    <t>冰宫守卫</t>
+  </si>
+  <si>
+    <t>冰宫奴仆（远程）</t>
+  </si>
+  <si>
+    <t>冰甲战熊</t>
   </si>
   <si>
     <t>寒霜战士</t>
   </si>
   <si>
-    <t>寒霜萨满</t>
-  </si>
-  <si>
-    <t>寒霜召唤法师</t>
-  </si>
-  <si>
-    <t>鳄鱼术士</t>
-  </si>
-  <si>
-    <t>鳄鱼法师</t>
-  </si>
-  <si>
-    <t>鳄鱼狂战士</t>
-  </si>
-  <si>
-    <t>鳄鱼士兵</t>
-  </si>
-  <si>
-    <t>变色龙术士</t>
-  </si>
-  <si>
-    <t>变色龙勇士</t>
-  </si>
-  <si>
-    <t>变色龙近卫兵</t>
-  </si>
-  <si>
-    <t>变色龙战士</t>
-  </si>
-  <si>
-    <t>坤法师</t>
-  </si>
-  <si>
-    <t>坤战士</t>
-  </si>
-  <si>
-    <t>坤哥</t>
-  </si>
-  <si>
-    <t>远古寒冬巨人</t>
-  </si>
-  <si>
-    <t>远古森林巨人</t>
-  </si>
-  <si>
-    <t>远古地狱巨人</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>行尸</t>
-  </si>
-  <si>
-    <t>骷髅兵</t>
-  </si>
-  <si>
-    <t>骷髅勇士</t>
-  </si>
-  <si>
-    <t>骷髅魔剑士</t>
-  </si>
-  <si>
-    <t>地狱火</t>
-  </si>
-  <si>
-    <t>远古地狱火</t>
-  </si>
-  <si>
-    <t>地狱火精灵</t>
-  </si>
-  <si>
-    <t>宝箱树墩</t>
-  </si>
-  <si>
-    <t>超级贪魔</t>
-  </si>
-  <si>
-    <t>天辉近战兵</t>
-  </si>
-  <si>
-    <t>天辉远程兵</t>
-  </si>
-  <si>
-    <t>天辉投石车</t>
-  </si>
-  <si>
-    <t>天辉水晶卫士</t>
-  </si>
-  <si>
-    <t>天辉超级远程兵</t>
-  </si>
-  <si>
-    <t>夜魇近战兵</t>
-  </si>
-  <si>
-    <t>夜魇远程兵</t>
-  </si>
-  <si>
-    <t>夜魇投石车</t>
-  </si>
-  <si>
-    <t>炽甲虫战士</t>
-  </si>
-  <si>
-    <t>炽甲虫术士</t>
+    <t>寒霜萨满（远程）</t>
+  </si>
+  <si>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>85|87</t>
+  </si>
+  <si>
+    <t>冰原猩猩兽</t>
+  </si>
+  <si>
+    <t>极地巨人</t>
+  </si>
+  <si>
+    <t>极地四脚兽</t>
+  </si>
+  <si>
+    <t>冰原巨兽(远程）</t>
+  </si>
+  <si>
+    <t>极冰守卫</t>
+  </si>
+  <si>
+    <t>冰原守卫</t>
+  </si>
+  <si>
+    <t>极寒领主</t>
+  </si>
+  <si>
+    <t>极寒蛛美丽</t>
+  </si>
+  <si>
+    <t>冰原领主</t>
+  </si>
+  <si>
+    <t>冰宫女王</t>
+  </si>
+  <si>
+    <t>绿洲丧尸</t>
+  </si>
+  <si>
+    <t>绿洲跳跳蛙</t>
+  </si>
+  <si>
+    <t>绿洲剧毒蛇</t>
+  </si>
+  <si>
+    <t>绿洲剧毒飞蛇（远程）</t>
+  </si>
+  <si>
+    <t>绿洲精灵马</t>
+  </si>
+  <si>
+    <t>绿洲魔法飞马（远程）</t>
+  </si>
+  <si>
+    <t>绿洲小精灵</t>
+  </si>
+  <si>
+    <t>天辉高级战士</t>
+  </si>
+  <si>
+    <t>天辉高级术士（远程）</t>
+  </si>
+  <si>
+    <t>独角沙兽</t>
+  </si>
+  <si>
+    <t>高级精灵战士</t>
+  </si>
+  <si>
+    <t>高级精灵战车（远程）</t>
+  </si>
+  <si>
+    <t>风沙狼</t>
+  </si>
+  <si>
+    <t>风沙狮</t>
+  </si>
+  <si>
+    <t>风沙战熊</t>
+  </si>
+  <si>
+    <t>绿洲守卫</t>
+  </si>
+  <si>
+    <t>风沙刺鼬</t>
+  </si>
+  <si>
+    <t>绿洲女巫(远程）</t>
+  </si>
+  <si>
+    <t>砂砾小巨人</t>
+  </si>
+  <si>
+    <t>狂沙熊战士</t>
+  </si>
+  <si>
+    <t>黄沙护卫</t>
+  </si>
+  <si>
+    <t>绿洲之主</t>
+  </si>
+  <si>
+    <t>黄沙之主</t>
+  </si>
+  <si>
+    <t>风神</t>
+  </si>
+  <si>
+    <t>祈风使</t>
+  </si>
+  <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>烈火使</t>
   </si>
   <si>
     <t>元素之主</t>
-  </si>
-  <si>
-    <t>85|87</t>
-  </si>
-  <si>
-    <t>祈风使</t>
-  </si>
-  <si>
-    <t>寒冰使</t>
-  </si>
-  <si>
-    <t>霹雳使</t>
-  </si>
-  <si>
-    <t>烈火使</t>
   </si>
   <si>
     <t>激活索引</t>
@@ -1123,10 +1243,18 @@
   </si>
   <si>
     <t>DmgReductionPct {
-"Base" "18"
+"Base" "10"
 }</t>
   </si>
   <si>
+    <t>火元素伤害+25%</t>
+  </si>
+  <si>
+    <t>FireDamageBonus {
+"Base" "25"
+}</t>
+  </si>
+  <si>
     <t>技能分类（用于区分同类型取最高技能等级）</t>
   </si>
   <si>
@@ -1166,13 +1294,13 @@
     <t>背刺LV10:从背后对敌人造成伤害时，伤害提高40%。</t>
   </si>
   <si>
-    <t>不朽LV1:复活时间减少?。</t>
-  </si>
-  <si>
-    <t>不朽LV5:复活时间减少?。</t>
-  </si>
-  <si>
-    <t>不朽LV10:复活时间减少一半。</t>
+    <t>不朽LV1:复活时间减少10%。</t>
+  </si>
+  <si>
+    <t>不朽LV5:复活时间减少25%。</t>
+  </si>
+  <si>
+    <t>不朽LV10:复活时间减少50%。</t>
   </si>
   <si>
     <t>传言LV1:英雄所具有的每秒生命恢复效果，在生命值恢复满之后，会按？%效率回复蓝量。</t>
@@ -1211,7 +1339,7 @@
     <t>飓风LV10:使用基础技能时有15%概率提高?%攻击速度持续3秒。</t>
   </si>
   <si>
-    <t>亢奋LV1:受到伤害时，在5秒内恢复?%最大生命值。</t>
+    <t>亢奋LV1:受到伤害时，在5秒内恢复5%最大生命值。</t>
   </si>
   <si>
     <t>亢奋LV5:受到伤害时，在5秒内恢复15%最大生命值。</t>
@@ -1238,13 +1366,13 @@
     <t>梦境LV10:每阵亡一次，获得20%暴击伤害。</t>
   </si>
   <si>
-    <t>魔能LV1:拾取范围扩大?码。</t>
-  </si>
-  <si>
-    <t>魔能LV5:拾取范围扩大100码。</t>
-  </si>
-  <si>
-    <t>魔能LV10:拾取范围扩大?码。</t>
+    <t>魔能LV1:拾取范围扩大100码。</t>
+  </si>
+  <si>
+    <t>魔能LV5:拾取范围扩大200码。</t>
+  </si>
+  <si>
+    <t>魔能LV10:拾取范围扩大300码。</t>
   </si>
   <si>
     <t>弱点LV1:造成敌人弱点元素伤害时，该伤害近提升至?%。</t>
@@ -1322,13 +1450,13 @@
     <t>治疗LV10:每过5秒，恢复5%最大生命值。</t>
   </si>
   <si>
-    <t>致命LV1:使用技能时有?%概率进入致命状态，使接下来3秒内所有伤害均暴击</t>
-  </si>
-  <si>
-    <t>致命LV5:使用技能时有5%概率进入致命状态，使接下来3秒内所有伤害均暴击</t>
-  </si>
-  <si>
-    <t>致命LV10:使用技能时有15%概率进入致命状态，使接下来3秒内所有伤害均暴击</t>
+    <t>致命LV1:使用技能时有5%概率进入致命状态，使接下来3秒内所有伤害均暴击</t>
+  </si>
+  <si>
+    <t>致命LV5:使用技能时有10%概率进入致命状态，使接下来4秒内所有伤害均暴击</t>
+  </si>
+  <si>
+    <t>致命LV10:使用技能时有15%概率进入致命状态，使接下来5秒内所有伤害均暴击</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1469,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1393,11 +1521,6 @@
       <sz val="12"/>
       <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1545,7 +1668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1567,6 +1690,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF48D8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,7 +1916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2042,6 +2201,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2159,82 +2333,64 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2243,10 +2399,10 @@
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2255,10 +2411,10 @@
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2267,10 +2423,10 @@
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2279,17 +2435,35 @@
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2398,13 +2572,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2413,28 +2596,55 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2489,7 +2699,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="34">
     <dxf>
       <font>
         <b val="1"/>
@@ -3067,18 +3277,346 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.6"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.6"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BBDFCF3A-96C7-46F4-BFEF-37BF407AE04C}">
+  <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CC1B46BA-6DE9-4BED-9FD3-8437B61CD982}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F3DF4C95-F72D-48B4-8976-5B0DE98BA175}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2EA02E20-D7B2-4122-B5AF-094D17BC31D6}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2D8636C3-A51C-4840-B93A-0A60BB57BF0E}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{86D83155-3DD2-4311-A816-924A6739668B}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -3087,7 +3625,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A6240B88-3F49-45D8-BDAE-D72C6AF606CB}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{844DBB5E-5789-4CBE-8674-79C53F72C585}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3098,6 +3636,20 @@
       <tableStyleElement type="secondColumnStripe" dxfId="14"/>
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
+    </tableStyle>
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{35435BF4-33A0-4944-BE7A-E00871C7A92C}">
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="totalRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="lastColumn" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="27"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="26"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="25"/>
+      <tableStyleElement type="lastHeaderCell" dxfId="24"/>
+      <tableStyleElement type="firstTotalCell" dxfId="23"/>
+      <tableStyleElement type="lastTotalCell" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3401,13 +3953,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.8416666666667" style="35" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="35" customWidth="1"/>
@@ -3416,285 +3968,315 @@
     <col min="5" max="5" width="15.675" style="35" customWidth="1"/>
     <col min="6" max="6" width="20.5083333333333" style="35" customWidth="1"/>
     <col min="7" max="8" width="16.8416666666667" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="35"/>
+    <col min="9" max="9" width="13.25" style="35" customWidth="1"/>
+    <col min="10" max="16383" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:8">
-      <c r="A1" s="36" t="s">
+    <row r="1" ht="31.25" customHeight="1" spans="1:9">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="31.25" customHeight="1" spans="1:8">
-      <c r="A2" s="39" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40" t="s">
+    </row>
+    <row r="2" ht="31.25" customHeight="1" spans="1:9">
+      <c r="A2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="G2" s="43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="H2" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="I2" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9">
+    </row>
+    <row r="3" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A3" s="46">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="47">
+        <v>1</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48">
         <v>3</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="50">
+        <v>14</v>
+      </c>
+      <c r="I3" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A4" s="51">
+        <v>2</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="52">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53">
+        <v>2</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="54">
+        <v>56</v>
+      </c>
+      <c r="I4" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A5" s="51">
+        <v>3</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="52">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52">
+        <v>4</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="54">
         <v>17</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A4" s="11">
+      <c r="I5" s="58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A6" s="51">
+        <v>4</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="52">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="48">
+      <c r="F6" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="54">
+        <v>31</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A7" s="51">
+        <v>5</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="52">
+        <v>1</v>
+      </c>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52">
+        <v>4</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="54">
+        <v>47</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A8" s="51">
+        <v>6</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="52">
+        <v>1</v>
+      </c>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52">
         <v>2</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="54">
+        <v>58</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A9" s="51">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="52">
+        <v>1</v>
+      </c>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52">
+        <v>2</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="54">
         <v>22</v>
       </c>
-      <c r="H4" s="14">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A5" s="11">
+      <c r="I9" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A10" s="51">
+        <v>8</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="52">
+        <v>1</v>
+      </c>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52">
+        <v>2</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="54">
+        <v>1</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
+      <c r="A11" s="51">
+        <v>9</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="52">
+        <v>1</v>
+      </c>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
-        <v>4</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="14">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A6" s="11">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A7" s="11">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13">
-        <v>4</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="14">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A8" s="11">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13">
-        <v>2</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="14">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A9" s="11">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
-        <v>2</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
-        <v>2</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:8">
-      <c r="A11" s="11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
-        <v>3</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="F11" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="54">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I11" s="58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="30.5" customHeight="1" spans="1:9">
       <c r="A12" s="11">
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
@@ -3703,22 +4285,25 @@
       <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="47" t="s">
-        <v>45</v>
+      <c r="F12" s="55" t="s">
+        <v>54</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H12" s="14">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I12" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" ht="30.5" customHeight="1" spans="1:9">
       <c r="A13" s="11">
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
@@ -3727,22 +4312,25 @@
       <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="47" t="s">
-        <v>48</v>
+      <c r="F13" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="H13" s="14">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I13" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" ht="30.5" customHeight="1" spans="1:9">
       <c r="A14" s="11">
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
@@ -3751,22 +4339,25 @@
       <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>51</v>
+      <c r="F14" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H14" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I14" s="56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" ht="30.5" customHeight="1" spans="1:9">
       <c r="A15" s="11">
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -3775,22 +4366,25 @@
       <c r="E15" s="13">
         <v>2</v>
       </c>
-      <c r="F15" s="47" t="s">
-        <v>54</v>
+      <c r="F15" s="55" t="s">
+        <v>66</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H15" s="14">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I15" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" ht="30.5" customHeight="1" spans="1:9">
       <c r="A16" s="11">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
@@ -3799,22 +4393,25 @@
       <c r="E16" s="13">
         <v>4</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>57</v>
+      <c r="F16" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H16" s="14">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I16" s="57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" ht="30.5" customHeight="1" spans="1:9">
       <c r="A17" s="11">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
@@ -3823,22 +4420,25 @@
       <c r="E17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>60</v>
+      <c r="F17" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H17" s="14">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I17" s="60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" ht="30.5" customHeight="1" spans="1:9">
       <c r="A18" s="11">
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
@@ -3847,22 +4447,25 @@
       <c r="E18" s="13">
         <v>3</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>63</v>
+      <c r="F18" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" ht="30.5" customHeight="1" spans="1:9">
       <c r="A19" s="11">
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
@@ -3871,22 +4474,25 @@
       <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="47" t="s">
-        <v>67</v>
+      <c r="F19" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H19" s="14">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I19" s="57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" ht="30.5" customHeight="1" spans="1:9">
       <c r="A20" s="11">
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
@@ -3895,22 +4501,25 @@
       <c r="E20" s="13">
         <v>3</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>70</v>
+      <c r="F20" s="55" t="s">
+        <v>87</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H20" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I20" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" ht="30.5" customHeight="1" spans="1:9">
       <c r="A21" s="11">
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
@@ -3919,22 +4528,25 @@
       <c r="E21" s="13">
         <v>4</v>
       </c>
-      <c r="F21" s="47" t="s">
-        <v>73</v>
+      <c r="F21" s="55" t="s">
+        <v>91</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" ht="30.5" customHeight="1" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I21" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" ht="30.5" customHeight="1" spans="1:9">
       <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
@@ -3943,22 +4555,25 @@
       <c r="E22" s="13">
         <v>4</v>
       </c>
-      <c r="F22" s="47" t="s">
-        <v>77</v>
+      <c r="F22" s="55" t="s">
+        <v>96</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H22" s="14">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I22" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" ht="30.5" customHeight="1" spans="1:9">
       <c r="A23" s="11">
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
@@ -3967,22 +4582,25 @@
       <c r="E23" s="13">
         <v>4</v>
       </c>
-      <c r="F23" s="47" t="s">
-        <v>80</v>
+      <c r="F23" s="55" t="s">
+        <v>100</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H23" s="14">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I23" s="59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" ht="30.5" customHeight="1" spans="1:9">
       <c r="A24" s="11">
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
@@ -3991,22 +4609,25 @@
       <c r="E24" s="13">
         <v>3</v>
       </c>
-      <c r="F24" s="47" t="s">
-        <v>83</v>
+      <c r="F24" s="55" t="s">
+        <v>104</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H24" s="14">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:8">
+      <c r="I24" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" ht="30.5" customHeight="1" spans="1:9">
       <c r="A25" s="11">
         <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
@@ -4015,14 +4636,17 @@
       <c r="E25" s="13">
         <v>3</v>
       </c>
-      <c r="F25" s="47" t="s">
-        <v>86</v>
+      <c r="F25" s="55" t="s">
+        <v>108</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" ht="30.5" customHeight="1" spans="1:8">
@@ -4030,7 +4654,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -4039,11 +4663,11 @@
       <c r="E26" s="13">
         <v>5</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>90</v>
+      <c r="F26" s="55" t="s">
+        <v>113</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H26" s="14">
         <v>41</v>
@@ -4054,7 +4678,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
@@ -4063,11 +4687,11 @@
       <c r="E27" s="13">
         <v>3</v>
       </c>
-      <c r="F27" s="47" t="s">
-        <v>93</v>
+      <c r="F27" s="55" t="s">
+        <v>116</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="H27" s="14">
         <v>36</v>
@@ -4078,7 +4702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
@@ -4087,11 +4711,11 @@
       <c r="E28" s="13">
         <v>2</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>96</v>
+      <c r="F28" s="55" t="s">
+        <v>119</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H28" s="14">
         <v>55</v>
@@ -4102,7 +4726,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
@@ -4111,14 +4735,14 @@
       <c r="E29" s="13">
         <v>5</v>
       </c>
-      <c r="F29" s="47" t="s">
-        <v>98</v>
+      <c r="F29" s="55" t="s">
+        <v>121</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:8">
@@ -4126,7 +4750,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C30" s="13">
         <v>1</v>
@@ -4135,14 +4759,14 @@
       <c r="E30" s="13">
         <v>5</v>
       </c>
-      <c r="F30" s="47" t="s">
-        <v>102</v>
+      <c r="F30" s="55" t="s">
+        <v>125</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:8">
@@ -4150,7 +4774,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
@@ -4159,14 +4783,14 @@
       <c r="E31" s="13">
         <v>3</v>
       </c>
-      <c r="F31" s="47" t="s">
-        <v>106</v>
+      <c r="F31" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" ht="30.5" customHeight="1" spans="1:8">
@@ -4174,7 +4798,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C32" s="17">
         <v>1</v>
@@ -4183,14 +4807,14 @@
       <c r="E32" s="17">
         <v>4</v>
       </c>
-      <c r="F32" s="47" t="s">
-        <v>110</v>
+      <c r="F32" s="55" t="s">
+        <v>133</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -4202,1929 +4826,2821 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11" style="35" customWidth="1"/>
-    <col min="2" max="2" width="16.8416666666667" style="35" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="27.0083333333333" style="35" customWidth="1"/>
-    <col min="6" max="6" width="36.675" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.0083333333333" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="35"/>
+    <col min="1" max="1" width="12.3416666666667" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" style="35" customWidth="1"/>
+    <col min="3" max="3" width="20.675" style="36" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.3416666666667" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.175" style="35" customWidth="1"/>
+    <col min="7" max="7" width="8.50833333333333" style="35" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="35" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.5" customHeight="1" spans="1:7">
-      <c r="A1" s="36" t="s">
+    <row r="1" ht="35" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1003</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1004</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1005</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1006</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1007</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A10" s="25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26">
+        <v>1008</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A11" s="25">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1009</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A12" s="25">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A13" s="25">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26">
+        <v>1011</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A14" s="25">
+        <v>12</v>
+      </c>
+      <c r="B14" s="26">
+        <v>1012</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A15" s="25">
+        <v>13</v>
+      </c>
+      <c r="B15" s="26">
+        <v>1013</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A16" s="25">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26">
+        <v>1014</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A17" s="25">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26">
+        <v>1015</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A18" s="25">
+        <v>16</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1016</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A19" s="25">
+        <v>17</v>
+      </c>
+      <c r="B19" s="26">
+        <v>1017</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A20" s="25">
+        <v>18</v>
+      </c>
+      <c r="B20" s="26">
+        <v>1018</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A21" s="25">
+        <v>19</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1019</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A22" s="25">
+        <v>20</v>
+      </c>
+      <c r="B22" s="26">
+        <v>1020</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A23" s="25">
+        <v>21</v>
+      </c>
+      <c r="B23" s="26">
+        <v>1021</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A24" s="25">
+        <v>22</v>
+      </c>
+      <c r="B24" s="26">
+        <v>1022</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A25" s="25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="26">
+        <v>1023</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A26" s="25">
+        <v>24</v>
+      </c>
+      <c r="B26" s="26">
+        <v>1024</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A27" s="25">
+        <v>25</v>
+      </c>
+      <c r="B27" s="26">
+        <v>1025</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A28" s="25">
+        <v>26</v>
+      </c>
+      <c r="B28" s="26">
+        <v>1026</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A29" s="25">
+        <v>27</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1027</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A30" s="25">
+        <v>28</v>
+      </c>
+      <c r="B30" s="26">
+        <v>1028</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="26">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A31" s="25">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26">
+        <v>1029</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="26">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A32" s="25">
+        <v>30</v>
+      </c>
+      <c r="B32" s="26">
+        <v>1030</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="26">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A33" s="25">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26">
+        <v>1031</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="26">
+        <v>1</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A34" s="25">
+        <v>32</v>
+      </c>
+      <c r="B34" s="26">
+        <v>1032</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="26">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A35" s="25">
+        <v>33</v>
+      </c>
+      <c r="B35" s="26">
+        <v>1033</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A36" s="25">
+        <v>34</v>
+      </c>
+      <c r="B36" s="26">
+        <v>1034</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="26">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A37" s="25">
+        <v>35</v>
+      </c>
+      <c r="B37" s="26">
+        <v>1035</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="26">
+        <v>1</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A38" s="25">
+        <v>36</v>
+      </c>
+      <c r="B38" s="26">
+        <v>1036</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="26">
+        <v>1</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A39" s="25">
+        <v>37</v>
+      </c>
+      <c r="B39" s="26">
+        <v>1037</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="26">
+        <v>2</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="26"/>
+      <c r="G39" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A40" s="25">
+        <v>38</v>
+      </c>
+      <c r="B40" s="26">
+        <v>1038</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="26">
+        <v>1</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="26"/>
+      <c r="G40" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A41" s="25">
+        <v>39</v>
+      </c>
+      <c r="B41" s="26">
+        <v>1039</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A42" s="25">
+        <v>40</v>
+      </c>
+      <c r="B42" s="26">
+        <v>1040</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="26"/>
+      <c r="G42" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A43" s="25">
+        <v>41</v>
+      </c>
+      <c r="B43" s="26">
+        <v>1041</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="26">
+        <v>1</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A44" s="25">
+        <v>42</v>
+      </c>
+      <c r="B44" s="26">
+        <v>1042</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="26">
+        <v>1</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="26"/>
+      <c r="G44" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A45" s="25">
+        <v>43</v>
+      </c>
+      <c r="B45" s="26">
+        <v>1043</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="26">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="26"/>
+      <c r="G45" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A46" s="25">
+        <v>44</v>
+      </c>
+      <c r="B46" s="26">
+        <v>1044</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="26">
+        <v>1</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A47" s="25">
+        <v>45</v>
+      </c>
+      <c r="B47" s="26">
+        <v>1045</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="26">
+        <v>1</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A48" s="25">
+        <v>46</v>
+      </c>
+      <c r="B48" s="26">
+        <v>1046</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="26">
+        <v>1</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A49" s="25">
+        <v>47</v>
+      </c>
+      <c r="B49" s="26">
+        <v>1047</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="26">
+        <v>1</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A50" s="25">
+        <v>48</v>
+      </c>
+      <c r="B50" s="26">
+        <v>1048</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="26">
+        <v>1</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" s="26"/>
+      <c r="G50" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A51" s="25">
+        <v>49</v>
+      </c>
+      <c r="B51" s="26">
+        <v>1049</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51" s="26">
+        <v>1</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="26"/>
+      <c r="G51" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A52" s="25">
+        <v>50</v>
+      </c>
+      <c r="B52" s="26">
+        <v>1050</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="26">
+        <v>1</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A53" s="25">
+        <v>51</v>
+      </c>
+      <c r="B53" s="26">
+        <v>1051</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D53" s="26">
+        <v>1</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="26"/>
+      <c r="G53" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A54" s="25">
+        <v>52</v>
+      </c>
+      <c r="B54" s="26">
+        <v>1052</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="26">
+        <v>1</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="26"/>
+      <c r="G54" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A55" s="25">
+        <v>53</v>
+      </c>
+      <c r="B55" s="26">
+        <v>1053</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="26">
+        <v>1</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A56" s="25">
+        <v>54</v>
+      </c>
+      <c r="B56" s="26">
+        <v>1054</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="26">
+        <v>1</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A57" s="25">
+        <v>55</v>
+      </c>
+      <c r="B57" s="26">
+        <v>1055</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="26">
+        <v>1</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="26"/>
+      <c r="G57" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A58" s="25">
+        <v>56</v>
+      </c>
+      <c r="B58" s="26">
+        <v>1056</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="26">
+        <v>1</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="26"/>
+      <c r="G58" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A59" s="25">
+        <v>57</v>
+      </c>
+      <c r="B59" s="26">
+        <v>1057</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="26">
+        <v>1</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="26"/>
+      <c r="G59" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A60" s="25">
+        <v>58</v>
+      </c>
+      <c r="B60" s="26">
+        <v>1058</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="26">
+        <v>1</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="26"/>
+      <c r="G60" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A61" s="25">
+        <v>59</v>
+      </c>
+      <c r="B61" s="26">
+        <v>1059</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61" s="26">
+        <v>1</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="26"/>
+      <c r="G61" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A62" s="25">
+        <v>60</v>
+      </c>
+      <c r="B62" s="26">
+        <v>1060</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="26">
+        <v>1</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="26"/>
+      <c r="G62" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A63" s="25">
+        <v>61</v>
+      </c>
+      <c r="B63" s="26">
+        <v>1061</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="26">
+        <v>1</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="26"/>
+      <c r="G63" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A64" s="25">
+        <v>62</v>
+      </c>
+      <c r="B64" s="26">
+        <v>1062</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="26">
+        <v>1</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="26"/>
+      <c r="G64" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A65" s="25">
+        <v>63</v>
+      </c>
+      <c r="B65" s="26">
+        <v>1063</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="26">
+        <v>1</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F65" s="26"/>
+      <c r="G65" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A66" s="25">
+        <v>64</v>
+      </c>
+      <c r="B66" s="26">
+        <v>1064</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="26">
+        <v>1</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="26"/>
+      <c r="G66" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A67" s="25">
+        <v>65</v>
+      </c>
+      <c r="B67" s="26">
+        <v>1065</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="26">
+        <v>1</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A68" s="25">
+        <v>66</v>
+      </c>
+      <c r="B68" s="26">
+        <v>1066</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" s="26">
+        <v>1</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="26"/>
+      <c r="G68" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A69" s="25">
+        <v>67</v>
+      </c>
+      <c r="B69" s="26">
+        <v>1067</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="26">
+        <v>1</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="26"/>
+      <c r="G69" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A70" s="25">
+        <v>68</v>
+      </c>
+      <c r="B70" s="26">
+        <v>1068</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="26">
+        <v>1</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A71" s="25">
+        <v>69</v>
+      </c>
+      <c r="B71" s="26">
+        <v>1069</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="26">
+        <v>1</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A72" s="25">
+        <v>70</v>
+      </c>
+      <c r="B72" s="26">
+        <v>1070</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="26">
+        <v>1</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="26"/>
+      <c r="G72" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A73" s="25">
+        <v>71</v>
+      </c>
+      <c r="B73" s="26">
+        <v>1071</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="26">
+        <v>1</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A74" s="25">
+        <v>72</v>
+      </c>
+      <c r="B74" s="26">
+        <v>1072</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="26">
+        <v>1</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="26"/>
+      <c r="G74" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A75" s="25">
+        <v>73</v>
+      </c>
+      <c r="B75" s="26">
+        <v>1073</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="26">
+        <v>1</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" s="26"/>
+      <c r="G75" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A76" s="25">
+        <v>74</v>
+      </c>
+      <c r="B76" s="26">
+        <v>1074</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="26">
+        <v>1</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="26"/>
+      <c r="G76" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A77" s="25">
+        <v>75</v>
+      </c>
+      <c r="B77" s="26">
+        <v>1075</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="26">
+        <v>1</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" s="26"/>
+      <c r="G77" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A78" s="25">
+        <v>76</v>
+      </c>
+      <c r="B78" s="26">
+        <v>1076</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D78" s="26">
+        <v>1</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" s="26"/>
+      <c r="G78" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A79" s="25">
+        <v>77</v>
+      </c>
+      <c r="B79" s="26">
+        <v>1077</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="26">
+        <v>1</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="26"/>
+      <c r="G79" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A80" s="25">
+        <v>78</v>
+      </c>
+      <c r="B80" s="26">
+        <v>1078</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="26">
+        <v>1</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="26"/>
+      <c r="G80" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A81" s="25">
+        <v>79</v>
+      </c>
+      <c r="B81" s="26">
+        <v>1079</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="26">
+        <v>1</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="26"/>
+      <c r="G81" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A82" s="25">
+        <v>80</v>
+      </c>
+      <c r="B82" s="26">
+        <v>1080</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="26">
+        <v>1</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="26"/>
+      <c r="G82" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A83" s="25">
+        <v>81</v>
+      </c>
+      <c r="B83" s="26">
+        <v>1081</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" s="26">
+        <v>1</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="G83" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A84" s="25">
+        <v>82</v>
+      </c>
+      <c r="B84" s="26">
+        <v>1082</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="26">
+        <v>1</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="26"/>
+      <c r="G84" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A85" s="25">
+        <v>83</v>
+      </c>
+      <c r="B85" s="26">
+        <v>1083</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="26">
+        <v>1</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" s="26"/>
+      <c r="G85" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A86" s="25">
+        <v>84</v>
+      </c>
+      <c r="B86" s="26">
+        <v>1084</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" s="26">
+        <v>2</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F86" s="26"/>
+      <c r="G86" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A87" s="25">
+        <v>85</v>
+      </c>
+      <c r="B87" s="26">
+        <v>1085</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D87" s="26">
+        <v>1</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="26"/>
+      <c r="G87" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A88" s="25">
+        <v>86</v>
+      </c>
+      <c r="B88" s="26">
+        <v>1086</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="26">
+        <v>1</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="26"/>
+      <c r="G88" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A89" s="25">
+        <v>87</v>
+      </c>
+      <c r="B89" s="26">
+        <v>1087</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D89" s="26">
+        <v>1</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" s="26"/>
+      <c r="G89" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A90" s="25">
+        <v>88</v>
+      </c>
+      <c r="B90" s="26">
+        <v>1088</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" s="26">
+        <v>1</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" s="26"/>
+      <c r="G90" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A91" s="25">
+        <v>89</v>
+      </c>
+      <c r="B91" s="26">
+        <v>1089</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="26">
+        <v>1</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F91" s="26"/>
+      <c r="G91" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A92" s="25">
+        <v>90</v>
+      </c>
+      <c r="B92" s="26">
+        <v>1090</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D92" s="26">
+        <v>1</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="26"/>
+      <c r="G92" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A93" s="25">
+        <v>91</v>
+      </c>
+      <c r="B93" s="26">
+        <v>1091</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="26">
+        <v>1</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F93" s="26"/>
+      <c r="G93" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A94" s="25">
+        <v>92</v>
+      </c>
+      <c r="B94" s="26">
+        <v>1092</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" s="26">
+        <v>1</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" s="26"/>
+      <c r="G94" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A95" s="25">
+        <v>93</v>
+      </c>
+      <c r="B95" s="26">
+        <v>1093</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" s="26">
+        <v>1</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F95" s="26"/>
+      <c r="G95" s="28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A96" s="25">
+        <v>94</v>
+      </c>
+      <c r="B96" s="26">
+        <v>1094</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="26">
+        <v>1</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F96" s="26"/>
+      <c r="G96" s="28">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="97" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A97" s="25">
+        <v>95</v>
+      </c>
+      <c r="B97" s="26">
+        <v>1095</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="26">
+        <v>1</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F97" s="26"/>
+      <c r="G97" s="28">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="98" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A98" s="25">
+        <v>96</v>
+      </c>
+      <c r="B98" s="26">
+        <v>1096</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="26">
+        <v>1</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" s="26"/>
+      <c r="G98" s="28">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="99" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A99" s="25">
+        <v>97</v>
+      </c>
+      <c r="B99" s="26">
+        <v>1097</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="26">
+        <v>1</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="26"/>
+      <c r="G99" s="28">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="100" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A100" s="25">
+        <v>98</v>
+      </c>
+      <c r="B100" s="26">
+        <v>1098</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="26">
+        <v>1</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="26"/>
+      <c r="G100" s="28">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="101" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A101" s="25">
+        <v>99</v>
+      </c>
+      <c r="B101" s="26">
+        <v>1099</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" s="26">
+        <v>1</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F101" s="26"/>
+      <c r="G101" s="28">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="102" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A102" s="25">
+        <v>100</v>
+      </c>
+      <c r="B102" s="26">
+        <v>1100</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" s="26">
+        <v>1</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F102" s="26"/>
+      <c r="G102" s="28">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="103" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A103" s="25">
+        <v>101</v>
+      </c>
+      <c r="B103" s="26">
+        <v>1101</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="26">
+        <v>1</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F103" s="26"/>
+      <c r="G103" s="28">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="104" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A104" s="25">
+        <v>102</v>
+      </c>
+      <c r="B104" s="26">
+        <v>1102</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" s="26">
+        <v>1</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F104" s="26"/>
+      <c r="G104" s="28">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="105" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A105" s="25">
+        <v>103</v>
+      </c>
+      <c r="B105" s="26">
+        <v>1103</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="26">
+        <v>1</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F105" s="26"/>
+      <c r="G105" s="28">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="106" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A106" s="25">
+        <v>104</v>
+      </c>
+      <c r="B106" s="26">
+        <v>1104</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D106" s="26">
+        <v>1</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F106" s="26"/>
+      <c r="G106" s="28">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="107" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A107" s="25">
+        <v>105</v>
+      </c>
+      <c r="B107" s="26">
+        <v>1105</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="26">
+        <v>1</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F107" s="26"/>
+      <c r="G107" s="28">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="108" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A108" s="25">
+        <v>106</v>
+      </c>
+      <c r="B108" s="26">
+        <v>1106</v>
+      </c>
+      <c r="C108" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D108" s="26">
+        <v>1</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" s="26"/>
+      <c r="G108" s="28">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="109" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A109" s="25">
+        <v>107</v>
+      </c>
+      <c r="B109" s="26">
+        <v>1107</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" s="26">
+        <v>1</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F109" s="26"/>
+      <c r="G109" s="28">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="110" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A110" s="25">
+        <v>108</v>
+      </c>
+      <c r="B110" s="26">
+        <v>1108</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="26">
+        <v>1</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F110" s="26"/>
+      <c r="G110" s="28">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="111" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A111" s="25">
+        <v>109</v>
+      </c>
+      <c r="B111" s="26">
+        <v>1109</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D111" s="26">
+        <v>1</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F111" s="26"/>
+      <c r="G111" s="28">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="112" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A112" s="25">
+        <v>110</v>
+      </c>
+      <c r="B112" s="26">
+        <v>1110</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="26">
+        <v>1</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" s="26"/>
+      <c r="G112" s="28">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="113" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A113" s="25">
+        <v>111</v>
+      </c>
+      <c r="B113" s="26">
+        <v>1111</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" s="26">
+        <v>1</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F113" s="26"/>
+      <c r="G113" s="28">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="114" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A114" s="25">
+        <v>112</v>
+      </c>
+      <c r="B114" s="26">
+        <v>1112</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" s="26">
+        <v>1</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F114" s="26"/>
+      <c r="G114" s="28">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="115" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A115" s="25">
         <v>113</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B115" s="26">
+        <v>1113</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D115" s="26">
+        <v>1</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F115" s="26"/>
+      <c r="G115" s="28">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="116" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A116" s="25">
         <v>114</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="B116" s="26">
+        <v>1114</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="26">
+        <v>1</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F116" s="26"/>
+      <c r="G116" s="28">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="117" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A117" s="25">
         <v>115</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="B117" s="26">
+        <v>1115</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" s="26">
+        <v>1</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="26"/>
+      <c r="G117" s="28">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="118" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A118" s="25">
         <v>116</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="B118" s="26">
+        <v>1116</v>
+      </c>
+      <c r="C118" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D118" s="26">
+        <v>1</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F118" s="26"/>
+      <c r="G118" s="28">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="119" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A119" s="25">
         <v>117</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="B119" s="26">
+        <v>1117</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D119" s="26">
+        <v>1</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F119" s="26"/>
+      <c r="G119" s="28">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="120" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A120" s="25">
         <v>118</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="B120" s="26">
+        <v>1118</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" s="26">
+        <v>1</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" s="26"/>
+      <c r="G120" s="28">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="121" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A121" s="25">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" ht="31.25" customHeight="1" spans="1:7">
-      <c r="A2" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="B121" s="26">
+        <v>1119</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" s="26">
+        <v>1</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F121" s="26"/>
+      <c r="G121" s="28">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="122" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A122" s="25">
         <v>120</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="B122" s="26">
+        <v>1120</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D122" s="26">
+        <v>1</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F122" s="26"/>
+      <c r="G122" s="28">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="123" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A123" s="25">
         <v>121</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="B123" s="26">
+        <v>1121</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D123" s="26">
+        <v>1</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F123" s="26"/>
+      <c r="G123" s="28">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="124" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A124" s="25">
         <v>122</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="41" t="s">
+      <c r="B124" s="26">
+        <v>1122</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" s="26">
+        <v>1</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F124" s="26"/>
+      <c r="G124" s="28">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="125" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A125" s="25">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A3" s="42">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B125" s="26">
+        <v>1123</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125" s="26">
+        <v>1</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F125" s="26"/>
+      <c r="G125" s="28">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="126" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A126" s="25">
         <v>124</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="B126" s="26">
+        <v>1124</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D126" s="26">
+        <v>1</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F126" s="26"/>
+      <c r="G126" s="28">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="127" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A127" s="25">
         <v>125</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A4" s="42">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B127" s="26">
+        <v>1125</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D127" s="26">
+        <v>1</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F127" s="26"/>
+      <c r="G127" s="28">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="128" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A128" s="25">
         <v>126</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A5" s="42">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1003</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B128" s="26">
+        <v>1126</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D128" s="26">
+        <v>1</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F128" s="26"/>
+      <c r="G128" s="28">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="129" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A129" s="25">
         <v>127</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A6" s="42">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1004</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B129" s="26">
+        <v>1127</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129" s="26">
+        <v>1</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F129" s="26"/>
+      <c r="G129" s="28">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="130" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A130" s="25">
         <v>128</v>
       </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A7" s="42">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13">
-        <v>1005</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B130" s="26">
+        <v>1128</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" s="26">
+        <v>1</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F130" s="26"/>
+      <c r="G130" s="28">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="131" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A131" s="25">
         <v>129</v>
       </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A8" s="42">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1006</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B131" s="26">
+        <v>1129</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D131" s="26">
+        <v>1</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F131" s="26"/>
+      <c r="G131" s="28">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="132" ht="18.5" customHeight="1" spans="1:7">
+      <c r="A132" s="31">
         <v>130</v>
       </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A9" s="42">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13">
-        <v>1007</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A10" s="42">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13">
-        <v>1008</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A11" s="42">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13">
-        <v>1009</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A12" s="42">
-        <v>10</v>
-      </c>
-      <c r="B12" s="13">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A13" s="42">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13">
-        <v>1011</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A14" s="42">
-        <v>12</v>
-      </c>
-      <c r="B14" s="13">
-        <v>1012</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A15" s="42">
-        <v>13</v>
-      </c>
-      <c r="B15" s="13">
-        <v>1013</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A16" s="42">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13">
-        <v>1014</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A17" s="42">
-        <v>15</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1015</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A18" s="42">
-        <v>16</v>
-      </c>
-      <c r="B18" s="13">
-        <v>1016</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A19" s="42">
-        <v>17</v>
-      </c>
-      <c r="B19" s="13">
-        <v>1017</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A20" s="42">
-        <v>18</v>
-      </c>
-      <c r="B20" s="13">
-        <v>1018</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A21" s="42">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13">
-        <v>1019</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A22" s="42">
-        <v>20</v>
-      </c>
-      <c r="B22" s="13">
-        <v>1020</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A23" s="42">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13">
-        <v>1021</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A24" s="42">
-        <v>22</v>
-      </c>
-      <c r="B24" s="13">
-        <v>1022</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A25" s="42">
-        <v>23</v>
-      </c>
-      <c r="B25" s="13">
-        <v>1023</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A26" s="42">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13">
-        <v>1024</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A27" s="42">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13">
-        <v>1025</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A28" s="42">
-        <v>26</v>
-      </c>
-      <c r="B28" s="13">
-        <v>1026</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A29" s="42">
-        <v>27</v>
-      </c>
-      <c r="B29" s="13">
-        <v>1027</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="13">
-        <v>1</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A30" s="42">
-        <v>28</v>
-      </c>
-      <c r="B30" s="13">
-        <v>1028</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A31" s="42">
-        <v>29</v>
-      </c>
-      <c r="B31" s="13">
-        <v>1029</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A32" s="42">
-        <v>30</v>
-      </c>
-      <c r="B32" s="13">
-        <v>1030</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="13">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A33" s="42">
-        <v>31</v>
-      </c>
-      <c r="B33" s="13">
-        <v>1031</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A34" s="42">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1032</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A35" s="42">
-        <v>33</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1033</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A36" s="42">
-        <v>34</v>
-      </c>
-      <c r="B36" s="13">
-        <v>1034</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D36" s="13">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A37" s="42">
-        <v>35</v>
-      </c>
-      <c r="B37" s="13">
-        <v>1035</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A38" s="42">
-        <v>36</v>
-      </c>
-      <c r="B38" s="13">
-        <v>1036</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="13">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A39" s="42">
-        <v>37</v>
-      </c>
-      <c r="B39" s="13">
-        <v>1037</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="13">
-        <v>2</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A40" s="42">
-        <v>38</v>
-      </c>
-      <c r="B40" s="13">
-        <v>1038</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A41" s="42">
-        <v>39</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1039</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A42" s="42">
-        <v>40</v>
-      </c>
-      <c r="B42" s="13">
-        <v>1040</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A43" s="42">
-        <v>41</v>
-      </c>
-      <c r="B43" s="13">
-        <v>1041</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A44" s="42">
-        <v>42</v>
-      </c>
-      <c r="B44" s="13">
-        <v>1042</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A45" s="42">
-        <v>43</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1043</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A46" s="42">
-        <v>44</v>
-      </c>
-      <c r="B46" s="13">
-        <v>1044</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A47" s="42">
-        <v>45</v>
-      </c>
-      <c r="B47" s="13">
-        <v>1045</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A48" s="42">
-        <v>46</v>
-      </c>
-      <c r="B48" s="13">
-        <v>1046</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A49" s="42">
-        <v>47</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1047</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A50" s="42">
-        <v>48</v>
-      </c>
-      <c r="B50" s="13">
-        <v>1048</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="13">
-        <v>1</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A51" s="42">
-        <v>49</v>
-      </c>
-      <c r="B51" s="13">
-        <v>1049</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A52" s="42">
-        <v>50</v>
-      </c>
-      <c r="B52" s="13">
-        <v>1050</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A53" s="42">
-        <v>51</v>
-      </c>
-      <c r="B53" s="13">
-        <v>1051</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A54" s="42">
-        <v>52</v>
-      </c>
-      <c r="B54" s="13">
-        <v>1052</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A55" s="42">
-        <v>53</v>
-      </c>
-      <c r="B55" s="13">
-        <v>1053</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A56" s="42">
-        <v>54</v>
-      </c>
-      <c r="B56" s="13">
-        <v>1054</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A57" s="42">
-        <v>55</v>
-      </c>
-      <c r="B57" s="13">
-        <v>1055</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" s="13">
-        <v>1</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A58" s="42">
-        <v>56</v>
-      </c>
-      <c r="B58" s="13">
-        <v>1056</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A59" s="42">
-        <v>57</v>
-      </c>
-      <c r="B59" s="13">
-        <v>1057</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="13">
-        <v>1</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A60" s="42">
-        <v>58</v>
-      </c>
-      <c r="B60" s="13">
-        <v>1058</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="13">
-        <v>1</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A61" s="42">
-        <v>59</v>
-      </c>
-      <c r="B61" s="13">
-        <v>1059</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="13">
-        <v>1</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A62" s="42">
-        <v>60</v>
-      </c>
-      <c r="B62" s="13">
-        <v>1060</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A63" s="42">
-        <v>61</v>
-      </c>
-      <c r="B63" s="13">
-        <v>1061</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="13">
-        <v>1</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A64" s="42">
-        <v>62</v>
-      </c>
-      <c r="B64" s="13">
-        <v>1062</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="13">
-        <v>1</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A65" s="42">
-        <v>63</v>
-      </c>
-      <c r="B65" s="13">
-        <v>1063</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="13">
-        <v>1</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A66" s="42">
-        <v>64</v>
-      </c>
-      <c r="B66" s="13">
-        <v>1064</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="13">
-        <v>1</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A67" s="42">
-        <v>65</v>
-      </c>
-      <c r="B67" s="13">
-        <v>1065</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="13">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A68" s="42">
-        <v>66</v>
-      </c>
-      <c r="B68" s="13">
-        <v>1066</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="13">
-        <v>1</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A69" s="42">
-        <v>67</v>
-      </c>
-      <c r="B69" s="13">
-        <v>1067</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="13">
-        <v>1</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A70" s="42">
-        <v>68</v>
-      </c>
-      <c r="B70" s="13">
-        <v>1068</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="13">
-        <v>1</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A71" s="42">
-        <v>69</v>
-      </c>
-      <c r="B71" s="13">
-        <v>1069</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="13">
-        <v>1</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A72" s="42">
-        <v>70</v>
-      </c>
-      <c r="B72" s="13">
-        <v>1070</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D72" s="13">
-        <v>1</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A73" s="42">
-        <v>71</v>
-      </c>
-      <c r="B73" s="13">
-        <v>1071</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" s="13">
-        <v>1</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A74" s="42">
-        <v>72</v>
-      </c>
-      <c r="B74" s="13">
-        <v>1072</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="13">
-        <v>1</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A75" s="42">
-        <v>73</v>
-      </c>
-      <c r="B75" s="13">
-        <v>1073</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A76" s="42">
-        <v>74</v>
-      </c>
-      <c r="B76" s="13">
-        <v>1074</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D76" s="13">
-        <v>1</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A77" s="42">
-        <v>75</v>
-      </c>
-      <c r="B77" s="13">
-        <v>1075</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="13">
-        <v>1</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A78" s="42">
-        <v>76</v>
-      </c>
-      <c r="B78" s="13">
-        <v>1076</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="13">
-        <v>1</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A79" s="42">
-        <v>77</v>
-      </c>
-      <c r="B79" s="13">
-        <v>1077</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D79" s="13">
-        <v>1</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A80" s="42">
-        <v>78</v>
-      </c>
-      <c r="B80" s="13">
-        <v>1078</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D80" s="13">
-        <v>1</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A81" s="42">
-        <v>79</v>
-      </c>
-      <c r="B81" s="13">
-        <v>1079</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="13">
-        <v>1</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A82" s="42">
-        <v>80</v>
-      </c>
-      <c r="B82" s="13">
-        <v>1080</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D82" s="13">
-        <v>1</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A83" s="42">
-        <v>81</v>
-      </c>
-      <c r="B83" s="13">
-        <v>1081</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D83" s="13">
-        <v>1</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A84" s="42">
-        <v>82</v>
-      </c>
-      <c r="B84" s="13">
-        <v>1082</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D84" s="13">
-        <v>1</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A85" s="42">
-        <v>83</v>
-      </c>
-      <c r="B85" s="13">
-        <v>1083</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D85" s="13">
-        <v>1</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A86" s="42">
-        <v>84</v>
-      </c>
-      <c r="B86" s="13">
-        <v>1084</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D86" s="13">
-        <v>2</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A87" s="42">
-        <v>85</v>
-      </c>
-      <c r="B87" s="13">
-        <v>1085</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="13">
-        <v>1</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A88" s="42">
-        <v>86</v>
-      </c>
-      <c r="B88" s="13">
-        <v>1086</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D88" s="13">
-        <v>1</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A89" s="42">
-        <v>87</v>
-      </c>
-      <c r="B89" s="13">
-        <v>1087</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D89" s="13">
-        <v>1</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" ht="30.5" customHeight="1" spans="1:7">
-      <c r="A90" s="42">
-        <v>88</v>
-      </c>
-      <c r="B90" s="17">
-        <v>1088</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D90" s="17">
-        <v>1</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="F90" s="17"/>
-      <c r="G90" s="18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" ht="16.5" customHeight="1" spans="5:5">
-      <c r="E91" s="8"/>
-    </row>
+      <c r="B132" s="32">
+        <v>1130</v>
+      </c>
+      <c r="C132" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D132" s="32">
+        <v>1</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F132" s="32"/>
+      <c r="G132" s="34">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="133" customFormat="1"/>
+    <row r="134" customFormat="1"/>
+    <row r="135" customFormat="1"/>
+    <row r="136" customFormat="1"/>
+    <row r="137" customFormat="1"/>
+    <row r="138" customFormat="1"/>
+    <row r="139" customFormat="1"/>
+    <row r="140" customFormat="1"/>
+    <row r="141" customFormat="1"/>
+    <row r="142" customFormat="1"/>
+    <row r="143" customFormat="1"/>
+    <row r="144" customFormat="1"/>
+    <row r="145" customFormat="1"/>
+    <row r="146" customFormat="1"/>
+    <row r="147" customFormat="1"/>
+    <row r="148" customFormat="1"/>
+    <row r="149" customFormat="1"/>
+    <row r="150" customFormat="1"/>
+    <row r="151" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6134,10 +7650,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6152,13 +7668,13 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -6166,11 +7682,11 @@
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -6179,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" ht="51.5" customHeight="1" spans="1:6">
@@ -6187,11 +7703,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
@@ -6201,11 +7717,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="27" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="30"/>
@@ -6215,11 +7731,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
@@ -6229,11 +7745,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
@@ -6243,11 +7759,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="30"/>
@@ -6257,11 +7773,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -6270,11 +7786,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="E9" s="28"/>
     </row>
@@ -6283,11 +7799,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E10" s="28"/>
     </row>
@@ -6296,11 +7812,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="E11" s="28"/>
     </row>
@@ -6309,11 +7825,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="E12" s="28"/>
     </row>
@@ -6322,11 +7838,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="E13" s="28"/>
     </row>
@@ -6335,11 +7851,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="E14" s="28"/>
     </row>
@@ -6348,11 +7864,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="E15" s="28"/>
     </row>
@@ -6361,11 +7877,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="E16" s="28"/>
     </row>
@@ -6374,11 +7890,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="E17" s="28"/>
     </row>
@@ -6387,11 +7903,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="E18" s="28"/>
     </row>
@@ -6400,11 +7916,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="E19" s="28"/>
     </row>
@@ -6413,11 +7929,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="E20" s="28"/>
     </row>
@@ -6426,11 +7942,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="E21" s="28"/>
     </row>
@@ -6439,11 +7955,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -6452,11 +7968,11 @@
         <v>21</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="E23" s="28"/>
     </row>
@@ -6465,11 +7981,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="27" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="E24" s="28"/>
     </row>
@@ -6478,11 +7994,11 @@
         <v>23</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="E25" s="28"/>
     </row>
@@ -6491,11 +8007,11 @@
         <v>24</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="E26" s="28"/>
     </row>
@@ -6504,11 +8020,11 @@
         <v>25</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="E27" s="28"/>
     </row>
@@ -6517,11 +8033,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="27" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="E28" s="28"/>
     </row>
@@ -6530,11 +8046,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="E29" s="28"/>
     </row>
@@ -6543,11 +8059,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="27" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="E30" s="28"/>
     </row>
@@ -6556,11 +8072,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="E31" s="28"/>
     </row>
@@ -6569,11 +8085,11 @@
         <v>30</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="27" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E32" s="28"/>
     </row>
@@ -6582,11 +8098,11 @@
         <v>31</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="27" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="E33" s="28"/>
     </row>
@@ -6595,11 +8111,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="27" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="E34" s="28"/>
     </row>
@@ -6608,11 +8124,11 @@
         <v>33</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="27" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="E35" s="28"/>
     </row>
@@ -6621,11 +8137,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="27" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="E36" s="28"/>
     </row>
@@ -6634,11 +8150,11 @@
         <v>35</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="E37" s="28"/>
     </row>
@@ -6647,11 +8163,11 @@
         <v>36</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="27" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="E38" s="28"/>
     </row>
@@ -6660,11 +8176,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="E39" s="28"/>
     </row>
@@ -6673,11 +8189,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="E40" s="28"/>
     </row>
@@ -6686,11 +8202,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="E41" s="28"/>
     </row>
@@ -6699,11 +8215,11 @@
         <v>40</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="27" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="E42" s="28"/>
     </row>
@@ -6712,11 +8228,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="27" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="E43" s="28"/>
     </row>
@@ -6725,11 +8241,11 @@
         <v>42</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="27" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="E44" s="28"/>
     </row>
@@ -6738,11 +8254,11 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="27" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="E45" s="28"/>
     </row>
@@ -6751,11 +8267,11 @@
         <v>44</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="27" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="E46" s="28"/>
     </row>
@@ -6764,11 +8280,11 @@
         <v>45</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="27" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="E47" s="28"/>
     </row>
@@ -6777,11 +8293,11 @@
         <v>46</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="E48" s="28"/>
     </row>
@@ -6790,11 +8306,11 @@
         <v>47</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="27" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="E49" s="28"/>
     </row>
@@ -6803,11 +8319,11 @@
         <v>48</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="27" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="E50" s="28"/>
     </row>
@@ -6816,11 +8332,11 @@
         <v>49</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="E51" s="28"/>
     </row>
@@ -6829,11 +8345,11 @@
         <v>50</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="27" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="E52" s="28"/>
     </row>
@@ -6842,11 +8358,11 @@
         <v>51</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="27" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="E53" s="28"/>
     </row>
@@ -6855,11 +8371,11 @@
         <v>52</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="E54" s="28"/>
     </row>
@@ -6868,11 +8384,11 @@
         <v>53</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="27" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="E55" s="28"/>
     </row>
@@ -6881,13 +8397,26 @@
         <v>54</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="33" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="E56" s="34"/>
+    </row>
+    <row r="57" customFormat="1" ht="51.5" customHeight="1" spans="1:5">
+      <c r="A57" s="31">
+        <v>55</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="E57" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6900,8 +8429,8 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -6917,39 +8446,39 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" ht="30.5" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -6958,7 +8487,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" ht="30.5" customHeight="1" spans="1:8">
@@ -6966,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -6984,7 +8513,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -7002,7 +8531,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -7020,7 +8549,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -7038,7 +8567,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -7056,7 +8585,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -7074,7 +8603,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="C9" s="13">
         <v>3</v>
@@ -7092,7 +8621,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
@@ -7110,7 +8639,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
@@ -7128,7 +8657,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="C12" s="13">
         <v>4</v>
@@ -7146,7 +8675,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="C13" s="13">
         <v>4</v>
@@ -7164,7 +8693,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="C14" s="13">
         <v>4</v>
@@ -7182,7 +8711,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C15" s="13">
         <v>5</v>
@@ -7200,7 +8729,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="C16" s="13">
         <v>5</v>
@@ -7218,7 +8747,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="C17" s="13">
         <v>5</v>
@@ -7236,7 +8765,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="C18" s="13">
         <v>6</v>
@@ -7254,7 +8783,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="C19" s="13">
         <v>6</v>
@@ -7272,7 +8801,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="C20" s="13">
         <v>6</v>
@@ -7290,7 +8819,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="C21" s="13">
         <v>7</v>
@@ -7308,7 +8837,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="C22" s="13">
         <v>7</v>
@@ -7326,7 +8855,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="C23" s="13">
         <v>7</v>
@@ -7344,7 +8873,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="C24" s="13">
         <v>8</v>
@@ -7362,7 +8891,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -7380,7 +8909,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="C26" s="13">
         <v>8</v>
@@ -7398,7 +8927,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="C27" s="13">
         <v>9</v>
@@ -7416,7 +8945,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="C28" s="13">
         <v>9</v>
@@ -7434,7 +8963,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="C29" s="13">
         <v>9</v>
@@ -7452,7 +8981,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="C30" s="13">
         <v>10</v>
@@ -7470,7 +8999,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="C31" s="13">
         <v>10</v>
@@ -7488,7 +9017,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="C32" s="13">
         <v>10</v>
@@ -7506,7 +9035,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="C33" s="13">
         <v>11</v>
@@ -7524,7 +9053,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="C34" s="13">
         <v>11</v>
@@ -7542,7 +9071,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="C35" s="13">
         <v>11</v>
@@ -7560,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C36" s="13">
         <v>12</v>
@@ -7578,7 +9107,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="C37" s="13">
         <v>12</v>
@@ -7596,7 +9125,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="C38" s="13">
         <v>12</v>
@@ -7614,7 +9143,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="C39" s="13">
         <v>13</v>
@@ -7632,7 +9161,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="C40" s="13">
         <v>13</v>
@@ -7650,7 +9179,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="C41" s="13">
         <v>13</v>
@@ -7668,7 +9197,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="C42" s="13">
         <v>14</v>
@@ -7686,7 +9215,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="C43" s="13">
         <v>14</v>
@@ -7704,7 +9233,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="C44" s="13">
         <v>14</v>
@@ -7722,7 +9251,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="C45" s="13">
         <v>15</v>
@@ -7740,7 +9269,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="C46" s="13">
         <v>15</v>
@@ -7758,7 +9287,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="C47" s="13">
         <v>15</v>
@@ -7776,7 +9305,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="C48" s="13">
         <v>16</v>
@@ -7794,7 +9323,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="C49" s="13">
         <v>16</v>
@@ -7812,7 +9341,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="C50" s="13">
         <v>16</v>
@@ -7830,7 +9359,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="C51" s="13">
         <v>17</v>
@@ -7848,7 +9377,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="C52" s="13">
         <v>17</v>
@@ -7866,7 +9395,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="C53" s="13">
         <v>17</v>
@@ -7884,7 +9413,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="C54" s="13">
         <v>18</v>
@@ -7902,7 +9431,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="C55" s="13">
         <v>18</v>
@@ -7920,7 +9449,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="C56" s="13">
         <v>18</v>
@@ -7938,7 +9467,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="C57" s="13">
         <v>19</v>
@@ -7956,7 +9485,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="C58" s="13">
         <v>19</v>
@@ -7974,7 +9503,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="C59" s="13">
         <v>19</v>
@@ -7992,7 +9521,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="C60" s="13">
         <v>20</v>
@@ -8010,7 +9539,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="C61" s="13">
         <v>20</v>
@@ -8028,7 +9557,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="C62" s="17">
         <v>20</v>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -29,6 +29,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="438">
   <si>
@@ -86,7 +108,7 @@
     <t>游荡的鬼魂</t>
   </si>
   <si>
-    <t>33|64|95</t>
+    <t>13|64|95</t>
   </si>
   <si>
     <t>11|29|1</t>
@@ -1668,7 +1690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1690,12 +1712,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,7 +1932,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2137,19 +2153,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -2176,10 +2179,49 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.659993285927915"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -2189,15 +2231,58 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.659993285927915"/>
+        <color theme="1" tint="0.66"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.659993285927915"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="1" tint="0.659993285927915"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2212,6 +2297,19 @@
       </top>
       <bottom style="medium">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2339,7 +2437,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2351,119 +2449,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2593,58 +2691,94 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3607,16 +3741,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CC1B46BA-6DE9-4BED-9FD3-8437B61CD982}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1E945D57-404E-487D-AA1D-80DAEF398DBB}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2EA02E20-D7B2-4122-B5AF-094D17BC31D6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EF3A0304-17B2-457C-ABA3-4843F2C86B38}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{86D83155-3DD2-4311-A816-924A6739668B}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1A39AE81-8A37-4A14-B80B-A285CE6F1989}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -3625,7 +3759,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{844DBB5E-5789-4CBE-8674-79C53F72C585}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3147DEA5-61AA-4276-ABFD-E3C7A5B9A8B4}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3637,7 +3771,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{35435BF4-33A0-4944-BE7A-E00871C7A92C}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B0A739DF-6577-4CAA-8B0E-6F1897B81CDC}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -3953,10 +4087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3967,12 +4101,17 @@
     <col min="4" max="4" width="36.675" style="35" customWidth="1"/>
     <col min="5" max="5" width="15.675" style="35" customWidth="1"/>
     <col min="6" max="6" width="20.5083333333333" style="35" customWidth="1"/>
-    <col min="7" max="8" width="16.8416666666667" style="35" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="35" customWidth="1"/>
-    <col min="10" max="16383" width="9" style="35"/>
+    <col min="7" max="7" width="14.6416666666667" style="35" customWidth="1"/>
+    <col min="8" max="10" width="16.8416666666667" style="35" customWidth="1"/>
+    <col min="11" max="11" width="15.5833333333333" style="35" customWidth="1"/>
+    <col min="12" max="17" width="16.8416666666667" style="35" customWidth="1"/>
+    <col min="18" max="18" width="16.025" style="35" customWidth="1"/>
+    <col min="19" max="20" width="62.05" style="35" customWidth="1"/>
+    <col min="21" max="21" width="13.25" style="35" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:9">
+    <row r="1" ht="31.25" customHeight="1" spans="1:21">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3991,287 +4130,559 @@
       <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="31.25" customHeight="1" spans="1:9">
-      <c r="A2" s="42" t="s">
+    <row r="2" ht="31.25" customHeight="1" spans="1:21">
+      <c r="A2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="65" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A3" s="46">
-        <v>1</v>
-      </c>
-      <c r="B3" s="47" t="s">
+    <row r="3" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A3" s="44">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="47">
-        <v>1</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48">
+      <c r="C3" s="45">
+        <v>1</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46">
         <v>3</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="47" t="str" cm="1">
+        <f t="array" ref="G3:I3">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F3,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F3,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>地狱火|品质:4</v>
+      </c>
+      <c r="H3" s="45" t="str">
+        <v>冰川鬼魂|品质:2</v>
+      </c>
+      <c r="I3" s="45" t="str">
+        <v>绿洲鬼魂|品质:-3</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="50">
+      <c r="M3" s="57" t="str" cm="1">
+        <f t="array" ref="M3:O3">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L3,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>防御力+15</v>
+      </c>
+      <c r="N3" s="57" t="str">
+        <v>生命恢复+5/s</v>
+      </c>
+      <c r="O3" s="57" t="str">
+        <v>攻击力+5</v>
+      </c>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="66">
         <v>14</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="S3" s="67" t="str" cm="1">
+        <f t="array" ref="S3">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R3,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>极速LV5:击杀敌人时有15%概率提高10%移动速度，持续5秒，可叠加3层。</v>
+      </c>
+      <c r="T3" s="67"/>
+      <c r="U3" s="68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A4" s="51">
+    <row r="4" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52">
-        <v>1</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53">
+      <c r="C4" s="49">
+        <v>1</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50">
         <v>2</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="47" t="str" cm="1">
+        <f t="array" ref="G4:H4">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F4,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F4,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰晶石甲虫|品质:3</v>
+      </c>
+      <c r="H4" s="51" t="str">
+        <v>炼狱石甲虫|品质:3</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="54">
+      <c r="M4" s="57" t="str" cm="1">
+        <f t="array" ref="M4:N4">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L4,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>生命值+100</v>
+      </c>
+      <c r="N4" s="58" t="str">
+        <v>攻击速度+10%</v>
+      </c>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="69">
         <v>56</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="S4" s="67" t="str" cm="1">
+        <f t="array" ref="S4">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R4,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>治疗LV5:每过5秒，恢复2%最大生命值。</v>
+      </c>
+      <c r="T4" s="67"/>
+      <c r="U4" s="68" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A5" s="51">
+    <row r="5" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="52">
-        <v>1</v>
-      </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52">
+      <c r="C5" s="49">
+        <v>1</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49">
         <v>4</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="47" t="str" cm="1">
+        <f t="array" ref="G5:J5">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F5,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F5,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰川幼龟|品质:3</v>
+      </c>
+      <c r="H5" s="51" t="str">
+        <v>沙漠金龟|品质:-16</v>
+      </c>
+      <c r="I5" s="51" t="str">
+        <v>烈焰战龟|品质:3</v>
+      </c>
+      <c r="J5" s="51" t="str">
+        <v>雷霆晶龟|品质:2</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="54">
+      <c r="M5" s="57" t="str" cm="1">
+        <f t="array" ref="M5:P5">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L5,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="N5" s="58" t="str">
+        <v>元素伤害+12%</v>
+      </c>
+      <c r="O5" s="58" t="str">
+        <v>生命值+310</v>
+      </c>
+      <c r="P5" s="58" t="str">
+        <v>生命恢复+5/s</v>
+      </c>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="69">
         <v>17</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="S5" s="67" t="str" cm="1">
+        <f t="array" ref="S5">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R5,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>坚毅LV5:免疫致命伤害，并恢复25%最大生命值，每360秒只触发一次效果。</v>
+      </c>
+      <c r="T5" s="67"/>
+      <c r="U5" s="68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A6" s="51">
+    <row r="6" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A6" s="48">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="52">
-        <v>1</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52">
+      <c r="C6" s="49">
+        <v>1</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49">
         <v>2</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="47" t="str" cm="1">
+        <f t="array" ref="G6:H6">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F6,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F6,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰原狐|品质:3</v>
+      </c>
+      <c r="H6" s="51" t="str">
+        <v>冰原犬|品质:4</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="54">
+      <c r="M6" s="57" t="str" cm="1">
+        <f t="array" ref="M6:N6">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L6,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击速度+15%</v>
+      </c>
+      <c r="N6" s="58" t="str">
+        <v>攻击力+10</v>
+      </c>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="69">
         <v>31</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="S6" s="67" t="str" cm="1">
+        <f t="array" ref="S6">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R6,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>魔能LV1:拾取范围扩大100码。</v>
+      </c>
+      <c r="T6" s="67"/>
+      <c r="U6" s="68" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A7" s="51">
+    <row r="7" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A7" s="48">
         <v>5</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="52">
-        <v>1</v>
-      </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52">
+      <c r="C7" s="49">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49">
         <v>4</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="47" t="str" cm="1">
+        <f t="array" ref="G7:J7">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F7,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F7,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷羽鹫|品质:2</v>
+      </c>
+      <c r="H7" s="51" t="str">
+        <v>雷山鹫|品质:3</v>
+      </c>
+      <c r="I7" s="51" t="str">
+        <v>雷翼鹫|品质:3</v>
+      </c>
+      <c r="J7" s="51" t="str">
+        <v>毒风鹫|品质:-14</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="54">
+      <c r="M7" s="57" t="str" cm="1">
+        <f t="array" ref="M7:O7">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L7,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>伤害加成+5%</v>
+      </c>
+      <c r="N7" s="58" t="str">
+        <v>移动速度+3%</v>
+      </c>
+      <c r="O7" s="58" t="str">
+        <v>蓝量回复+5/s</v>
+      </c>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="69">
         <v>47</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="S7" s="67" t="str" cm="1">
+        <f t="array" ref="S7">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R7,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>幽冥LV5:"受到伤害有15%概率进入幽冥状态，幽冥状态下不会受到伤害但也无法使用技能。
+幽冥状态持续3秒"</v>
+      </c>
+      <c r="T7" s="67"/>
+      <c r="U7" s="68" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A8" s="51">
+    <row r="8" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A8" s="48">
         <v>6</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="52">
-        <v>1</v>
-      </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52">
+      <c r="C8" s="49">
+        <v>1</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49">
         <v>2</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="47" t="str" cm="1">
+        <f t="array" ref="G8:H8">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F8,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F8,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>炼狱狼|品质:2</v>
+      </c>
+      <c r="H8" s="51" t="str">
+        <v>极地虎|品质:4</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="54">
+      <c r="M8" s="57" t="str" cm="1">
+        <f t="array" ref="M8:N8">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L8,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>防御力+12</v>
+      </c>
+      <c r="N8" s="58" t="str">
+        <v>防御力+10</v>
+      </c>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="69">
         <v>58</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="S8" s="67" t="str" cm="1">
+        <f t="array" ref="S8">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R8,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>致命LV1:使用技能时有5%概率进入致命状态，使接下来3秒内所有伤害均暴击</v>
+      </c>
+      <c r="T8" s="67"/>
+      <c r="U8" s="68" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A9" s="51">
+    <row r="9" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A9" s="48">
         <v>7</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="52">
-        <v>1</v>
-      </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52">
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49">
         <v>2</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="47" t="str" cm="1">
+        <f t="array" ref="G9:H9">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F9,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F9,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>幼年沙龙|品质:-5</v>
+      </c>
+      <c r="H9" s="51" t="str">
+        <v>绿洲精灵幼龙|品质:-6</v>
+      </c>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="54">
+      <c r="M9" s="57" t="str" cm="1">
+        <f t="array" ref="M9:N9">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L9,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>生命值+220</v>
+      </c>
+      <c r="N9" s="58" t="str">
+        <v>防御力+15</v>
+      </c>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="69">
         <v>22</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="S9" s="67" t="str" cm="1">
+        <f t="array" ref="S9">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R9,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>亢奋LV1:受到伤害时，在5秒内恢复5%最大生命值。</v>
+      </c>
+      <c r="T9" s="67"/>
+      <c r="U9" s="68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A10" s="51">
+    <row r="10" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A10" s="48">
         <v>8</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="52">
-        <v>1</v>
-      </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52">
+      <c r="C10" s="49">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49">
         <v>2</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="47" t="str" cm="1">
+        <f t="array" ref="G10:H10">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F10,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F10,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>炼狱亡魂|品质:2</v>
+      </c>
+      <c r="H10" s="51" t="str">
+        <v>炼狱狼|品质:2</v>
+      </c>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="54">
-        <v>1</v>
-      </c>
-      <c r="I10" s="58" t="s">
+      <c r="M10" s="57" t="str" cm="1">
+        <f t="array" ref="M10:N10">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L10,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="N10" s="58" t="str">
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="69">
+        <v>1</v>
+      </c>
+      <c r="S10" s="67" t="str" cm="1">
+        <f t="array" ref="S10">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R10,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>discoLV1:野狼disco，造成暴击时暴击伤害提高20%。</v>
+      </c>
+      <c r="T10" s="67"/>
+      <c r="U10" s="68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:9">
-      <c r="A11" s="51">
+    <row r="11" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
+      <c r="A11" s="48">
         <v>9</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="52">
-        <v>1</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52">
+      <c r="C11" s="49">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49">
         <v>3</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="47" t="str" cm="1">
+        <f t="array" ref="G11:I11">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F11,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F11,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>霹雳怪手|品质:4</v>
+      </c>
+      <c r="H11" s="51" t="str">
+        <v>狂沙怪手|品质:-10</v>
+      </c>
+      <c r="I11" s="51" t="str">
+        <v>绿洲怪手|品质:-13</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="54">
+      <c r="M11" s="57" t="str" cm="1">
+        <f t="array" ref="M11:O11">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L11,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击力+22</v>
+      </c>
+      <c r="N11" s="58" t="str">
+        <v>生命值+240</v>
+      </c>
+      <c r="O11" s="58" t="str">
+        <v>元素伤害+5%</v>
+      </c>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="69">
         <v>44</v>
       </c>
-      <c r="I11" s="58" t="s">
+      <c r="S11" s="67" t="str" cm="1">
+        <f t="array" ref="S11">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R11,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</v>
+      </c>
+      <c r="T11" s="67"/>
+      <c r="U11" s="68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:9">
+    <row r="12" ht="30.5" customHeight="1" spans="1:21">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -4285,20 +4696,45 @@
       <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="47" t="str" cm="1">
+        <f t="array" ref="G12:H12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F12,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F12,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冥火剑圣|品质:2</v>
+      </c>
+      <c r="H12" s="53" t="str">
+        <v>双斧狂战|品质:3</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="14">
+      <c r="M12" s="57" t="str" cm="1">
+        <f t="array" ref="M12:N12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L12,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>元素伤害+10%</v>
+      </c>
+      <c r="N12" s="59" t="str">
+        <v>蓝量回复+5/s</v>
+      </c>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="14">
         <v>41</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="S12" s="67" t="str" cm="1">
+        <f t="array" ref="S12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R12,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>双重LV5:释放技能时有10%概率消耗双倍蓝量造成2.3倍伤害。</v>
+      </c>
+      <c r="T12" s="67"/>
+      <c r="U12" s="70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:9">
+    <row r="13" ht="30.5" customHeight="1" spans="1:21">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -4312,20 +4748,45 @@
       <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="47" t="str" cm="1">
+        <f t="array" ref="G13:H13">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F13,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F13,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>熔岩卫兵|品质:2</v>
+      </c>
+      <c r="H13" s="53" t="str">
+        <v>远古地狱火|品质:3</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="14">
+      <c r="M13" s="57" t="str" cm="1">
+        <f t="array" ref="M13:N13">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L13,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>伤害加成+5%</v>
+      </c>
+      <c r="N13" s="59" t="str">
+        <v>闪避+5%</v>
+      </c>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="14">
         <v>26</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="S13" s="67" t="str" cm="1">
+        <f t="array" ref="S13">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R13,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>雷霆LV5:英雄阵亡时，将触发雷霆自爆，消灭自身半径500码所有敌方单位。</v>
+      </c>
+      <c r="T13" s="67"/>
+      <c r="U13" s="71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:9">
+    <row r="14" ht="30.5" customHeight="1" spans="1:21">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -4339,20 +4800,45 @@
       <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="47" t="str" cm="1">
+        <f t="array" ref="G14:H14">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F14,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F14,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>熔岩巨人|品质:2</v>
+      </c>
+      <c r="H14" s="53" t="str">
+        <v>烈焰神狐|品质:3</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="14">
+      <c r="M14" s="57" t="str" cm="1">
+        <f t="array" ref="M14:N14">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L14,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击速度+20%</v>
+      </c>
+      <c r="N14" s="59" t="str">
+        <v>防御力+10</v>
+      </c>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="14">
         <v>20</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="S14" s="67" t="str" cm="1">
+        <f t="array" ref="S14">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R14,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>飓风LV5:使用基础技能时有15%概率提高50%攻击速度持续3秒。</v>
+      </c>
+      <c r="T14" s="67"/>
+      <c r="U14" s="63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:9">
+    <row r="15" ht="30.5" customHeight="1" spans="1:21">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -4366,20 +4852,45 @@
       <c r="E15" s="13">
         <v>2</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="47" t="str" cm="1">
+        <f t="array" ref="G15:H15">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F15,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F15,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>地狱双头犬|品质:3</v>
+      </c>
+      <c r="H15" s="53" t="str">
+        <v>烈焰战神|品质:4</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="14">
+      <c r="M15" s="57" t="str" cm="1">
+        <f t="array" ref="M15:N15">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L15,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击力+20</v>
+      </c>
+      <c r="N15" s="59" t="str">
+        <v>生命恢复+4/s</v>
+      </c>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="14">
         <v>44</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="S15" s="67" t="str" cm="1">
+        <f t="array" ref="S15">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R15,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</v>
+      </c>
+      <c r="T15" s="67"/>
+      <c r="U15" s="70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:9">
+    <row r="16" ht="30.5" customHeight="1" spans="1:21">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -4393,20 +4904,53 @@
       <c r="E16" s="13">
         <v>4</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="47" t="str" cm="1">
+        <f t="array" ref="G16:J16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F16,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F16,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>炼狱之王|品质:3</v>
+      </c>
+      <c r="H16" s="53" t="str">
+        <v>小狗头人|品质:4</v>
+      </c>
+      <c r="I16" s="53" t="str">
+        <v>雷电之魂|品质:3</v>
+      </c>
+      <c r="J16" s="53" t="str">
+        <v>萨特窃神者|品质:4</v>
+      </c>
+      <c r="K16" s="53"/>
+      <c r="L16" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="14">
+      <c r="M16" s="57" t="str" cm="1">
+        <f t="array" ref="M16:P16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L16,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>最大生命值+10%</v>
+      </c>
+      <c r="N16" s="59" t="str">
+        <v>伤害减免+5%</v>
+      </c>
+      <c r="O16" s="59" t="str">
+        <v>防御力+22</v>
+      </c>
+      <c r="P16" s="59" t="str">
+        <v>伤害加成+10%</v>
+      </c>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="14">
         <v>18</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="S16" s="67" t="str" cm="1">
+        <f t="array" ref="S16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R16,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>坚毅LV10:免疫致命伤害，并恢复25%最大生命值，每180秒只触发一次效果。</v>
+      </c>
+      <c r="T16" s="67"/>
+      <c r="U16" s="65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:9">
+    <row r="17" ht="30.5" customHeight="1" spans="1:21">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -4420,20 +4964,45 @@
       <c r="E17" s="13">
         <v>2</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="47" t="str" cm="1">
+        <f t="array" ref="G17:H17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F17,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F17,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>远古岚肤兽|品质:2</v>
+      </c>
+      <c r="H17" s="53" t="str">
+        <v>雷树精兽|品质:4</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="14">
+      <c r="M17" s="57" t="str" cm="1">
+        <f t="array" ref="M17:N17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L17,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>生命值+200</v>
+      </c>
+      <c r="N17" s="59" t="str">
+        <v>生命值+200</v>
+      </c>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="14">
         <v>23</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="S17" s="67" t="str" cm="1">
+        <f t="array" ref="S17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R17,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>亢奋LV5:受到伤害时，在5秒内恢复15%最大生命值。</v>
+      </c>
+      <c r="T17" s="67"/>
+      <c r="U17" s="71" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:9">
+    <row r="18" ht="30.5" customHeight="1" spans="1:21">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -4447,20 +5016,51 @@
       <c r="E18" s="13">
         <v>3</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="47" t="str" cm="1">
+        <f t="array" ref="G18:I18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F18,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F18,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷角兽|品质:5</v>
+      </c>
+      <c r="H18" s="53" t="str">
+        <v>雷须兽|品质:4</v>
+      </c>
+      <c r="I18" s="53" t="str">
+        <v>霹雳怪手|品质:4</v>
+      </c>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="M18" s="57" t="str" cm="1">
+        <f t="array" ref="M18:O18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L18,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>最大生命值+25%</v>
+      </c>
+      <c r="N18" s="59" t="str">
+        <v>暴击伤害+20%</v>
+      </c>
+      <c r="O18" s="59" t="str">
+        <v>伤害减免+10%</v>
+      </c>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="S18" s="67" t="str" cm="1">
+        <f t="array" ref="S18:T18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R18,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>不朽LV10:复活时间减少50%。</v>
+      </c>
+      <c r="T18" s="67" t="str">
+        <v>致命LV10:使用技能时有15%概率进入致命状态，使接下来5秒内所有伤害均暴击</v>
+      </c>
+      <c r="U18" s="71" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:9">
+    <row r="19" ht="30.5" customHeight="1" spans="1:21">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -4474,20 +5074,50 @@
       <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="47" t="str" cm="1">
+        <f t="array" ref="G19:I19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F19,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F19,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷霆晶龟|品质:2</v>
+      </c>
+      <c r="H19" s="53" t="str">
+        <v>幼年青眼雷龙|品质:3</v>
+      </c>
+      <c r="I19" s="53" t="str">
+        <v>雷羽鹫|品质:2</v>
+      </c>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="14">
+      <c r="M19" s="57" t="str" cm="1">
+        <f t="array" ref="M19:O19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L19,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>伤害减免+5%</v>
+      </c>
+      <c r="N19" s="59" t="str">
+        <v>移动速度+3%</v>
+      </c>
+      <c r="O19" s="59" t="str">
+        <v>生命恢复+5/s</v>
+      </c>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="14">
         <v>47</v>
       </c>
-      <c r="I19" s="57" t="s">
+      <c r="S19" s="67" t="str" cm="1">
+        <f t="array" ref="S19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R19,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>幽冥LV5:"受到伤害有15%概率进入幽冥状态，幽冥状态下不会受到伤害但也无法使用技能。
+幽冥状态持续3秒"</v>
+      </c>
+      <c r="T19" s="67"/>
+      <c r="U19" s="65" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:9">
+    <row r="20" ht="30.5" customHeight="1" spans="1:21">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -4501,20 +5131,49 @@
       <c r="E20" s="13">
         <v>3</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="47" t="str" cm="1">
+        <f t="array" ref="G20:I20">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F20,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F20,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷山鹫|品质:3</v>
+      </c>
+      <c r="H20" s="53" t="str">
+        <v>雷翼鹫|品质:3</v>
+      </c>
+      <c r="I20" s="53" t="str">
+        <v>霹雳怪虫|品质:4</v>
+      </c>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="14">
+      <c r="M20" s="57" t="str" cm="1">
+        <f t="array" ref="M20:O20">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L20,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="N20" s="59" t="str">
+        <v>防御力+12</v>
+      </c>
+      <c r="O20" s="59" t="str">
+        <v>攻击力+18</v>
+      </c>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="14">
         <v>11</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="S20" s="67" t="str" cm="1">
+        <f t="array" ref="S20">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R20,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>传言LV5:英雄所具有的每秒生命恢复效果，在生命值恢复满之后，会按40%效率回复蓝量。</v>
+      </c>
+      <c r="T20" s="67"/>
+      <c r="U20" s="65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" ht="30.5" customHeight="1" spans="1:9">
+    <row r="21" ht="30.5" customHeight="1" spans="1:21">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -4528,20 +5187,55 @@
       <c r="E21" s="13">
         <v>4</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="47" t="str" cm="1">
+        <f t="array" ref="G21:J21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F21,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F21,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>独角雷兽|品质:2</v>
+      </c>
+      <c r="H21" s="53" t="str">
+        <v>雷电见习者|品质:2</v>
+      </c>
+      <c r="I21" s="53" t="str">
+        <v>雷霆拍熊|品质:2</v>
+      </c>
+      <c r="J21" s="53" t="str">
+        <v>雷翼飞狐|品质:4</v>
+      </c>
+      <c r="K21" s="53"/>
+      <c r="L21" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="M21" s="57" t="str" cm="1">
+        <f t="array" ref="M21:P21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L21,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>伤害加成+4%</v>
+      </c>
+      <c r="N21" s="59" t="str">
+        <v>生命值+180</v>
+      </c>
+      <c r="O21" s="59" t="str">
+        <v>暴击伤害+10%</v>
+      </c>
+      <c r="P21" s="59" t="str">
+        <v>移动速度+5%</v>
+      </c>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="S21" s="67" t="str" cm="1">
+        <f t="array" ref="S21:T21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R21,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>魔能LV5:拾取范围扩大200码。</v>
+      </c>
+      <c r="T21" s="67" t="str">
+        <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</v>
+      </c>
+      <c r="U21" s="65" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" ht="30.5" customHeight="1" spans="1:9">
+    <row r="22" ht="30.5" customHeight="1" spans="1:21">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -4555,20 +5249,53 @@
       <c r="E22" s="13">
         <v>4</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="47" t="str" cm="1">
+        <f t="array" ref="G22:J22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F22,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F22,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>远古黑龙|品质:3</v>
+      </c>
+      <c r="H22" s="53" t="str">
+        <v>雷霆领主|品质:3</v>
+      </c>
+      <c r="I22" s="53" t="str">
+        <v>青眼雷龙|品质:3</v>
+      </c>
+      <c r="J22" s="53" t="str">
+        <v>霹雳怪泥|品质:3</v>
+      </c>
+      <c r="K22" s="53"/>
+      <c r="L22" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="14">
+      <c r="M22" s="57" t="str" cm="1">
+        <f t="array" ref="M22:P22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L22,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="N22" s="59" t="str">
+        <v>闪避+5%</v>
+      </c>
+      <c r="O22" s="59" t="str">
+        <v>生命恢复+5/s</v>
+      </c>
+      <c r="P22" s="59" t="str">
+        <v>蓝量回复+5/s</v>
+      </c>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="14">
         <v>30</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="S22" s="67" t="str" cm="1">
+        <f t="array" ref="S22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R22,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>梦境LV10:每阵亡一次，获得20%暴击伤害。</v>
+      </c>
+      <c r="T22" s="67"/>
+      <c r="U22" s="71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" ht="30.5" customHeight="1" spans="1:9">
+    <row r="23" ht="30.5" customHeight="1" spans="1:21">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -4582,20 +5309,53 @@
       <c r="E23" s="13">
         <v>4</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="47" t="str" cm="1">
+        <f t="array" ref="G23:J23">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F23,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F23,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷霆战蜥|品质:4</v>
+      </c>
+      <c r="H23" s="53" t="str">
+        <v>霹雳女妖|品质:3</v>
+      </c>
+      <c r="I23" s="53" t="str">
+        <v>雷压巨兽|品质:2</v>
+      </c>
+      <c r="J23" s="53" t="str">
+        <v>雷压射手|品质:2</v>
+      </c>
+      <c r="K23" s="53"/>
+      <c r="L23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H23" s="14">
+      <c r="M23" s="57" t="str" cm="1">
+        <f t="array" ref="M23:P23">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L23,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击速度+30%</v>
+      </c>
+      <c r="N23" s="59" t="str">
+        <v>生命值+220</v>
+      </c>
+      <c r="O23" s="59" t="str">
+        <v>防御力+10</v>
+      </c>
+      <c r="P23" s="59" t="str">
+        <v>防御力+15</v>
+      </c>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="14">
         <v>39</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="S23" s="67" t="str" cm="1">
+        <f t="array" ref="S23">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R23,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>适应LV10:造成伤害时，有10%概率使该次伤害为怪物弱点元素伤害。</v>
+      </c>
+      <c r="T23" s="67"/>
+      <c r="U23" s="70" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" ht="30.5" customHeight="1" spans="1:9">
+    <row r="24" ht="30.5" customHeight="1" spans="1:21">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -4609,20 +5369,49 @@
       <c r="E24" s="13">
         <v>3</v>
       </c>
-      <c r="F24" s="55" t="s">
+      <c r="F24" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="47" t="str" cm="1">
+        <f t="array" ref="G24:I24">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F24,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F24,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷霆梦魇|品质:3</v>
+      </c>
+      <c r="H24" s="53" t="str">
+        <v>雷压飞翼兽|品质:3</v>
+      </c>
+      <c r="I24" s="53" t="str">
+        <v>雷电掌控者|品质:2</v>
+      </c>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="14">
+      <c r="M24" s="57" t="str" cm="1">
+        <f t="array" ref="M24:O24">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L24,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>生命值+120</v>
+      </c>
+      <c r="N24" s="59" t="str">
+        <v>攻击力+8</v>
+      </c>
+      <c r="O24" s="59" t="str">
+        <v>伤害减免+3%</v>
+      </c>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="14">
         <v>53</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="S24" s="67" t="str" cm="1">
+        <f t="array" ref="S24">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R24,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>只因LV5:复活时间的增加条件里减少1名玩家。</v>
+      </c>
+      <c r="T24" s="67"/>
+      <c r="U24" s="70" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:9">
+    <row r="25" ht="30.5" customHeight="1" spans="1:21">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -4636,20 +5425,51 @@
       <c r="E25" s="13">
         <v>3</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="47" t="str" cm="1">
+        <f t="array" ref="G25:I25">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F25,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F25,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷神鸟|品质:4</v>
+      </c>
+      <c r="H25" s="53" t="str">
+        <v>闪电制造者|品质:4</v>
+      </c>
+      <c r="I25" s="53" t="str">
+        <v>雷神|品质:4</v>
+      </c>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="M25" s="57" t="str" cm="1">
+        <f t="array" ref="M25:O25">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L25,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>生命值+180</v>
+      </c>
+      <c r="N25" s="59" t="str">
+        <v>生命值+220</v>
+      </c>
+      <c r="O25" s="59" t="str">
+        <v>暴击概率+15%</v>
+      </c>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="59" t="s">
+      <c r="S25" s="67" t="str" cm="1">
+        <f t="array" ref="S25:T25">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R25,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>亢奋LV5:受到伤害时，在5秒内恢复15%最大生命值。</v>
+      </c>
+      <c r="T25" s="67" t="str">
+        <v>坚毅LV5:免疫致命伤害，并恢复25%最大生命值，每360秒只触发一次效果。</v>
+      </c>
+      <c r="U25" s="70" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" ht="30.5" customHeight="1" spans="1:8">
+    <row r="26" ht="30.5" customHeight="1" spans="1:20">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -4663,17 +5483,54 @@
       <c r="E26" s="13">
         <v>5</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="F26" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="47" t="str" cm="1">
+        <f t="array" ref="G26:K26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F26,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F26,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰川鬼魂|品质:2</v>
+      </c>
+      <c r="H26" s="53" t="str">
+        <v>极寒精灵|品质:3</v>
+      </c>
+      <c r="I26" s="53" t="str">
+        <v>极寒冰狐|品质:2</v>
+      </c>
+      <c r="J26" s="53" t="str">
+        <v>极地少女|品质:2</v>
+      </c>
+      <c r="K26" s="53" t="str">
+        <v>冰川幼龟|品质:3</v>
+      </c>
+      <c r="L26" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="14">
+      <c r="M26" s="57" t="str" cm="1">
+        <f t="array" ref="M26:Q26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L26,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>防御力+15</v>
+      </c>
+      <c r="N26" s="59" t="str">
+        <v>生命恢复+5/s</v>
+      </c>
+      <c r="O26" s="59" t="str">
+        <v>攻击力+5</v>
+      </c>
+      <c r="P26" s="59" t="str">
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="Q26" s="59" t="str">
+        <v>伤害减免+3%</v>
+      </c>
+      <c r="R26" s="14">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" ht="30.5" customHeight="1" spans="1:8">
+      <c r="S26" s="67" t="str" cm="1">
+        <f t="array" ref="S26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R26,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>双重LV5:释放技能时有10%概率消耗双倍蓝量造成2.3倍伤害。</v>
+      </c>
+      <c r="T26" s="72"/>
+    </row>
+    <row r="27" ht="30.5" customHeight="1" spans="1:20">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -4687,17 +5544,46 @@
       <c r="E27" s="13">
         <v>3</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="47" t="str" cm="1">
+        <f t="array" ref="G27:I27">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F27,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F27,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰原行者|品质:3</v>
+      </c>
+      <c r="H27" s="53" t="str">
+        <v>近代冰魂（远程）|品质:4</v>
+      </c>
+      <c r="I27" s="53" t="str">
+        <v>极地虎|品质:4</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="14">
+      <c r="M27" s="57" t="str" cm="1">
+        <f t="array" ref="M27:O27">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L27,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击力+15</v>
+      </c>
+      <c r="N27" s="59" t="str">
+        <v>攻击力+35</v>
+      </c>
+      <c r="O27" s="59" t="str">
+        <v>暴击伤害+20%</v>
+      </c>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="14">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" ht="30.5" customHeight="1" spans="1:8">
+      <c r="S27" s="67" t="str" cm="1">
+        <f t="array" ref="S27">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R27,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
+      </c>
+      <c r="T27" s="72"/>
+    </row>
+    <row r="28" ht="30.5" customHeight="1" spans="1:20">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -4711,17 +5597,42 @@
       <c r="E28" s="13">
         <v>2</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="47" t="str" cm="1">
+        <f t="array" ref="G28:H28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F28,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F28,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>极地小冰龙|品质:2</v>
+      </c>
+      <c r="H28" s="53" t="str">
+        <v>极地小飞龙（远程）|品质:2</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="14">
+      <c r="M28" s="57" t="str" cm="1">
+        <f t="array" ref="M28:N28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L28,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>经验值获取+15%</v>
+      </c>
+      <c r="N28" s="59" t="str">
+        <v>灵魂获取+15%</v>
+      </c>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="14">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" ht="30.5" customHeight="1" spans="1:8">
+      <c r="S28" s="67" t="str" cm="1">
+        <f t="array" ref="S28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R28,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>治疗LV1:每过10秒，恢复1%最大生命值。</v>
+      </c>
+      <c r="T28" s="72"/>
+    </row>
+    <row r="29" ht="30.5" customHeight="1" spans="1:20">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -4735,17 +5646,56 @@
       <c r="E29" s="13">
         <v>5</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="47" t="str" cm="1">
+        <f t="array" ref="G29:K29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F29,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F29,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰晶石甲虫|品质:3</v>
+      </c>
+      <c r="H29" s="53" t="str">
+        <v>冰晶小海马|品质:3</v>
+      </c>
+      <c r="I29" s="53" t="str">
+        <v>冰原狐|品质:3</v>
+      </c>
+      <c r="J29" s="53" t="str">
+        <v>冰原犬|品质:4</v>
+      </c>
+      <c r="K29" s="53" t="str">
+        <v>冰宫守卫|品质:4</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="M29" s="57" t="str" cm="1">
+        <f t="array" ref="M29:Q29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L29,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击力+20</v>
+      </c>
+      <c r="N29" s="59" t="str">
+        <v>生命值+280</v>
+      </c>
+      <c r="O29" s="59" t="str">
+        <v>防御力+20</v>
+      </c>
+      <c r="P29" s="59" t="str">
+        <v>技能急速+10</v>
+      </c>
+      <c r="Q29" s="59" t="str">
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="R29" s="14" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="30" ht="30.5" customHeight="1" spans="1:8">
+      <c r="S29" s="67" t="str" cm="1">
+        <f t="array" ref="S29:T29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R29,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>坚毅LV10:免疫致命伤害，并恢复25%最大生命值，每180秒只触发一次效果。</v>
+      </c>
+      <c r="T29" s="72" t="str">
+        <v>治疗LV10:每过5秒，恢复5%最大生命值。</v>
+      </c>
+    </row>
+    <row r="30" ht="30.5" customHeight="1" spans="1:20">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -4759,17 +5709,56 @@
       <c r="E30" s="13">
         <v>5</v>
       </c>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="47" t="str" cm="1">
+        <f t="array" ref="G30:K30">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F30,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F30,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰宫奴仆（远程）|品质:3</v>
+      </c>
+      <c r="H30" s="53" t="str">
+        <v>冰甲战熊|品质:3</v>
+      </c>
+      <c r="I30" s="53" t="str">
+        <v>寒霜战士|品质:3</v>
+      </c>
+      <c r="J30" s="53" t="str">
+        <v>寒霜萨满（远程）|品质:4</v>
+      </c>
+      <c r="K30" s="53" t="str">
+        <v>冰甲战熊|品质:4</v>
+      </c>
+      <c r="L30" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="M30" s="57" t="str" cm="1">
+        <f t="array" ref="M30:Q30">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L30,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>伤害减免+5%</v>
+      </c>
+      <c r="N30" s="59" t="str">
+        <v>生命恢复+10/s</v>
+      </c>
+      <c r="O30" s="59" t="str">
+        <v>移动速度+5%</v>
+      </c>
+      <c r="P30" s="59" t="str">
+        <v>技能急速+10</v>
+      </c>
+      <c r="Q30" s="59" t="str">
+        <v>暴击伤害+20%</v>
+      </c>
+      <c r="R30" s="14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" ht="30.5" customHeight="1" spans="1:8">
+      <c r="S30" s="67" t="str" cm="1">
+        <f t="array" ref="S30:T30">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R30,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
+      </c>
+      <c r="T30" s="72" t="str">
+        <v>适应LV10:造成伤害时，有10%概率使该次伤害为怪物弱点元素伤害。</v>
+      </c>
+    </row>
+    <row r="31" ht="30.5" customHeight="1" spans="1:20">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -4783,17 +5772,48 @@
       <c r="E31" s="13">
         <v>3</v>
       </c>
-      <c r="F31" s="55" t="s">
+      <c r="F31" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="47" t="str" cm="1">
+        <f t="array" ref="G31:I31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F31,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F31,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰原巨兽(远程）|品质:4</v>
+      </c>
+      <c r="H31" s="53" t="str">
+        <v>极地熊战士|品质:6</v>
+      </c>
+      <c r="I31" s="53" t="str">
+        <v>极地巨人|品质:4</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="M31" s="57" t="str" cm="1">
+        <f t="array" ref="M31:O31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L31,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>伤害加成+5%</v>
+      </c>
+      <c r="N31" s="59" t="str">
+        <v>暴击伤害+45%</v>
+      </c>
+      <c r="O31" s="59" t="str">
+        <v>元素穿透+15%</v>
+      </c>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="14" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="32" ht="30.5" customHeight="1" spans="1:8">
+      <c r="S31" s="67" t="str" cm="1">
+        <f t="array" ref="S31:T31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R31,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>掌控LV5:暴击时，吸收本次伤害5%的血量。</v>
+      </c>
+      <c r="T31" s="72" t="str">
+        <v>传言LV10:英雄所具有的每秒生命恢复效果，在生命值恢复满之后，会按100%效率回复蓝量。</v>
+      </c>
+    </row>
+    <row r="32" ht="30.5" customHeight="1" spans="1:20">
       <c r="A32" s="15">
         <v>30</v>
       </c>
@@ -4807,14 +5827,49 @@
       <c r="E32" s="17">
         <v>4</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F32" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="47" t="str" cm="1">
+        <f t="array" ref="G32:J32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F32,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F32,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>极地熊战士|品质:6</v>
+      </c>
+      <c r="H32" s="54" t="str">
+        <v>冰原猩猩兽|品质:5</v>
+      </c>
+      <c r="I32" s="54" t="str">
+        <v>极地巨人|品质:4</v>
+      </c>
+      <c r="J32" s="54" t="str">
+        <v>极地四脚兽|品质:5</v>
+      </c>
+      <c r="K32" s="54"/>
+      <c r="L32" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="M32" s="57" t="str" cm="1">
+        <f t="array" ref="M32:P32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L32,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>元素伤害+10%</v>
+      </c>
+      <c r="N32" s="60" t="str">
+        <v>元素伤害+10%</v>
+      </c>
+      <c r="O32" s="60" t="str">
+        <v>元素穿透+10%</v>
+      </c>
+      <c r="P32" s="60" t="str">
+        <v>技能急速+20</v>
+      </c>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="18" t="s">
         <v>135</v>
+      </c>
+      <c r="S32" s="67" t="str" cm="1">
+        <f t="array" ref="S32:T32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R32,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>适应LV5:造成伤害时，有5%概率使该次伤害为怪物弱点元素伤害。</v>
+      </c>
+      <c r="T32" s="72" t="str">
+        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
       </c>
     </row>
   </sheetData>
@@ -4828,8 +5883,8 @@
   <sheetPr/>
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7652,8 +8707,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8429,8 +9484,8 @@
   <sheetPr/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="439">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -78,679 +78,682 @@
     <t>羁绊技能id</t>
   </si>
   <si>
+    <t>pictuer_suit</t>
+  </si>
+  <si>
+    <t>is_show</t>
+  </si>
+  <si>
+    <t>AbilityTextureName</t>
+  </si>
+  <si>
+    <t>consume</t>
+  </si>
+  <si>
+    <t>card_ids</t>
+  </si>
+  <si>
+    <t>attr_ids</t>
+  </si>
+  <si>
+    <t>ability_id</t>
+  </si>
+  <si>
+    <t>游荡的鬼魂</t>
+  </si>
+  <si>
+    <t>13|64|95</t>
+  </si>
+  <si>
+    <t>11|29|1</t>
+  </si>
+  <si>
+    <t>爱吃石甲虫</t>
+  </si>
+  <si>
+    <t>74|14</t>
+  </si>
+  <si>
+    <t>14|22</t>
+  </si>
+  <si>
+    <t>龟龟，我的龟龟</t>
+  </si>
+  <si>
+    <t>68|108|17|40</t>
+  </si>
+  <si>
+    <t>37|46|21|29</t>
+  </si>
+  <si>
+    <t>极地吉祥物</t>
+  </si>
+  <si>
+    <t>76|77</t>
+  </si>
+  <si>
+    <t>23|3</t>
+  </si>
+  <si>
+    <t>是鹫不是舅</t>
+  </si>
+  <si>
+    <t>42|43|44|106</t>
+  </si>
+  <si>
+    <t>43|26|31</t>
+  </si>
+  <si>
+    <t>冰与火S</t>
+  </si>
+  <si>
+    <t>5|71</t>
+  </si>
+  <si>
+    <t>10|9</t>
+  </si>
+  <si>
+    <t>沙漠和绿洲S</t>
+  </si>
+  <si>
+    <t>97|98</t>
+  </si>
+  <si>
+    <t>18|11</t>
+  </si>
+  <si>
+    <t>炼狱disco</t>
+  </si>
+  <si>
+    <t>4|5</t>
+  </si>
+  <si>
+    <t>37|37</t>
+  </si>
+  <si>
+    <t>讨厌的手</t>
+  </si>
+  <si>
+    <t>39|102|105</t>
+  </si>
+  <si>
+    <t>7|19|44</t>
+  </si>
+  <si>
+    <t>四元素圣使</t>
+  </si>
+  <si>
+    <t>126|127|128|129</t>
+  </si>
+  <si>
+    <t>45|45|47|33</t>
+  </si>
+  <si>
+    <t>38|36</t>
+  </si>
+  <si>
+    <t>食人魔的先驱者</t>
+  </si>
+  <si>
+    <t>25|10</t>
+  </si>
+  <si>
+    <t>45|31</t>
+  </si>
+  <si>
+    <t>50|2|3</t>
+  </si>
+  <si>
+    <t>来自地狱的熊</t>
+  </si>
+  <si>
+    <t>25|26</t>
+  </si>
+  <si>
+    <t>43|34</t>
+  </si>
+  <si>
+    <t>被折翼的枭兽</t>
+  </si>
+  <si>
+    <t>27|28</t>
+  </si>
+  <si>
+    <t>24|9</t>
+  </si>
+  <si>
+    <t>黑龙的诅咒</t>
+  </si>
+  <si>
+    <t>29|30</t>
+  </si>
+  <si>
+    <t>6|28</t>
+  </si>
+  <si>
+    <t>来自远古的恐惧</t>
+  </si>
+  <si>
+    <t>31|32|33|34</t>
+  </si>
+  <si>
+    <t>52|51|13|49</t>
+  </si>
+  <si>
+    <t>傀儡的主人</t>
+  </si>
+  <si>
+    <t>35|36</t>
+  </si>
+  <si>
+    <t>17|17</t>
+  </si>
+  <si>
+    <t>不朽之守护</t>
+  </si>
+  <si>
+    <t>37|38|39</t>
+  </si>
+  <si>
+    <t>53|40|54</t>
+  </si>
+  <si>
+    <t>9|60</t>
+  </si>
+  <si>
+    <t>象牙海民的亡灵</t>
+  </si>
+  <si>
+    <t>40|41|42</t>
+  </si>
+  <si>
+    <t>51|26|29</t>
+  </si>
+  <si>
+    <t>传说的象牙三圣母</t>
+  </si>
+  <si>
+    <t>43|44|45</t>
+  </si>
+  <si>
+    <t>37|10|5</t>
+  </si>
+  <si>
+    <t>遥远的寒霜巨兽</t>
+  </si>
+  <si>
+    <t>46|47|48|49</t>
+  </si>
+  <si>
+    <t>42|16|38|27</t>
+  </si>
+  <si>
+    <t>32|44</t>
+  </si>
+  <si>
+    <t>喜欢做鳄梦</t>
+  </si>
+  <si>
+    <t>50|51|52|53</t>
+  </si>
+  <si>
+    <t>37|34|29|31</t>
+  </si>
+  <si>
+    <t>彩虹的颜色</t>
+  </si>
+  <si>
+    <t>54|55|56|57</t>
+  </si>
+  <si>
+    <t>25|18|9|11</t>
+  </si>
+  <si>
+    <t>坚持了两年半</t>
+  </si>
+  <si>
+    <t>58|59|60</t>
+  </si>
+  <si>
+    <t>15|2|50</t>
+  </si>
+  <si>
+    <t>远古的三巨头</t>
+  </si>
+  <si>
+    <t>61|62|63</t>
+  </si>
+  <si>
+    <t>16|18|39</t>
+  </si>
+  <si>
+    <t>23|17</t>
+  </si>
+  <si>
+    <t>有肉的和没肉的</t>
+  </si>
+  <si>
+    <t>64|65|66|67|68</t>
+  </si>
+  <si>
+    <t>11|29|1|37|50</t>
+  </si>
+  <si>
+    <t>来自地狱</t>
+  </si>
+  <si>
+    <t>69|70|71</t>
+  </si>
+  <si>
+    <t>4|8|40</t>
+  </si>
+  <si>
+    <t>爱吃树墩</t>
+  </si>
+  <si>
+    <t>72|73</t>
+  </si>
+  <si>
+    <t>正牌天辉军</t>
+  </si>
+  <si>
+    <t>74|75|76|77|78</t>
+  </si>
+  <si>
+    <t>6|20|12|32|37</t>
+  </si>
+  <si>
+    <t>18|57</t>
+  </si>
+  <si>
+    <t>正牌夜魇部队</t>
+  </si>
+  <si>
+    <t>79|80|81|82|83</t>
+  </si>
+  <si>
+    <t>51|30|27|32|40</t>
+  </si>
+  <si>
+    <t>36|39</t>
+  </si>
+  <si>
+    <t>元素大陆的掌控者</t>
+  </si>
+  <si>
+    <t>88|84|86</t>
+  </si>
+  <si>
+    <t>43|41|48</t>
+  </si>
+  <si>
+    <t>50|12</t>
+  </si>
+  <si>
+    <t>卡片索引</t>
+  </si>
+  <si>
+    <t>存档物品id</t>
+  </si>
+  <si>
+    <t>卡片名字</t>
+  </si>
+  <si>
+    <t>合成方式 1 普通 2需要特殊卡片 0无法被合成</t>
+  </si>
+  <si>
+    <t>合成所需特殊卡片id</t>
+  </si>
+  <si>
+    <t>卡片图片</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>2绿3蓝4紫5金</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>compound_type</t>
+  </si>
+  <si>
+    <t>special_compound</t>
+  </si>
+  <si>
+    <t>rarity</t>
+  </si>
+  <si>
     <t>地狱熊怪粉碎者</t>
   </si>
   <si>
-    <t>pictuer_suit</t>
-  </si>
-  <si>
-    <t>is_show</t>
-  </si>
-  <si>
-    <t>AbilityTextureName</t>
-  </si>
-  <si>
-    <t>consume</t>
-  </si>
-  <si>
-    <t>card_ids</t>
-  </si>
-  <si>
-    <t>attr_ids</t>
-  </si>
-  <si>
-    <t>ability_id</t>
+    <t>99|99</t>
+  </si>
+  <si>
+    <t>地狱羚羊</t>
+  </si>
+  <si>
+    <t>疾行火熊</t>
+  </si>
+  <si>
+    <t>炼狱亡魂</t>
+  </si>
+  <si>
+    <t>炼狱狼</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>夜魇超级近战兵</t>
+  </si>
+  <si>
+    <t>炽甲虫战士</t>
+  </si>
+  <si>
+    <t>炽甲虫战车</t>
+  </si>
+  <si>
+    <t>远古地狱巨人</t>
+  </si>
+  <si>
+    <t>骷髅勇士</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>炼狱石甲虫</t>
+  </si>
+  <si>
+    <t>炼狱战熊</t>
+  </si>
+  <si>
+    <t>炼狱界弓</t>
+  </si>
+  <si>
+    <t>烈焰战龟</t>
+  </si>
+  <si>
+    <t>炼狱蜘蛛</t>
+  </si>
+  <si>
+    <t>地狱猎蜥</t>
+  </si>
+  <si>
+    <t>地狱火精灵</t>
+  </si>
+  <si>
+    <t>地狱领主</t>
+  </si>
+  <si>
+    <t>熔岩飞翼兽</t>
+  </si>
+  <si>
+    <t>冥火剑圣</t>
+  </si>
+  <si>
+    <t>双斧狂战</t>
+  </si>
+  <si>
+    <t>熔岩卫兵</t>
+  </si>
+  <si>
+    <t>远古地狱火</t>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+  </si>
+  <si>
+    <t>烈焰神狐</t>
+  </si>
+  <si>
+    <t>地狱双头犬</t>
+  </si>
+  <si>
+    <t>烈焰战神</t>
+  </si>
+  <si>
+    <t>炼狱之王</t>
   </si>
   <si>
     <t>小狗头人</t>
   </si>
   <si>
-    <t>游荡的鬼魂</t>
-  </si>
-  <si>
-    <t>13|64|95</t>
-  </si>
-  <si>
-    <t>11|29|1</t>
+    <t>雷电之魂</t>
+  </si>
+  <si>
+    <t>萨特窃神者</t>
+  </si>
+  <si>
+    <t>远古岚肤兽</t>
+  </si>
+  <si>
+    <t>雷树精兽</t>
+  </si>
+  <si>
+    <t>雷角兽</t>
+  </si>
+  <si>
+    <t>38|39</t>
+  </si>
+  <si>
+    <t>雷须兽</t>
+  </si>
+  <si>
+    <t>霹雳怪手</t>
+  </si>
+  <si>
+    <t>雷霆晶龟</t>
+  </si>
+  <si>
+    <t>幼年青眼雷龙</t>
+  </si>
+  <si>
+    <t>雷羽鹫</t>
+  </si>
+  <si>
+    <t>雷山鹫</t>
+  </si>
+  <si>
+    <t>雷翼鹫</t>
+  </si>
+  <si>
+    <t>霹雳怪虫</t>
+  </si>
+  <si>
+    <t>独角雷兽</t>
+  </si>
+  <si>
+    <t>雷电见习者</t>
+  </si>
+  <si>
+    <t>雷霆拍熊</t>
+  </si>
+  <si>
+    <t>雷翼飞狐</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>青眼雷龙</t>
+  </si>
+  <si>
+    <t>霹雳怪泥</t>
+  </si>
+  <si>
+    <t>雷霆战蜥</t>
+  </si>
+  <si>
+    <t>霹雳女妖</t>
+  </si>
+  <si>
+    <t>雷压巨兽</t>
+  </si>
+  <si>
+    <t>雷压射手</t>
+  </si>
+  <si>
+    <t>雷霆梦魇</t>
+  </si>
+  <si>
+    <t>雷压飞翼兽</t>
+  </si>
+  <si>
+    <t>雷电掌控者</t>
+  </si>
+  <si>
+    <t>雷神鸟</t>
+  </si>
+  <si>
+    <t>闪电制造者</t>
+  </si>
+  <si>
+    <t>雷神</t>
   </si>
   <si>
     <t>冰川鬼魂</t>
   </si>
   <si>
-    <t>爱吃石甲虫</t>
-  </si>
-  <si>
-    <t>74|14</t>
-  </si>
-  <si>
-    <t>14|22</t>
+    <t>极寒精灵</t>
+  </si>
+  <si>
+    <t>极寒冰狐</t>
+  </si>
+  <si>
+    <t>极地少女</t>
+  </si>
+  <si>
+    <t>冰川幼龟</t>
+  </si>
+  <si>
+    <t>冰原行者</t>
+  </si>
+  <si>
+    <t>近代冰魂（远程）</t>
+  </si>
+  <si>
+    <t>极地虎</t>
+  </si>
+  <si>
+    <t>极地小冰龙</t>
+  </si>
+  <si>
+    <t>极地小飞龙（远程）</t>
+  </si>
+  <si>
+    <t>冰晶石甲虫</t>
+  </si>
+  <si>
+    <t>冰晶小海马</t>
+  </si>
+  <si>
+    <t>冰原狐</t>
+  </si>
+  <si>
+    <t>冰原犬</t>
+  </si>
+  <si>
+    <t>冰宫守卫</t>
+  </si>
+  <si>
+    <t>冰宫奴仆（远程）</t>
+  </si>
+  <si>
+    <t>冰甲战熊</t>
+  </si>
+  <si>
+    <t>寒霜战士</t>
+  </si>
+  <si>
+    <t>寒霜萨满（远程）</t>
+  </si>
+  <si>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>85|87</t>
+  </si>
+  <si>
+    <t>冰原猩猩兽</t>
+  </si>
+  <si>
+    <t>极地巨人</t>
+  </si>
+  <si>
+    <t>极地四脚兽</t>
+  </si>
+  <si>
+    <t>冰原巨兽(远程）</t>
+  </si>
+  <si>
+    <t>极冰守卫</t>
+  </si>
+  <si>
+    <t>冰原守卫</t>
+  </si>
+  <si>
+    <t>极寒领主</t>
+  </si>
+  <si>
+    <t>极寒蛛美丽</t>
+  </si>
+  <si>
+    <t>冰原领主</t>
+  </si>
+  <si>
+    <t>冰宫女王</t>
   </si>
   <si>
     <t>绿洲鬼魂</t>
   </si>
   <si>
-    <t>龟龟，我的龟龟</t>
-  </si>
-  <si>
-    <t>68|108|17|40</t>
-  </si>
-  <si>
-    <t>37|46|21|29</t>
-  </si>
-  <si>
-    <t>雷电之魂</t>
-  </si>
-  <si>
-    <t>极地吉祥物</t>
-  </si>
-  <si>
-    <t>76|77</t>
-  </si>
-  <si>
-    <t>23|3</t>
+    <t>绿洲丧尸</t>
   </si>
   <si>
     <t>幼年沙龙</t>
   </si>
   <si>
-    <t>是鹫不是舅</t>
-  </si>
-  <si>
-    <t>42|43|44|106</t>
-  </si>
-  <si>
-    <t>43|26|31</t>
-  </si>
-  <si>
     <t>绿洲精灵幼龙</t>
   </si>
   <si>
-    <t>冰与火S</t>
-  </si>
-  <si>
-    <t>5|71</t>
-  </si>
-  <si>
-    <t>10|9</t>
-  </si>
-  <si>
-    <t>炼狱亡魂</t>
-  </si>
-  <si>
-    <t>沙漠和绿洲S</t>
-  </si>
-  <si>
-    <t>97|98</t>
-  </si>
-  <si>
-    <t>18|11</t>
-  </si>
-  <si>
-    <t>炼狱狼</t>
-  </si>
-  <si>
-    <t>炼狱disco</t>
-  </si>
-  <si>
-    <t>4|5</t>
-  </si>
-  <si>
-    <t>37|37</t>
-  </si>
-  <si>
-    <t>烈焰战龟</t>
-  </si>
-  <si>
-    <t>讨厌的手</t>
-  </si>
-  <si>
-    <t>39|102|105</t>
-  </si>
-  <si>
-    <t>7|19|44</t>
-  </si>
-  <si>
-    <t>雷霆晶龟</t>
-  </si>
-  <si>
-    <t>食人魔的先驱者</t>
-  </si>
-  <si>
-    <t>23|24</t>
-  </si>
-  <si>
-    <t>45|31</t>
-  </si>
-  <si>
-    <t>冰川幼龟</t>
-  </si>
-  <si>
-    <t>来自地狱的熊</t>
-  </si>
-  <si>
-    <t>25|26</t>
-  </si>
-  <si>
-    <t>43|34</t>
+    <t>绿洲跳跳蛙</t>
+  </si>
+  <si>
+    <t>绿洲剧毒蛇</t>
+  </si>
+  <si>
+    <t>绿洲剧毒飞蛇（远程）</t>
+  </si>
+  <si>
+    <t>狂沙怪手</t>
+  </si>
+  <si>
+    <t>绿洲精灵马</t>
+  </si>
+  <si>
+    <t>绿洲魔法飞马（远程）</t>
+  </si>
+  <si>
+    <t>绿洲怪手</t>
+  </si>
+  <si>
+    <t>毒风鹫</t>
+  </si>
+  <si>
+    <t>绿洲小精灵</t>
   </si>
   <si>
     <t>沙漠金龟</t>
-  </si>
-  <si>
-    <t>被折翼的枭兽</t>
-  </si>
-  <si>
-    <t>27|28</t>
-  </si>
-  <si>
-    <t>24|9</t>
-  </si>
-  <si>
-    <t>炼狱石甲虫</t>
-  </si>
-  <si>
-    <t>黑龙的诅咒</t>
-  </si>
-  <si>
-    <t>29|30</t>
-  </si>
-  <si>
-    <t>6|28</t>
-  </si>
-  <si>
-    <t>冰晶石甲虫</t>
-  </si>
-  <si>
-    <t>来自远古的恐惧</t>
-  </si>
-  <si>
-    <t>31|32|33|34</t>
-  </si>
-  <si>
-    <t>52|51|13|49</t>
-  </si>
-  <si>
-    <t>霹雳怪手</t>
-  </si>
-  <si>
-    <t>傀儡的主人</t>
-  </si>
-  <si>
-    <t>35|36</t>
-  </si>
-  <si>
-    <t>17|17</t>
-  </si>
-  <si>
-    <t>狂沙怪手</t>
-  </si>
-  <si>
-    <t>不朽之守护</t>
-  </si>
-  <si>
-    <t>37|38|39</t>
-  </si>
-  <si>
-    <t>53|40|54</t>
-  </si>
-  <si>
-    <t>9|60</t>
-  </si>
-  <si>
-    <t>绿洲怪手</t>
-  </si>
-  <si>
-    <t>象牙海民的亡灵</t>
-  </si>
-  <si>
-    <t>40|41|42</t>
-  </si>
-  <si>
-    <t>51|26|29</t>
-  </si>
-  <si>
-    <t>雷羽鹫</t>
-  </si>
-  <si>
-    <t>传说的象牙三圣母</t>
-  </si>
-  <si>
-    <t>43|44|45</t>
-  </si>
-  <si>
-    <t>37|10|5</t>
-  </si>
-  <si>
-    <t>雷山鹫</t>
-  </si>
-  <si>
-    <t>遥远的寒霜巨兽</t>
-  </si>
-  <si>
-    <t>46|47|48|49</t>
-  </si>
-  <si>
-    <t>42|16|38|27</t>
-  </si>
-  <si>
-    <t>32|44</t>
-  </si>
-  <si>
-    <t>雷翼鹫</t>
-  </si>
-  <si>
-    <t>喜欢做鳄梦</t>
-  </si>
-  <si>
-    <t>50|51|52|53</t>
-  </si>
-  <si>
-    <t>37|34|29|31</t>
-  </si>
-  <si>
-    <t>毒风鹫</t>
-  </si>
-  <si>
-    <t>彩虹的颜色</t>
-  </si>
-  <si>
-    <t>54|55|56|57</t>
-  </si>
-  <si>
-    <t>25|18|9|11</t>
-  </si>
-  <si>
-    <t>冰原狐</t>
-  </si>
-  <si>
-    <t>坚持了两年半</t>
-  </si>
-  <si>
-    <t>58|59|60</t>
-  </si>
-  <si>
-    <t>15|2|50</t>
-  </si>
-  <si>
-    <t>冰原犬</t>
-  </si>
-  <si>
-    <t>远古的三巨头</t>
-  </si>
-  <si>
-    <t>61|62|63</t>
-  </si>
-  <si>
-    <t>16|18|39</t>
-  </si>
-  <si>
-    <t>23|17</t>
-  </si>
-  <si>
-    <t>极地虎</t>
-  </si>
-  <si>
-    <t>有肉的和没肉的</t>
-  </si>
-  <si>
-    <t>64|65|66|67|68</t>
-  </si>
-  <si>
-    <t>11|29|1|37|50</t>
-  </si>
-  <si>
-    <t>来自地狱</t>
-  </si>
-  <si>
-    <t>69|70|71</t>
-  </si>
-  <si>
-    <t>4|8|40</t>
-  </si>
-  <si>
-    <t>爱吃树墩</t>
-  </si>
-  <si>
-    <t>72|73</t>
-  </si>
-  <si>
-    <t>正牌天辉军</t>
-  </si>
-  <si>
-    <t>74|75|76|77|78</t>
-  </si>
-  <si>
-    <t>6|20|12|32|37</t>
-  </si>
-  <si>
-    <t>18|57</t>
-  </si>
-  <si>
-    <t>正牌夜魇部队</t>
-  </si>
-  <si>
-    <t>79|80|81|82|83</t>
-  </si>
-  <si>
-    <t>51|30|27|32|40</t>
-  </si>
-  <si>
-    <t>36|39</t>
-  </si>
-  <si>
-    <t>元素大陆的掌控者</t>
-  </si>
-  <si>
-    <t>88|84|86</t>
-  </si>
-  <si>
-    <t>43|41|48</t>
-  </si>
-  <si>
-    <t>50|12</t>
-  </si>
-  <si>
-    <t>四元素圣使</t>
-  </si>
-  <si>
-    <t>84|85|86|87</t>
-  </si>
-  <si>
-    <t>45|45|47|33</t>
-  </si>
-  <si>
-    <t>38|36</t>
-  </si>
-  <si>
-    <t>卡片索引</t>
-  </si>
-  <si>
-    <t>存档物品id</t>
-  </si>
-  <si>
-    <t>卡片名字</t>
-  </si>
-  <si>
-    <t>合成方式 1 普通 2需要特殊卡片 0无法被合成</t>
-  </si>
-  <si>
-    <t>合成所需特殊卡片id</t>
-  </si>
-  <si>
-    <t>卡片图片</t>
-  </si>
-  <si>
-    <t>稀有度</t>
-  </si>
-  <si>
-    <t>2绿3蓝4紫5金</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>compound_type</t>
-  </si>
-  <si>
-    <t>special_compound</t>
-  </si>
-  <si>
-    <t>rarity</t>
-  </si>
-  <si>
-    <t>99|99</t>
-  </si>
-  <si>
-    <t>地狱羚羊</t>
-  </si>
-  <si>
-    <t>疾行火熊</t>
-  </si>
-  <si>
-    <t>夜魇近战兵</t>
-  </si>
-  <si>
-    <t>夜魇远程兵</t>
-  </si>
-  <si>
-    <t>夜魇超级近战兵</t>
-  </si>
-  <si>
-    <t>炽甲虫战士</t>
-  </si>
-  <si>
-    <t>炽甲虫战车</t>
-  </si>
-  <si>
-    <t>远古地狱巨人</t>
-  </si>
-  <si>
-    <t>骷髅勇士</t>
-  </si>
-  <si>
-    <t>地狱火</t>
-  </si>
-  <si>
-    <t>炼狱战熊</t>
-  </si>
-  <si>
-    <t>炼狱界弓</t>
-  </si>
-  <si>
-    <t>炼狱蜘蛛</t>
-  </si>
-  <si>
-    <t>地狱猎蜥</t>
-  </si>
-  <si>
-    <t>地狱火精灵</t>
-  </si>
-  <si>
-    <t>地狱领主</t>
-  </si>
-  <si>
-    <t>熔岩飞翼兽</t>
-  </si>
-  <si>
-    <t>冥火剑圣</t>
-  </si>
-  <si>
-    <t>双斧狂战</t>
-  </si>
-  <si>
-    <t>熔岩卫兵</t>
-  </si>
-  <si>
-    <t>远古地狱火</t>
-  </si>
-  <si>
-    <t>熔岩巨人</t>
-  </si>
-  <si>
-    <t>烈焰神狐</t>
-  </si>
-  <si>
-    <t>地狱双头犬</t>
-  </si>
-  <si>
-    <t>烈焰战神</t>
-  </si>
-  <si>
-    <t>炼狱之王</t>
-  </si>
-  <si>
-    <t>萨特窃神者</t>
-  </si>
-  <si>
-    <t>远古岚肤兽</t>
-  </si>
-  <si>
-    <t>雷树精兽</t>
-  </si>
-  <si>
-    <t>雷角兽</t>
-  </si>
-  <si>
-    <t>38|39</t>
-  </si>
-  <si>
-    <t>雷须兽</t>
-  </si>
-  <si>
-    <t>幼年青眼雷龙</t>
-  </si>
-  <si>
-    <t>霹雳怪虫</t>
-  </si>
-  <si>
-    <t>独角雷兽</t>
-  </si>
-  <si>
-    <t>雷电见习者</t>
-  </si>
-  <si>
-    <t>雷霆拍熊</t>
-  </si>
-  <si>
-    <t>雷翼飞狐</t>
-  </si>
-  <si>
-    <t>远古黑龙</t>
-  </si>
-  <si>
-    <t>雷霆领主</t>
-  </si>
-  <si>
-    <t>青眼雷龙</t>
-  </si>
-  <si>
-    <t>霹雳怪泥</t>
-  </si>
-  <si>
-    <t>雷霆战蜥</t>
-  </si>
-  <si>
-    <t>霹雳女妖</t>
-  </si>
-  <si>
-    <t>雷压巨兽</t>
-  </si>
-  <si>
-    <t>雷压射手</t>
-  </si>
-  <si>
-    <t>雷霆梦魇</t>
-  </si>
-  <si>
-    <t>雷压飞翼兽</t>
-  </si>
-  <si>
-    <t>雷电掌控者</t>
-  </si>
-  <si>
-    <t>雷神鸟</t>
-  </si>
-  <si>
-    <t>闪电制造者</t>
-  </si>
-  <si>
-    <t>雷神</t>
-  </si>
-  <si>
-    <t>极寒精灵</t>
-  </si>
-  <si>
-    <t>极寒冰狐</t>
-  </si>
-  <si>
-    <t>极地少女</t>
-  </si>
-  <si>
-    <t>冰原行者</t>
-  </si>
-  <si>
-    <t>近代冰魂（远程）</t>
-  </si>
-  <si>
-    <t>极地小冰龙</t>
-  </si>
-  <si>
-    <t>极地小飞龙（远程）</t>
-  </si>
-  <si>
-    <t>冰晶小海马</t>
-  </si>
-  <si>
-    <t>冰宫守卫</t>
-  </si>
-  <si>
-    <t>冰宫奴仆（远程）</t>
-  </si>
-  <si>
-    <t>冰甲战熊</t>
-  </si>
-  <si>
-    <t>寒霜战士</t>
-  </si>
-  <si>
-    <t>寒霜萨满（远程）</t>
-  </si>
-  <si>
-    <t>极地熊战士</t>
-  </si>
-  <si>
-    <t>85|87</t>
-  </si>
-  <si>
-    <t>冰原猩猩兽</t>
-  </si>
-  <si>
-    <t>极地巨人</t>
-  </si>
-  <si>
-    <t>极地四脚兽</t>
-  </si>
-  <si>
-    <t>冰原巨兽(远程）</t>
-  </si>
-  <si>
-    <t>极冰守卫</t>
-  </si>
-  <si>
-    <t>冰原守卫</t>
-  </si>
-  <si>
-    <t>极寒领主</t>
-  </si>
-  <si>
-    <t>极寒蛛美丽</t>
-  </si>
-  <si>
-    <t>冰原领主</t>
-  </si>
-  <si>
-    <t>冰宫女王</t>
-  </si>
-  <si>
-    <t>绿洲丧尸</t>
-  </si>
-  <si>
-    <t>绿洲跳跳蛙</t>
-  </si>
-  <si>
-    <t>绿洲剧毒蛇</t>
-  </si>
-  <si>
-    <t>绿洲剧毒飞蛇（远程）</t>
-  </si>
-  <si>
-    <t>绿洲精灵马</t>
-  </si>
-  <si>
-    <t>绿洲魔法飞马（远程）</t>
-  </si>
-  <si>
-    <t>绿洲小精灵</t>
   </si>
   <si>
     <t>天辉高级战士</t>
@@ -1491,7 +1494,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,9 +1542,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1690,7 +1704,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1712,6 +1726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,137 +2451,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2676,22 +2696,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,22 +2738,25 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2739,43 +2765,70 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3741,16 +3794,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{1E945D57-404E-487D-AA1D-80DAEF398DBB}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{70B5DE15-58DC-4CC2-9AB2-DA6E88B5989F}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EF3A0304-17B2-457C-ABA3-4843F2C86B38}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{11EF5AAD-EC73-4279-AA74-68382CC610E9}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{1A39AE81-8A37-4A14-B80B-A285CE6F1989}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{8CFFC3A8-5796-458A-9E12-BF70A3608164}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -3759,7 +3812,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3147DEA5-61AA-4276-ABFD-E3C7A5B9A8B4}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B6C0890A-0405-4754-872D-B4BA57927A53}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3771,7 +3824,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{B0A739DF-6577-4CAA-8B0E-6F1897B81CDC}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{2389D276-2CBF-42B7-AFBA-3B994B0EF163}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4087,10 +4140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4107,639 +4160,636 @@
     <col min="12" max="17" width="16.8416666666667" style="35" customWidth="1"/>
     <col min="18" max="18" width="16.025" style="35" customWidth="1"/>
     <col min="19" max="20" width="62.05" style="35" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="35" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="35"/>
+    <col min="21" max="21" width="47.375" style="35" customWidth="1"/>
+    <col min="22" max="22" width="13.25" style="35" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:21">
-      <c r="A1" s="38" t="s">
+    <row r="1" ht="31.25" customHeight="1" spans="1:22">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="61" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="63" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="67"/>
+    </row>
+    <row r="2" ht="31.25" customHeight="1" spans="1:22">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="31.25" customHeight="1" spans="1:21">
-      <c r="A2" s="41" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42" t="s">
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="64" t="s">
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="70"/>
+    </row>
+    <row r="3" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="65" t="s">
+      <c r="C3" s="46">
+        <v>1</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47">
+        <v>3</v>
+      </c>
+      <c r="F3" s="48" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A3" s="44">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="45">
-        <v>1</v>
-      </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46">
-        <v>3</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="47" t="str" cm="1">
+      <c r="G3" s="48" t="str" cm="1">
         <f t="array" ref="G3:I3">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F3,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F3,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>地狱火|品质:4</v>
       </c>
-      <c r="H3" s="45" t="str">
+      <c r="H3" s="46" t="str">
         <v>冰川鬼魂|品质:2</v>
       </c>
-      <c r="I3" s="45" t="str">
+      <c r="I3" s="46" t="str">
         <v>绿洲鬼魂|品质:-3</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="57" t="str" cm="1">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="59" t="str" cm="1">
         <f t="array" ref="M3:O3">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L3,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>防御力+15</v>
       </c>
-      <c r="N3" s="57" t="str">
+      <c r="N3" s="59" t="str">
         <v>生命恢复+5/s</v>
       </c>
-      <c r="O3" s="57" t="str">
+      <c r="O3" s="59" t="str">
         <v>攻击力+5</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="66">
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="71">
         <v>14</v>
       </c>
-      <c r="S3" s="67" t="str" cm="1">
+      <c r="S3" s="72" t="str" cm="1">
         <f t="array" ref="S3">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R3,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>极速LV5:击杀敌人时有15%概率提高10%移动速度，持续5秒，可叠加3层。</v>
       </c>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A4" s="48">
+      <c r="T3" s="72"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+    </row>
+    <row r="4" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="49">
-        <v>1</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50">
+      <c r="B4" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="50">
+        <v>1</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51">
         <v>2</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="47" t="str" cm="1">
+      <c r="F4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="48" t="str" cm="1">
         <f t="array" ref="G4:H4">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F4,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F4,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>冰晶石甲虫|品质:3</v>
       </c>
-      <c r="H4" s="51" t="str">
+      <c r="H4" s="46" t="str">
         <v>炼狱石甲虫|品质:3</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="57" t="str" cm="1">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="59" t="str" cm="1">
         <f t="array" ref="M4:N4">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L4,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>生命值+100</v>
       </c>
-      <c r="N4" s="58" t="str">
+      <c r="N4" s="60" t="str">
         <v>攻击速度+10%</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="69">
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="75">
         <v>56</v>
       </c>
-      <c r="S4" s="67" t="str" cm="1">
+      <c r="S4" s="72" t="str" cm="1">
         <f t="array" ref="S4">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R4,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>治疗LV5:每过5秒，恢复2%最大生命值。</v>
       </c>
-      <c r="T4" s="67"/>
-      <c r="U4" s="68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A5" s="48">
+      <c r="T4" s="72"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="74"/>
+    </row>
+    <row r="5" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A5" s="49">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="49">
-        <v>1</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49">
+      <c r="B5" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="50">
+        <v>1</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50">
         <v>4</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="47" t="str" cm="1">
+      <c r="F5" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="48" t="str" cm="1">
         <f t="array" ref="G5:J5">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F5,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F5,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>冰川幼龟|品质:3</v>
       </c>
-      <c r="H5" s="51" t="str">
+      <c r="H5" s="46" t="str">
         <v>沙漠金龟|品质:-16</v>
       </c>
-      <c r="I5" s="51" t="str">
+      <c r="I5" s="46" t="str">
         <v>烈焰战龟|品质:3</v>
       </c>
-      <c r="J5" s="51" t="str">
+      <c r="J5" s="46" t="str">
         <v>雷霆晶龟|品质:2</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="57" t="str" cm="1">
+      <c r="K5" s="46"/>
+      <c r="L5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="59" t="str" cm="1">
         <f t="array" ref="M5:P5">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L5,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>暴击概率+5%</v>
       </c>
-      <c r="N5" s="58" t="str">
+      <c r="N5" s="60" t="str">
         <v>元素伤害+12%</v>
       </c>
-      <c r="O5" s="58" t="str">
+      <c r="O5" s="60" t="str">
         <v>生命值+310</v>
       </c>
-      <c r="P5" s="58" t="str">
+      <c r="P5" s="60" t="str">
         <v>生命恢复+5/s</v>
       </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="69">
+      <c r="Q5" s="60"/>
+      <c r="R5" s="75">
         <v>17</v>
       </c>
-      <c r="S5" s="67" t="str" cm="1">
+      <c r="S5" s="72" t="str" cm="1">
         <f t="array" ref="S5">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R5,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>坚毅LV5:免疫致命伤害，并恢复25%最大生命值，每360秒只触发一次效果。</v>
       </c>
-      <c r="T5" s="67"/>
-      <c r="U5" s="68" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A6" s="48">
+      <c r="T5" s="72"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="74"/>
+    </row>
+    <row r="6" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A6" s="49">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="49">
-        <v>1</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49">
+      <c r="B6" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="50">
+        <v>1</v>
+      </c>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50">
         <v>2</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="47" t="str" cm="1">
+      <c r="F6" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="48" t="str" cm="1">
         <f t="array" ref="G6:H6">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F6,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F6,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>冰原狐|品质:3</v>
       </c>
-      <c r="H6" s="51" t="str">
+      <c r="H6" s="46" t="str">
         <v>冰原犬|品质:4</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="57" t="str" cm="1">
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="59" t="str" cm="1">
         <f t="array" ref="M6:N6">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L6,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>攻击速度+15%</v>
       </c>
-      <c r="N6" s="58" t="str">
+      <c r="N6" s="60" t="str">
         <v>攻击力+10</v>
       </c>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="69">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="75">
         <v>31</v>
       </c>
-      <c r="S6" s="67" t="str" cm="1">
+      <c r="S6" s="72" t="str" cm="1">
         <f t="array" ref="S6">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R6,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>魔能LV1:拾取范围扩大100码。</v>
       </c>
-      <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A7" s="48">
+      <c r="T6" s="72"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="74"/>
+    </row>
+    <row r="7" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A7" s="49">
         <v>5</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="49">
-        <v>1</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49">
+      <c r="B7" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50">
         <v>4</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="47" t="str" cm="1">
+      <c r="F7" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="48" t="str" cm="1">
         <f t="array" ref="G7:J7">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F7,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F7,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>雷羽鹫|品质:2</v>
       </c>
-      <c r="H7" s="51" t="str">
+      <c r="H7" s="46" t="str">
         <v>雷山鹫|品质:3</v>
       </c>
-      <c r="I7" s="51" t="str">
+      <c r="I7" s="46" t="str">
         <v>雷翼鹫|品质:3</v>
       </c>
-      <c r="J7" s="51" t="str">
+      <c r="J7" s="46" t="str">
         <v>毒风鹫|品质:-14</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="57" t="str" cm="1">
+      <c r="K7" s="46"/>
+      <c r="L7" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="59" t="str" cm="1">
         <f t="array" ref="M7:O7">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L7,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>伤害加成+5%</v>
       </c>
-      <c r="N7" s="58" t="str">
+      <c r="N7" s="60" t="str">
         <v>移动速度+3%</v>
       </c>
-      <c r="O7" s="58" t="str">
+      <c r="O7" s="60" t="str">
         <v>蓝量回复+5/s</v>
       </c>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="69">
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="75">
         <v>47</v>
       </c>
-      <c r="S7" s="67" t="str" cm="1">
+      <c r="S7" s="72" t="str" cm="1">
         <f t="array" ref="S7">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R7,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>幽冥LV5:"受到伤害有15%概率进入幽冥状态，幽冥状态下不会受到伤害但也无法使用技能。
 幽冥状态持续3秒"</v>
       </c>
-      <c r="T7" s="67"/>
-      <c r="U7" s="68" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A8" s="48">
+      <c r="T7" s="72"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="74"/>
+    </row>
+    <row r="8" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A8" s="49">
         <v>6</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="49">
-        <v>1</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49">
+      <c r="B8" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="50">
+        <v>1</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50">
         <v>2</v>
       </c>
-      <c r="F8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="47" t="str" cm="1">
+      <c r="F8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="48" t="str" cm="1">
         <f t="array" ref="G8:H8">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F8,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F8,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>炼狱狼|品质:2</v>
       </c>
-      <c r="H8" s="51" t="str">
+      <c r="H8" s="46" t="str">
         <v>极地虎|品质:4</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="57" t="str" cm="1">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="59" t="str" cm="1">
         <f t="array" ref="M8:N8">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L8,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>防御力+12</v>
       </c>
-      <c r="N8" s="58" t="str">
+      <c r="N8" s="60" t="str">
         <v>防御力+10</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="69">
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="75">
         <v>58</v>
       </c>
-      <c r="S8" s="67" t="str" cm="1">
+      <c r="S8" s="72" t="str" cm="1">
         <f t="array" ref="S8">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R8,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>致命LV1:使用技能时有5%概率进入致命状态，使接下来3秒内所有伤害均暴击</v>
       </c>
-      <c r="T8" s="67"/>
-      <c r="U8" s="68" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A9" s="48">
+      <c r="T8" s="72"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="74"/>
+    </row>
+    <row r="9" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A9" s="49">
         <v>7</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="49">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49">
+      <c r="B9" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="50">
+        <v>1</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50">
         <v>2</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="47" t="str" cm="1">
+      <c r="F9" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="48" t="str" cm="1">
         <f t="array" ref="G9:H9">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F9,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F9,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>幼年沙龙|品质:-5</v>
       </c>
-      <c r="H9" s="51" t="str">
+      <c r="H9" s="46" t="str">
         <v>绿洲精灵幼龙|品质:-6</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="57" t="str" cm="1">
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="59" t="str" cm="1">
         <f t="array" ref="M9:N9">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L9,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>生命值+220</v>
       </c>
-      <c r="N9" s="58" t="str">
+      <c r="N9" s="60" t="str">
         <v>防御力+15</v>
       </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="69">
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="75">
         <v>22</v>
       </c>
-      <c r="S9" s="67" t="str" cm="1">
+      <c r="S9" s="72" t="str" cm="1">
         <f t="array" ref="S9">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R9,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>亢奋LV1:受到伤害时，在5秒内恢复5%最大生命值。</v>
       </c>
-      <c r="T9" s="67"/>
-      <c r="U9" s="68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A10" s="48">
+      <c r="T9" s="72"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="74"/>
+    </row>
+    <row r="10" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A10" s="49">
         <v>8</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="49">
-        <v>1</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49">
+      <c r="B10" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="50">
+        <v>1</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50">
         <v>2</v>
       </c>
-      <c r="F10" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="47" t="str" cm="1">
+      <c r="F10" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="48" t="str" cm="1">
         <f t="array" ref="G10:H10">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F10,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F10,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>炼狱亡魂|品质:2</v>
       </c>
-      <c r="H10" s="51" t="str">
+      <c r="H10" s="46" t="str">
         <v>炼狱狼|品质:2</v>
       </c>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="57" t="str" cm="1">
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="59" t="str" cm="1">
         <f t="array" ref="M10:N10">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L10,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>暴击概率+5%</v>
       </c>
-      <c r="N10" s="58" t="str">
+      <c r="N10" s="60" t="str">
         <v>暴击概率+5%</v>
       </c>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="69">
-        <v>1</v>
-      </c>
-      <c r="S10" s="67" t="str" cm="1">
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="75">
+        <v>1</v>
+      </c>
+      <c r="S10" s="72" t="str" cm="1">
         <f t="array" ref="S10">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R10,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>discoLV1:野狼disco，造成暴击时暴击伤害提高20%。</v>
       </c>
-      <c r="T10" s="67"/>
-      <c r="U10" s="68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A11" s="48">
+      <c r="T10" s="72"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="74"/>
+    </row>
+    <row r="11" s="36" customFormat="1" ht="30.5" customHeight="1" spans="1:22">
+      <c r="A11" s="49">
         <v>9</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="49">
-        <v>1</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49">
+      <c r="B11" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="50">
+        <v>1</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50">
         <v>3</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="47" t="str" cm="1">
+      <c r="F11" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="48" t="str" cm="1">
         <f t="array" ref="G11:I11">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F11,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F11,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>霹雳怪手|品质:4</v>
       </c>
-      <c r="H11" s="51" t="str">
+      <c r="H11" s="46" t="str">
         <v>狂沙怪手|品质:-10</v>
       </c>
-      <c r="I11" s="51" t="str">
+      <c r="I11" s="46" t="str">
         <v>绿洲怪手|品质:-13</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="57" t="str" cm="1">
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="59" t="str" cm="1">
         <f t="array" ref="M11:O11">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L11,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>攻击力+22</v>
       </c>
-      <c r="N11" s="58" t="str">
+      <c r="N11" s="60" t="str">
         <v>生命值+240</v>
       </c>
-      <c r="O11" s="58" t="str">
+      <c r="O11" s="60" t="str">
         <v>元素伤害+5%</v>
       </c>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="69">
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="75">
         <v>44</v>
       </c>
-      <c r="S11" s="67" t="str" cm="1">
+      <c r="S11" s="72" t="str" cm="1">
         <f t="array" ref="S11">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R11,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</v>
       </c>
-      <c r="T11" s="67"/>
-      <c r="U11" s="68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" ht="30.5" customHeight="1" spans="1:21">
-      <c r="A12" s="11">
+      <c r="T11" s="72"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="74"/>
+    </row>
+    <row r="12" s="38" customFormat="1" ht="30.5" customHeight="1" spans="1:20">
+      <c r="A12" s="52">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
-        <v>2</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="47" t="str" cm="1">
-        <f t="array" ref="G12:H12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F12,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F12,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>冥火剑圣|品质:2</v>
-      </c>
-      <c r="H12" s="53" t="str">
-        <v>双斧狂战|品质:3</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="57" t="str" cm="1">
-        <f t="array" ref="M12:N12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L12,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+      <c r="B12" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="53">
+        <v>1</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53">
+        <v>4</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="54" t="str" cm="1">
+        <f t="array" ref="G12:J12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F12,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F12,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>祈风使|品质:-34</v>
+      </c>
+      <c r="H12" s="55" t="str">
+        <v>寒冰使|品质:-35</v>
+      </c>
+      <c r="I12" s="55" t="str">
+        <v>霹雳使|品质:-36</v>
+      </c>
+      <c r="J12" s="55" t="str">
+        <v>烈火使|品质:-37</v>
+      </c>
+      <c r="K12" s="55"/>
+      <c r="L12" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="61" t="str" cm="1">
+        <f t="array" ref="M12:P12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L12,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>元素伤害+10%</v>
       </c>
-      <c r="N12" s="59" t="str">
-        <v>蓝量回复+5/s</v>
-      </c>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="14">
-        <v>41</v>
-      </c>
-      <c r="S12" s="67" t="str" cm="1">
-        <f t="array" ref="S12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R12,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>双重LV5:释放技能时有10%概率消耗双倍蓝量造成2.3倍伤害。</v>
-      </c>
-      <c r="T12" s="67"/>
-      <c r="U12" s="70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" ht="30.5" customHeight="1" spans="1:21">
+      <c r="N12" s="62" t="str">
+        <v>元素伤害+10%</v>
+      </c>
+      <c r="O12" s="62" t="str">
+        <v>元素穿透+10%</v>
+      </c>
+      <c r="P12" s="62" t="str">
+        <v>技能急速+20</v>
+      </c>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="77" t="str" cm="1">
+        <f t="array" ref="S12:T12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R12,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>适应LV5:造成伤害时，有5%概率使该次伤害为怪物弱点元素伤害。</v>
+      </c>
+      <c r="T12" s="78" t="str">
+        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
+      </c>
+    </row>
+    <row r="13" ht="30.5" customHeight="1" spans="1:22">
       <c r="A13" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
@@ -4748,50 +4798,53 @@
       <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="F13" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="47" t="str" cm="1">
+      <c r="F13" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="48" t="str" cm="1">
         <f t="array" ref="G13:H13">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F13,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F13,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>熔岩卫兵|品质:2</v>
       </c>
-      <c r="H13" s="53" t="str">
-        <v>远古地狱火|品质:3</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="H13" s="8" t="str">
+        <v>炽甲虫战车|品质:2</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="57" t="str" cm="1">
+        <v>48</v>
+      </c>
+      <c r="M13" s="59" t="str" cm="1">
         <f t="array" ref="M13:N13">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L13,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>伤害加成+5%</v>
-      </c>
-      <c r="N13" s="59" t="str">
-        <v>闪避+5%</v>
-      </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="14">
-        <v>26</v>
-      </c>
-      <c r="S13" s="67" t="str" cm="1">
-        <f t="array" ref="S13">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R13,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>雷霆LV5:英雄阵亡时，将触发雷霆自爆，消灭自身半径500码所有敌方单位。</v>
-      </c>
-      <c r="T13" s="67"/>
-      <c r="U13" s="71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" ht="30.5" customHeight="1" spans="1:21">
+        <v>元素伤害+10%</v>
+      </c>
+      <c r="N13" s="63" t="str">
+        <v>蓝量回复+5/s</v>
+      </c>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="72" t="str" cm="1">
+        <f t="array" ref="S13:U13">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R13,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>掌控LV5:暴击时，吸收本次伤害5%的血量。</v>
+      </c>
+      <c r="T13" s="72" t="str">
+        <v>discoLV5: 野狼disco，造成暴击时暴击伤害提高45%。</v>
+      </c>
+      <c r="U13" s="79" t="str">
+        <v>discoLV10:野狼disco，造成暴击时暴击伤害提高60%。</v>
+      </c>
+      <c r="V13" s="80"/>
+    </row>
+    <row r="14" ht="30.5" customHeight="1" spans="1:22">
       <c r="A14" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
@@ -4800,50 +4853,49 @@
       <c r="E14" s="13">
         <v>2</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="47" t="str" cm="1">
+      <c r="F14" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="48" t="str" cm="1">
         <f t="array" ref="G14:H14">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F14,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F14,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>熔岩巨人|品质:2</v>
-      </c>
-      <c r="H14" s="53" t="str">
-        <v>烈焰神狐|品质:3</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+        <v>熔岩卫兵|品质:2</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <v>远古地狱火|品质:3</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="57" t="str" cm="1">
+        <v>52</v>
+      </c>
+      <c r="M14" s="59" t="str" cm="1">
         <f t="array" ref="M14:N14">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L14,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>攻击速度+20%</v>
-      </c>
-      <c r="N14" s="59" t="str">
-        <v>防御力+10</v>
-      </c>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
+        <v>伤害加成+5%</v>
+      </c>
+      <c r="N14" s="63" t="str">
+        <v>闪避+5%</v>
+      </c>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
       <c r="R14" s="14">
-        <v>20</v>
-      </c>
-      <c r="S14" s="67" t="str" cm="1">
+        <v>26</v>
+      </c>
+      <c r="S14" s="72" t="str" cm="1">
         <f t="array" ref="S14">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R14,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>飓风LV5:使用基础技能时有15%概率提高50%攻击速度持续3秒。</v>
-      </c>
-      <c r="T14" s="67"/>
-      <c r="U14" s="63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" ht="30.5" customHeight="1" spans="1:21">
+        <v>雷霆LV5:英雄阵亡时，将触发雷霆自爆，消灭自身半径500码所有敌方单位。</v>
+      </c>
+      <c r="T14" s="72"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="82"/>
+    </row>
+    <row r="15" ht="30.5" customHeight="1" spans="1:22">
       <c r="A15" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
@@ -4852,220 +4904,210 @@
       <c r="E15" s="13">
         <v>2</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="47" t="str" cm="1">
+      <c r="F15" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="48" t="str" cm="1">
         <f t="array" ref="G15:H15">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F15,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F15,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>地狱双头犬|品质:3</v>
-      </c>
-      <c r="H15" s="53" t="str">
-        <v>烈焰战神|品质:4</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
+        <v>熔岩巨人|品质:2</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <v>烈焰神狐|品质:3</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="57" t="str" cm="1">
+        <v>55</v>
+      </c>
+      <c r="M15" s="59" t="str" cm="1">
         <f t="array" ref="M15:N15">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L15,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>攻击力+20</v>
-      </c>
-      <c r="N15" s="59" t="str">
-        <v>生命恢复+4/s</v>
-      </c>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
+        <v>攻击速度+20%</v>
+      </c>
+      <c r="N15" s="63" t="str">
+        <v>防御力+10</v>
+      </c>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
       <c r="R15" s="14">
-        <v>44</v>
-      </c>
-      <c r="S15" s="67" t="str" cm="1">
+        <v>20</v>
+      </c>
+      <c r="S15" s="72" t="str" cm="1">
         <f t="array" ref="S15">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R15,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</v>
-      </c>
-      <c r="T15" s="67"/>
-      <c r="U15" s="70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" ht="30.5" customHeight="1" spans="1:21">
+        <v>飓风LV5:使用基础技能时有15%概率提高50%攻击速度持续3秒。</v>
+      </c>
+      <c r="T15" s="72"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="67"/>
+    </row>
+    <row r="16" ht="30.5" customHeight="1" spans="1:22">
       <c r="A16" s="11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>4</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="47" t="str" cm="1">
-        <f t="array" ref="G16:J16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F16,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F16,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>炼狱之王|品质:3</v>
-      </c>
-      <c r="H16" s="53" t="str">
-        <v>小狗头人|品质:4</v>
-      </c>
-      <c r="I16" s="53" t="str">
-        <v>雷电之魂|品质:3</v>
-      </c>
-      <c r="J16" s="53" t="str">
-        <v>萨特窃神者|品质:4</v>
-      </c>
-      <c r="K16" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="48" t="str" cm="1">
+        <f t="array" ref="G16:H16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F16,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F16,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>地狱双头犬|品质:3</v>
+      </c>
+      <c r="H16" s="8" t="str">
+        <v>烈焰战神|品质:4</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="57" t="str" cm="1">
-        <f t="array" ref="M16:P16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L16,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>最大生命值+10%</v>
-      </c>
-      <c r="N16" s="59" t="str">
-        <v>伤害减免+5%</v>
-      </c>
-      <c r="O16" s="59" t="str">
-        <v>防御力+22</v>
-      </c>
-      <c r="P16" s="59" t="str">
-        <v>伤害加成+10%</v>
-      </c>
-      <c r="Q16" s="59"/>
+        <v>58</v>
+      </c>
+      <c r="M16" s="59" t="str" cm="1">
+        <f t="array" ref="M16:N16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L16,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击力+20</v>
+      </c>
+      <c r="N16" s="63" t="str">
+        <v>生命恢复+4/s</v>
+      </c>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="14">
-        <v>18</v>
-      </c>
-      <c r="S16" s="67" t="str" cm="1">
+        <v>44</v>
+      </c>
+      <c r="S16" s="72" t="str" cm="1">
         <f t="array" ref="S16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R16,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>坚毅LV10:免疫致命伤害，并恢复25%最大生命值，每180秒只触发一次效果。</v>
-      </c>
-      <c r="T16" s="67"/>
-      <c r="U16" s="65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" ht="30.5" customHeight="1" spans="1:21">
+        <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</v>
+      </c>
+      <c r="T16" s="72"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="80"/>
+    </row>
+    <row r="17" ht="30.5" customHeight="1" spans="1:22">
       <c r="A17" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>2</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="47" t="str" cm="1">
-        <f t="array" ref="G17:H17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F17,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F17,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>远古岚肤兽|品质:2</v>
-      </c>
-      <c r="H17" s="53" t="str">
-        <v>雷树精兽|品质:4</v>
-      </c>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="48" t="str" cm="1">
+        <f t="array" ref="G17:J17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F17,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F17,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>炼狱之王|品质:3</v>
+      </c>
+      <c r="H17" s="8" t="str">
+        <v>小狗头人|品质:4</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <v>雷电之魂|品质:3</v>
+      </c>
+      <c r="J17" s="8" t="str">
+        <v>萨特窃神者|品质:4</v>
+      </c>
+      <c r="K17" s="8"/>
       <c r="L17" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="57" t="str" cm="1">
-        <f t="array" ref="M17:N17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L17,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>生命值+200</v>
-      </c>
-      <c r="N17" s="59" t="str">
-        <v>生命值+200</v>
-      </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
+        <v>61</v>
+      </c>
+      <c r="M17" s="59" t="str" cm="1">
+        <f t="array" ref="M17:P17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L17,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>最大生命值+10%</v>
+      </c>
+      <c r="N17" s="63" t="str">
+        <v>伤害减免+5%</v>
+      </c>
+      <c r="O17" s="63" t="str">
+        <v>防御力+22</v>
+      </c>
+      <c r="P17" s="63" t="str">
+        <v>伤害加成+10%</v>
+      </c>
+      <c r="Q17" s="63"/>
       <c r="R17" s="14">
-        <v>23</v>
-      </c>
-      <c r="S17" s="67" t="str" cm="1">
+        <v>18</v>
+      </c>
+      <c r="S17" s="72" t="str" cm="1">
         <f t="array" ref="S17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R17,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>亢奋LV5:受到伤害时，在5秒内恢复15%最大生命值。</v>
-      </c>
-      <c r="T17" s="67"/>
-      <c r="U17" s="71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" ht="30.5" customHeight="1" spans="1:21">
+        <v>坚毅LV10:免疫致命伤害，并恢复25%最大生命值，每180秒只触发一次效果。</v>
+      </c>
+      <c r="T17" s="72"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="70"/>
+    </row>
+    <row r="18" ht="30.5" customHeight="1" spans="1:22">
       <c r="A18" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>3</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="47" t="str" cm="1">
-        <f t="array" ref="G18:I18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F18,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F18,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>雷角兽|品质:5</v>
-      </c>
-      <c r="H18" s="53" t="str">
-        <v>雷须兽|品质:4</v>
-      </c>
-      <c r="I18" s="53" t="str">
-        <v>霹雳怪手|品质:4</v>
-      </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="48" t="str" cm="1">
+        <f t="array" ref="G18:H18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F18,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F18,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>远古岚肤兽|品质:2</v>
+      </c>
+      <c r="H18" s="8" t="str">
+        <v>雷树精兽|品质:4</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="57" t="str" cm="1">
-        <f t="array" ref="M18:O18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L18,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>最大生命值+25%</v>
-      </c>
-      <c r="N18" s="59" t="str">
-        <v>暴击伤害+20%</v>
-      </c>
-      <c r="O18" s="59" t="str">
-        <v>伤害减免+10%</v>
-      </c>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" s="67" t="str" cm="1">
-        <f t="array" ref="S18:T18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R18,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>不朽LV10:复活时间减少50%。</v>
-      </c>
-      <c r="T18" s="67" t="str">
-        <v>致命LV10:使用技能时有15%概率进入致命状态，使接下来5秒内所有伤害均暴击</v>
-      </c>
-      <c r="U18" s="71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" ht="30.5" customHeight="1" spans="1:21">
+        <v>64</v>
+      </c>
+      <c r="M18" s="59" t="str" cm="1">
+        <f t="array" ref="M18:N18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L18,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>生命值+200</v>
+      </c>
+      <c r="N18" s="63" t="str">
+        <v>生命值+200</v>
+      </c>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="14">
+        <v>23</v>
+      </c>
+      <c r="S18" s="72" t="str" cm="1">
+        <f t="array" ref="S18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R18,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>亢奋LV5:受到伤害时，在5秒内恢复15%最大生命值。</v>
+      </c>
+      <c r="T18" s="72"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="82"/>
+    </row>
+    <row r="19" ht="30.5" customHeight="1" spans="1:22">
       <c r="A19" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
@@ -5074,55 +5116,55 @@
       <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="47" t="str" cm="1">
+      <c r="F19" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="48" t="str" cm="1">
         <f t="array" ref="G19:I19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F19,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F19,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>雷霆晶龟|品质:2</v>
-      </c>
-      <c r="H19" s="53" t="str">
-        <v>幼年青眼雷龙|品质:3</v>
-      </c>
-      <c r="I19" s="53" t="str">
-        <v>雷羽鹫|品质:2</v>
-      </c>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+        <v>雷角兽|品质:5</v>
+      </c>
+      <c r="H19" s="8" t="str">
+        <v>雷须兽|品质:4</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <v>霹雳怪手|品质:4</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="57" t="str" cm="1">
+        <v>67</v>
+      </c>
+      <c r="M19" s="59" t="str" cm="1">
         <f t="array" ref="M19:O19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L19,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>伤害减免+5%</v>
-      </c>
-      <c r="N19" s="59" t="str">
-        <v>移动速度+3%</v>
-      </c>
-      <c r="O19" s="59" t="str">
-        <v>生命恢复+5/s</v>
-      </c>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="14">
-        <v>47</v>
-      </c>
-      <c r="S19" s="67" t="str" cm="1">
-        <f t="array" ref="S19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R19,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>幽冥LV5:"受到伤害有15%概率进入幽冥状态，幽冥状态下不会受到伤害但也无法使用技能。
-幽冥状态持续3秒"</v>
-      </c>
-      <c r="T19" s="67"/>
-      <c r="U19" s="65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" ht="30.5" customHeight="1" spans="1:21">
+        <v>最大生命值+25%</v>
+      </c>
+      <c r="N19" s="63" t="str">
+        <v>暴击伤害+20%</v>
+      </c>
+      <c r="O19" s="63" t="str">
+        <v>伤害减免+10%</v>
+      </c>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" s="72" t="str" cm="1">
+        <f t="array" ref="S19:T19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R19,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>不朽LV10:复活时间减少50%。</v>
+      </c>
+      <c r="T19" s="72" t="str">
+        <v>致命LV10:使用技能时有15%概率进入致命状态，使接下来5秒内所有伤害均暴击</v>
+      </c>
+      <c r="U19" s="81"/>
+      <c r="V19" s="82"/>
+    </row>
+    <row r="20" ht="30.5" customHeight="1" spans="1:22">
       <c r="A20" s="11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
@@ -5131,116 +5173,109 @@
       <c r="E20" s="13">
         <v>3</v>
       </c>
-      <c r="F20" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="47" t="str" cm="1">
+      <c r="F20" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="48" t="str" cm="1">
         <f t="array" ref="G20:I20">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F20,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F20,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>雷山鹫|品质:3</v>
-      </c>
-      <c r="H20" s="53" t="str">
-        <v>雷翼鹫|品质:3</v>
-      </c>
-      <c r="I20" s="53" t="str">
-        <v>霹雳怪虫|品质:4</v>
-      </c>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
+        <v>雷霆晶龟|品质:2</v>
+      </c>
+      <c r="H20" s="8" t="str">
+        <v>幼年青眼雷龙|品质:3</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <v>雷羽鹫|品质:2</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M20" s="57" t="str" cm="1">
+        <v>71</v>
+      </c>
+      <c r="M20" s="59" t="str" cm="1">
         <f t="array" ref="M20:O20">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L20,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>暴击概率+5%</v>
-      </c>
-      <c r="N20" s="59" t="str">
-        <v>防御力+12</v>
-      </c>
-      <c r="O20" s="59" t="str">
-        <v>攻击力+18</v>
-      </c>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
+        <v>伤害减免+5%</v>
+      </c>
+      <c r="N20" s="63" t="str">
+        <v>移动速度+3%</v>
+      </c>
+      <c r="O20" s="63" t="str">
+        <v>生命恢复+5/s</v>
+      </c>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
       <c r="R20" s="14">
-        <v>11</v>
-      </c>
-      <c r="S20" s="67" t="str" cm="1">
+        <v>47</v>
+      </c>
+      <c r="S20" s="72" t="str" cm="1">
         <f t="array" ref="S20">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R20,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>传言LV5:英雄所具有的每秒生命恢复效果，在生命值恢复满之后，会按40%效率回复蓝量。</v>
-      </c>
-      <c r="T20" s="67"/>
-      <c r="U20" s="65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" ht="30.5" customHeight="1" spans="1:21">
+        <v>幽冥LV5:"受到伤害有15%概率进入幽冥状态，幽冥状态下不会受到伤害但也无法使用技能。
+幽冥状态持续3秒"</v>
+      </c>
+      <c r="T20" s="72"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="70"/>
+    </row>
+    <row r="21" ht="30.5" customHeight="1" spans="1:22">
       <c r="A21" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>4</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="47" t="str" cm="1">
-        <f t="array" ref="G21:J21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F21,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F21,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>独角雷兽|品质:2</v>
-      </c>
-      <c r="H21" s="53" t="str">
-        <v>雷电见习者|品质:2</v>
-      </c>
-      <c r="I21" s="53" t="str">
-        <v>雷霆拍熊|品质:2</v>
-      </c>
-      <c r="J21" s="53" t="str">
-        <v>雷翼飞狐|品质:4</v>
-      </c>
-      <c r="K21" s="53"/>
+        <v>3</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="48" t="str" cm="1">
+        <f t="array" ref="G21:I21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F21,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F21,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷山鹫|品质:3</v>
+      </c>
+      <c r="H21" s="8" t="str">
+        <v>雷翼鹫|品质:3</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <v>霹雳怪虫|品质:4</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="57" t="str" cm="1">
-        <f t="array" ref="M21:P21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L21,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>伤害加成+4%</v>
-      </c>
-      <c r="N21" s="59" t="str">
-        <v>生命值+180</v>
-      </c>
-      <c r="O21" s="59" t="str">
-        <v>暴击伤害+10%</v>
-      </c>
-      <c r="P21" s="59" t="str">
-        <v>移动速度+5%</v>
-      </c>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="67" t="str" cm="1">
-        <f t="array" ref="S21:T21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R21,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>魔能LV5:拾取范围扩大200码。</v>
-      </c>
-      <c r="T21" s="67" t="str">
-        <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</v>
-      </c>
-      <c r="U21" s="65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" ht="30.5" customHeight="1" spans="1:21">
+        <v>74</v>
+      </c>
+      <c r="M21" s="59" t="str" cm="1">
+        <f t="array" ref="M21:O21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L21,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="N21" s="63" t="str">
+        <v>防御力+12</v>
+      </c>
+      <c r="O21" s="63" t="str">
+        <v>攻击力+18</v>
+      </c>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="14">
+        <v>11</v>
+      </c>
+      <c r="S21" s="72" t="str" cm="1">
+        <f t="array" ref="S21">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R21,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>传言LV5:英雄所具有的每秒生命恢复效果，在生命值恢复满之后，会按40%效率回复蓝量。</v>
+      </c>
+      <c r="T21" s="72"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="70"/>
+    </row>
+    <row r="22" ht="30.5" customHeight="1" spans="1:22">
       <c r="A22" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
@@ -5249,58 +5284,59 @@
       <c r="E22" s="13">
         <v>4</v>
       </c>
-      <c r="F22" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="47" t="str" cm="1">
+      <c r="F22" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="48" t="str" cm="1">
         <f t="array" ref="G22:J22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F22,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F22,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>远古黑龙|品质:3</v>
-      </c>
-      <c r="H22" s="53" t="str">
-        <v>雷霆领主|品质:3</v>
-      </c>
-      <c r="I22" s="53" t="str">
-        <v>青眼雷龙|品质:3</v>
-      </c>
-      <c r="J22" s="53" t="str">
-        <v>霹雳怪泥|品质:3</v>
-      </c>
-      <c r="K22" s="53"/>
+        <v>独角雷兽|品质:2</v>
+      </c>
+      <c r="H22" s="8" t="str">
+        <v>雷电见习者|品质:2</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <v>雷霆拍熊|品质:2</v>
+      </c>
+      <c r="J22" s="8" t="str">
+        <v>雷翼飞狐|品质:4</v>
+      </c>
+      <c r="K22" s="8"/>
       <c r="L22" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="57" t="str" cm="1">
+        <v>77</v>
+      </c>
+      <c r="M22" s="59" t="str" cm="1">
         <f t="array" ref="M22:P22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L22,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>暴击概率+5%</v>
-      </c>
-      <c r="N22" s="59" t="str">
-        <v>闪避+5%</v>
-      </c>
-      <c r="O22" s="59" t="str">
-        <v>生命恢复+5/s</v>
-      </c>
-      <c r="P22" s="59" t="str">
-        <v>蓝量回复+5/s</v>
-      </c>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="14">
-        <v>30</v>
-      </c>
-      <c r="S22" s="67" t="str" cm="1">
-        <f t="array" ref="S22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R22,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>梦境LV10:每阵亡一次，获得20%暴击伤害。</v>
-      </c>
-      <c r="T22" s="67"/>
-      <c r="U22" s="71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" ht="30.5" customHeight="1" spans="1:21">
+        <v>伤害加成+4%</v>
+      </c>
+      <c r="N22" s="63" t="str">
+        <v>生命值+180</v>
+      </c>
+      <c r="O22" s="63" t="str">
+        <v>暴击伤害+10%</v>
+      </c>
+      <c r="P22" s="63" t="str">
+        <v>移动速度+5%</v>
+      </c>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22" s="72" t="str" cm="1">
+        <f t="array" ref="S22:T22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R22,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>魔能LV5:拾取范围扩大200码。</v>
+      </c>
+      <c r="T22" s="72" t="str">
+        <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒10/S生命值恢复。</v>
+      </c>
+      <c r="U22" s="69"/>
+      <c r="V22" s="70"/>
+    </row>
+    <row r="23" ht="30.5" customHeight="1" spans="1:22">
       <c r="A23" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
@@ -5309,114 +5345,116 @@
       <c r="E23" s="13">
         <v>4</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="47" t="str" cm="1">
+      <c r="F23" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="48" t="str" cm="1">
         <f t="array" ref="G23:J23">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F23,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F23,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>雷霆战蜥|品质:4</v>
-      </c>
-      <c r="H23" s="53" t="str">
-        <v>霹雳女妖|品质:3</v>
-      </c>
-      <c r="I23" s="53" t="str">
-        <v>雷压巨兽|品质:2</v>
-      </c>
-      <c r="J23" s="53" t="str">
-        <v>雷压射手|品质:2</v>
-      </c>
-      <c r="K23" s="53"/>
+        <v>远古黑龙|品质:3</v>
+      </c>
+      <c r="H23" s="8" t="str">
+        <v>雷霆领主|品质:3</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <v>青眼雷龙|品质:3</v>
+      </c>
+      <c r="J23" s="8" t="str">
+        <v>霹雳怪泥|品质:3</v>
+      </c>
+      <c r="K23" s="8"/>
       <c r="L23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="57" t="str" cm="1">
+        <v>81</v>
+      </c>
+      <c r="M23" s="59" t="str" cm="1">
         <f t="array" ref="M23:P23">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L23,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>攻击速度+30%</v>
-      </c>
-      <c r="N23" s="59" t="str">
-        <v>生命值+220</v>
-      </c>
-      <c r="O23" s="59" t="str">
-        <v>防御力+10</v>
-      </c>
-      <c r="P23" s="59" t="str">
-        <v>防御力+15</v>
-      </c>
-      <c r="Q23" s="59"/>
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="N23" s="63" t="str">
+        <v>闪避+5%</v>
+      </c>
+      <c r="O23" s="63" t="str">
+        <v>生命恢复+5/s</v>
+      </c>
+      <c r="P23" s="63" t="str">
+        <v>蓝量回复+5/s</v>
+      </c>
+      <c r="Q23" s="63"/>
       <c r="R23" s="14">
-        <v>39</v>
-      </c>
-      <c r="S23" s="67" t="str" cm="1">
+        <v>30</v>
+      </c>
+      <c r="S23" s="72" t="str" cm="1">
         <f t="array" ref="S23">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R23,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>适应LV10:造成伤害时，有10%概率使该次伤害为怪物弱点元素伤害。</v>
-      </c>
-      <c r="T23" s="67"/>
-      <c r="U23" s="70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" ht="30.5" customHeight="1" spans="1:21">
+        <v>梦境LV10:每阵亡一次，获得20%暴击伤害。</v>
+      </c>
+      <c r="T23" s="72"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="82"/>
+    </row>
+    <row r="24" ht="30.5" customHeight="1" spans="1:22">
       <c r="A24" s="11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>3</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="47" t="str" cm="1">
-        <f t="array" ref="G24:I24">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F24,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F24,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>雷霆梦魇|品质:3</v>
-      </c>
-      <c r="H24" s="53" t="str">
-        <v>雷压飞翼兽|品质:3</v>
-      </c>
-      <c r="I24" s="53" t="str">
-        <v>雷电掌控者|品质:2</v>
-      </c>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="48" t="str" cm="1">
+        <f t="array" ref="G24:J24">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F24,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F24,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷霆战蜥|品质:4</v>
+      </c>
+      <c r="H24" s="8" t="str">
+        <v>霹雳女妖|品质:3</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <v>雷压巨兽|品质:2</v>
+      </c>
+      <c r="J24" s="8" t="str">
+        <v>雷压射手|品质:2</v>
+      </c>
+      <c r="K24" s="8"/>
       <c r="L24" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M24" s="57" t="str" cm="1">
-        <f t="array" ref="M24:O24">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L24,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>生命值+120</v>
-      </c>
-      <c r="N24" s="59" t="str">
-        <v>攻击力+8</v>
-      </c>
-      <c r="O24" s="59" t="str">
-        <v>伤害减免+3%</v>
-      </c>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
+        <v>84</v>
+      </c>
+      <c r="M24" s="59" t="str" cm="1">
+        <f t="array" ref="M24:P24">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L24,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击速度+30%</v>
+      </c>
+      <c r="N24" s="63" t="str">
+        <v>生命值+220</v>
+      </c>
+      <c r="O24" s="63" t="str">
+        <v>防御力+10</v>
+      </c>
+      <c r="P24" s="63" t="str">
+        <v>防御力+15</v>
+      </c>
+      <c r="Q24" s="63"/>
       <c r="R24" s="14">
-        <v>53</v>
-      </c>
-      <c r="S24" s="67" t="str" cm="1">
+        <v>39</v>
+      </c>
+      <c r="S24" s="72" t="str" cm="1">
         <f t="array" ref="S24">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R24,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>只因LV5:复活时间的增加条件里减少1名玩家。</v>
-      </c>
-      <c r="T24" s="67"/>
-      <c r="U24" s="70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" ht="30.5" customHeight="1" spans="1:21">
+        <v>适应LV10:造成伤害时，有10%概率使该次伤害为怪物弱点元素伤害。</v>
+      </c>
+      <c r="T24" s="72"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="80"/>
+    </row>
+    <row r="25" ht="30.5" customHeight="1" spans="1:22">
       <c r="A25" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
@@ -5425,282 +5463,273 @@
       <c r="E25" s="13">
         <v>3</v>
       </c>
-      <c r="F25" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="47" t="str" cm="1">
+      <c r="F25" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="48" t="str" cm="1">
         <f t="array" ref="G25:I25">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F25,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F25,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>雷神鸟|品质:4</v>
-      </c>
-      <c r="H25" s="53" t="str">
-        <v>闪电制造者|品质:4</v>
-      </c>
-      <c r="I25" s="53" t="str">
-        <v>雷神|品质:4</v>
-      </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
+        <v>雷霆梦魇|品质:3</v>
+      </c>
+      <c r="H25" s="8" t="str">
+        <v>雷压飞翼兽|品质:3</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <v>雷电掌控者|品质:2</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="M25" s="57" t="str" cm="1">
+        <v>87</v>
+      </c>
+      <c r="M25" s="59" t="str" cm="1">
         <f t="array" ref="M25:O25">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L25,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>生命值+180</v>
-      </c>
-      <c r="N25" s="59" t="str">
-        <v>生命值+220</v>
-      </c>
-      <c r="O25" s="59" t="str">
-        <v>暴击概率+15%</v>
-      </c>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="S25" s="67" t="str" cm="1">
-        <f t="array" ref="S25:T25">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R25,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>亢奋LV5:受到伤害时，在5秒内恢复15%最大生命值。</v>
-      </c>
-      <c r="T25" s="67" t="str">
-        <v>坚毅LV5:免疫致命伤害，并恢复25%最大生命值，每360秒只触发一次效果。</v>
-      </c>
-      <c r="U25" s="70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" ht="30.5" customHeight="1" spans="1:20">
+        <v>生命值+120</v>
+      </c>
+      <c r="N25" s="63" t="str">
+        <v>攻击力+8</v>
+      </c>
+      <c r="O25" s="63" t="str">
+        <v>伤害减免+3%</v>
+      </c>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="14">
+        <v>53</v>
+      </c>
+      <c r="S25" s="72" t="str" cm="1">
+        <f t="array" ref="S25">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R25,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>只因LV5:复活时间的增加条件里减少1名玩家。</v>
+      </c>
+      <c r="T25" s="72"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="80"/>
+    </row>
+    <row r="26" ht="30.5" customHeight="1" spans="1:22">
       <c r="A26" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>5</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="47" t="str" cm="1">
-        <f t="array" ref="G26:K26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F26,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F26,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>冰川鬼魂|品质:2</v>
-      </c>
-      <c r="H26" s="53" t="str">
-        <v>极寒精灵|品质:3</v>
-      </c>
-      <c r="I26" s="53" t="str">
-        <v>极寒冰狐|品质:2</v>
-      </c>
-      <c r="J26" s="53" t="str">
-        <v>极地少女|品质:2</v>
-      </c>
-      <c r="K26" s="53" t="str">
-        <v>冰川幼龟|品质:3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="48" t="str" cm="1">
+        <f t="array" ref="G26:I26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F26,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F26,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>雷神鸟|品质:4</v>
+      </c>
+      <c r="H26" s="8" t="str">
+        <v>闪电制造者|品质:4</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <v>雷神|品质:4</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="M26" s="57" t="str" cm="1">
-        <f t="array" ref="M26:Q26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L26,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>防御力+15</v>
-      </c>
-      <c r="N26" s="59" t="str">
-        <v>生命恢复+5/s</v>
-      </c>
-      <c r="O26" s="59" t="str">
-        <v>攻击力+5</v>
-      </c>
-      <c r="P26" s="59" t="str">
-        <v>暴击概率+5%</v>
-      </c>
-      <c r="Q26" s="59" t="str">
-        <v>伤害减免+3%</v>
-      </c>
-      <c r="R26" s="14">
-        <v>41</v>
-      </c>
-      <c r="S26" s="67" t="str" cm="1">
-        <f t="array" ref="S26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R26,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>双重LV5:释放技能时有10%概率消耗双倍蓝量造成2.3倍伤害。</v>
-      </c>
-      <c r="T26" s="72"/>
+        <v>90</v>
+      </c>
+      <c r="M26" s="59" t="str" cm="1">
+        <f t="array" ref="M26:O26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L26,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>生命值+180</v>
+      </c>
+      <c r="N26" s="63" t="str">
+        <v>生命值+220</v>
+      </c>
+      <c r="O26" s="63" t="str">
+        <v>暴击概率+15%</v>
+      </c>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S26" s="72" t="str" cm="1">
+        <f t="array" ref="S26:T26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R26,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>亢奋LV5:受到伤害时，在5秒内恢复15%最大生命值。</v>
+      </c>
+      <c r="T26" s="72" t="str">
+        <v>坚毅LV5:免疫致命伤害，并恢复25%最大生命值，每360秒只触发一次效果。</v>
+      </c>
+      <c r="U26" s="79"/>
+      <c r="V26" s="80"/>
     </row>
     <row r="27" ht="30.5" customHeight="1" spans="1:20">
       <c r="A27" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>3</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="47" t="str" cm="1">
-        <f t="array" ref="G27:I27">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F27,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F27,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>冰原行者|品质:3</v>
-      </c>
-      <c r="H27" s="53" t="str">
-        <v>近代冰魂（远程）|品质:4</v>
-      </c>
-      <c r="I27" s="53" t="str">
-        <v>极地虎|品质:4</v>
-      </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="48" t="str" cm="1">
+        <f t="array" ref="G27:K27">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F27,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F27,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰川鬼魂|品质:2</v>
+      </c>
+      <c r="H27" s="8" t="str">
+        <v>极寒精灵|品质:3</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <v>极寒冰狐|品质:2</v>
+      </c>
+      <c r="J27" s="8" t="str">
+        <v>极地少女|品质:2</v>
+      </c>
+      <c r="K27" s="8" t="str">
+        <v>冰川幼龟|品质:3</v>
+      </c>
       <c r="L27" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="M27" s="57" t="str" cm="1">
-        <f t="array" ref="M27:O27">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L27,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>攻击力+15</v>
-      </c>
-      <c r="N27" s="59" t="str">
-        <v>攻击力+35</v>
-      </c>
-      <c r="O27" s="59" t="str">
-        <v>暴击伤害+20%</v>
-      </c>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
+        <v>94</v>
+      </c>
+      <c r="M27" s="59" t="str" cm="1">
+        <f t="array" ref="M27:Q27">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L27,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>防御力+15</v>
+      </c>
+      <c r="N27" s="63" t="str">
+        <v>生命恢复+5/s</v>
+      </c>
+      <c r="O27" s="63" t="str">
+        <v>攻击力+5</v>
+      </c>
+      <c r="P27" s="63" t="str">
+        <v>暴击概率+5%</v>
+      </c>
+      <c r="Q27" s="63" t="str">
+        <v>伤害减免+3%</v>
+      </c>
       <c r="R27" s="14">
-        <v>36</v>
-      </c>
-      <c r="S27" s="67" t="str" cm="1">
+        <v>41</v>
+      </c>
+      <c r="S27" s="72" t="str" cm="1">
         <f t="array" ref="S27">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R27,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
-      </c>
-      <c r="T27" s="72"/>
+        <v>双重LV5:释放技能时有10%概率消耗双倍蓝量造成2.3倍伤害。</v>
+      </c>
+      <c r="T27" s="83"/>
     </row>
     <row r="28" ht="30.5" customHeight="1" spans="1:20">
       <c r="A28" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>2</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="47" t="str" cm="1">
-        <f t="array" ref="G28:H28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F28,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F28,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>极地小冰龙|品质:2</v>
-      </c>
-      <c r="H28" s="53" t="str">
-        <v>极地小飞龙（远程）|品质:2</v>
-      </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+        <v>3</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="48" t="str" cm="1">
+        <f t="array" ref="G28:I28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F28,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F28,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰原行者|品质:3</v>
+      </c>
+      <c r="H28" s="8" t="str">
+        <v>近代冰魂（远程）|品质:4</v>
+      </c>
+      <c r="I28" s="8" t="str">
+        <v>极地虎|品质:4</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="M28" s="57" t="str" cm="1">
-        <f t="array" ref="M28:N28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L28,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>经验值获取+15%</v>
-      </c>
-      <c r="N28" s="59" t="str">
-        <v>灵魂获取+15%</v>
-      </c>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
+        <v>97</v>
+      </c>
+      <c r="M28" s="59" t="str" cm="1">
+        <f t="array" ref="M28:O28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L28,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>攻击力+15</v>
+      </c>
+      <c r="N28" s="63" t="str">
+        <v>攻击力+35</v>
+      </c>
+      <c r="O28" s="63" t="str">
+        <v>暴击伤害+20%</v>
+      </c>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
       <c r="R28" s="14">
-        <v>55</v>
-      </c>
-      <c r="S28" s="67" t="str" cm="1">
+        <v>36</v>
+      </c>
+      <c r="S28" s="72" t="str" cm="1">
         <f t="array" ref="S28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R28,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>治疗LV1:每过10秒，恢复1%最大生命值。</v>
-      </c>
-      <c r="T28" s="72"/>
+        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
+      </c>
+      <c r="T28" s="83"/>
     </row>
     <row r="29" ht="30.5" customHeight="1" spans="1:20">
       <c r="A29" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>5</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="47" t="str" cm="1">
-        <f t="array" ref="G29:K29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F29,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F29,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>冰晶石甲虫|品质:3</v>
-      </c>
-      <c r="H29" s="53" t="str">
-        <v>冰晶小海马|品质:3</v>
-      </c>
-      <c r="I29" s="53" t="str">
-        <v>冰原狐|品质:3</v>
-      </c>
-      <c r="J29" s="53" t="str">
-        <v>冰原犬|品质:4</v>
-      </c>
-      <c r="K29" s="53" t="str">
-        <v>冰宫守卫|品质:4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="48" t="str" cm="1">
+        <f t="array" ref="G29:H29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F29,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F29,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>极地小冰龙|品质:2</v>
+      </c>
+      <c r="H29" s="8" t="str">
+        <v>极地小飞龙（远程）|品质:2</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="M29" s="57" t="str" cm="1">
-        <f t="array" ref="M29:Q29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L29,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>攻击力+20</v>
-      </c>
-      <c r="N29" s="59" t="str">
-        <v>生命值+280</v>
-      </c>
-      <c r="O29" s="59" t="str">
-        <v>防御力+20</v>
-      </c>
-      <c r="P29" s="59" t="str">
-        <v>技能急速+10</v>
-      </c>
-      <c r="Q29" s="59" t="str">
-        <v>暴击概率+5%</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="S29" s="67" t="str" cm="1">
-        <f t="array" ref="S29:T29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R29,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>坚毅LV10:免疫致命伤害，并恢复25%最大生命值，每180秒只触发一次效果。</v>
-      </c>
-      <c r="T29" s="72" t="str">
-        <v>治疗LV10:每过5秒，恢复5%最大生命值。</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M29" s="59" t="str" cm="1">
+        <f t="array" ref="M29:N29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L29,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>经验值获取+15%</v>
+      </c>
+      <c r="N29" s="63" t="str">
+        <v>灵魂获取+15%</v>
+      </c>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="14">
+        <v>55</v>
+      </c>
+      <c r="S29" s="72" t="str" cm="1">
+        <f t="array" ref="S29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R29,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>治疗LV1:每过10秒，恢复1%最大生命值。</v>
+      </c>
+      <c r="T29" s="83"/>
     </row>
     <row r="30" ht="30.5" customHeight="1" spans="1:20">
       <c r="A30" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C30" s="13">
         <v>1</v>
@@ -5709,167 +5738,171 @@
       <c r="E30" s="13">
         <v>5</v>
       </c>
-      <c r="F30" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="47" t="str" cm="1">
+      <c r="F30" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="48" t="str" cm="1">
         <f t="array" ref="G30:K30">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F30,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F30,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>冰宫奴仆（远程）|品质:3</v>
-      </c>
-      <c r="H30" s="53" t="str">
-        <v>冰甲战熊|品质:3</v>
-      </c>
-      <c r="I30" s="53" t="str">
-        <v>寒霜战士|品质:3</v>
-      </c>
-      <c r="J30" s="53" t="str">
-        <v>寒霜萨满（远程）|品质:4</v>
-      </c>
-      <c r="K30" s="53" t="str">
-        <v>冰甲战熊|品质:4</v>
+        <v>冰晶石甲虫|品质:3</v>
+      </c>
+      <c r="H30" s="8" t="str">
+        <v>冰晶小海马|品质:3</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <v>冰原狐|品质:3</v>
+      </c>
+      <c r="J30" s="8" t="str">
+        <v>冰原犬|品质:4</v>
+      </c>
+      <c r="K30" s="8" t="str">
+        <v>冰宫守卫|品质:4</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="M30" s="57" t="str" cm="1">
+        <v>102</v>
+      </c>
+      <c r="M30" s="59" t="str" cm="1">
         <f t="array" ref="M30:Q30">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L30,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>伤害减免+5%</v>
-      </c>
-      <c r="N30" s="59" t="str">
-        <v>生命恢复+10/s</v>
-      </c>
-      <c r="O30" s="59" t="str">
-        <v>移动速度+5%</v>
-      </c>
-      <c r="P30" s="59" t="str">
+        <v>攻击力+20</v>
+      </c>
+      <c r="N30" s="63" t="str">
+        <v>生命值+280</v>
+      </c>
+      <c r="O30" s="63" t="str">
+        <v>防御力+20</v>
+      </c>
+      <c r="P30" s="63" t="str">
         <v>技能急速+10</v>
       </c>
-      <c r="Q30" s="59" t="str">
-        <v>暴击伤害+20%</v>
+      <c r="Q30" s="63" t="str">
+        <v>暴击概率+5%</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="S30" s="67" t="str" cm="1">
+        <v>103</v>
+      </c>
+      <c r="S30" s="72" t="str" cm="1">
         <f t="array" ref="S30:T30">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R30,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
-      </c>
-      <c r="T30" s="72" t="str">
-        <v>适应LV10:造成伤害时，有10%概率使该次伤害为怪物弱点元素伤害。</v>
+        <v>坚毅LV10:免疫致命伤害，并恢复25%最大生命值，每180秒只触发一次效果。</v>
+      </c>
+      <c r="T30" s="83" t="str">
+        <v>治疗LV10:每过5秒，恢复5%最大生命值。</v>
       </c>
     </row>
     <row r="31" ht="30.5" customHeight="1" spans="1:20">
       <c r="A31" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
+        <v>5</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="48" t="str" cm="1">
+        <f t="array" ref="G31:K31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F31,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F31,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+        <v>冰宫奴仆（远程）|品质:3</v>
+      </c>
+      <c r="H31" s="8" t="str">
+        <v>冰甲战熊|品质:3</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <v>寒霜战士|品质:3</v>
+      </c>
+      <c r="J31" s="8" t="str">
+        <v>寒霜萨满（远程）|品质:4</v>
+      </c>
+      <c r="K31" s="8" t="str">
+        <v>冰甲战熊|品质:4</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="59" t="str" cm="1">
+        <f t="array" ref="M31:Q31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L31,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+        <v>伤害减免+5%</v>
+      </c>
+      <c r="N31" s="63" t="str">
+        <v>生命恢复+10/s</v>
+      </c>
+      <c r="O31" s="63" t="str">
+        <v>移动速度+5%</v>
+      </c>
+      <c r="P31" s="63" t="str">
+        <v>技能急速+10</v>
+      </c>
+      <c r="Q31" s="63" t="str">
+        <v>暴击伤害+20%</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="S31" s="72" t="str" cm="1">
+        <f t="array" ref="S31:T31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R31,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
+      </c>
+      <c r="T31" s="83" t="str">
+        <v>适应LV10:造成伤害时，有10%概率使该次伤害为怪物弱点元素伤害。</v>
+      </c>
+    </row>
+    <row r="32" ht="30.5" customHeight="1" spans="1:20">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13">
         <v>3</v>
       </c>
-      <c r="F31" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="47" t="str" cm="1">
-        <f t="array" ref="G31:I31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F31,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F31,"|")),pictuer_card_data!A:G,7,TRUE)</f>
+      <c r="F32" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="48" t="str" cm="1">
+        <f t="array" ref="G32:I32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F32,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F32,"|")),pictuer_card_data!A:G,7,TRUE)</f>
         <v>冰原巨兽(远程）|品质:4</v>
       </c>
-      <c r="H31" s="53" t="str">
+      <c r="H32" s="8" t="str">
         <v>极地熊战士|品质:6</v>
       </c>
-      <c r="I31" s="53" t="str">
+      <c r="I32" s="8" t="str">
         <v>极地巨人|品质:4</v>
       </c>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="M31" s="57" t="str" cm="1">
-        <f t="array" ref="M31:O31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L31,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M32" s="59" t="str" cm="1">
+        <f t="array" ref="M32:O32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L32,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
         <v>伤害加成+5%</v>
       </c>
-      <c r="N31" s="59" t="str">
+      <c r="N32" s="63" t="str">
         <v>暴击伤害+45%</v>
       </c>
-      <c r="O31" s="59" t="str">
+      <c r="O32" s="63" t="str">
         <v>元素穿透+15%</v>
       </c>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="S31" s="67" t="str" cm="1">
-        <f t="array" ref="S31:T31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R31,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="S32" s="72" t="str" cm="1">
+        <f t="array" ref="S32:T32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R32,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
         <v>掌控LV5:暴击时，吸收本次伤害5%的血量。</v>
       </c>
-      <c r="T31" s="72" t="str">
+      <c r="T32" s="83" t="str">
         <v>传言LV10:英雄所具有的每秒生命恢复效果，在生命值恢复满之后，会按100%效率回复蓝量。</v>
-      </c>
-    </row>
-    <row r="32" ht="30.5" customHeight="1" spans="1:20">
-      <c r="A32" s="15">
-        <v>30</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="17">
-        <v>1</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17">
-        <v>4</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="47" t="str" cm="1">
-        <f t="array" ref="G32:J32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F32,"|")),pictuer_card_data!A:C,3,TRUE)&amp;"|品质:"&amp;VLOOKUP(VALUE(_xlfn.TEXTSPLIT(F32,"|")),pictuer_card_data!A:G,7,TRUE)</f>
-        <v>极地熊战士|品质:6</v>
-      </c>
-      <c r="H32" s="54" t="str">
-        <v>冰原猩猩兽|品质:5</v>
-      </c>
-      <c r="I32" s="54" t="str">
-        <v>极地巨人|品质:4</v>
-      </c>
-      <c r="J32" s="54" t="str">
-        <v>极地四脚兽|品质:5</v>
-      </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M32" s="57" t="str" cm="1">
-        <f t="array" ref="M32:P32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(L32,"|")),pictuer_fetter_attr!A:B,2,TRUE)</f>
-        <v>元素伤害+10%</v>
-      </c>
-      <c r="N32" s="60" t="str">
-        <v>元素伤害+10%</v>
-      </c>
-      <c r="O32" s="60" t="str">
-        <v>元素穿透+10%</v>
-      </c>
-      <c r="P32" s="60" t="str">
-        <v>技能急速+20</v>
-      </c>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="S32" s="67" t="str" cm="1">
-        <f t="array" ref="S32:T32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(R32,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
-        <v>适应LV5:造成伤害时，有5%概率使该次伤害为怪物弱点元素伤害。</v>
-      </c>
-      <c r="T32" s="72" t="str">
-        <v>弱点LV10:造成敌人弱点元素伤害时，该伤害近提升至300%。</v>
       </c>
     </row>
   </sheetData>
@@ -5884,7 +5917,7 @@
   <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5902,49 +5935,49 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:7">
       <c r="A2" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:7">
@@ -5955,13 +5988,13 @@
         <v>1001</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D3" s="26">
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="28">
@@ -5976,13 +6009,13 @@
         <v>1002</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="D4" s="26">
         <v>1</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="28">
@@ -5997,13 +6030,13 @@
         <v>1003</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="28">
@@ -6018,13 +6051,13 @@
         <v>1004</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="D6" s="26">
         <v>1</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="28">
@@ -6039,13 +6072,13 @@
         <v>1005</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D7" s="26">
         <v>1</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="28">
@@ -6060,13 +6093,13 @@
         <v>1006</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D8" s="26">
         <v>1</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="28">
@@ -6081,13 +6114,13 @@
         <v>1007</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D9" s="26">
         <v>1</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="28">
@@ -6102,13 +6135,13 @@
         <v>1008</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D10" s="26">
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="28">
@@ -6123,13 +6156,13 @@
         <v>1009</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="28">
@@ -6144,13 +6177,13 @@
         <v>1010</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="28">
@@ -6165,13 +6198,13 @@
         <v>1011</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D13" s="26">
         <v>1</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="28">
@@ -6186,13 +6219,13 @@
         <v>1012</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D14" s="26">
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="28">
@@ -6207,13 +6240,13 @@
         <v>1013</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D15" s="26">
         <v>1</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="28">
@@ -6228,13 +6261,13 @@
         <v>1014</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c r="D16" s="26">
         <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="28">
@@ -6249,13 +6282,13 @@
         <v>1015</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D17" s="26">
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="28">
@@ -6270,13 +6303,13 @@
         <v>1016</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D18" s="26">
         <v>1</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="28">
@@ -6291,13 +6324,13 @@
         <v>1017</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D19" s="26">
         <v>1</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="28">
@@ -6312,13 +6345,13 @@
         <v>1018</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D20" s="26">
         <v>1</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="28">
@@ -6333,13 +6366,13 @@
         <v>1019</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D21" s="26">
         <v>1</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="28">
@@ -6354,13 +6387,13 @@
         <v>1020</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D22" s="26">
         <v>1</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="28">
@@ -6375,13 +6408,13 @@
         <v>1021</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D23" s="26">
         <v>1</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="28">
@@ -6396,13 +6429,13 @@
         <v>1022</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D24" s="26">
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="28">
@@ -6417,13 +6450,13 @@
         <v>1023</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D25" s="26">
         <v>1</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="28">
@@ -6438,13 +6471,13 @@
         <v>1024</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D26" s="26">
         <v>1</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="28">
@@ -6459,13 +6492,13 @@
         <v>1025</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D27" s="26">
         <v>1</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="28">
@@ -6480,13 +6513,13 @@
         <v>1026</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D28" s="26">
         <v>1</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="28">
@@ -6501,13 +6534,13 @@
         <v>1027</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D29" s="26">
         <v>1</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="28">
@@ -6522,13 +6555,13 @@
         <v>1028</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D30" s="26">
         <v>1</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="28">
@@ -6543,13 +6576,13 @@
         <v>1029</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D31" s="26">
         <v>1</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="28">
@@ -6564,13 +6597,13 @@
         <v>1030</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D32" s="26">
         <v>1</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="28">
@@ -6585,13 +6618,13 @@
         <v>1031</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D33" s="26">
         <v>1</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="28">
@@ -6606,13 +6639,13 @@
         <v>1032</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="D34" s="26">
         <v>1</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="28">
@@ -6627,13 +6660,13 @@
         <v>1033</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D35" s="26">
         <v>1</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F35" s="26"/>
       <c r="G35" s="28">
@@ -6648,13 +6681,13 @@
         <v>1034</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D36" s="26">
         <v>1</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="28">
@@ -6669,13 +6702,13 @@
         <v>1035</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="D37" s="26">
         <v>1</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="28">
@@ -6690,13 +6723,13 @@
         <v>1036</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D38" s="26">
         <v>1</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="28">
@@ -6711,13 +6744,13 @@
         <v>1037</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D39" s="26">
         <v>2</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="28">
@@ -6732,13 +6765,13 @@
         <v>1038</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D40" s="26">
         <v>1</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="28">
@@ -6753,13 +6786,13 @@
         <v>1039</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="D41" s="26">
         <v>1</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="28">
@@ -6774,13 +6807,13 @@
         <v>1040</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="D42" s="26">
         <v>1</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="28">
@@ -6795,13 +6828,13 @@
         <v>1041</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D43" s="26">
         <v>1</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="28">
@@ -6816,13 +6849,13 @@
         <v>1042</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D44" s="26">
         <v>1</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="28">
@@ -6837,13 +6870,13 @@
         <v>1043</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="D45" s="26">
         <v>1</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F45" s="26"/>
       <c r="G45" s="28">
@@ -6858,13 +6891,13 @@
         <v>1044</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="D46" s="26">
         <v>1</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="28">
@@ -6879,13 +6912,13 @@
         <v>1045</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D47" s="26">
         <v>1</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="28">
@@ -6900,13 +6933,13 @@
         <v>1046</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D48" s="26">
         <v>1</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="28">
@@ -6921,13 +6954,13 @@
         <v>1047</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D49" s="26">
         <v>1</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="28">
@@ -6942,13 +6975,13 @@
         <v>1048</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D50" s="26">
         <v>1</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="28">
@@ -6963,13 +6996,13 @@
         <v>1049</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D51" s="26">
         <v>1</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="28">
@@ -6984,13 +7017,13 @@
         <v>1050</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D52" s="26">
         <v>1</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="28">
@@ -7005,13 +7038,13 @@
         <v>1051</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D53" s="26">
         <v>1</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F53" s="26"/>
       <c r="G53" s="28">
@@ -7026,13 +7059,13 @@
         <v>1052</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D54" s="26">
         <v>1</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="28">
@@ -7047,13 +7080,13 @@
         <v>1053</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D55" s="26">
         <v>1</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="28">
@@ -7068,13 +7101,13 @@
         <v>1054</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D56" s="26">
         <v>1</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="28">
@@ -7089,13 +7122,13 @@
         <v>1055</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D57" s="26">
         <v>1</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="28">
@@ -7110,13 +7143,13 @@
         <v>1056</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D58" s="26">
         <v>1</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="28">
@@ -7131,13 +7164,13 @@
         <v>1057</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D59" s="26">
         <v>1</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="28">
@@ -7152,13 +7185,13 @@
         <v>1058</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D60" s="26">
         <v>1</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="28">
@@ -7173,13 +7206,13 @@
         <v>1059</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D61" s="26">
         <v>1</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F61" s="26"/>
       <c r="G61" s="28">
@@ -7194,13 +7227,13 @@
         <v>1060</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D62" s="26">
         <v>1</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="28">
@@ -7215,13 +7248,13 @@
         <v>1061</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D63" s="26">
         <v>1</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="28">
@@ -7236,13 +7269,13 @@
         <v>1062</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D64" s="26">
         <v>1</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="28">
@@ -7257,13 +7290,13 @@
         <v>1063</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D65" s="26">
         <v>1</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F65" s="26"/>
       <c r="G65" s="28">
@@ -7278,13 +7311,13 @@
         <v>1064</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="D66" s="26">
         <v>1</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F66" s="26"/>
       <c r="G66" s="28">
@@ -7299,13 +7332,13 @@
         <v>1065</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D67" s="26">
         <v>1</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F67" s="26"/>
       <c r="G67" s="28">
@@ -7320,13 +7353,13 @@
         <v>1066</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D68" s="26">
         <v>1</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="28">
@@ -7341,13 +7374,13 @@
         <v>1067</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D69" s="26">
         <v>1</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="28">
@@ -7362,13 +7395,13 @@
         <v>1068</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="D70" s="26">
         <v>1</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="28">
@@ -7383,13 +7416,13 @@
         <v>1069</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D71" s="26">
         <v>1</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="28">
@@ -7404,13 +7437,13 @@
         <v>1070</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D72" s="26">
         <v>1</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="28">
@@ -7425,13 +7458,13 @@
         <v>1071</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="D73" s="26">
         <v>1</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="28">
@@ -7446,13 +7479,13 @@
         <v>1072</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D74" s="26">
         <v>1</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="28">
@@ -7467,13 +7500,13 @@
         <v>1073</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D75" s="26">
         <v>1</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="28">
@@ -7488,13 +7521,13 @@
         <v>1074</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="D76" s="26">
         <v>1</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F76" s="26"/>
       <c r="G76" s="28">
@@ -7509,13 +7542,13 @@
         <v>1075</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D77" s="26">
         <v>1</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F77" s="26"/>
       <c r="G77" s="28">
@@ -7530,13 +7563,13 @@
         <v>1076</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="D78" s="26">
         <v>1</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F78" s="26"/>
       <c r="G78" s="28">
@@ -7551,13 +7584,13 @@
         <v>1077</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="D79" s="26">
         <v>1</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="28">
@@ -7572,13 +7605,13 @@
         <v>1078</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D80" s="26">
         <v>1</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="28">
@@ -7593,13 +7626,13 @@
         <v>1079</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D81" s="26">
         <v>1</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="28">
@@ -7614,13 +7647,13 @@
         <v>1080</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D82" s="26">
         <v>1</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="28">
@@ -7635,13 +7668,13 @@
         <v>1081</v>
       </c>
       <c r="C83" s="26" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D83" s="26">
         <v>1</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F83" s="26"/>
       <c r="G83" s="28">
@@ -7656,13 +7689,13 @@
         <v>1082</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D84" s="26">
         <v>1</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F84" s="26"/>
       <c r="G84" s="28">
@@ -7677,13 +7710,13 @@
         <v>1083</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D85" s="26">
         <v>1</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F85" s="26"/>
       <c r="G85" s="28">
@@ -7698,13 +7731,13 @@
         <v>1084</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D86" s="26">
         <v>2</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F86" s="26"/>
       <c r="G86" s="28">
@@ -7719,13 +7752,13 @@
         <v>1085</v>
       </c>
       <c r="C87" s="26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D87" s="26">
         <v>1</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="28">
@@ -7740,13 +7773,13 @@
         <v>1086</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D88" s="26">
         <v>1</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F88" s="26"/>
       <c r="G88" s="28">
@@ -7761,13 +7794,13 @@
         <v>1087</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D89" s="26">
         <v>1</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="28">
@@ -7782,13 +7815,13 @@
         <v>1088</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D90" s="26">
         <v>1</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="28">
@@ -7803,13 +7836,13 @@
         <v>1089</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D91" s="26">
         <v>1</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="28">
@@ -7824,13 +7857,13 @@
         <v>1090</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D92" s="26">
         <v>1</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F92" s="26"/>
       <c r="G92" s="28">
@@ -7845,13 +7878,13 @@
         <v>1091</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D93" s="26">
         <v>1</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F93" s="26"/>
       <c r="G93" s="28">
@@ -7866,13 +7899,13 @@
         <v>1092</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D94" s="26">
         <v>1</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="28">
@@ -7887,13 +7920,13 @@
         <v>1093</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D95" s="26">
         <v>1</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F95" s="26"/>
       <c r="G95" s="28">
@@ -7908,13 +7941,13 @@
         <v>1094</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D96" s="26">
         <v>1</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="28">
@@ -7929,13 +7962,13 @@
         <v>1095</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="D97" s="26">
         <v>1</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="28">
@@ -7950,13 +7983,13 @@
         <v>1096</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D98" s="26">
         <v>1</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="28">
@@ -7971,13 +8004,13 @@
         <v>1097</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="D99" s="26">
         <v>1</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="28">
@@ -7992,13 +8025,13 @@
         <v>1098</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="D100" s="26">
         <v>1</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="28">
@@ -8013,13 +8046,13 @@
         <v>1099</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D101" s="26">
         <v>1</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F101" s="26"/>
       <c r="G101" s="28">
@@ -8034,13 +8067,13 @@
         <v>1100</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D102" s="26">
         <v>1</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F102" s="26"/>
       <c r="G102" s="28">
@@ -8055,13 +8088,13 @@
         <v>1101</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D103" s="26">
         <v>1</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F103" s="26"/>
       <c r="G103" s="28">
@@ -8076,13 +8109,13 @@
         <v>1102</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="D104" s="26">
         <v>1</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F104" s="26"/>
       <c r="G104" s="28">
@@ -8097,13 +8130,13 @@
         <v>1103</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D105" s="26">
         <v>1</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="28">
@@ -8118,13 +8151,13 @@
         <v>1104</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D106" s="26">
         <v>1</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="28">
@@ -8139,13 +8172,13 @@
         <v>1105</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="D107" s="26">
         <v>1</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F107" s="26"/>
       <c r="G107" s="28">
@@ -8160,13 +8193,13 @@
         <v>1106</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="D108" s="26">
         <v>1</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F108" s="26"/>
       <c r="G108" s="28">
@@ -8187,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="28">
@@ -8202,13 +8235,13 @@
         <v>1108</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="D110" s="26">
         <v>1</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F110" s="26"/>
       <c r="G110" s="28">
@@ -8223,13 +8256,13 @@
         <v>1109</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D111" s="26">
         <v>1</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F111" s="26"/>
       <c r="G111" s="28">
@@ -8244,13 +8277,13 @@
         <v>1110</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D112" s="26">
         <v>1</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F112" s="26"/>
       <c r="G112" s="28">
@@ -8265,13 +8298,13 @@
         <v>1111</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D113" s="26">
         <v>1</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F113" s="26"/>
       <c r="G113" s="28">
@@ -8286,13 +8319,13 @@
         <v>1112</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D114" s="26">
         <v>1</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F114" s="26"/>
       <c r="G114" s="28">
@@ -8307,13 +8340,13 @@
         <v>1113</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D115" s="26">
         <v>1</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F115" s="26"/>
       <c r="G115" s="28">
@@ -8328,13 +8361,13 @@
         <v>1114</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D116" s="26">
         <v>1</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="28">
@@ -8349,13 +8382,13 @@
         <v>1115</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D117" s="26">
         <v>1</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F117" s="26"/>
       <c r="G117" s="28">
@@ -8370,13 +8403,13 @@
         <v>1116</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D118" s="26">
         <v>1</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="28">
@@ -8391,13 +8424,13 @@
         <v>1117</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D119" s="26">
         <v>1</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F119" s="26"/>
       <c r="G119" s="28">
@@ -8412,13 +8445,13 @@
         <v>1118</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D120" s="26">
         <v>1</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F120" s="26"/>
       <c r="G120" s="28">
@@ -8433,13 +8466,13 @@
         <v>1119</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D121" s="26">
         <v>1</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="28">
@@ -8454,13 +8487,13 @@
         <v>1120</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D122" s="26">
         <v>1</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="28">
@@ -8475,13 +8508,13 @@
         <v>1121</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D123" s="26">
         <v>1</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F123" s="26"/>
       <c r="G123" s="28">
@@ -8496,13 +8529,13 @@
         <v>1122</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D124" s="26">
         <v>1</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F124" s="26"/>
       <c r="G124" s="28">
@@ -8517,13 +8550,13 @@
         <v>1123</v>
       </c>
       <c r="C125" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D125" s="26">
         <v>1</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F125" s="26"/>
       <c r="G125" s="28">
@@ -8538,13 +8571,13 @@
         <v>1124</v>
       </c>
       <c r="C126" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D126" s="26">
         <v>1</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F126" s="26"/>
       <c r="G126" s="28">
@@ -8559,13 +8592,13 @@
         <v>1125</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D127" s="26">
         <v>1</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="28">
@@ -8580,13 +8613,13 @@
         <v>1126</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D128" s="26">
         <v>1</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="28">
@@ -8601,13 +8634,13 @@
         <v>1127</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D129" s="26">
         <v>1</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F129" s="26"/>
       <c r="G129" s="28">
@@ -8622,13 +8655,13 @@
         <v>1128</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D130" s="26">
         <v>1</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F130" s="26"/>
       <c r="G130" s="28">
@@ -8643,13 +8676,13 @@
         <v>1129</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D131" s="26">
         <v>1</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F131" s="26"/>
       <c r="G131" s="28">
@@ -8664,13 +8697,13 @@
         <v>1130</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D132" s="32">
         <v>1</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="34">
@@ -8708,7 +8741,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -8723,13 +8756,13 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -8737,11 +8770,11 @@
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -8750,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="51.5" customHeight="1" spans="1:6">
@@ -8758,11 +8791,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
@@ -8772,11 +8805,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="30"/>
@@ -8786,11 +8819,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
@@ -8800,11 +8833,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
@@ -8814,11 +8847,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="30"/>
@@ -8828,11 +8861,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -8841,11 +8874,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E9" s="28"/>
     </row>
@@ -8854,11 +8887,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E10" s="28"/>
     </row>
@@ -8867,11 +8900,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E11" s="28"/>
     </row>
@@ -8880,11 +8913,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E12" s="28"/>
     </row>
@@ -8893,11 +8926,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E13" s="28"/>
     </row>
@@ -8906,11 +8939,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E14" s="28"/>
     </row>
@@ -8919,11 +8952,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E15" s="28"/>
     </row>
@@ -8932,11 +8965,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E16" s="28"/>
     </row>
@@ -8945,11 +8978,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E17" s="28"/>
     </row>
@@ -8958,11 +8991,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E18" s="28"/>
     </row>
@@ -8971,11 +9004,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E19" s="28"/>
     </row>
@@ -8984,11 +9017,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E20" s="28"/>
     </row>
@@ -8997,11 +9030,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E21" s="28"/>
     </row>
@@ -9010,11 +9043,11 @@
         <v>20</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E22" s="28"/>
     </row>
@@ -9023,11 +9056,11 @@
         <v>21</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E23" s="28"/>
     </row>
@@ -9036,11 +9069,11 @@
         <v>22</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E24" s="28"/>
     </row>
@@ -9049,11 +9082,11 @@
         <v>23</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E25" s="28"/>
     </row>
@@ -9062,11 +9095,11 @@
         <v>24</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E26" s="28"/>
     </row>
@@ -9075,11 +9108,11 @@
         <v>25</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E27" s="28"/>
     </row>
@@ -9088,11 +9121,11 @@
         <v>26</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E28" s="28"/>
     </row>
@@ -9101,11 +9134,11 @@
         <v>27</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E29" s="28"/>
     </row>
@@ -9114,11 +9147,11 @@
         <v>28</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E30" s="28"/>
     </row>
@@ -9127,11 +9160,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E31" s="28"/>
     </row>
@@ -9140,11 +9173,11 @@
         <v>30</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E32" s="28"/>
     </row>
@@ -9153,11 +9186,11 @@
         <v>31</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E33" s="28"/>
     </row>
@@ -9166,11 +9199,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C34" s="26"/>
       <c r="D34" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E34" s="28"/>
     </row>
@@ -9179,11 +9212,11 @@
         <v>33</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="26"/>
       <c r="D35" s="27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E35" s="28"/>
     </row>
@@ -9192,11 +9225,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C36" s="26"/>
       <c r="D36" s="27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E36" s="28"/>
     </row>
@@ -9205,11 +9238,11 @@
         <v>35</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E37" s="28"/>
     </row>
@@ -9218,11 +9251,11 @@
         <v>36</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E38" s="28"/>
     </row>
@@ -9231,11 +9264,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E39" s="28"/>
     </row>
@@ -9244,11 +9277,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E40" s="28"/>
     </row>
@@ -9257,11 +9290,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E41" s="28"/>
     </row>
@@ -9270,11 +9303,11 @@
         <v>40</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E42" s="28"/>
     </row>
@@ -9283,11 +9316,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E43" s="28"/>
     </row>
@@ -9296,11 +9329,11 @@
         <v>42</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C44" s="26"/>
       <c r="D44" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E44" s="28"/>
     </row>
@@ -9309,11 +9342,11 @@
         <v>43</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E45" s="28"/>
     </row>
@@ -9322,11 +9355,11 @@
         <v>44</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C46" s="26"/>
       <c r="D46" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E46" s="28"/>
     </row>
@@ -9335,11 +9368,11 @@
         <v>45</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E47" s="28"/>
     </row>
@@ -9348,11 +9381,11 @@
         <v>46</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C48" s="26"/>
       <c r="D48" s="27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E48" s="28"/>
     </row>
@@ -9361,11 +9394,11 @@
         <v>47</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E49" s="28"/>
     </row>
@@ -9374,11 +9407,11 @@
         <v>48</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E50" s="28"/>
     </row>
@@ -9387,11 +9420,11 @@
         <v>49</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E51" s="28"/>
     </row>
@@ -9400,11 +9433,11 @@
         <v>50</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E52" s="28"/>
     </row>
@@ -9413,11 +9446,11 @@
         <v>51</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E53" s="28"/>
     </row>
@@ -9426,11 +9459,11 @@
         <v>52</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E54" s="28"/>
     </row>
@@ -9439,11 +9472,11 @@
         <v>53</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E55" s="28"/>
     </row>
@@ -9452,11 +9485,11 @@
         <v>54</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="33" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E56" s="34"/>
     </row>
@@ -9465,11 +9498,11 @@
         <v>55</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C57" s="32"/>
       <c r="D57" s="33" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E57" s="34"/>
     </row>
@@ -9501,39 +9534,39 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" ht="30.5" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -9542,7 +9575,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" ht="30.5" customHeight="1" spans="1:8">
@@ -9550,7 +9583,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -9568,7 +9601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -9586,7 +9619,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -9604,7 +9637,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -9622,7 +9655,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -9640,7 +9673,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -9658,7 +9691,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C9" s="13">
         <v>3</v>
@@ -9676,7 +9709,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
@@ -9694,7 +9727,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
@@ -9712,7 +9745,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C12" s="13">
         <v>4</v>
@@ -9730,7 +9763,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C13" s="13">
         <v>4</v>
@@ -9748,7 +9781,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C14" s="13">
         <v>4</v>
@@ -9766,7 +9799,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C15" s="13">
         <v>5</v>
@@ -9784,7 +9817,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C16" s="13">
         <v>5</v>
@@ -9802,7 +9835,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C17" s="13">
         <v>5</v>
@@ -9820,7 +9853,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C18" s="13">
         <v>6</v>
@@ -9838,7 +9871,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C19" s="13">
         <v>6</v>
@@ -9856,7 +9889,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C20" s="13">
         <v>6</v>
@@ -9874,7 +9907,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C21" s="13">
         <v>7</v>
@@ -9892,7 +9925,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C22" s="13">
         <v>7</v>
@@ -9910,7 +9943,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C23" s="13">
         <v>7</v>
@@ -9928,7 +9961,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C24" s="13">
         <v>8</v>
@@ -9946,7 +9979,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -9964,7 +9997,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C26" s="13">
         <v>8</v>
@@ -9982,7 +10015,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C27" s="13">
         <v>9</v>
@@ -10000,7 +10033,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C28" s="13">
         <v>9</v>
@@ -10018,7 +10051,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C29" s="13">
         <v>9</v>
@@ -10036,7 +10069,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C30" s="13">
         <v>10</v>
@@ -10054,7 +10087,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C31" s="13">
         <v>10</v>
@@ -10072,7 +10105,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C32" s="13">
         <v>10</v>
@@ -10090,7 +10123,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C33" s="13">
         <v>11</v>
@@ -10108,7 +10141,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C34" s="13">
         <v>11</v>
@@ -10126,7 +10159,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C35" s="13">
         <v>11</v>
@@ -10144,7 +10177,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C36" s="13">
         <v>12</v>
@@ -10162,7 +10195,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C37" s="13">
         <v>12</v>
@@ -10180,7 +10213,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C38" s="13">
         <v>12</v>
@@ -10198,7 +10231,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C39" s="13">
         <v>13</v>
@@ -10216,7 +10249,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C40" s="13">
         <v>13</v>
@@ -10234,7 +10267,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C41" s="13">
         <v>13</v>
@@ -10252,7 +10285,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C42" s="13">
         <v>14</v>
@@ -10270,7 +10303,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C43" s="13">
         <v>14</v>
@@ -10288,7 +10321,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C44" s="13">
         <v>14</v>
@@ -10306,7 +10339,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C45" s="13">
         <v>15</v>
@@ -10324,7 +10357,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C46" s="13">
         <v>15</v>
@@ -10342,7 +10375,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C47" s="13">
         <v>15</v>
@@ -10360,7 +10393,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C48" s="13">
         <v>16</v>
@@ -10378,7 +10411,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C49" s="13">
         <v>16</v>
@@ -10396,7 +10429,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C50" s="13">
         <v>16</v>
@@ -10414,7 +10447,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C51" s="13">
         <v>17</v>
@@ -10432,7 +10465,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C52" s="13">
         <v>17</v>
@@ -10450,7 +10483,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C53" s="13">
         <v>17</v>
@@ -10468,7 +10501,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C54" s="13">
         <v>18</v>
@@ -10486,7 +10519,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C55" s="13">
         <v>18</v>
@@ -10504,7 +10537,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C56" s="13">
         <v>18</v>
@@ -10522,7 +10555,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C57" s="13">
         <v>19</v>
@@ -10540,7 +10573,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C58" s="13">
         <v>19</v>
@@ -10558,7 +10591,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C59" s="13">
         <v>19</v>
@@ -10576,7 +10609,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C60" s="13">
         <v>20</v>
@@ -10594,7 +10627,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C61" s="13">
         <v>20</v>
@@ -10612,7 +10645,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C62" s="17">
         <v>20</v>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="353">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -135,237 +135,237 @@
     <t>游荡的鬼魂</t>
   </si>
   <si>
+    <t>炼狱亡魂</t>
+  </si>
+  <si>
+    <t>冰川鬼魂</t>
+  </si>
+  <si>
+    <t>绿洲鬼魂</t>
+  </si>
+  <si>
+    <t>攻击力(基础)</t>
+  </si>
+  <si>
+    <t>%移动速度(基础百分比)</t>
+  </si>
+  <si>
+    <t>生命恢复(基础单位秒)</t>
+  </si>
+  <si>
+    <t>爱吃石甲虫</t>
+  </si>
+  <si>
+    <t>冰晶石甲虫</t>
+  </si>
+  <si>
+    <t>炼狱石甲虫</t>
+  </si>
+  <si>
+    <t>防御力(基础)</t>
+  </si>
+  <si>
+    <t>龟龟，我的龟龟</t>
+  </si>
+  <si>
+    <t>冰川幼龟</t>
+  </si>
+  <si>
+    <t>沙漠金龟</t>
+  </si>
+  <si>
+    <t>烈焰战龟</t>
+  </si>
+  <si>
+    <t>雷霆晶龟</t>
+  </si>
+  <si>
+    <t>技能急速(基础)</t>
+  </si>
+  <si>
+    <t>%生命值(基础加成)</t>
+  </si>
+  <si>
+    <t>极地吉祥物</t>
+  </si>
+  <si>
+    <t>冰原狐</t>
+  </si>
+  <si>
+    <t>冰原犬</t>
+  </si>
+  <si>
+    <t>%冰元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>是鹫不是舅</t>
+  </si>
+  <si>
+    <t>雷羽鹫</t>
+  </si>
+  <si>
+    <t>雷山鹫</t>
+  </si>
+  <si>
+    <t>雷翼鹫</t>
+  </si>
+  <si>
+    <t>毒风鹫</t>
+  </si>
+  <si>
+    <t>%暴击伤害(基础)</t>
+  </si>
+  <si>
+    <t>%闪避(基础)</t>
+  </si>
+  <si>
+    <t>47|49</t>
+  </si>
+  <si>
+    <t>冰与火I</t>
+  </si>
+  <si>
+    <t>炼狱狼</t>
+  </si>
+  <si>
+    <t>极地虎</t>
+  </si>
+  <si>
+    <t>%火元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>%冰元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>沙漠和绿洲I</t>
+  </si>
+  <si>
+    <t>幼年沙龙</t>
+  </si>
+  <si>
+    <t>绿洲精灵幼龙</t>
+  </si>
+  <si>
+    <t>%风元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>炼狱disco</t>
+  </si>
+  <si>
+    <t>炼狱领主</t>
+  </si>
+  <si>
+    <t>%暴击概率(基础)</t>
+  </si>
+  <si>
+    <t>讨厌的手</t>
+  </si>
+  <si>
+    <t>霹雳怪手</t>
+  </si>
+  <si>
+    <t>狂沙怪手</t>
+  </si>
+  <si>
+    <t>绿洲怪手</t>
+  </si>
+  <si>
+    <t>攻击速度(基础)</t>
+  </si>
+  <si>
+    <t>%攻击速度(基础百分比)</t>
+  </si>
+  <si>
+    <t>四元素圣使</t>
+  </si>
+  <si>
+    <t>祈风使</t>
+  </si>
+  <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>烈火使</t>
+  </si>
+  <si>
+    <t>%元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>%元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>38|36</t>
+  </si>
+  <si>
+    <t>元素大陆的掌控者</t>
+  </si>
+  <si>
+    <t>元素之主</t>
+  </si>
+  <si>
+    <t>%伤害加成(基础)</t>
+  </si>
+  <si>
+    <t>50|12|59</t>
+  </si>
+  <si>
+    <t>来自炼狱的熊</t>
+  </si>
+  <si>
+    <t>炼狱熊怪</t>
+  </si>
+  <si>
+    <t>疾行火熊</t>
+  </si>
+  <si>
+    <t>炼狱战熊</t>
+  </si>
+  <si>
+    <t>熔火炼狱的土著</t>
+  </si>
+  <si>
+    <t>炼狱小双头犬</t>
+  </si>
+  <si>
+    <t>骷髅勇士</t>
+  </si>
+  <si>
+    <t>%火元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>44|7</t>
+  </si>
+  <si>
+    <t>炼狱夜魇军</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>炽甲虫战士</t>
+  </si>
+  <si>
+    <t>炽甲虫战车</t>
+  </si>
+  <si>
+    <t>44|37</t>
+  </si>
+  <si>
+    <t>超大只的炼狱火</t>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+  </si>
+  <si>
     <t>炼狱火</t>
   </si>
   <si>
-    <t>冰川鬼魂</t>
-  </si>
-  <si>
-    <t>绿洲鬼魂</t>
-  </si>
-  <si>
-    <t>攻击力(基础)</t>
-  </si>
-  <si>
-    <t>%移动速度(基础百分比)</t>
-  </si>
-  <si>
-    <t>生命恢复(基础单位秒)</t>
-  </si>
-  <si>
-    <t>爱吃石甲虫</t>
-  </si>
-  <si>
-    <t>冰晶石甲虫</t>
-  </si>
-  <si>
-    <t>炼狱石甲虫</t>
-  </si>
-  <si>
-    <t>防御力(基础)</t>
-  </si>
-  <si>
-    <t>龟龟，我的龟龟</t>
-  </si>
-  <si>
-    <t>冰川幼龟</t>
-  </si>
-  <si>
-    <t>沙漠金龟</t>
-  </si>
-  <si>
-    <t>烈焰战龟</t>
-  </si>
-  <si>
-    <t>雷霆晶龟</t>
-  </si>
-  <si>
-    <t>技能急速(基础)</t>
-  </si>
-  <si>
-    <t>%生命值(基础加成)</t>
-  </si>
-  <si>
-    <t>极地吉祥物</t>
-  </si>
-  <si>
-    <t>冰原狐</t>
-  </si>
-  <si>
-    <t>冰原犬</t>
-  </si>
-  <si>
-    <t>%冰元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>是鹫不是舅</t>
-  </si>
-  <si>
-    <t>雷羽鹫</t>
-  </si>
-  <si>
-    <t>雷山鹫</t>
-  </si>
-  <si>
-    <t>雷翼鹫</t>
-  </si>
-  <si>
-    <t>毒风鹫</t>
-  </si>
-  <si>
-    <t>%暴击伤害(基础)</t>
-  </si>
-  <si>
-    <t>%闪避(基础)</t>
-  </si>
-  <si>
-    <t>47|49</t>
-  </si>
-  <si>
-    <t>冰与火I</t>
-  </si>
-  <si>
-    <t>炼狱狼</t>
-  </si>
-  <si>
-    <t>极地虎</t>
-  </si>
-  <si>
-    <t>%火元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>%冰元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>沙漠和绿洲I</t>
-  </si>
-  <si>
-    <t>幼年沙龙</t>
-  </si>
-  <si>
-    <t>绿洲精灵幼龙</t>
-  </si>
-  <si>
-    <t>%风元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>炼狱disco</t>
-  </si>
-  <si>
-    <t>炼狱领主</t>
-  </si>
-  <si>
-    <t>%暴击概率(基础)</t>
-  </si>
-  <si>
-    <t>讨厌的手</t>
-  </si>
-  <si>
-    <t>霹雳怪手</t>
-  </si>
-  <si>
-    <t>狂沙怪手</t>
-  </si>
-  <si>
-    <t>绿洲怪手</t>
-  </si>
-  <si>
-    <t>攻击速度(基础)</t>
-  </si>
-  <si>
-    <t>%攻击速度(基础百分比)</t>
-  </si>
-  <si>
-    <t>四元素圣使</t>
-  </si>
-  <si>
-    <t>祈风使</t>
-  </si>
-  <si>
-    <t>寒冰使</t>
-  </si>
-  <si>
-    <t>霹雳使</t>
-  </si>
-  <si>
-    <t>烈火使</t>
-  </si>
-  <si>
-    <t>%元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>%元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>38|36</t>
-  </si>
-  <si>
-    <t>元素大陆的掌控者</t>
-  </si>
-  <si>
-    <t>元素之主</t>
-  </si>
-  <si>
-    <t>%伤害加成(基础)</t>
-  </si>
-  <si>
-    <t>50|12|59</t>
-  </si>
-  <si>
-    <t>来自炼狱的熊</t>
-  </si>
-  <si>
-    <t>炼狱熊怪</t>
-  </si>
-  <si>
-    <t>疾行火熊</t>
-  </si>
-  <si>
-    <t>炼狱战熊</t>
-  </si>
-  <si>
-    <t>熔火炼狱的土著</t>
-  </si>
-  <si>
-    <t>炼狱亡魂</t>
-  </si>
-  <si>
-    <t>炼狱小双头犬</t>
-  </si>
-  <si>
-    <t>骷髅勇士</t>
-  </si>
-  <si>
-    <t>%火元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>44|7</t>
-  </si>
-  <si>
-    <t>炼狱夜魇军</t>
-  </si>
-  <si>
-    <t>夜魇近战兵</t>
-  </si>
-  <si>
-    <t>夜魇远程兵</t>
-  </si>
-  <si>
-    <t>炽甲虫战士</t>
-  </si>
-  <si>
-    <t>炽甲虫战车</t>
-  </si>
-  <si>
-    <t>44|37</t>
-  </si>
-  <si>
-    <t>超大只的炼狱火</t>
-  </si>
-  <si>
-    <t>熔岩巨人</t>
-  </si>
-  <si>
     <t>炼狱火精灵</t>
   </si>
   <si>
@@ -393,63 +393,156 @@
     <t>50|2</t>
   </si>
   <si>
-    <t>不朽之守护</t>
+    <t>熔火炼狱的精英I</t>
+  </si>
+  <si>
+    <t>熔岩卫兵</t>
+  </si>
+  <si>
+    <t>熔岩飞翼兽</t>
   </si>
   <si>
     <t>9|60</t>
   </si>
   <si>
-    <t>象牙海民的亡灵</t>
-  </si>
-  <si>
-    <t>传说的象牙三圣母</t>
-  </si>
-  <si>
-    <t>遥远的寒霜巨兽</t>
+    <t>熔火炼狱的精英II</t>
+  </si>
+  <si>
+    <t>冥火剑圣</t>
+  </si>
+  <si>
+    <t>双斧狂战</t>
+  </si>
+  <si>
+    <t>地狱吉祥物？</t>
+  </si>
+  <si>
+    <t>炼狱双头犬</t>
+  </si>
+  <si>
+    <t>主人与宠物I</t>
+  </si>
+  <si>
+    <t>炼狱之王</t>
   </si>
   <si>
     <t>32|44</t>
   </si>
   <si>
-    <t>喜欢做鳄梦</t>
-  </si>
-  <si>
-    <t>彩虹的颜色</t>
-  </si>
-  <si>
-    <t>坚持了两年半</t>
-  </si>
-  <si>
-    <t>远古的三巨头</t>
+    <t>主人与宠物II</t>
+  </si>
+  <si>
+    <t>烈焰战神</t>
+  </si>
+  <si>
+    <t>烈焰神狐</t>
+  </si>
+  <si>
+    <t>是真的狗</t>
+  </si>
+  <si>
+    <t>小狗头人</t>
+  </si>
+  <si>
+    <t>小小雷兽</t>
+  </si>
+  <si>
+    <t>雷须兽</t>
+  </si>
+  <si>
+    <t>雷角兽</t>
+  </si>
+  <si>
+    <t>神，鸟与龙</t>
+  </si>
+  <si>
+    <t>雷神鸟</t>
+  </si>
+  <si>
+    <t>雷神</t>
+  </si>
+  <si>
+    <t>青眼雷龙</t>
   </si>
   <si>
     <t>23|17</t>
   </si>
   <si>
-    <t>有肉的和没肉的</t>
-  </si>
-  <si>
-    <t>来自炼狱</t>
-  </si>
-  <si>
-    <t>爱吃树墩</t>
-  </si>
-  <si>
-    <t>正牌天辉军</t>
+    <t>被雷电麻痹的怪物</t>
+  </si>
+  <si>
+    <t>雷树精兽</t>
+  </si>
+  <si>
+    <t>霹雳怪虫</t>
+  </si>
+  <si>
+    <t>霹雳怪泥</t>
+  </si>
+  <si>
+    <t>掌管雷电</t>
+  </si>
+  <si>
+    <t>闪电制造者</t>
+  </si>
+  <si>
+    <t>雷电掌控者</t>
+  </si>
+  <si>
+    <t>雷压的见证者</t>
+  </si>
+  <si>
+    <t>雷压飞翼兽</t>
+  </si>
+  <si>
+    <t>雷压巨兽</t>
+  </si>
+  <si>
+    <t>雷压射手</t>
+  </si>
+  <si>
+    <t>雷霆领主的军团</t>
+  </si>
+  <si>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>雷霆梦魇</t>
+  </si>
+  <si>
+    <t>雷霆拍熊</t>
+  </si>
+  <si>
+    <t>雷霆战蜥</t>
   </si>
   <si>
     <t>18|57</t>
   </si>
   <si>
-    <t>正牌夜魇部队</t>
+    <t>雷龙的成长见证</t>
+  </si>
+  <si>
+    <t>幼年青眼雷龙</t>
   </si>
   <si>
     <t>36|39</t>
   </si>
   <si>
+    <t>狐狸不是妖</t>
+  </si>
+  <si>
+    <t>极寒冰狐</t>
+  </si>
+  <si>
+    <t>雷翼飞狐</t>
+  </si>
+  <si>
     <t>50|12</t>
   </si>
   <si>
+    <t>熊</t>
+  </si>
+  <si>
     <t>卡片索引</t>
   </si>
   <si>
@@ -498,33 +591,6 @@
     <t>远古炼狱巨人</t>
   </si>
   <si>
-    <t>熔岩飞翼兽</t>
-  </si>
-  <si>
-    <t>冥火剑圣</t>
-  </si>
-  <si>
-    <t>双斧狂战</t>
-  </si>
-  <si>
-    <t>熔岩卫兵</t>
-  </si>
-  <si>
-    <t>烈焰神狐</t>
-  </si>
-  <si>
-    <t>炼狱双头犬</t>
-  </si>
-  <si>
-    <t>烈焰战神</t>
-  </si>
-  <si>
-    <t>炼狱之王</t>
-  </si>
-  <si>
-    <t>小狗头人</t>
-  </si>
-  <si>
     <t>雷电之魂</t>
   </si>
   <si>
@@ -534,97 +600,37 @@
     <t>远古岚肤兽</t>
   </si>
   <si>
-    <t>雷树精兽</t>
-  </si>
-  <si>
-    <t>雷角兽</t>
-  </si>
-  <si>
     <t>38|39</t>
   </si>
   <si>
-    <t>雷须兽</t>
-  </si>
-  <si>
-    <t>幼年青眼雷龙</t>
-  </si>
-  <si>
-    <t>霹雳怪虫</t>
-  </si>
-  <si>
     <t>独角雷兽</t>
   </si>
   <si>
     <t>雷电见习者</t>
   </si>
   <si>
-    <t>雷霆拍熊</t>
-  </si>
-  <si>
-    <t>雷翼飞狐</t>
-  </si>
-  <si>
     <t>远古黑龙</t>
   </si>
   <si>
-    <t>雷霆领主</t>
-  </si>
-  <si>
-    <t>青眼雷龙</t>
-  </si>
-  <si>
-    <t>霹雳怪泥</t>
-  </si>
-  <si>
-    <t>雷霆战蜥</t>
-  </si>
-  <si>
     <t>霹雳女妖</t>
   </si>
   <si>
-    <t>雷压巨兽</t>
-  </si>
-  <si>
-    <t>雷压射手</t>
-  </si>
-  <si>
-    <t>雷霆梦魇</t>
-  </si>
-  <si>
-    <t>雷压飞翼兽</t>
-  </si>
-  <si>
-    <t>雷电掌控者</t>
-  </si>
-  <si>
-    <t>雷神鸟</t>
-  </si>
-  <si>
-    <t>闪电制造者</t>
-  </si>
-  <si>
-    <t>雷神</t>
-  </si>
-  <si>
     <t>极寒精灵</t>
   </si>
   <si>
-    <t>极寒冰狐</t>
-  </si>
-  <si>
     <t>极地少女</t>
   </si>
   <si>
     <t>冰原行者</t>
   </si>
   <si>
-    <t>近代冰魂（远程）</t>
+    <t>近代冰魂</t>
   </si>
   <si>
     <t>极地小冰龙</t>
   </si>
   <si>
-    <t>极地小飞龙（远程）</t>
+    <t>极地小飞龙</t>
   </si>
   <si>
     <t>冰晶小海马</t>
@@ -633,7 +639,7 @@
     <t>冰宫守卫</t>
   </si>
   <si>
-    <t>冰宫奴仆（远程）</t>
+    <t>冰宫奴仆</t>
   </si>
   <si>
     <t>冰甲战熊</t>
@@ -642,7 +648,10 @@
     <t>寒霜战士</t>
   </si>
   <si>
-    <t>寒霜萨满（远程）</t>
+    <t>寒霜萨满</t>
+  </si>
+  <si>
+    <t>冰原巨兽</t>
   </si>
   <si>
     <t>极地熊战士</t>
@@ -660,7 +669,7 @@
     <t>极地四脚兽</t>
   </si>
   <si>
-    <t>冰原巨兽(远程）</t>
+    <t>极地飞翼兽</t>
   </si>
   <si>
     <t>极冰守卫</t>
@@ -690,13 +699,13 @@
     <t>绿洲剧毒蛇</t>
   </si>
   <si>
-    <t>绿洲剧毒飞蛇（远程）</t>
+    <t>绿洲剧毒飞蛇</t>
   </si>
   <si>
     <t>绿洲精灵马</t>
   </si>
   <si>
-    <t>绿洲魔法飞马（远程）</t>
+    <t>绿洲魔法飞马</t>
   </si>
   <si>
     <t>绿洲小精灵</t>
@@ -705,7 +714,7 @@
     <t>天辉高级战士</t>
   </si>
   <si>
-    <t>天辉高级术士（远程）</t>
+    <t>天辉高级术士</t>
   </si>
   <si>
     <t>独角沙兽</t>
@@ -714,7 +723,7 @@
     <t>高级精灵战士</t>
   </si>
   <si>
-    <t>高级精灵战车（远程）</t>
+    <t>高级精灵战车</t>
   </si>
   <si>
     <t>风沙狼</t>
@@ -732,7 +741,7 @@
     <t>风沙刺鼬</t>
   </si>
   <si>
-    <t>绿洲女巫(远程）</t>
+    <t>绿洲女巫</t>
   </si>
   <si>
     <t>砂砾小巨人</t>
@@ -1096,6 +1105,15 @@
   </si>
   <si>
     <t>幸运LV15:装备该图鉴时，消耗星级点数减少4</t>
+  </si>
+  <si>
+    <t>奥术LV1：使用耗蓝型技能时，有5%概率返还所消耗的蓝量</t>
+  </si>
+  <si>
+    <t>奥术LV5：使用耗蓝型技能时，有15%概率返还所消耗的蓝量</t>
+  </si>
+  <si>
+    <t>奥术LV10：使用耗蓝型技能时，有30%概率返还所消耗的蓝量</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1326,6 +1344,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,7 +2078,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2078,16 +2102,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2096,89 +2120,89 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2282,6 +2306,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3361,16 +3388,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{8A859696-C5EB-4BFC-8DAE-8260A5515E30}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{01F31941-3C41-48AC-A12C-24C28E50B01E}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{195E2AC1-50C9-42F2-859F-CEE7831D0B7E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{15E4B9A0-6E1C-4167-96AA-9E7AA81096BC}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{E1B6FE67-5477-4D84-87BB-4F168DB54A1D}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{2AB2D820-A646-4793-8FBB-5C097138A4CF}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -3379,7 +3406,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9A96D07C-9A9D-427E-A6D0-DD3469DFB6C4}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F62ECE61-2228-44C6-8299-534C5498F3E2}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -3391,7 +3418,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{C03D2BD2-1B5A-4FAA-8499-C5D9C800E061}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{0C75C9D3-CABB-4B2C-B183-3AF795494B41}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -3707,12 +3734,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H14" sqref="H14"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3771,44 +3798,44 @@
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
       <c r="I1" s="26"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="59" t="s">
+      <c r="W1" s="60" t="s">
         <v>17</v>
       </c>
       <c r="X1" s="4" t="s">
@@ -3819,14 +3846,14 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="64" t="s">
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="72"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="73"/>
     </row>
     <row r="2" ht="31.25" customHeight="1" spans="1:35">
       <c r="A2" s="6" t="s">
@@ -3845,37 +3872,37 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="48"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="49"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="10"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="67" t="s">
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="72"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="73"/>
     </row>
     <row r="3" s="31" customFormat="1" ht="47" customHeight="1" spans="1:35">
       <c r="A3" s="11">
@@ -3900,39 +3927,39 @@
       <c r="H3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48">
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49">
         <f>IF(ISTEXT(F3),1,0)+IF(ISTEXT(G3),1,0)+IF(ISTEXT(H3),1,0)+IF(ISTEXT(I3),1,0)+IF(ISTEXT(J3),1,0)</f>
         <v>3</v>
       </c>
       <c r="L3" s="9" t="str">
         <f>IF(K3&gt;0,IF(K3&gt;1,VLOOKUP(F3,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F3,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K3&gt;1,IF(K3&gt;2,VLOOKUP(G3,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G3,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K3&gt;2,IF(K3&gt;3,VLOOKUP(H3,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H3,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K3&gt;3,IF(K3&gt;4,VLOOKUP(I3,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I3,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K3&gt;4,IF(K3&gt;5,VLOOKUP(J3,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J3,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v>13|64|95</v>
+        <v>4|64|95</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="39">
+      <c r="N3" s="40">
         <v>10</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="51">
         <v>5</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="50">
+      <c r="R3" s="51">
         <v>5</v>
       </c>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="51">
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="52">
         <f>IF(ISTEXT(M3),1,0)+IF(ISTEXT(O3),1,0)+IF(ISTEXT(Q3),1,0)+IF(ISTEXT(S3),1,0)+IF(ISTEXT(U3),1,0)</f>
         <v>3</v>
       </c>
@@ -3963,7 +3990,7 @@
         <f>IF(ISTEXT(U3),VLOOKUP(U3,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U3,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V3&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD3" s="52"/>
+      <c r="AD3" s="53"/>
       <c r="AE3" s="6">
         <v>14</v>
       </c>
@@ -3973,7 +4000,7 @@
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="10"/>
-      <c r="AI3" s="72"/>
+      <c r="AI3" s="73"/>
     </row>
     <row r="4" s="31" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A4" s="11">
@@ -3996,9 +4023,9 @@
         <v>35</v>
       </c>
       <c r="H4" s="34"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="51">
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="52">
         <f t="shared" ref="K4:K32" si="0">IF(ISTEXT(F4),1,0)+IF(ISTEXT(G4),1,0)+IF(ISTEXT(H4),1,0)+IF(ISTEXT(I4),1,0)+IF(ISTEXT(J4),1,0)</f>
         <v>2</v>
       </c>
@@ -4009,22 +4036,22 @@
       <c r="M4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="47">
         <v>10</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4" s="51">
         <v>15</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="51">
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="52">
         <f t="shared" ref="W4:W32" si="1">IF(ISTEXT(M4),1,0)+IF(ISTEXT(O4),1,0)+IF(ISTEXT(Q4),1,0)+IF(ISTEXT(S4),1,0)+IF(ISTEXT(U4),1,0)</f>
         <v>2</v>
       </c>
@@ -4053,7 +4080,7 @@
         <f>IF(ISTEXT(U4),VLOOKUP(U4,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U4,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V4&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD4" s="69"/>
+      <c r="AD4" s="70"/>
       <c r="AE4" s="11">
         <v>56</v>
       </c>
@@ -4063,7 +4090,7 @@
       </c>
       <c r="AG4" s="12"/>
       <c r="AH4" s="14"/>
-      <c r="AI4" s="72"/>
+      <c r="AI4" s="73"/>
     </row>
     <row r="5" s="31" customFormat="1" ht="47" customHeight="1" spans="1:35">
       <c r="A5" s="11">
@@ -4091,8 +4118,8 @@
       <c r="I5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="51">
+      <c r="J5" s="53"/>
+      <c r="K5" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4103,30 +4130,30 @@
       <c r="M5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="47">
         <v>10</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5" s="51">
         <v>5</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="50">
+      <c r="R5" s="51">
         <v>5</v>
       </c>
-      <c r="S5" s="50" t="s">
+      <c r="S5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="51">
         <v>250</v>
       </c>
-      <c r="U5" s="50"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="51">
+      <c r="U5" s="51"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -4159,7 +4186,7 @@
         <f>IF(ISTEXT(U5),VLOOKUP(U5,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U5,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V5&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD5" s="69"/>
+      <c r="AD5" s="70"/>
       <c r="AE5" s="11">
         <v>17</v>
       </c>
@@ -4169,7 +4196,7 @@
       </c>
       <c r="AG5" s="12"/>
       <c r="AH5" s="14"/>
-      <c r="AI5" s="72"/>
+      <c r="AI5" s="73"/>
     </row>
     <row r="6" s="31" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A6" s="11">
@@ -4193,8 +4220,8 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="51">
+      <c r="J6" s="53"/>
+      <c r="K6" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4205,22 +4232,22 @@
       <c r="M6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="47">
         <v>2</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6" s="51">
         <v>3</v>
       </c>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="51">
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="52">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4249,7 +4276,7 @@
         <f>IF(ISTEXT(U6),VLOOKUP(U6,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U6,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V6&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD6" s="69"/>
+      <c r="AD6" s="70"/>
       <c r="AE6" s="11">
         <v>31</v>
       </c>
@@ -4259,7 +4286,7 @@
       </c>
       <c r="AG6" s="12"/>
       <c r="AH6" s="14"/>
-      <c r="AI6" s="72"/>
+      <c r="AI6" s="73"/>
     </row>
     <row r="7" s="31" customFormat="1" ht="63.5" customHeight="1" spans="1:35">
       <c r="A7" s="11">
@@ -4287,8 +4314,8 @@
       <c r="I7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="51">
+      <c r="J7" s="53"/>
+      <c r="K7" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4299,30 +4326,30 @@
       <c r="M7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="47">
         <v>10</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7" s="51">
         <v>15</v>
       </c>
-      <c r="Q7" s="50" t="s">
+      <c r="Q7" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="50">
+      <c r="R7" s="51">
         <v>5</v>
       </c>
-      <c r="S7" s="50" t="s">
+      <c r="S7" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7" s="51">
         <v>10</v>
       </c>
-      <c r="U7" s="50"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="51">
+      <c r="U7" s="51"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -4355,7 +4382,7 @@
         <f>IF(ISTEXT(U7),VLOOKUP(U7,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U7,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V7&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD7" s="69"/>
+      <c r="AD7" s="70"/>
       <c r="AE7" s="11" t="s">
         <v>55</v>
       </c>
@@ -4368,7 +4395,7 @@
         <v>掌控LV1:暴击时，吸收本次伤害1%的血量。</v>
       </c>
       <c r="AH7" s="14"/>
-      <c r="AI7" s="72"/>
+      <c r="AI7" s="73"/>
     </row>
     <row r="8" s="31" customFormat="1" ht="47" customHeight="1" spans="1:35">
       <c r="A8" s="11">
@@ -4384,7 +4411,7 @@
       <c r="E8" s="13">
         <v>2</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="35" t="s">
         <v>57</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -4392,8 +4419,8 @@
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="51">
+      <c r="J8" s="53"/>
+      <c r="K8" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4404,22 +4431,22 @@
       <c r="M8" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="46">
-        <v>1</v>
-      </c>
-      <c r="O8" s="49" t="s">
+      <c r="N8" s="47">
+        <v>1</v>
+      </c>
+      <c r="O8" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="50">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="51">
+      <c r="P8" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="52">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4448,7 +4475,7 @@
         <f>IF(ISTEXT(U8),VLOOKUP(U8,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U8,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V8&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD8" s="69"/>
+      <c r="AD8" s="70"/>
       <c r="AE8" s="11">
         <v>58</v>
       </c>
@@ -4458,7 +4485,7 @@
       </c>
       <c r="AG8" s="12"/>
       <c r="AH8" s="14"/>
-      <c r="AI8" s="72"/>
+      <c r="AI8" s="73"/>
     </row>
     <row r="9" s="31" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A9" s="11">
@@ -4482,8 +4509,8 @@
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="51">
+      <c r="J9" s="53"/>
+      <c r="K9" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4494,22 +4521,22 @@
       <c r="M9" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="47">
         <v>2</v>
       </c>
-      <c r="O9" s="49" t="s">
+      <c r="O9" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9" s="51">
         <v>3</v>
       </c>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="51">
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="52">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4538,7 +4565,7 @@
         <f>IF(ISTEXT(U9),VLOOKUP(U9,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U9,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V9&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD9" s="69"/>
+      <c r="AD9" s="70"/>
       <c r="AE9" s="11">
         <v>22</v>
       </c>
@@ -4548,7 +4575,7 @@
       </c>
       <c r="AG9" s="12"/>
       <c r="AH9" s="14"/>
-      <c r="AI9" s="72"/>
+      <c r="AI9" s="73"/>
     </row>
     <row r="10" s="31" customFormat="1" ht="30.5" customHeight="1" spans="1:35">
       <c r="A10" s="11">
@@ -4567,13 +4594,13 @@
       <c r="F10" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="35" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="51">
+      <c r="J10" s="53"/>
+      <c r="K10" s="52">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4584,22 +4611,22 @@
       <c r="M10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="47">
         <v>10</v>
       </c>
-      <c r="O10" s="49" t="s">
+      <c r="O10" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10" s="51">
         <v>5</v>
       </c>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="51">
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="52">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4628,7 +4655,7 @@
         <f>IF(ISTEXT(U10),VLOOKUP(U10,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U10,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V10&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD10" s="69"/>
+      <c r="AD10" s="70"/>
       <c r="AE10" s="11">
         <v>1</v>
       </c>
@@ -4638,7 +4665,7 @@
       </c>
       <c r="AG10" s="12"/>
       <c r="AH10" s="14"/>
-      <c r="AI10" s="72"/>
+      <c r="AI10" s="73"/>
     </row>
     <row r="11" s="31" customFormat="1" ht="47" customHeight="1" spans="1:35">
       <c r="A11" s="11">
@@ -4664,8 +4691,8 @@
         <v>71</v>
       </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="51">
+      <c r="J11" s="53"/>
+      <c r="K11" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4676,26 +4703,26 @@
       <c r="M11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="47">
         <v>10</v>
       </c>
-      <c r="O11" s="49" t="s">
+      <c r="O11" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="51">
         <v>15</v>
       </c>
-      <c r="Q11" s="50" t="s">
+      <c r="Q11" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="R11" s="50">
+      <c r="R11" s="51">
         <v>5</v>
       </c>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="51">
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="52">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4726,7 +4753,7 @@
         <f>IF(ISTEXT(U11),VLOOKUP(U11,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U11,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V11&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD11" s="69"/>
+      <c r="AD11" s="70"/>
       <c r="AE11" s="11">
         <v>44</v>
       </c>
@@ -4736,7 +4763,7 @@
       </c>
       <c r="AG11" s="12"/>
       <c r="AH11" s="14"/>
-      <c r="AI11" s="72"/>
+      <c r="AI11" s="73"/>
     </row>
     <row r="12" s="32" customFormat="1" ht="47" customHeight="1" spans="1:34">
       <c r="A12" s="11">
@@ -4764,8 +4791,8 @@
       <c r="I12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="51">
+      <c r="J12" s="54"/>
+      <c r="K12" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4776,30 +4803,30 @@
       <c r="M12" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="47">
         <v>5</v>
       </c>
-      <c r="O12" s="54" t="s">
+      <c r="O12" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="56">
         <v>10</v>
       </c>
-      <c r="Q12" s="55" t="s">
+      <c r="Q12" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="56">
         <v>10</v>
       </c>
-      <c r="S12" s="55" t="s">
+      <c r="S12" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="56">
         <v>15</v>
       </c>
-      <c r="U12" s="55"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="51">
+      <c r="U12" s="56"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -4832,7 +4859,7 @@
         <f>IF(ISTEXT(U12),VLOOKUP(U12,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U12,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V12&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD12" s="70"/>
+      <c r="AD12" s="71"/>
       <c r="AE12" s="11" t="s">
         <v>81</v>
       </c>
@@ -4871,10 +4898,10 @@
       <c r="I13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="J13" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4885,34 +4912,34 @@
       <c r="M13" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="47">
         <v>10</v>
       </c>
-      <c r="O13" s="49" t="s">
+      <c r="O13" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="51">
         <v>10</v>
       </c>
-      <c r="Q13" s="50" t="s">
+      <c r="Q13" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="50">
+      <c r="R13" s="51">
         <v>15</v>
       </c>
-      <c r="S13" s="50" t="s">
+      <c r="S13" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="T13" s="50">
+      <c r="T13" s="51">
         <v>15</v>
       </c>
-      <c r="U13" s="50" t="s">
+      <c r="U13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="V13" s="61">
+      <c r="V13" s="62">
         <v>15</v>
       </c>
-      <c r="W13" s="51">
+      <c r="W13" s="52">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4947,7 +4974,7 @@
 "Base" "15"
  }</v>
       </c>
-      <c r="AD13" s="69"/>
+      <c r="AD13" s="70"/>
       <c r="AE13" s="11" t="s">
         <v>85</v>
       </c>
@@ -4961,7 +4988,7 @@
       <c r="AH13" s="14" t="str">
         <v>致命LV5:使用技能时有10%概率进入致命状态，使接下来4秒内所有伤害均暴击</v>
       </c>
-      <c r="AI13" s="72"/>
+      <c r="AI13" s="73"/>
     </row>
     <row r="14" ht="47" customHeight="1" spans="1:35">
       <c r="A14" s="11">
@@ -4987,8 +5014,8 @@
         <v>89</v>
       </c>
       <c r="I14" s="14"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="51">
+      <c r="J14" s="53"/>
+      <c r="K14" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4999,26 +5026,26 @@
       <c r="M14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="47">
         <v>20</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="O14" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14" s="51">
         <v>10</v>
       </c>
-      <c r="Q14" s="50" t="s">
+      <c r="Q14" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="R14" s="50">
+      <c r="R14" s="51">
         <v>5</v>
       </c>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="51">
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="52">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5049,7 +5076,7 @@
         <f>IF(ISTEXT(U14),VLOOKUP(U14,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U14,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V14&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD14" s="69"/>
+      <c r="AD14" s="70"/>
       <c r="AE14" s="11">
         <v>49</v>
       </c>
@@ -5059,7 +5086,7 @@
       </c>
       <c r="AG14" s="12"/>
       <c r="AH14" s="14"/>
-      <c r="AI14" s="72"/>
+      <c r="AI14" s="73"/>
     </row>
     <row r="15" ht="47" customHeight="1" spans="1:35">
       <c r="A15" s="11">
@@ -5076,19 +5103,19 @@
         <v>4</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="I15" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="51">
+      <c r="J15" s="53"/>
+      <c r="K15" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5097,32 +5124,32 @@
         <v>4|5|8|12</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="46">
+        <v>93</v>
+      </c>
+      <c r="N15" s="47">
         <v>5</v>
       </c>
-      <c r="O15" s="49" t="s">
+      <c r="O15" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="50">
+      <c r="P15" s="51">
         <v>10</v>
       </c>
-      <c r="Q15" s="50" t="s">
+      <c r="Q15" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="50">
+      <c r="R15" s="51">
         <v>15</v>
       </c>
-      <c r="S15" s="50" t="s">
+      <c r="S15" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15" s="51">
         <v>15</v>
       </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="51">
+      <c r="U15" s="51"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5155,9 +5182,9 @@
         <f>IF(ISTEXT(U15),VLOOKUP(U15,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U15,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V15&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD15" s="69"/>
+      <c r="AD15" s="70"/>
       <c r="AE15" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF15" s="12" t="str" cm="1">
         <f t="array" ref="AF15:AG15">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE15,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -5167,14 +5194,14 @@
         <v>不朽LV1:复活时间减少10%。</v>
       </c>
       <c r="AH15" s="14"/>
-      <c r="AI15" s="72"/>
+      <c r="AI15" s="73"/>
     </row>
     <row r="16" ht="47" customHeight="1" spans="1:35">
       <c r="A16" s="11">
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
@@ -5184,19 +5211,19 @@
         <v>4</v>
       </c>
       <c r="F16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="I16" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="51">
+      <c r="J16" s="53"/>
+      <c r="K16" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5207,30 +5234,30 @@
       <c r="M16" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="47">
         <v>5</v>
       </c>
-      <c r="O16" s="49" t="s">
+      <c r="O16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16" s="51">
         <v>5</v>
       </c>
-      <c r="Q16" s="50" t="s">
+      <c r="Q16" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="50">
+      <c r="R16" s="51">
         <v>25</v>
       </c>
-      <c r="S16" s="50" t="s">
+      <c r="S16" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="50">
+      <c r="T16" s="51">
         <v>20</v>
       </c>
-      <c r="U16" s="50"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="51">
+      <c r="U16" s="51"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5263,9 +5290,9 @@
         <f>IF(ISTEXT(U16),VLOOKUP(U16,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U16,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V16&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD16" s="69"/>
+      <c r="AD16" s="70"/>
       <c r="AE16" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF16" s="12" t="str" cm="1">
         <f t="array" ref="AF16:AG16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE16,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -5275,14 +5302,14 @@
         <v>适应LV1:造成伤害时，有1%概率使该次伤害为怪物弱点元素伤害。</v>
       </c>
       <c r="AH16" s="14"/>
-      <c r="AI16" s="72"/>
+      <c r="AI16" s="73"/>
     </row>
     <row r="17" ht="47" customHeight="1" spans="1:35">
       <c r="A17" s="11">
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
@@ -5292,10 +5319,10 @@
         <v>4</v>
       </c>
       <c r="F17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>104</v>
@@ -5303,8 +5330,8 @@
       <c r="I17" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="51">
+      <c r="J17" s="53"/>
+      <c r="K17" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5315,30 +5342,30 @@
       <c r="M17" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="47">
         <v>500</v>
       </c>
-      <c r="O17" s="49" t="s">
+      <c r="O17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="50">
+      <c r="P17" s="51">
         <v>15</v>
       </c>
-      <c r="Q17" s="50" t="s">
+      <c r="Q17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="50">
+      <c r="R17" s="51">
         <v>5</v>
       </c>
-      <c r="S17" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="T17" s="50">
+      <c r="S17" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="T17" s="51">
         <v>15</v>
       </c>
-      <c r="U17" s="50"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="51">
+      <c r="U17" s="51"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5371,7 +5398,7 @@
         <f>IF(ISTEXT(U17),VLOOKUP(U17,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U17,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V17&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD17" s="69"/>
+      <c r="AD17" s="70"/>
       <c r="AE17" s="11" t="s">
         <v>107</v>
       </c>
@@ -5383,7 +5410,7 @@
         <v>传言LV10:英雄所具有的每秒生命恢复效果，在生命值恢复满之后，会按100%效率回复蓝量。</v>
       </c>
       <c r="AH17" s="14"/>
-      <c r="AI17" s="72"/>
+      <c r="AI17" s="73"/>
     </row>
     <row r="18" ht="30.5" customHeight="1" spans="1:35">
       <c r="A18" s="11">
@@ -5411,8 +5438,8 @@
       <c r="I18" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="51">
+      <c r="J18" s="53"/>
+      <c r="K18" s="52">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5423,30 +5450,30 @@
       <c r="M18" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="47">
         <v>20</v>
       </c>
-      <c r="O18" s="49" t="s">
+      <c r="O18" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18" s="51">
         <v>10</v>
       </c>
-      <c r="Q18" s="50" t="s">
+      <c r="Q18" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="51">
         <v>10</v>
       </c>
-      <c r="S18" s="50" t="s">
+      <c r="S18" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18" s="51">
         <v>25</v>
       </c>
-      <c r="U18" s="50"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="51">
+      <c r="U18" s="51"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="52">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5479,7 +5506,7 @@
         <f>IF(ISTEXT(U18),VLOOKUP(U18,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U18,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V18&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD18" s="69"/>
+      <c r="AD18" s="70"/>
       <c r="AE18" s="11" t="s">
         <v>112</v>
       </c>
@@ -5491,7 +5518,7 @@
         <v>discoLV5: 造成暴击时暴击伤害提高45%。</v>
       </c>
       <c r="AH18" s="14"/>
-      <c r="AI18" s="72"/>
+      <c r="AI18" s="73"/>
     </row>
     <row r="19" ht="47" customHeight="1" spans="1:35">
       <c r="A19" s="11"/>
@@ -5505,30 +5532,36 @@
       <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="I19" s="14"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="51">
+      <c r="J19" s="53"/>
+      <c r="K19" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" s="34" t="str">
         <f>IF(K19&gt;0,IF(K19&gt;1,VLOOKUP(F19,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F19,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K19&gt;1,IF(K19&gt;2,VLOOKUP(G19,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G19,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K19&gt;2,IF(K19&gt;3,VLOOKUP(H19,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H19,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K19&gt;3,IF(K19&gt;4,VLOOKUP(I19,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I19,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K19&gt;4,IF(K19&gt;5,VLOOKUP(J19,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J19,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>20|25|22</v>
       </c>
       <c r="M19" s="34"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="51">
+      <c r="N19" s="47"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5553,9 +5586,9 @@
         <f>IF(ISTEXT(U19),VLOOKUP(U19,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U19,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V19&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD19" s="69"/>
+      <c r="AD19" s="70"/>
       <c r="AE19" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AF19" s="12" t="str" cm="1">
         <f t="array" ref="AF19:AG19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE19,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -5565,12 +5598,12 @@
         <v>致命LV10:使用技能时有15%概率进入致命状态，使接下来5秒内所有伤害均暴击</v>
       </c>
       <c r="AH19" s="14"/>
-      <c r="AI19" s="72"/>
+      <c r="AI19" s="73"/>
     </row>
     <row r="20" ht="63.5" customHeight="1" spans="1:35">
       <c r="A20" s="11"/>
       <c r="B20" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
@@ -5579,30 +5612,36 @@
       <c r="E20" s="13">
         <v>3</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>119</v>
+      </c>
       <c r="I20" s="14"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="51">
+      <c r="J20" s="53"/>
+      <c r="K20" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" s="34" t="str">
         <f>IF(K20&gt;0,IF(K20&gt;1,VLOOKUP(F20,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F20,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K20&gt;1,IF(K20&gt;2,VLOOKUP(G20,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G20,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K20&gt;2,IF(K20&gt;3,VLOOKUP(H20,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H20,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K20&gt;3,IF(K20&gt;4,VLOOKUP(I20,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I20,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K20&gt;4,IF(K20&gt;5,VLOOKUP(J20,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J20,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>21|23|24</v>
       </c>
       <c r="M20" s="34"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="51">
+      <c r="N20" s="47"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5627,7 +5666,7 @@
         <f>IF(ISTEXT(U20),VLOOKUP(U20,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U20,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V20&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD20" s="69"/>
+      <c r="AD20" s="70"/>
       <c r="AE20" s="11">
         <v>47</v>
       </c>
@@ -5638,44 +5677,48 @@
       </c>
       <c r="AG20" s="12"/>
       <c r="AH20" s="14"/>
-      <c r="AI20" s="72"/>
+      <c r="AI20" s="73"/>
     </row>
     <row r="21" ht="47" customHeight="1" spans="1:35">
       <c r="A21" s="11"/>
       <c r="B21" s="13" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>3</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="51">
+      <c r="J21" s="53"/>
+      <c r="K21" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="34" t="str">
         <f>IF(K21&gt;0,IF(K21&gt;1,VLOOKUP(F21,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F21,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K21&gt;1,IF(K21&gt;2,VLOOKUP(G21,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G21,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K21&gt;2,IF(K21&gt;3,VLOOKUP(H21,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H21,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K21&gt;3,IF(K21&gt;4,VLOOKUP(I21,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I21,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K21&gt;4,IF(K21&gt;5,VLOOKUP(J21,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J21,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>29|8</v>
       </c>
       <c r="M21" s="34"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="51">
+      <c r="N21" s="47"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5700,7 +5743,7 @@
         <f>IF(ISTEXT(U21),VLOOKUP(U21,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U21,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V21&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD21" s="69"/>
+      <c r="AD21" s="70"/>
       <c r="AE21" s="11">
         <v>11</v>
       </c>
@@ -5710,44 +5753,48 @@
       </c>
       <c r="AG21" s="12"/>
       <c r="AH21" s="14"/>
-      <c r="AI21" s="72"/>
+      <c r="AI21" s="73"/>
     </row>
     <row r="22" ht="47" customHeight="1" spans="1:35">
       <c r="A22" s="11"/>
       <c r="B22" s="13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>4</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="51">
+      <c r="J22" s="53"/>
+      <c r="K22" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" s="34" t="str">
         <f>IF(K22&gt;0,IF(K22&gt;1,VLOOKUP(F22,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F22,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K22&gt;1,IF(K22&gt;2,VLOOKUP(G22,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G22,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K22&gt;2,IF(K22&gt;3,VLOOKUP(H22,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H22,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K22&gt;3,IF(K22&gt;4,VLOOKUP(I22,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I22,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K22&gt;4,IF(K22&gt;5,VLOOKUP(J22,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J22,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>31|29</v>
       </c>
       <c r="M22" s="34"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="51">
+      <c r="N22" s="47"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5772,9 +5819,9 @@
         <f>IF(ISTEXT(U22),VLOOKUP(U22,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U22,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V22&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD22" s="69"/>
+      <c r="AD22" s="70"/>
       <c r="AE22" s="11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AF22" s="12" t="str" cm="1">
         <f t="array" ref="AF22:AG22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE22,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -5784,44 +5831,48 @@
         <v>邪恶LV5:周围500码友军获得15%移动速度加成和每秒3/S生命值恢复。</v>
       </c>
       <c r="AH22" s="14"/>
-      <c r="AI22" s="72"/>
+      <c r="AI22" s="73"/>
     </row>
     <row r="23" ht="30.5" customHeight="1" spans="1:35">
       <c r="A23" s="11"/>
       <c r="B23" s="13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>4</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="51">
+      <c r="J23" s="53"/>
+      <c r="K23" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="34" t="str">
         <f>IF(K23&gt;0,IF(K23&gt;1,VLOOKUP(F23,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F23,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K23&gt;1,IF(K23&gt;2,VLOOKUP(G23,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G23,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K23&gt;2,IF(K23&gt;3,VLOOKUP(H23,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H23,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K23&gt;3,IF(K23&gt;4,VLOOKUP(I23,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I23,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K23&gt;4,IF(K23&gt;5,VLOOKUP(J23,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J23,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>30|28</v>
       </c>
       <c r="M23" s="34"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="51">
+      <c r="N23" s="47"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5846,7 +5897,7 @@
         <f>IF(ISTEXT(U23),VLOOKUP(U23,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U23,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V23&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD23" s="69"/>
+      <c r="AD23" s="70"/>
       <c r="AE23" s="11">
         <v>30</v>
       </c>
@@ -5856,44 +5907,50 @@
       </c>
       <c r="AG23" s="12"/>
       <c r="AH23" s="14"/>
-      <c r="AI23" s="72"/>
+      <c r="AI23" s="73"/>
     </row>
     <row r="24" ht="47" customHeight="1" spans="1:35">
       <c r="A24" s="11"/>
       <c r="B24" s="13" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>4</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="I24" s="14"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="51">
+      <c r="J24" s="53"/>
+      <c r="K24" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L24" s="34" t="str">
         <f>IF(K24&gt;0,IF(K24&gt;1,VLOOKUP(F24,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F24,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K24&gt;1,IF(K24&gt;2,VLOOKUP(G24,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G24,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K24&gt;2,IF(K24&gt;3,VLOOKUP(H24,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H24,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K24&gt;3,IF(K24&gt;4,VLOOKUP(I24,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I24,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K24&gt;4,IF(K24&gt;5,VLOOKUP(J24,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J24,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>32|77|8</v>
       </c>
       <c r="M24" s="34"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="51">
+      <c r="N24" s="47"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5918,7 +5975,7 @@
         <f>IF(ISTEXT(U24),VLOOKUP(U24,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U24,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V24&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD24" s="69"/>
+      <c r="AD24" s="70"/>
       <c r="AE24" s="11">
         <v>39</v>
       </c>
@@ -5928,44 +5985,48 @@
       </c>
       <c r="AG24" s="12"/>
       <c r="AH24" s="14"/>
-      <c r="AI24" s="72"/>
+      <c r="AI24" s="73"/>
     </row>
     <row r="25" ht="30.5" customHeight="1" spans="1:35">
       <c r="A25" s="11"/>
       <c r="B25" s="13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13">
-        <v>3</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="H25" s="13"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="51">
+      <c r="J25" s="53"/>
+      <c r="K25" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" s="34" t="str">
         <f>IF(K25&gt;0,IF(K25&gt;1,VLOOKUP(F25,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F25,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K25&gt;1,IF(K25&gt;2,VLOOKUP(G25,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G25,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K25&gt;2,IF(K25&gt;3,VLOOKUP(H25,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H25,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K25&gt;3,IF(K25&gt;4,VLOOKUP(I25,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I25,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K25&gt;4,IF(K25&gt;5,VLOOKUP(J25,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J25,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>38|37</v>
       </c>
       <c r="M25" s="34"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="51">
+      <c r="N25" s="47"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5990,7 +6051,7 @@
         <f>IF(ISTEXT(U25),VLOOKUP(U25,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U25,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V25&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD25" s="69"/>
+      <c r="AD25" s="70"/>
       <c r="AE25" s="11">
         <v>53</v>
       </c>
@@ -6000,12 +6061,12 @@
       </c>
       <c r="AG25" s="12"/>
       <c r="AH25" s="14"/>
-      <c r="AI25" s="72"/>
+      <c r="AI25" s="73"/>
     </row>
     <row r="26" ht="47" customHeight="1" spans="1:35">
       <c r="A26" s="11"/>
       <c r="B26" s="13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
@@ -6014,30 +6075,36 @@
       <c r="E26" s="13">
         <v>3</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="I26" s="14"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="51">
+      <c r="J26" s="53"/>
+      <c r="K26" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" s="34" t="str">
         <f>IF(K26&gt;0,IF(K26&gt;1,VLOOKUP(F26,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F26,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K26&gt;1,IF(K26&gt;2,VLOOKUP(G26,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G26,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K26&gt;2,IF(K26&gt;3,VLOOKUP(H26,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H26,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K26&gt;3,IF(K26&gt;4,VLOOKUP(I26,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I26,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K26&gt;4,IF(K26&gt;5,VLOOKUP(J26,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J26,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>61|63|52</v>
       </c>
       <c r="M26" s="34"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="61"/>
-      <c r="W26" s="51">
+      <c r="N26" s="47"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6062,9 +6129,9 @@
         <f>IF(ISTEXT(U26),VLOOKUP(U26,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U26,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V26&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD26" s="69"/>
+      <c r="AD26" s="70"/>
       <c r="AE26" s="11" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="AF26" s="12" t="str" cm="1">
         <f t="array" ref="AF26:AG26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE26,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6074,44 +6141,52 @@
         <v>坚毅LV5:免疫致命伤害，并恢复25%最大生命值，每360秒只触发一次效果。</v>
       </c>
       <c r="AH26" s="14"/>
-      <c r="AI26" s="72"/>
+      <c r="AI26" s="73"/>
     </row>
     <row r="27" ht="47" customHeight="1" spans="1:34">
       <c r="A27" s="11"/>
       <c r="B27" s="13" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13">
-        <v>5</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="51">
+        <v>4</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="53"/>
+      <c r="K27" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27" s="34" t="str">
         <f>IF(K27&gt;0,IF(K27&gt;1,VLOOKUP(F27,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F27,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K27&gt;1,IF(K27&gt;2,VLOOKUP(G27,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G27,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K27&gt;2,IF(K27&gt;3,VLOOKUP(H27,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H27,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K27&gt;3,IF(K27&gt;4,VLOOKUP(I27,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I27,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K27&gt;4,IF(K27&gt;5,VLOOKUP(J27,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J27,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>36|45|39|53</v>
       </c>
       <c r="M27" s="34"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="51">
+      <c r="N27" s="47"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6136,7 +6211,7 @@
         <f>IF(ISTEXT(U27),VLOOKUP(U27,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U27,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V27&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD27" s="69"/>
+      <c r="AD27" s="70"/>
       <c r="AE27" s="11">
         <v>41</v>
       </c>
@@ -6150,7 +6225,7 @@
     <row r="28" ht="47" customHeight="1" spans="1:34">
       <c r="A28" s="11"/>
       <c r="B28" s="13" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
@@ -6159,30 +6234,36 @@
       <c r="E28" s="13">
         <v>3</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="I28" s="14"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="51">
+      <c r="J28" s="53"/>
+      <c r="K28" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="34" t="str">
         <f>IF(K28&gt;0,IF(K28&gt;1,VLOOKUP(F28,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F28,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K28&gt;1,IF(K28&gt;2,VLOOKUP(G28,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G28,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K28&gt;2,IF(K28&gt;3,VLOOKUP(H28,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H28,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K28&gt;3,IF(K28&gt;4,VLOOKUP(I28,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I28,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K28&gt;4,IF(K28&gt;5,VLOOKUP(J28,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J28,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>63|62|60</v>
       </c>
       <c r="M28" s="34"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="51">
+      <c r="N28" s="47"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6207,7 +6288,7 @@
         <f>IF(ISTEXT(U28),VLOOKUP(U28,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U28,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V28&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD28" s="69"/>
+      <c r="AD28" s="70"/>
       <c r="AE28" s="11">
         <v>36</v>
       </c>
@@ -6221,39 +6302,45 @@
     <row r="29" ht="30.5" customHeight="1" spans="1:34">
       <c r="A29" s="11"/>
       <c r="B29" s="13" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>2</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="I29" s="14"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="51">
+      <c r="J29" s="53"/>
+      <c r="K29" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="34" t="str">
         <f>IF(K29&gt;0,IF(K29&gt;1,VLOOKUP(F29,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F29,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K29&gt;1,IF(K29&gt;2,VLOOKUP(G29,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G29,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K29&gt;2,IF(K29&gt;3,VLOOKUP(H29,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H29,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K29&gt;3,IF(K29&gt;4,VLOOKUP(I29,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I29,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K29&gt;4,IF(K29&gt;5,VLOOKUP(J29,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J29,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>59|56|57</v>
       </c>
       <c r="M29" s="34"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="61"/>
-      <c r="W29" s="51">
+      <c r="N29" s="47"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6278,7 +6365,7 @@
         <f>IF(ISTEXT(U29),VLOOKUP(U29,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U29,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V29&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD29" s="69"/>
+      <c r="AD29" s="70"/>
       <c r="AE29" s="11">
         <v>55</v>
       </c>
@@ -6292,39 +6379,47 @@
     <row r="30" ht="47" customHeight="1" spans="1:34">
       <c r="A30" s="11"/>
       <c r="B30" s="13" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C30" s="13">
         <v>1</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
-        <v>5</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="51">
+        <v>4</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" s="34" t="str">
         <f>IF(K30&gt;0,IF(K30&gt;1,VLOOKUP(F30,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F30,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K30&gt;1,IF(K30&gt;2,VLOOKUP(G30,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G30,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K30&gt;2,IF(K30&gt;3,VLOOKUP(H30,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H30,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K30&gt;3,IF(K30&gt;4,VLOOKUP(I30,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I30,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K30&gt;4,IF(K30&gt;5,VLOOKUP(J30,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J30,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>51|58|48|54</v>
       </c>
       <c r="M30" s="34"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="61"/>
-      <c r="W30" s="51">
+      <c r="N30" s="47"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6349,9 +6444,9 @@
         <f>IF(ISTEXT(U30),VLOOKUP(U30,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U30,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V30&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD30" s="69"/>
+      <c r="AD30" s="70"/>
       <c r="AE30" s="11" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="AF30" s="12" t="str" cm="1">
         <f t="array" ref="AF30:AG30">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE30,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6365,39 +6460,43 @@
     <row r="31" ht="47" customHeight="1" spans="1:34">
       <c r="A31" s="11"/>
       <c r="B31" s="13" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>5</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="H31" s="13"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="51">
+      <c r="J31" s="53"/>
+      <c r="K31" s="52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31" s="34" t="str">
         <f>IF(K31&gt;0,IF(K31&gt;1,VLOOKUP(F31,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F31,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K31&gt;1,IF(K31&gt;2,VLOOKUP(G31,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G31,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K31&gt;2,IF(K31&gt;3,VLOOKUP(H31,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H31,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K31&gt;3,IF(K31&gt;4,VLOOKUP(I31,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I31,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K31&gt;4,IF(K31&gt;5,VLOOKUP(J31,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J31,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
+        <v>41|52</v>
       </c>
       <c r="M31" s="34"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="51">
+      <c r="N31" s="47"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6422,9 +6521,9 @@
         <f>IF(ISTEXT(U31),VLOOKUP(U31,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U31,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V31&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD31" s="69"/>
+      <c r="AD31" s="70"/>
       <c r="AE31" s="11" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AF31" s="12" t="str" cm="1">
         <f t="array" ref="AF31:AG31">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE31,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6438,39 +6537,47 @@
     <row r="32" ht="47" customHeight="1" spans="1:34">
       <c r="A32" s="15"/>
       <c r="B32" s="17" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="C32" s="17">
         <v>1</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17">
-        <v>3</v>
-      </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="56">
+        <v>4</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="53"/>
+      <c r="K32" s="57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="57" t="str">
+        <v>4</v>
+      </c>
+      <c r="L32" s="58" t="str">
         <f>IF(K32&gt;0,IF(K32&gt;1,VLOOKUP(F32,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(F32,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K32&gt;1,IF(K32&gt;2,VLOOKUP(G32,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(G32,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K32&gt;2,IF(K32&gt;3,VLOOKUP(H32,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(H32,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K32&gt;3,IF(K32&gt;4,VLOOKUP(I32,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(I32,pictuer_card_data!C:I,7,FALSE)),"")&amp;IF(K32&gt;4,IF(K32&gt;5,VLOOKUP(J32,pictuer_card_data!C:I,7,FALSE)&amp;"|",VLOOKUP(J32,pictuer_card_data!C:I,7,FALSE)),"")</f>
-        <v/>
-      </c>
-      <c r="M32" s="57"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="61"/>
-      <c r="W32" s="56">
+        <v>76|66|49|28</v>
+      </c>
+      <c r="M32" s="58"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -6495,9 +6602,9 @@
         <f>IF(ISTEXT(U32),VLOOKUP(U32,pictuer_fetter_attr!B:D,2,FALSE)&amp;" {"&amp;CHAR(10)&amp;CHAR(34)&amp;VLOOKUP(U32,pictuer_fetter_attr!B:D,3,FALSE)&amp;CHAR(34)&amp;" "&amp;CHAR(34)&amp;V32&amp;CHAR(34)&amp;CHAR(10)&amp;" }","")</f>
         <v/>
       </c>
-      <c r="AD32" s="69"/>
+      <c r="AD32" s="70"/>
       <c r="AE32" s="15" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="AF32" s="16" t="str" cm="1">
         <f t="array" ref="AF32:AG32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE32,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6507,6 +6614,11 @@
         <v>传言LV10:英雄所具有的每秒生命恢复效果，在生命值恢复满之后，会按100%效率回复蓝量。</v>
       </c>
       <c r="AH32" s="18"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="31" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -6526,10 +6638,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I424"/>
+  <dimension ref="A1:L424"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="L123" sqref="L123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6548,31 +6660,31 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:7">
@@ -6580,24 +6692,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="20" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:9">
       <c r="A3" s="21">
+        <f>B3-1000</f>
         <v>1</v>
       </c>
       <c r="B3" s="22">
@@ -6610,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="28">
@@ -6629,13 +6742,13 @@
         <v>1002</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="28">
@@ -6660,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="28">
@@ -6671,7 +6784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:9">
+    <row r="6" ht="18.5" customHeight="1" spans="1:12">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -6679,13 +6792,13 @@
         <v>1004</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D6" s="22">
         <v>1</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="28">
@@ -6695,6 +6808,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="J6" s="24">
+        <v>1001</v>
+      </c>
+      <c r="K6" s="24">
+        <v>1500</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:9">
       <c r="A7" s="21">
@@ -6710,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="28">
@@ -6721,7 +6843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:9">
+    <row r="8" ht="18.5" customHeight="1" spans="1:12">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -6729,13 +6851,13 @@
         <v>1006</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="22">
         <v>1</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="28">
@@ -6745,6 +6867,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="J8" s="24">
+        <v>1501</v>
+      </c>
+      <c r="K8" s="24">
+        <v>1800</v>
+      </c>
+      <c r="L8" s="24">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:9">
       <c r="A9" s="21">
@@ -6754,13 +6885,13 @@
         <v>1007</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="22">
         <v>1</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="28">
@@ -6779,13 +6910,13 @@
         <v>1008</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="22">
         <v>1</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="28">
@@ -6804,13 +6935,13 @@
         <v>1009</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="22">
         <v>1</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="28">
@@ -6829,13 +6960,13 @@
         <v>1010</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="22">
         <v>1</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="28">
@@ -6854,13 +6985,13 @@
         <v>1011</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D13" s="22">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="28">
@@ -6879,13 +7010,13 @@
         <v>1012</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="22">
         <v>1</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="28">
@@ -6904,13 +7035,13 @@
         <v>1013</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="D15" s="22">
         <v>1</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="28">
@@ -6935,7 +7066,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="28">
@@ -6960,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="28">
@@ -6985,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="28">
@@ -7010,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="28">
@@ -7035,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="28">
@@ -7060,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="28">
@@ -7085,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="28">
@@ -7110,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="28">
@@ -7129,13 +7260,13 @@
         <v>1022</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D24" s="22">
         <v>1</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="28">
@@ -7154,13 +7285,13 @@
         <v>1023</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D25" s="22">
         <v>1</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="28">
@@ -7179,13 +7310,13 @@
         <v>1024</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D26" s="22">
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="28">
@@ -7204,13 +7335,13 @@
         <v>1025</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D27" s="22">
         <v>1</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="28">
@@ -7235,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="28">
@@ -7254,13 +7385,13 @@
         <v>1027</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="22">
         <v>1</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="28">
@@ -7279,13 +7410,13 @@
         <v>1028</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D30" s="22">
         <v>1</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="28">
@@ -7304,13 +7435,13 @@
         <v>1029</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D31" s="22">
         <v>1</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="28">
@@ -7329,13 +7460,13 @@
         <v>1030</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="D32" s="22">
         <v>1</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="28">
@@ -7354,13 +7485,13 @@
         <v>1031</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="D33" s="22">
         <v>1</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="28">
@@ -7379,13 +7510,13 @@
         <v>1032</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D34" s="22">
         <v>1</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="28">
@@ -7404,13 +7535,13 @@
         <v>1033</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D35" s="22">
         <v>1</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="28">
@@ -7429,13 +7560,13 @@
         <v>1034</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D36" s="22">
         <v>1</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="28">
@@ -7454,13 +7585,13 @@
         <v>1035</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D37" s="22">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="28">
@@ -7479,13 +7610,13 @@
         <v>1036</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D38" s="22">
         <v>1</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="28">
@@ -7504,13 +7635,13 @@
         <v>1037</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="D39" s="22">
         <v>2</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="28">
@@ -7529,13 +7660,13 @@
         <v>1038</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D40" s="22">
         <v>1</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="28">
@@ -7560,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="28">
@@ -7585,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F42" s="22"/>
       <c r="G42" s="28">
@@ -7604,13 +7735,13 @@
         <v>1041</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D43" s="22">
         <v>1</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="28">
@@ -7635,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="28">
@@ -7660,7 +7791,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="28">
@@ -7685,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="28">
@@ -7704,13 +7835,13 @@
         <v>1045</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D47" s="22">
         <v>1</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="28">
@@ -7729,13 +7860,13 @@
         <v>1046</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D48" s="22">
         <v>1</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="28">
@@ -7754,13 +7885,13 @@
         <v>1047</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D49" s="22">
         <v>1</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="28">
@@ -7779,13 +7910,13 @@
         <v>1048</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D50" s="22">
         <v>1</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="28">
@@ -7804,13 +7935,13 @@
         <v>1049</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D51" s="22">
         <v>1</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="28">
@@ -7829,13 +7960,13 @@
         <v>1050</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D52" s="22">
         <v>1</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="28">
@@ -7854,13 +7985,13 @@
         <v>1051</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D53" s="22">
         <v>1</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="28">
@@ -7879,13 +8010,13 @@
         <v>1052</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D54" s="22">
         <v>1</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="28">
@@ -7904,13 +8035,13 @@
         <v>1053</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D55" s="22">
         <v>1</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="28">
@@ -7929,13 +8060,13 @@
         <v>1054</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D56" s="22">
         <v>1</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="28">
@@ -7954,13 +8085,13 @@
         <v>1055</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D57" s="22">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="28">
@@ -7979,13 +8110,13 @@
         <v>1056</v>
       </c>
       <c r="C58" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="22">
+        <v>1</v>
+      </c>
+      <c r="E58" s="22" t="s">
         <v>176</v>
-      </c>
-      <c r="D58" s="22">
-        <v>1</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="28">
@@ -8004,13 +8135,13 @@
         <v>1057</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D59" s="22">
         <v>1</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="28">
@@ -8029,13 +8160,13 @@
         <v>1058</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D60" s="22">
         <v>1</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="28">
@@ -8054,13 +8185,13 @@
         <v>1059</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="D61" s="22">
         <v>1</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="28">
@@ -8079,13 +8210,13 @@
         <v>1060</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="D62" s="22">
         <v>1</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="28">
@@ -8104,13 +8235,13 @@
         <v>1061</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="D63" s="22">
         <v>1</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="28">
@@ -8129,13 +8260,13 @@
         <v>1062</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="D64" s="22">
         <v>1</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="28">
@@ -8154,13 +8285,13 @@
         <v>1063</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D65" s="22">
         <v>1</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="28">
@@ -8185,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="28">
@@ -8204,13 +8335,13 @@
         <v>1065</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D67" s="22">
         <v>1</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="28">
@@ -8229,13 +8360,13 @@
         <v>1066</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D68" s="22">
         <v>1</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="28">
@@ -8254,13 +8385,13 @@
         <v>1067</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D69" s="22">
         <v>1</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="28">
@@ -8285,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="28">
@@ -8304,13 +8435,13 @@
         <v>1069</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D71" s="22">
         <v>1</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="28">
@@ -8329,13 +8460,13 @@
         <v>1070</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D72" s="22">
         <v>1</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="28">
@@ -8360,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="28">
@@ -8379,13 +8510,13 @@
         <v>1072</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D74" s="22">
         <v>1</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="28">
@@ -8404,13 +8535,13 @@
         <v>1073</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D75" s="22">
         <v>1</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="28">
@@ -8435,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="28">
@@ -8454,13 +8585,13 @@
         <v>1075</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D77" s="22">
         <v>1</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="28">
@@ -8485,7 +8616,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="28">
@@ -8510,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="28">
@@ -8529,13 +8660,13 @@
         <v>1078</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D80" s="22">
         <v>1</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="28">
@@ -8554,13 +8685,13 @@
         <v>1079</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D81" s="22">
         <v>1</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="28">
@@ -8579,13 +8710,13 @@
         <v>1080</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D82" s="22">
         <v>1</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="28">
@@ -8604,13 +8735,13 @@
         <v>1081</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D83" s="22">
         <v>1</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="28">
@@ -8629,13 +8760,13 @@
         <v>1082</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D84" s="22">
         <v>1</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F84" s="22"/>
       <c r="G84" s="28">
@@ -8654,13 +8785,13 @@
         <v>1083</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D85" s="22">
         <v>1</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F85" s="22"/>
       <c r="G85" s="28">
@@ -8679,13 +8810,13 @@
         <v>1084</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D86" s="22">
         <v>2</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F86" s="22"/>
       <c r="G86" s="28">
@@ -8704,13 +8835,13 @@
         <v>1085</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D87" s="22">
         <v>1</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F87" s="22"/>
       <c r="G87" s="28">
@@ -8729,13 +8860,13 @@
         <v>1086</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D88" s="22">
         <v>1</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F88" s="22"/>
       <c r="G88" s="28">
@@ -8754,13 +8885,13 @@
         <v>1087</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D89" s="22">
         <v>1</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F89" s="22"/>
       <c r="G89" s="28">
@@ -8779,13 +8910,13 @@
         <v>1088</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D90" s="22">
         <v>1</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F90" s="22"/>
       <c r="G90" s="28">
@@ -8804,13 +8935,13 @@
         <v>1089</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D91" s="22">
         <v>1</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F91" s="22"/>
       <c r="G91" s="28">
@@ -8829,13 +8960,13 @@
         <v>1090</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D92" s="22">
         <v>1</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F92" s="22"/>
       <c r="G92" s="28">
@@ -8854,13 +8985,13 @@
         <v>1091</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D93" s="22">
         <v>1</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F93" s="22"/>
       <c r="G93" s="28">
@@ -8879,13 +9010,13 @@
         <v>1092</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D94" s="22">
         <v>1</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F94" s="22"/>
       <c r="G94" s="28">
@@ -8904,13 +9035,13 @@
         <v>1093</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D95" s="22">
         <v>1</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F95" s="22"/>
       <c r="G95" s="28">
@@ -8929,13 +9060,13 @@
         <v>1094</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D96" s="22">
         <v>1</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F96" s="22"/>
       <c r="G96" s="28">
@@ -8960,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F97" s="22"/>
       <c r="G97" s="28">
@@ -8979,13 +9110,13 @@
         <v>1096</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D98" s="22">
         <v>1</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F98" s="22"/>
       <c r="G98" s="28">
@@ -9010,7 +9141,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F99" s="22"/>
       <c r="G99" s="28">
@@ -9035,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F100" s="22"/>
       <c r="G100" s="28">
@@ -9054,13 +9185,13 @@
         <v>1099</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D101" s="22">
         <v>1</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F101" s="22"/>
       <c r="G101" s="28">
@@ -9079,13 +9210,13 @@
         <v>1100</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D102" s="22">
         <v>1</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="28">
@@ -9104,13 +9235,13 @@
         <v>1101</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D103" s="22">
         <v>1</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F103" s="22"/>
       <c r="G103" s="28">
@@ -9135,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F104" s="22"/>
       <c r="G104" s="28">
@@ -9154,13 +9285,13 @@
         <v>1103</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D105" s="22">
         <v>1</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="28">
@@ -9179,13 +9310,13 @@
         <v>1104</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D106" s="22">
         <v>1</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="28">
@@ -9210,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F107" s="22"/>
       <c r="G107" s="28">
@@ -9235,7 +9366,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F108" s="22"/>
       <c r="G108" s="28">
@@ -9254,13 +9385,13 @@
         <v>1107</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D109" s="22">
         <v>1</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F109" s="22"/>
       <c r="G109" s="28">
@@ -9285,7 +9416,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F110" s="22"/>
       <c r="G110" s="28">
@@ -9304,13 +9435,13 @@
         <v>1109</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D111" s="22">
         <v>1</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F111" s="22"/>
       <c r="G111" s="28">
@@ -9329,13 +9460,13 @@
         <v>1110</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D112" s="22">
         <v>1</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F112" s="22"/>
       <c r="G112" s="28">
@@ -9354,13 +9485,13 @@
         <v>1111</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D113" s="22">
         <v>1</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F113" s="22"/>
       <c r="G113" s="28">
@@ -9379,13 +9510,13 @@
         <v>1112</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D114" s="22">
         <v>1</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F114" s="22"/>
       <c r="G114" s="28">
@@ -9404,13 +9535,13 @@
         <v>1113</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D115" s="22">
         <v>1</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F115" s="22"/>
       <c r="G115" s="28">
@@ -9429,13 +9560,13 @@
         <v>1114</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D116" s="22">
         <v>1</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="28">
@@ -9454,13 +9585,13 @@
         <v>1115</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D117" s="22">
         <v>1</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F117" s="22"/>
       <c r="G117" s="28">
@@ -9479,13 +9610,13 @@
         <v>1116</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D118" s="22">
         <v>1</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F118" s="22"/>
       <c r="G118" s="28">
@@ -9504,13 +9635,13 @@
         <v>1117</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D119" s="22">
         <v>1</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F119" s="22"/>
       <c r="G119" s="28">
@@ -9529,13 +9660,13 @@
         <v>1118</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D120" s="22">
         <v>1</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F120" s="22"/>
       <c r="G120" s="28">
@@ -9554,13 +9685,13 @@
         <v>1119</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D121" s="22">
         <v>1</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F121" s="22"/>
       <c r="G121" s="28">
@@ -9579,13 +9710,13 @@
         <v>1120</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D122" s="22">
         <v>1</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="28">
@@ -9604,13 +9735,13 @@
         <v>1121</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D123" s="22">
         <v>1</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F123" s="22"/>
       <c r="G123" s="28">
@@ -9629,13 +9760,13 @@
         <v>1122</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D124" s="22">
         <v>1</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F124" s="22"/>
       <c r="G124" s="28">
@@ -9654,13 +9785,13 @@
         <v>1123</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D125" s="22">
         <v>1</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F125" s="22"/>
       <c r="G125" s="28">
@@ -9679,13 +9810,13 @@
         <v>1124</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D126" s="22">
         <v>1</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F126" s="22"/>
       <c r="G126" s="28">
@@ -9704,13 +9835,13 @@
         <v>1125</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D127" s="22">
         <v>1</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F127" s="22"/>
       <c r="G127" s="28">
@@ -9735,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F128" s="22"/>
       <c r="G128" s="28">
@@ -9760,7 +9891,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F129" s="22"/>
       <c r="G129" s="28">
@@ -9785,7 +9916,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F130" s="22"/>
       <c r="G130" s="28">
@@ -9810,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F131" s="22"/>
       <c r="G131" s="28">
@@ -9835,7 +9966,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="23" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="30">
@@ -11623,21 +11754,21 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -11651,10 +11782,10 @@
         <v>30</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:4">
@@ -11662,13 +11793,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:4">
@@ -11679,10 +11810,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>242</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:4">
@@ -11693,10 +11824,10 @@
         <v>106</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:4">
@@ -11707,10 +11838,10 @@
         <v>72</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:4">
@@ -11721,10 +11852,10 @@
         <v>73</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:4">
@@ -11735,10 +11866,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:4">
@@ -11749,10 +11880,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:4">
@@ -11760,13 +11891,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:4">
@@ -11777,10 +11908,10 @@
         <v>42</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:4">
@@ -11791,10 +11922,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:4">
@@ -11802,13 +11933,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:4">
@@ -11816,13 +11947,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:4">
@@ -11833,10 +11964,10 @@
         <v>67</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:4">
@@ -11847,10 +11978,10 @@
         <v>53</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:4">
@@ -11861,10 +11992,10 @@
         <v>84</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:4">
@@ -11875,10 +12006,10 @@
         <v>79</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:4">
@@ -11889,10 +12020,10 @@
         <v>80</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:4">
@@ -11900,13 +12031,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:4">
@@ -11917,10 +12048,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -11928,13 +12059,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -11942,13 +12073,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -11959,10 +12090,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -11973,10 +12104,10 @@
         <v>64</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" ht="51.5" customHeight="1" spans="1:4">
@@ -11987,10 +12118,10 @@
         <v>59</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:4">
@@ -11998,13 +12129,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:4">
@@ -12015,10 +12146,10 @@
         <v>60</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:4">
@@ -12026,13 +12157,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -12046,8 +12177,8 @@
   <sheetPr/>
   <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12063,24 +12194,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="e">
         <f>VLOOKUP("攻击力+5",pictuer_fetter_attr!B:G,7,FALSE)</f>
@@ -12093,13 +12224,13 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
@@ -12108,7 +12239,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" ht="30.5" customHeight="1" spans="1:12">
@@ -12116,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -12138,7 +12269,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -12160,7 +12291,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -12182,7 +12313,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C6" s="13">
         <v>2</v>
@@ -12204,7 +12335,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C7" s="13">
         <v>2</v>
@@ -12226,7 +12357,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
@@ -12248,7 +12379,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C9" s="13">
         <v>3</v>
@@ -12270,7 +12401,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C10" s="13">
         <v>3</v>
@@ -12292,7 +12423,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C11" s="13">
         <v>3</v>
@@ -12314,7 +12445,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C12" s="13">
         <v>4</v>
@@ -12336,7 +12467,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C13" s="13">
         <v>4</v>
@@ -12358,7 +12489,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C14" s="13">
         <v>4</v>
@@ -12380,7 +12511,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C15" s="13">
         <v>5</v>
@@ -12402,7 +12533,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C16" s="13">
         <v>5</v>
@@ -12424,7 +12555,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C17" s="13">
         <v>5</v>
@@ -12446,7 +12577,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C18" s="13">
         <v>6</v>
@@ -12468,7 +12599,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C19" s="13">
         <v>6</v>
@@ -12490,7 +12621,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C20" s="13">
         <v>6</v>
@@ -12512,7 +12643,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C21" s="13">
         <v>7</v>
@@ -12534,7 +12665,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C22" s="13">
         <v>7</v>
@@ -12556,7 +12687,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C23" s="13">
         <v>7</v>
@@ -12578,7 +12709,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C24" s="13">
         <v>8</v>
@@ -12600,7 +12731,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C25" s="13">
         <v>8</v>
@@ -12622,7 +12753,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C26" s="13">
         <v>8</v>
@@ -12644,7 +12775,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C27" s="13">
         <v>9</v>
@@ -12666,7 +12797,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C28" s="13">
         <v>9</v>
@@ -12688,7 +12819,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C29" s="13">
         <v>9</v>
@@ -12710,7 +12841,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C30" s="13">
         <v>10</v>
@@ -12732,7 +12863,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C31" s="13">
         <v>10</v>
@@ -12754,7 +12885,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C32" s="13">
         <v>10</v>
@@ -12776,7 +12907,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C33" s="13">
         <v>11</v>
@@ -12798,7 +12929,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C34" s="13">
         <v>11</v>
@@ -12820,7 +12951,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C35" s="13">
         <v>11</v>
@@ -12842,7 +12973,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C36" s="13">
         <v>12</v>
@@ -12864,7 +12995,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C37" s="13">
         <v>12</v>
@@ -12886,7 +13017,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C38" s="13">
         <v>12</v>
@@ -12908,7 +13039,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C39" s="13">
         <v>13</v>
@@ -12930,7 +13061,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C40" s="13">
         <v>13</v>
@@ -12952,7 +13083,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C41" s="13">
         <v>13</v>
@@ -12974,7 +13105,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C42" s="13">
         <v>14</v>
@@ -12996,7 +13127,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C43" s="13">
         <v>14</v>
@@ -13018,7 +13149,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C44" s="13">
         <v>14</v>
@@ -13040,7 +13171,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C45" s="13">
         <v>15</v>
@@ -13062,7 +13193,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C46" s="13">
         <v>15</v>
@@ -13084,7 +13215,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C47" s="13">
         <v>15</v>
@@ -13106,7 +13237,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C48" s="13">
         <v>16</v>
@@ -13128,7 +13259,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C49" s="13">
         <v>16</v>
@@ -13150,7 +13281,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C50" s="13">
         <v>16</v>
@@ -13172,7 +13303,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C51" s="13">
         <v>17</v>
@@ -13194,7 +13325,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C52" s="13">
         <v>17</v>
@@ -13216,7 +13347,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C53" s="13">
         <v>17</v>
@@ -13238,7 +13369,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C54" s="13">
         <v>18</v>
@@ -13260,7 +13391,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C55" s="13">
         <v>18</v>
@@ -13282,7 +13413,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C56" s="13">
         <v>18</v>
@@ -13304,7 +13435,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C57" s="13">
         <v>19</v>
@@ -13326,7 +13457,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C58" s="13">
         <v>19</v>
@@ -13348,7 +13479,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C59" s="13">
         <v>19</v>
@@ -13370,7 +13501,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C60" s="13">
         <v>20</v>
@@ -13392,7 +13523,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C61" s="13">
         <v>20</v>
@@ -13414,7 +13545,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C62" s="17">
         <v>20</v>
@@ -13436,7 +13567,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C63" s="17">
         <v>21</v>
@@ -13458,7 +13589,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C64" s="17">
         <v>21</v>
@@ -13480,7 +13611,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C65" s="17">
         <v>21</v>
@@ -13502,7 +13633,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C66" s="17">
         <v>21</v>
@@ -13519,151 +13650,209 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="12:12">
+    <row r="67" spans="1:12">
+      <c r="A67" s="15">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
       <c r="L67">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="12:12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="15">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>351</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5</v>
+      </c>
       <c r="L68">
         <f t="shared" ref="L68:L99" si="2">A68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="12:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="15">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="D69" s="2">
+        <v>10</v>
+      </c>
       <c r="L69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="12:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="15"/>
       <c r="L70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="12:12">
+    <row r="71" spans="1:12">
+      <c r="A71" s="15"/>
       <c r="L71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="12:12">
+    <row r="72" spans="1:12">
+      <c r="A72" s="15"/>
       <c r="L72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="12:12">
+    <row r="73" spans="1:12">
+      <c r="A73" s="15"/>
       <c r="L73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="12:12">
+    <row r="74" spans="1:12">
+      <c r="A74" s="15"/>
       <c r="L74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="12:12">
+    <row r="75" spans="1:12">
+      <c r="A75" s="15"/>
       <c r="L75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="12:12">
+    <row r="76" spans="1:12">
+      <c r="A76" s="15"/>
       <c r="L76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="12:12">
+    <row r="77" spans="1:12">
+      <c r="A77" s="15"/>
       <c r="L77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="12:12">
+    <row r="78" spans="1:12">
+      <c r="A78" s="15"/>
       <c r="L78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="12:12">
+    <row r="79" spans="1:12">
+      <c r="A79" s="15"/>
       <c r="L79">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="12:12">
+    <row r="80" spans="1:12">
+      <c r="A80" s="15"/>
       <c r="L80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="12:12">
+    <row r="81" spans="1:12">
+      <c r="A81" s="15"/>
       <c r="L81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="12:12">
+    <row r="82" spans="1:12">
+      <c r="A82" s="15"/>
       <c r="L82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="12:12">
+    <row r="83" spans="1:12">
+      <c r="A83" s="15"/>
       <c r="L83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="12:12">
+    <row r="84" spans="1:12">
+      <c r="A84" s="15"/>
       <c r="L84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="12:12">
+    <row r="85" spans="1:12">
+      <c r="A85" s="15"/>
       <c r="L85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="12:12">
+    <row r="86" spans="1:12">
+      <c r="A86" s="15"/>
       <c r="L86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="12:12">
+    <row r="87" spans="1:12">
+      <c r="A87" s="15"/>
       <c r="L87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="12:12">
+    <row r="88" spans="1:12">
+      <c r="A88" s="15"/>
       <c r="L88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="12:12">
+    <row r="89" spans="1:12">
+      <c r="A89" s="15"/>
       <c r="L89">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="12:12">
+    <row r="90" spans="1:12">
+      <c r="A90" s="15"/>
       <c r="L90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="12:12">
+    <row r="91" spans="1:12">
+      <c r="A91" s="15"/>
       <c r="L91">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="578">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -117,726 +117,741 @@
     <t>羁绊技能id</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>#Loccustom_server_picture_{}</t>
+  </si>
+  <si>
+    <t>is_show</t>
+  </si>
+  <si>
+    <t>AbilityTextureName</t>
+  </si>
+  <si>
+    <t>consume</t>
+  </si>
+  <si>
+    <t>card_ids</t>
+  </si>
+  <si>
+    <t>ListValues[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>ability_id</t>
+  </si>
+  <si>
+    <t>游荡的鬼魂</t>
+  </si>
+  <si>
+    <t>炼狱亡魂</t>
+  </si>
+  <si>
+    <t>冰川鬼魂</t>
+  </si>
+  <si>
+    <t>绿洲鬼魂</t>
+  </si>
+  <si>
+    <t>攻击力(基础)</t>
+  </si>
+  <si>
+    <t>%移动速度(基础百分比)</t>
+  </si>
+  <si>
+    <t>生命恢复(基础单位秒)</t>
+  </si>
+  <si>
+    <t>爱吃石甲虫</t>
+  </si>
+  <si>
+    <t>冰晶石甲虫</t>
+  </si>
+  <si>
+    <t>炼狱石甲虫</t>
+  </si>
+  <si>
+    <t>防御力(基础)</t>
+  </si>
+  <si>
+    <t>龟龟，我的龟龟</t>
+  </si>
+  <si>
+    <t>冰川幼龟</t>
+  </si>
+  <si>
+    <t>沙漠金龟</t>
+  </si>
+  <si>
+    <t>烈焰战龟</t>
+  </si>
+  <si>
+    <t>雷霆晶龟</t>
+  </si>
+  <si>
+    <t>技能急速(基础)</t>
+  </si>
+  <si>
+    <t>%生命值(基础加成)</t>
+  </si>
+  <si>
+    <t>极地吉祥物</t>
+  </si>
+  <si>
+    <t>冰原狐</t>
+  </si>
+  <si>
+    <t>冰原犬</t>
+  </si>
+  <si>
+    <t>%冰元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>是鹫不是舅</t>
+  </si>
+  <si>
+    <t>雷羽鹫</t>
+  </si>
+  <si>
+    <t>雷山鹫</t>
+  </si>
+  <si>
+    <t>雷翼鹫</t>
+  </si>
+  <si>
+    <t>毒风鹫</t>
+  </si>
+  <si>
+    <t>%暴击伤害(基础)</t>
+  </si>
+  <si>
+    <t>%闪避(基础)</t>
+  </si>
+  <si>
+    <t>47|49</t>
+  </si>
+  <si>
+    <t>冰与火I</t>
+  </si>
+  <si>
+    <t>炼狱狼</t>
+  </si>
+  <si>
+    <t>极地虎</t>
+  </si>
+  <si>
+    <t>%火元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>%冰元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>沙漠和绿洲I</t>
+  </si>
+  <si>
+    <t>幼年沙龙</t>
+  </si>
+  <si>
+    <t>绿洲精灵幼龙</t>
+  </si>
+  <si>
+    <t>%风元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>炼狱disco</t>
+  </si>
+  <si>
+    <t>炼狱领主</t>
+  </si>
+  <si>
+    <t>%暴击概率(基础)</t>
+  </si>
+  <si>
+    <t>讨厌的手</t>
+  </si>
+  <si>
+    <t>霹雳怪手</t>
+  </si>
+  <si>
+    <t>狂沙怪手</t>
+  </si>
+  <si>
+    <t>绿洲怪手</t>
+  </si>
+  <si>
+    <t>攻击速度(基础)</t>
+  </si>
+  <si>
+    <t>%攻击速度(基础百分比)</t>
+  </si>
+  <si>
+    <t>四元素圣使</t>
+  </si>
+  <si>
+    <t>祈风使</t>
+  </si>
+  <si>
+    <t>寒冰使</t>
+  </si>
+  <si>
+    <t>霹雳使</t>
+  </si>
+  <si>
+    <t>烈火使</t>
+  </si>
+  <si>
+    <t>%元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>%元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>38|36</t>
+  </si>
+  <si>
+    <t>元素大陆的掌控者</t>
+  </si>
+  <si>
+    <t>元素之主</t>
+  </si>
+  <si>
+    <t>%伤害加成(基础)</t>
+  </si>
+  <si>
+    <t>50|12|59</t>
+  </si>
+  <si>
+    <t>来自炼狱的熊</t>
+  </si>
+  <si>
+    <t>炼狱熊怪</t>
+  </si>
+  <si>
+    <t>疾行火熊</t>
+  </si>
+  <si>
+    <t>炼狱战熊</t>
+  </si>
+  <si>
+    <t>熔火炼狱的土著</t>
+  </si>
+  <si>
+    <t>炼狱小双头犬</t>
+  </si>
+  <si>
+    <t>骷髅勇士</t>
+  </si>
+  <si>
+    <t>%火元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>44|7</t>
+  </si>
+  <si>
+    <t>炼狱夜魇军</t>
+  </si>
+  <si>
+    <t>夜魇近战兵</t>
+  </si>
+  <si>
+    <t>夜魇远程兵</t>
+  </si>
+  <si>
+    <t>炽甲虫战士</t>
+  </si>
+  <si>
+    <t>炽甲虫战车</t>
+  </si>
+  <si>
+    <t>44|37</t>
+  </si>
+  <si>
+    <t>超大只的炼狱火</t>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+  </si>
+  <si>
+    <t>炼狱火</t>
+  </si>
+  <si>
+    <t>炼狱火精灵</t>
+  </si>
+  <si>
+    <t>远古炼狱火</t>
+  </si>
+  <si>
+    <t>生命值(基础)</t>
+  </si>
+  <si>
+    <t>18|12</t>
+  </si>
+  <si>
+    <t>熔火炼狱的战士</t>
+  </si>
+  <si>
+    <t>炼狱界弓</t>
+  </si>
+  <si>
+    <t>炼狱猎蜥</t>
+  </si>
+  <si>
+    <t>炼狱蜘蛛</t>
+  </si>
+  <si>
+    <t>50|2</t>
+  </si>
+  <si>
+    <t>熔火炼狱的精英I</t>
+  </si>
+  <si>
+    <t>熔岩卫兵</t>
+  </si>
+  <si>
+    <t>熔岩飞翼兽</t>
+  </si>
+  <si>
+    <t>9|60</t>
+  </si>
+  <si>
+    <t>熔火炼狱的精英II</t>
+  </si>
+  <si>
+    <t>冥火剑圣</t>
+  </si>
+  <si>
+    <t>双斧狂战</t>
+  </si>
+  <si>
+    <t>地狱吉祥物？</t>
+  </si>
+  <si>
+    <t>炼狱双头犬</t>
+  </si>
+  <si>
+    <t>%攻击力(基础百分比)</t>
+  </si>
+  <si>
+    <t>主人与宠物I</t>
+  </si>
+  <si>
+    <t>炼狱之王</t>
+  </si>
+  <si>
+    <t>68|65</t>
+  </si>
+  <si>
+    <t>主人与宠物II</t>
+  </si>
+  <si>
+    <t>烈焰战神</t>
+  </si>
+  <si>
+    <t>烈焰神狐</t>
+  </si>
+  <si>
+    <t>65|29</t>
+  </si>
+  <si>
+    <t>是真的狗</t>
+  </si>
+  <si>
+    <t>小狗头人</t>
+  </si>
+  <si>
+    <t>小小雷兽</t>
+  </si>
+  <si>
+    <t>雷须兽</t>
+  </si>
+  <si>
+    <t>雷角兽</t>
+  </si>
+  <si>
+    <t>%雷元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>%雷元素伤害(基础)</t>
+  </si>
+  <si>
+    <t>神，鸟与龙</t>
+  </si>
+  <si>
+    <t>雷神鸟</t>
+  </si>
+  <si>
+    <t>雷神</t>
+  </si>
+  <si>
+    <t>青眼雷龙</t>
+  </si>
+  <si>
+    <t>18|75</t>
+  </si>
+  <si>
+    <t>被雷电麻痹的怪物</t>
+  </si>
+  <si>
+    <t>雷树精兽</t>
+  </si>
+  <si>
+    <t>霹雳怪虫</t>
+  </si>
+  <si>
+    <t>霹雳怪泥</t>
+  </si>
+  <si>
+    <t>掌管雷电</t>
+  </si>
+  <si>
+    <t>闪电制造者</t>
+  </si>
+  <si>
+    <t>雷电掌控者</t>
+  </si>
+  <si>
+    <t>75|50</t>
+  </si>
+  <si>
+    <t>雷压的见证者</t>
+  </si>
+  <si>
+    <t>雷压飞翼兽</t>
+  </si>
+  <si>
+    <t>雷压巨兽</t>
+  </si>
+  <si>
+    <t>雷压射手</t>
+  </si>
+  <si>
+    <t>55|12</t>
+  </si>
+  <si>
+    <t>雷霆领主的军团</t>
+  </si>
+  <si>
+    <t>雷霆领主</t>
+  </si>
+  <si>
+    <t>雷霆梦魇</t>
+  </si>
+  <si>
+    <t>雷霆拍熊</t>
+  </si>
+  <si>
+    <t>雷霆战蜥</t>
+  </si>
+  <si>
+    <t>雷龙的成长见证</t>
+  </si>
+  <si>
+    <t>幼年青眼雷龙</t>
+  </si>
+  <si>
+    <t>狐狸不是妖</t>
+  </si>
+  <si>
+    <t>极寒冰狐</t>
+  </si>
+  <si>
+    <t>雷翼飞狐</t>
+  </si>
+  <si>
+    <t>61|33</t>
+  </si>
+  <si>
+    <t>极寒领主的小跟班</t>
+  </si>
+  <si>
+    <t>极寒领主</t>
+  </si>
+  <si>
+    <t>极寒精灵</t>
+  </si>
+  <si>
+    <t>少女与她的宠物</t>
+  </si>
+  <si>
+    <t>极地少女</t>
+  </si>
+  <si>
+    <t>极地小冰龙</t>
+  </si>
+  <si>
+    <t>极地小飞龙</t>
+  </si>
+  <si>
+    <t>29|34</t>
+  </si>
+  <si>
+    <t>冰雪迷宫之主</t>
+  </si>
+  <si>
+    <t>冰宫女王</t>
+  </si>
+  <si>
+    <t>冰宫奴仆</t>
+  </si>
+  <si>
+    <t>冰宫守卫</t>
+  </si>
+  <si>
+    <t>73|30</t>
+  </si>
+  <si>
+    <t>掌控冰原的怪物们</t>
+  </si>
+  <si>
+    <t>冰原领主</t>
+  </si>
+  <si>
+    <t>冰原守卫</t>
+  </si>
+  <si>
+    <t>冰原行者</t>
+  </si>
+  <si>
+    <t>冰原巨兽</t>
+  </si>
+  <si>
+    <t>17|23</t>
+  </si>
+  <si>
+    <t>来自冰原的怪胎</t>
+  </si>
+  <si>
+    <t>冰原猩猩兽</t>
+  </si>
+  <si>
+    <t>来自极北之地I</t>
+  </si>
+  <si>
+    <t>冰晶小海马</t>
+  </si>
+  <si>
+    <t>61|72</t>
+  </si>
+  <si>
+    <t>来自极北之地II</t>
+  </si>
+  <si>
+    <t>寒霜萨满</t>
+  </si>
+  <si>
+    <t>寒霜战士</t>
+  </si>
+  <si>
+    <t>极地熊战士</t>
+  </si>
+  <si>
+    <t>极地飞翼兽</t>
+  </si>
+  <si>
+    <t>极地四脚兽</t>
+  </si>
+  <si>
+    <t>62|72</t>
+  </si>
+  <si>
+    <t>掌控寒冰</t>
+  </si>
+  <si>
+    <t>极寒蛛美丽</t>
+  </si>
+  <si>
+    <t>73|39|36</t>
+  </si>
+  <si>
+    <t>寒霜族人</t>
+  </si>
+  <si>
+    <t>来自北方的熊</t>
+  </si>
+  <si>
+    <t>冰甲战熊</t>
+  </si>
+  <si>
+    <t>近代冰川之魂</t>
+  </si>
+  <si>
+    <t>近代冰魂</t>
+  </si>
+  <si>
+    <t>怪头又怪脑</t>
+  </si>
+  <si>
+    <t>绿洲丧尸</t>
+  </si>
+  <si>
+    <t>绿洲小可爱</t>
+  </si>
+  <si>
+    <t>绿洲精灵马</t>
+  </si>
+  <si>
+    <t>绿洲魔法飞马</t>
+  </si>
+  <si>
+    <t>绿洲跳跳蛙</t>
+  </si>
+  <si>
+    <t>绿洲小精灵</t>
+  </si>
+  <si>
+    <t>%风元素穿透(基础)</t>
+  </si>
+  <si>
+    <t>30|62</t>
+  </si>
+  <si>
+    <t>绿洲的宿敌</t>
+  </si>
+  <si>
+    <t>绿洲剧毒蛇</t>
+  </si>
+  <si>
+    <t>绿洲剧毒飞蛇</t>
+  </si>
+  <si>
+    <t>绿洲女巫</t>
+  </si>
+  <si>
+    <t>78|30</t>
+  </si>
+  <si>
+    <t>风沙中的绿洲</t>
+  </si>
+  <si>
+    <t>绿洲守卫</t>
+  </si>
+  <si>
+    <t>绿洲之主</t>
+  </si>
+  <si>
+    <t>61|59</t>
+  </si>
+  <si>
+    <t>掌控风沙</t>
+  </si>
+  <si>
+    <t>风神</t>
+  </si>
+  <si>
+    <t>黄沙之主</t>
+  </si>
+  <si>
+    <t>79|60</t>
+  </si>
+  <si>
+    <t>绿洲的天辉军团</t>
+  </si>
+  <si>
+    <t>天辉高级术士</t>
+  </si>
+  <si>
+    <t>天辉高级战士</t>
+  </si>
+  <si>
+    <t>高级精灵战车</t>
+  </si>
+  <si>
+    <t>高级精灵战士</t>
+  </si>
+  <si>
+    <t>66|37</t>
+  </si>
+  <si>
+    <t>风沙的守护者们</t>
+  </si>
+  <si>
+    <t>风沙狼</t>
+  </si>
+  <si>
+    <t>风沙狮</t>
+  </si>
+  <si>
+    <t>风沙刺鼬</t>
+  </si>
+  <si>
+    <t>风沙战熊</t>
+  </si>
+  <si>
+    <t>21|5</t>
+  </si>
+  <si>
+    <t>来自沙漠的熊</t>
+  </si>
+  <si>
+    <t>狂沙熊战士</t>
+  </si>
+  <si>
+    <t>沙漠中的巨人</t>
+  </si>
+  <si>
+    <t>砂砾小巨人</t>
+  </si>
+  <si>
+    <t>独角兽？</t>
+  </si>
+  <si>
+    <t>独角雷兽</t>
+  </si>
+  <si>
+    <t>独角沙兽</t>
+  </si>
+  <si>
+    <t>黄沙的守护神</t>
+  </si>
+  <si>
+    <t>黄沙护卫</t>
+  </si>
+  <si>
+    <t>78|9</t>
+  </si>
+  <si>
+    <t>卡片索引</t>
+  </si>
+  <si>
+    <t>存档物品id</t>
+  </si>
+  <si>
+    <t>原先的id</t>
+  </si>
+  <si>
+    <t>卡片名字</t>
+  </si>
+  <si>
+    <t>合成方式 1 普通 2需要特殊卡片 0无法被合成</t>
+  </si>
+  <si>
+    <t>合成所需特殊卡片id</t>
+  </si>
+  <si>
+    <t>卡片图片</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>2绿3蓝4紫5金</t>
+  </si>
+  <si>
+    <t>id索引（用于表1的快速查找）</t>
+  </si>
+  <si>
     <t>pictuer_suit</t>
   </si>
   <si>
-    <t>is_show</t>
-  </si>
-  <si>
-    <t>AbilityTextureName</t>
-  </si>
-  <si>
-    <t>consume</t>
-  </si>
-  <si>
-    <t>card_ids</t>
-  </si>
-  <si>
-    <t>ability_id</t>
-  </si>
-  <si>
-    <t>游荡的鬼魂</t>
-  </si>
-  <si>
-    <t>炼狱亡魂</t>
-  </si>
-  <si>
-    <t>冰川鬼魂</t>
-  </si>
-  <si>
-    <t>绿洲鬼魂</t>
-  </si>
-  <si>
-    <t>攻击力(基础)</t>
-  </si>
-  <si>
-    <t>%移动速度(基础百分比)</t>
-  </si>
-  <si>
-    <t>生命恢复(基础单位秒)</t>
-  </si>
-  <si>
-    <t>爱吃石甲虫</t>
-  </si>
-  <si>
-    <t>冰晶石甲虫</t>
-  </si>
-  <si>
-    <t>炼狱石甲虫</t>
-  </si>
-  <si>
-    <t>防御力(基础)</t>
-  </si>
-  <si>
-    <t>龟龟，我的龟龟</t>
-  </si>
-  <si>
-    <t>冰川幼龟</t>
-  </si>
-  <si>
-    <t>沙漠金龟</t>
-  </si>
-  <si>
-    <t>烈焰战龟</t>
-  </si>
-  <si>
-    <t>雷霆晶龟</t>
-  </si>
-  <si>
-    <t>技能急速(基础)</t>
-  </si>
-  <si>
-    <t>%生命值(基础加成)</t>
-  </si>
-  <si>
-    <t>极地吉祥物</t>
-  </si>
-  <si>
-    <t>冰原狐</t>
-  </si>
-  <si>
-    <t>冰原犬</t>
-  </si>
-  <si>
-    <t>%冰元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>是鹫不是舅</t>
-  </si>
-  <si>
-    <t>雷羽鹫</t>
-  </si>
-  <si>
-    <t>雷山鹫</t>
-  </si>
-  <si>
-    <t>雷翼鹫</t>
-  </si>
-  <si>
-    <t>毒风鹫</t>
-  </si>
-  <si>
-    <t>%暴击伤害(基础)</t>
-  </si>
-  <si>
-    <t>%闪避(基础)</t>
-  </si>
-  <si>
-    <t>47|49</t>
-  </si>
-  <si>
-    <t>冰与火I</t>
-  </si>
-  <si>
-    <t>炼狱狼</t>
-  </si>
-  <si>
-    <t>极地虎</t>
-  </si>
-  <si>
-    <t>%火元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>%冰元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>沙漠和绿洲I</t>
-  </si>
-  <si>
-    <t>幼年沙龙</t>
-  </si>
-  <si>
-    <t>绿洲精灵幼龙</t>
-  </si>
-  <si>
-    <t>%风元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>炼狱disco</t>
-  </si>
-  <si>
-    <t>炼狱领主</t>
-  </si>
-  <si>
-    <t>%暴击概率(基础)</t>
-  </si>
-  <si>
-    <t>讨厌的手</t>
-  </si>
-  <si>
-    <t>霹雳怪手</t>
-  </si>
-  <si>
-    <t>狂沙怪手</t>
-  </si>
-  <si>
-    <t>绿洲怪手</t>
-  </si>
-  <si>
-    <t>攻击速度(基础)</t>
-  </si>
-  <si>
-    <t>%攻击速度(基础百分比)</t>
-  </si>
-  <si>
-    <t>四元素圣使</t>
-  </si>
-  <si>
-    <t>祈风使</t>
-  </si>
-  <si>
-    <t>寒冰使</t>
-  </si>
-  <si>
-    <t>霹雳使</t>
-  </si>
-  <si>
-    <t>烈火使</t>
-  </si>
-  <si>
-    <t>%元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>%元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>38|36</t>
-  </si>
-  <si>
-    <t>元素大陆的掌控者</t>
-  </si>
-  <si>
-    <t>元素之主</t>
-  </si>
-  <si>
-    <t>%伤害加成(基础)</t>
-  </si>
-  <si>
-    <t>50|12|59</t>
-  </si>
-  <si>
-    <t>来自炼狱的熊</t>
-  </si>
-  <si>
-    <t>炼狱熊怪</t>
-  </si>
-  <si>
-    <t>疾行火熊</t>
-  </si>
-  <si>
-    <t>炼狱战熊</t>
-  </si>
-  <si>
-    <t>熔火炼狱的土著</t>
-  </si>
-  <si>
-    <t>炼狱小双头犬</t>
-  </si>
-  <si>
-    <t>骷髅勇士</t>
-  </si>
-  <si>
-    <t>%火元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>44|7</t>
-  </si>
-  <si>
-    <t>炼狱夜魇军</t>
-  </si>
-  <si>
-    <t>夜魇近战兵</t>
-  </si>
-  <si>
-    <t>夜魇远程兵</t>
-  </si>
-  <si>
-    <t>炽甲虫战士</t>
-  </si>
-  <si>
-    <t>炽甲虫战车</t>
-  </si>
-  <si>
-    <t>44|37</t>
-  </si>
-  <si>
-    <t>超大只的炼狱火</t>
-  </si>
-  <si>
-    <t>熔岩巨人</t>
-  </si>
-  <si>
-    <t>炼狱火</t>
-  </si>
-  <si>
-    <t>炼狱火精灵</t>
-  </si>
-  <si>
-    <t>远古炼狱火</t>
-  </si>
-  <si>
-    <t>生命值(基础)</t>
-  </si>
-  <si>
-    <t>18|12</t>
-  </si>
-  <si>
-    <t>熔火炼狱的战士</t>
-  </si>
-  <si>
-    <t>炼狱界弓</t>
-  </si>
-  <si>
-    <t>炼狱猎蜥</t>
-  </si>
-  <si>
-    <t>炼狱蜘蛛</t>
-  </si>
-  <si>
-    <t>50|2</t>
-  </si>
-  <si>
-    <t>熔火炼狱的精英I</t>
-  </si>
-  <si>
-    <t>熔岩卫兵</t>
-  </si>
-  <si>
-    <t>熔岩飞翼兽</t>
-  </si>
-  <si>
-    <t>9|60</t>
-  </si>
-  <si>
-    <t>熔火炼狱的精英II</t>
-  </si>
-  <si>
-    <t>冥火剑圣</t>
-  </si>
-  <si>
-    <t>双斧狂战</t>
-  </si>
-  <si>
-    <t>地狱吉祥物？</t>
-  </si>
-  <si>
-    <t>炼狱双头犬</t>
-  </si>
-  <si>
-    <t>%攻击力(基础百分比)</t>
-  </si>
-  <si>
-    <t>主人与宠物I</t>
-  </si>
-  <si>
-    <t>炼狱之王</t>
-  </si>
-  <si>
-    <t>68|65</t>
-  </si>
-  <si>
-    <t>主人与宠物II</t>
-  </si>
-  <si>
-    <t>烈焰战神</t>
-  </si>
-  <si>
-    <t>烈焰神狐</t>
-  </si>
-  <si>
-    <t>65|29</t>
-  </si>
-  <si>
-    <t>是真的狗</t>
-  </si>
-  <si>
-    <t>小狗头人</t>
-  </si>
-  <si>
-    <t>小小雷兽</t>
-  </si>
-  <si>
-    <t>雷须兽</t>
-  </si>
-  <si>
-    <t>雷角兽</t>
-  </si>
-  <si>
-    <t>%雷元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>%雷元素伤害(基础)</t>
-  </si>
-  <si>
-    <t>神，鸟与龙</t>
-  </si>
-  <si>
-    <t>雷神鸟</t>
-  </si>
-  <si>
-    <t>雷神</t>
-  </si>
-  <si>
-    <t>青眼雷龙</t>
-  </si>
-  <si>
-    <t>18|75</t>
-  </si>
-  <si>
-    <t>被雷电麻痹的怪物</t>
-  </si>
-  <si>
-    <t>雷树精兽</t>
-  </si>
-  <si>
-    <t>霹雳怪虫</t>
-  </si>
-  <si>
-    <t>霹雳怪泥</t>
-  </si>
-  <si>
-    <t>掌管雷电</t>
-  </si>
-  <si>
-    <t>闪电制造者</t>
-  </si>
-  <si>
-    <t>雷电掌控者</t>
-  </si>
-  <si>
-    <t>75|50</t>
-  </si>
-  <si>
-    <t>雷压的见证者</t>
-  </si>
-  <si>
-    <t>雷压飞翼兽</t>
-  </si>
-  <si>
-    <t>雷压巨兽</t>
-  </si>
-  <si>
-    <t>雷压射手</t>
-  </si>
-  <si>
-    <t>55|12</t>
-  </si>
-  <si>
-    <t>雷霆领主的军团</t>
-  </si>
-  <si>
-    <t>雷霆领主</t>
-  </si>
-  <si>
-    <t>雷霆梦魇</t>
-  </si>
-  <si>
-    <t>雷霆拍熊</t>
-  </si>
-  <si>
-    <t>雷霆战蜥</t>
-  </si>
-  <si>
-    <t>雷龙的成长见证</t>
-  </si>
-  <si>
-    <t>幼年青眼雷龙</t>
-  </si>
-  <si>
-    <t>狐狸不是妖</t>
-  </si>
-  <si>
-    <t>极寒冰狐</t>
-  </si>
-  <si>
-    <t>雷翼飞狐</t>
-  </si>
-  <si>
-    <t>61|33</t>
-  </si>
-  <si>
-    <t>极寒领主的小跟班</t>
-  </si>
-  <si>
-    <t>极寒领主</t>
-  </si>
-  <si>
-    <t>极寒精灵</t>
-  </si>
-  <si>
-    <t>少女与她的宠物</t>
-  </si>
-  <si>
-    <t>极地少女</t>
-  </si>
-  <si>
-    <t>极地小冰龙</t>
-  </si>
-  <si>
-    <t>极地小飞龙</t>
-  </si>
-  <si>
-    <t>29|34</t>
-  </si>
-  <si>
-    <t>冰雪迷宫之主</t>
-  </si>
-  <si>
-    <t>冰宫女王</t>
-  </si>
-  <si>
-    <t>冰宫奴仆</t>
-  </si>
-  <si>
-    <t>冰宫守卫</t>
-  </si>
-  <si>
-    <t>73|30</t>
-  </si>
-  <si>
-    <t>掌控冰原的怪物们</t>
-  </si>
-  <si>
-    <t>冰原领主</t>
-  </si>
-  <si>
-    <t>冰原守卫</t>
-  </si>
-  <si>
-    <t>冰原行者</t>
-  </si>
-  <si>
-    <t>冰原巨兽</t>
-  </si>
-  <si>
-    <t>17|23</t>
-  </si>
-  <si>
-    <t>来自冰原的怪胎</t>
-  </si>
-  <si>
-    <t>冰原猩猩兽</t>
-  </si>
-  <si>
-    <t>来自极北之地I</t>
-  </si>
-  <si>
-    <t>冰晶小海马</t>
-  </si>
-  <si>
-    <t>61|72</t>
-  </si>
-  <si>
-    <t>来自极北之地II</t>
-  </si>
-  <si>
-    <t>寒霜萨满</t>
-  </si>
-  <si>
-    <t>寒霜战士</t>
-  </si>
-  <si>
-    <t>极地熊战士</t>
-  </si>
-  <si>
-    <t>极地飞翼兽</t>
-  </si>
-  <si>
-    <t>极地四脚兽</t>
-  </si>
-  <si>
-    <t>62|72</t>
-  </si>
-  <si>
-    <t>掌控寒冰</t>
-  </si>
-  <si>
-    <t>极寒蛛美丽</t>
-  </si>
-  <si>
-    <t>73|39|36</t>
-  </si>
-  <si>
-    <t>寒霜族人</t>
-  </si>
-  <si>
-    <t>来自北方的熊</t>
-  </si>
-  <si>
-    <t>冰甲战熊</t>
-  </si>
-  <si>
-    <t>近代冰川之魂</t>
-  </si>
-  <si>
-    <t>近代冰魂</t>
-  </si>
-  <si>
-    <t>怪头又怪脑</t>
-  </si>
-  <si>
-    <t>绿洲丧尸</t>
-  </si>
-  <si>
-    <t>绿洲小可爱</t>
-  </si>
-  <si>
-    <t>绿洲精灵马</t>
-  </si>
-  <si>
-    <t>绿洲魔法飞马</t>
-  </si>
-  <si>
-    <t>绿洲跳跳蛙</t>
-  </si>
-  <si>
-    <t>绿洲小精灵</t>
-  </si>
-  <si>
-    <t>%风元素穿透(基础)</t>
-  </si>
-  <si>
-    <t>30|62</t>
-  </si>
-  <si>
-    <t>绿洲的宿敌</t>
-  </si>
-  <si>
-    <t>绿洲剧毒蛇</t>
-  </si>
-  <si>
-    <t>绿洲剧毒飞蛇</t>
-  </si>
-  <si>
-    <t>绿洲女巫</t>
-  </si>
-  <si>
-    <t>78|30</t>
-  </si>
-  <si>
-    <t>风沙中的绿洲</t>
-  </si>
-  <si>
-    <t>绿洲守卫</t>
-  </si>
-  <si>
-    <t>绿洲之主</t>
-  </si>
-  <si>
-    <t>61|59</t>
-  </si>
-  <si>
-    <t>掌控风沙</t>
-  </si>
-  <si>
-    <t>风神</t>
-  </si>
-  <si>
-    <t>黄沙之主</t>
-  </si>
-  <si>
-    <t>79|60</t>
-  </si>
-  <si>
-    <t>绿洲的天辉军团</t>
-  </si>
-  <si>
-    <t>天辉高级术士</t>
-  </si>
-  <si>
-    <t>天辉高级战士</t>
-  </si>
-  <si>
-    <t>高级精灵战车</t>
-  </si>
-  <si>
-    <t>高级精灵战士</t>
-  </si>
-  <si>
-    <t>66|37</t>
-  </si>
-  <si>
-    <t>风沙的守护者们</t>
-  </si>
-  <si>
-    <t>风沙狼</t>
-  </si>
-  <si>
-    <t>风沙狮</t>
-  </si>
-  <si>
-    <t>风沙刺鼬</t>
-  </si>
-  <si>
-    <t>风沙战熊</t>
-  </si>
-  <si>
-    <t>21|5</t>
-  </si>
-  <si>
-    <t>来自沙漠的熊</t>
-  </si>
-  <si>
-    <t>狂沙熊战士</t>
-  </si>
-  <si>
-    <t>沙漠中的巨人</t>
-  </si>
-  <si>
-    <t>砂砾小巨人</t>
-  </si>
-  <si>
-    <t>独角兽？</t>
-  </si>
-  <si>
-    <t>独角雷兽</t>
-  </si>
-  <si>
-    <t>独角沙兽</t>
-  </si>
-  <si>
-    <t>黄沙的守护神</t>
-  </si>
-  <si>
-    <t>黄沙护卫</t>
-  </si>
-  <si>
-    <t>78|9</t>
-  </si>
-  <si>
-    <t>卡片索引</t>
-  </si>
-  <si>
-    <t>存档物品id</t>
-  </si>
-  <si>
-    <t>原先的id</t>
-  </si>
-  <si>
-    <t>卡片名字</t>
-  </si>
-  <si>
-    <t>合成方式 1 普通 2需要特殊卡片 0无法被合成</t>
-  </si>
-  <si>
-    <t>合成所需特殊卡片id</t>
-  </si>
-  <si>
-    <t>卡片图片</t>
-  </si>
-  <si>
-    <t>稀有度</t>
-  </si>
-  <si>
-    <t>2绿3蓝4紫5金</t>
-  </si>
-  <si>
-    <t>id索引（用于表1的快速查找）</t>
-  </si>
-  <si>
     <t>item_id</t>
   </si>
   <si>
+    <t>#Loccustom_server_card_{}</t>
+  </si>
+  <si>
     <t>compound_type</t>
   </si>
   <si>
@@ -1459,9 +1474,6 @@
   </si>
   <si>
     <t>AbilityValues[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
   </si>
   <si>
     <t>discoLV1:造成暴击时暴击伤害提高20%</t>
@@ -4227,16 +4239,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0F2B45EB-3DCD-44D5-AC14-57F1D0C40F98}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D18FD970-31E4-4B92-8239-DABC094B4A1E}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{74E06079-75F7-414A-8513-C897B998779B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C1C7A578-9612-4DEC-BF92-CA751E63F8E8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{B4DD9CFD-370B-47C7-9295-2601E4921D19}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{CD0DE840-5C2C-441D-84A9-DDF3FA07A34A}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -4245,7 +4257,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E1715451-1F91-4E0F-B055-291FD30427E4}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E2C647E9-615F-4DCD-ABC1-26EE96377034}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -4257,7 +4269,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{A7036719-2B4B-4066-B68A-535C406716A9}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E8606899-B279-4005-930D-C0E56585C740}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4575,16 +4587,16 @@
   <sheetPr/>
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E12" sqref="E12"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.8416666666667" style="43" customWidth="1"/>
-    <col min="2" max="2" width="23.675" style="43" customWidth="1"/>
+    <col min="2" max="2" width="31.6083333333333" style="43" customWidth="1"/>
     <col min="3" max="3" width="15.0083333333333" style="43" customWidth="1"/>
     <col min="4" max="4" width="16.625" style="43" customWidth="1"/>
     <col min="5" max="5" width="15.675" style="43" customWidth="1"/>
@@ -4696,15 +4708,17 @@
       <c r="A2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="49" t="s">
+        <v>21</v>
+      </c>
       <c r="C2" s="49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="50"/>
       <c r="G2" s="50"/>
@@ -4713,7 +4727,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
       <c r="L2" s="50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -4726,15 +4740,29 @@
       <c r="U2" s="50"/>
       <c r="V2" s="50"/>
       <c r="W2" s="50"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="58"/>
+      <c r="X2" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="49">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="49">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="49">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="57">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="58" t="s">
+        <v>27</v>
+      </c>
       <c r="AE2" s="59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF2" s="60"/>
       <c r="AG2" s="60"/>
@@ -4746,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -4756,13 +4784,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -4775,19 +4803,19 @@
         <v>2004|2022|2034</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N3" s="8">
         <v>10</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P3" s="8">
         <v>5</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R3" s="8">
         <v>5</v>
@@ -4844,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -4854,10 +4882,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
@@ -4871,13 +4899,13 @@
         <v>2533|2505</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N4" s="51">
         <v>10</v>
       </c>
       <c r="O4" s="51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P4" s="51">
         <v>15</v>
@@ -4934,7 +4962,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -4944,16 +4972,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="51">
@@ -4965,25 +4993,25 @@
         <v>2531|2043|2508|2517</v>
       </c>
       <c r="M5" s="51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N5" s="51">
         <v>10</v>
       </c>
       <c r="O5" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P5" s="51">
         <v>5</v>
       </c>
       <c r="Q5" s="51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R5" s="51">
         <v>5</v>
       </c>
       <c r="S5" s="51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T5" s="51">
         <v>250</v>
@@ -5040,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C6" s="11">
         <v>1</v>
@@ -5050,10 +5078,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -5067,13 +5095,13 @@
         <v>2031|2534</v>
       </c>
       <c r="M6" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N6" s="51">
         <v>2</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P6" s="51">
         <v>3</v>
@@ -5130,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="11">
         <v>1</v>
@@ -5140,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="51">
@@ -5161,25 +5189,25 @@
         <v>2019|2020|2021|2549</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N7" s="51">
         <v>10</v>
       </c>
       <c r="O7" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P7" s="51">
         <v>15</v>
       </c>
       <c r="Q7" s="51" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R7" s="51">
         <v>5</v>
       </c>
       <c r="S7" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T7" s="51">
         <v>10</v>
@@ -5221,7 +5249,7 @@
       </c>
       <c r="AD7" s="64"/>
       <c r="AE7" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AF7" s="10" t="str" cm="1">
         <f t="array" ref="AF7:AG7">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE7,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -5239,7 +5267,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
@@ -5249,10 +5277,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -5266,13 +5294,13 @@
         <v>2501|2027</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N8" s="51">
         <v>1</v>
       </c>
       <c r="O8" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P8" s="51">
         <v>1</v>
@@ -5329,7 +5357,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -5339,10 +5367,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -5356,13 +5384,13 @@
         <v>2036|2037</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N9" s="51">
         <v>2</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P9" s="51">
         <v>3</v>
@@ -5419,7 +5447,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
@@ -5429,10 +5457,10 @@
         <v>2</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -5446,13 +5474,13 @@
         <v>2901|2501</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N10" s="51">
         <v>10</v>
       </c>
       <c r="O10" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" s="51">
         <v>5</v>
@@ -5509,7 +5537,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -5519,13 +5547,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -5538,19 +5566,19 @@
         <v>2017|2040|2548</v>
       </c>
       <c r="M11" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N11" s="51">
         <v>10</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" s="51">
         <v>15</v>
       </c>
       <c r="Q11" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R11" s="51">
         <v>5</v>
@@ -5607,7 +5635,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
@@ -5617,16 +5645,16 @@
         <v>4</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="51">
@@ -5638,25 +5666,25 @@
         <v>2918|2919|2920|2921</v>
       </c>
       <c r="M12" s="51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N12" s="51">
         <v>5</v>
       </c>
       <c r="O12" s="51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P12" s="51">
         <v>10</v>
       </c>
       <c r="Q12" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R12" s="51">
         <v>10</v>
       </c>
       <c r="S12" s="51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="T12" s="51">
         <v>15</v>
@@ -5698,7 +5726,7 @@
       </c>
       <c r="AD12" s="65"/>
       <c r="AE12" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AF12" s="10" t="str" cm="1">
         <f t="array" ref="AF12:AG12">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE12,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -5714,7 +5742,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
@@ -5724,19 +5752,19 @@
         <v>5</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K13" s="51">
         <f t="shared" si="0"/>
@@ -5747,31 +5775,31 @@
         <v>2918|2919|2920|2921|3205</v>
       </c>
       <c r="M13" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N13" s="51">
         <v>10</v>
       </c>
       <c r="O13" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P13" s="51">
         <v>10</v>
       </c>
       <c r="Q13" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R13" s="51">
         <v>15</v>
       </c>
       <c r="S13" s="51" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T13" s="51">
         <v>15</v>
       </c>
       <c r="U13" s="51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="V13" s="51">
         <v>15</v>
@@ -5813,7 +5841,7 @@
       </c>
       <c r="AD13" s="64"/>
       <c r="AE13" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF13" s="10" t="str" cm="1">
         <f t="array" ref="AF13:AH13">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE13,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -5832,7 +5860,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
@@ -5842,13 +5870,13 @@
         <v>3</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -5861,19 +5889,19 @@
         <v>2001|2003|2506</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N14" s="51">
         <v>20</v>
       </c>
       <c r="O14" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P14" s="51">
         <v>10</v>
       </c>
       <c r="Q14" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R14" s="51">
         <v>5</v>
@@ -5930,7 +5958,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
@@ -5940,16 +5968,16 @@
         <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="51">
@@ -5961,25 +5989,25 @@
         <v>2004|2501|2503|2008</v>
       </c>
       <c r="M15" s="51" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N15" s="51">
         <v>5</v>
       </c>
       <c r="O15" s="51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P15" s="51">
         <v>10</v>
       </c>
       <c r="Q15" s="51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R15" s="51">
         <v>15</v>
       </c>
       <c r="S15" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T15" s="51">
         <v>15</v>
@@ -6021,7 +6049,7 @@
       </c>
       <c r="AD15" s="64"/>
       <c r="AE15" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AF15" s="10" t="str" cm="1">
         <f t="array" ref="AF15:AG15">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE15,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6038,7 +6066,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
@@ -6048,16 +6076,16 @@
         <v>4</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="51">
@@ -6069,25 +6097,25 @@
         <v>2005|2502|2006|2504</v>
       </c>
       <c r="M16" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N16" s="51">
         <v>5</v>
       </c>
       <c r="O16" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P16" s="51">
         <v>5</v>
       </c>
       <c r="Q16" s="51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R16" s="51">
         <v>25</v>
       </c>
       <c r="S16" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T16" s="51">
         <v>20</v>
@@ -6129,7 +6157,7 @@
       </c>
       <c r="AD16" s="64"/>
       <c r="AE16" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AF16" s="10" t="str" cm="1">
         <f t="array" ref="AF16:AG16">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE16,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6146,7 +6174,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
@@ -6156,16 +6184,16 @@
         <v>4</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="51">
@@ -6177,25 +6205,25 @@
         <v>2902|2009|2511|2515</v>
       </c>
       <c r="M17" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N17" s="51">
         <v>500</v>
       </c>
       <c r="O17" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P17" s="51">
         <v>15</v>
       </c>
       <c r="Q17" s="51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R17" s="51">
         <v>5</v>
       </c>
       <c r="S17" s="51" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T17" s="51">
         <v>15</v>
@@ -6237,7 +6265,7 @@
       </c>
       <c r="AD17" s="64"/>
       <c r="AE17" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AF17" s="10" t="str" cm="1">
         <f t="array" ref="AF17:AG17">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE17,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6254,7 +6282,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
@@ -6264,16 +6292,16 @@
         <v>4</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="51">
@@ -6285,25 +6313,25 @@
         <v>2507|2510|2506|2509</v>
       </c>
       <c r="M18" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N18" s="51">
         <v>20</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P18" s="51">
         <v>10</v>
       </c>
       <c r="Q18" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R18" s="51">
         <v>10</v>
       </c>
       <c r="S18" s="51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="T18" s="51">
         <v>25</v>
@@ -6345,7 +6373,7 @@
       </c>
       <c r="AD18" s="64"/>
       <c r="AE18" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AF18" s="10" t="str" cm="1">
         <f t="array" ref="AF18:AG18">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE18,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6362,7 +6390,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -6372,13 +6400,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -6391,19 +6419,19 @@
         <v>2511|2514|2512</v>
       </c>
       <c r="M19" s="51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N19" s="51">
         <v>3</v>
       </c>
       <c r="O19" s="51" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P19" s="51">
         <v>5</v>
       </c>
       <c r="Q19" s="51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R19" s="51">
         <v>10</v>
@@ -6445,7 +6473,7 @@
       </c>
       <c r="AD19" s="64"/>
       <c r="AE19" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AF19" s="10" t="str" cm="1">
         <f t="array" ref="AF19:AG19">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE19,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6462,7 +6490,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
@@ -6472,13 +6500,13 @@
         <v>3</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -6491,19 +6519,19 @@
         <v>2901|2010|2513</v>
       </c>
       <c r="M20" s="51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N20" s="51">
         <v>5</v>
       </c>
       <c r="O20" s="51" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P20" s="51">
         <v>10</v>
       </c>
       <c r="Q20" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R20" s="51">
         <v>10</v>
@@ -6560,7 +6588,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
@@ -6570,10 +6598,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -6587,13 +6615,13 @@
         <v>2904|2503</v>
       </c>
       <c r="M21" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N21" s="51">
         <v>20</v>
       </c>
       <c r="O21" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P21" s="51">
         <v>10</v>
@@ -6650,7 +6678,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
@@ -6660,10 +6688,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -6677,13 +6705,13 @@
         <v>3201|2904</v>
       </c>
       <c r="M22" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N22" s="51">
         <v>15</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P22" s="51">
         <v>300</v>
@@ -6725,7 +6753,7 @@
       </c>
       <c r="AD22" s="64"/>
       <c r="AE22" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AF22" s="10" t="str" cm="1">
         <f t="array" ref="AF22:AG22">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE22,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6742,7 +6770,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
@@ -6752,10 +6780,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -6769,13 +6797,13 @@
         <v>2905|2903</v>
       </c>
       <c r="M23" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N23" s="51">
         <v>5</v>
       </c>
       <c r="O23" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P23" s="51">
         <v>200</v>
@@ -6817,7 +6845,7 @@
       </c>
       <c r="AD23" s="64"/>
       <c r="AE23" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AF23" s="10" t="str" cm="1">
         <f t="array" ref="AF23:AG23">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE23,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -6834,7 +6862,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
@@ -6844,13 +6872,13 @@
         <v>3</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -6863,19 +6891,19 @@
         <v>2011|2534|2503</v>
       </c>
       <c r="M24" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N24" s="51">
         <v>20</v>
       </c>
       <c r="O24" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P24" s="51">
         <v>15</v>
       </c>
       <c r="Q24" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R24" s="51">
         <v>5</v>
@@ -6932,7 +6960,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
@@ -6942,10 +6970,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -6959,13 +6987,13 @@
         <v>2516|2016</v>
       </c>
       <c r="M25" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N25" s="51">
         <v>3</v>
       </c>
       <c r="O25" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P25" s="51">
         <v>5</v>
@@ -7023,7 +7051,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
@@ -7033,13 +7061,13 @@
         <v>3</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -7052,19 +7080,19 @@
         <v>2909|3202|2906</v>
       </c>
       <c r="M26" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N26" s="51">
         <v>10</v>
       </c>
       <c r="O26" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P26" s="51">
         <v>15</v>
       </c>
       <c r="Q26" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R26" s="51">
         <v>25</v>
@@ -7106,7 +7134,7 @@
       </c>
       <c r="AD26" s="64"/>
       <c r="AE26" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AF26" s="10" t="str" cm="1">
         <f t="array" ref="AF26:AG26">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE26,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -7124,7 +7152,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
@@ -7134,16 +7162,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="51">
@@ -7155,25 +7183,25 @@
         <v>2015|2518|2017|2525</v>
       </c>
       <c r="M27" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N27" s="51">
         <v>5</v>
       </c>
       <c r="O27" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P27" s="51">
         <v>5</v>
       </c>
       <c r="Q27" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R27" s="51">
         <v>5</v>
       </c>
       <c r="S27" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="T27" s="51">
         <v>5</v>
@@ -7229,7 +7257,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
@@ -7239,13 +7267,13 @@
         <v>3</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -7258,19 +7286,19 @@
         <v>3202|2910|2908</v>
       </c>
       <c r="M28" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N28" s="51">
         <v>20</v>
       </c>
       <c r="O28" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P28" s="51">
         <v>5</v>
       </c>
       <c r="Q28" s="51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R28" s="51">
         <v>5</v>
@@ -7312,7 +7340,7 @@
       </c>
       <c r="AD28" s="64"/>
       <c r="AE28" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AF28" s="10" t="str" cm="1">
         <f t="array" ref="AF28:AG28">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE28,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -7329,7 +7357,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
@@ -7339,13 +7367,13 @@
         <v>3</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -7358,19 +7386,19 @@
         <v>2907|2528|2529</v>
       </c>
       <c r="M29" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N29" s="51">
         <v>5</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P29" s="51">
         <v>25</v>
       </c>
       <c r="Q29" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R29" s="51">
         <v>10</v>
@@ -7412,7 +7440,7 @@
       </c>
       <c r="AD29" s="64"/>
       <c r="AE29" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF29" s="10" t="str" cm="1">
         <f t="array" ref="AF29:AG29">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE29,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -7428,7 +7456,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
@@ -7438,16 +7466,16 @@
         <v>4</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="51">
@@ -7459,25 +7487,25 @@
         <v>2524|2530|2521|2526</v>
       </c>
       <c r="M30" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N30" s="51">
         <v>5</v>
       </c>
       <c r="O30" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P30" s="51">
         <v>5</v>
       </c>
       <c r="Q30" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="R30" s="51">
         <v>5</v>
       </c>
       <c r="S30" s="51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="T30" s="51">
         <v>5</v>
@@ -7533,7 +7561,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
@@ -7543,10 +7571,10 @@
         <v>2</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7560,13 +7588,13 @@
         <v>2018|2906</v>
       </c>
       <c r="M31" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N31" s="51">
         <v>3</v>
       </c>
       <c r="O31" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P31" s="51">
         <v>22</v>
@@ -7623,7 +7651,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
@@ -7633,16 +7661,16 @@
         <v>4</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="51">
@@ -7654,25 +7682,25 @@
         <v>2031|2024|2522|2903</v>
       </c>
       <c r="M32" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N32" s="51">
         <v>5</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P32" s="51">
         <v>5</v>
       </c>
       <c r="Q32" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R32" s="51">
         <v>800</v>
       </c>
       <c r="S32" s="51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T32" s="51">
         <v>10</v>
@@ -7714,7 +7742,7 @@
       </c>
       <c r="AD32" s="64"/>
       <c r="AE32" s="17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AF32" s="18" t="str" cm="1">
         <f t="array" ref="AF32:AG32">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE32,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -7730,7 +7758,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
@@ -7740,13 +7768,13 @@
         <v>3</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -7759,19 +7787,19 @@
         <v>2911|2024|2023</v>
       </c>
       <c r="M33" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N33" s="51">
         <v>3</v>
       </c>
       <c r="O33" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P33" s="51">
         <v>7</v>
       </c>
       <c r="Q33" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R33" s="51">
         <v>10</v>
@@ -7826,7 +7854,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
@@ -7836,13 +7864,13 @@
         <v>3</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
@@ -7855,19 +7883,19 @@
         <v>2025|2028|2029</v>
       </c>
       <c r="M34" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N34" s="51">
         <v>5</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P34" s="51">
         <v>5</v>
       </c>
       <c r="Q34" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R34" s="51">
         <v>5</v>
@@ -7909,7 +7937,7 @@
       </c>
       <c r="AD34" s="64"/>
       <c r="AE34" s="17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF34" s="18" t="str" cm="1">
         <f t="array" ref="AF34:AG34">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE34,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -7924,7 +7952,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
@@ -7934,13 +7962,13 @@
         <v>3</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -7953,19 +7981,19 @@
         <v>3203|2033|2032</v>
       </c>
       <c r="M35" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N35" s="51">
         <v>5</v>
       </c>
       <c r="O35" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P35" s="51">
         <v>5</v>
       </c>
       <c r="Q35" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="R35" s="51">
         <v>20</v>
@@ -8007,7 +8035,7 @@
       </c>
       <c r="AD35" s="64"/>
       <c r="AE35" s="17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AF35" s="18" t="str" cm="1">
         <f t="array" ref="AF35:AG35">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE35,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -8022,7 +8050,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C36" s="11">
         <v>1</v>
@@ -8032,16 +8060,16 @@
         <v>4</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="51">
@@ -8053,25 +8081,25 @@
         <v>2913|2545|2026|2538</v>
       </c>
       <c r="M36" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N36" s="51">
         <v>5</v>
       </c>
       <c r="O36" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P36" s="51">
         <v>5</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R36" s="51">
         <v>5</v>
       </c>
       <c r="S36" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T36" s="51">
         <v>5</v>
@@ -8113,7 +8141,7 @@
       </c>
       <c r="AD36" s="64"/>
       <c r="AE36" s="17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AF36" s="18" t="str" cm="1">
         <f t="array" ref="AF36:AG36">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE36,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -8128,7 +8156,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
@@ -8138,13 +8166,13 @@
         <v>3</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="H37" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -8157,19 +8185,19 @@
         <v>2540|2538|2026</v>
       </c>
       <c r="M37" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N37" s="51">
         <v>12</v>
       </c>
       <c r="O37" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P37" s="51">
         <v>500</v>
       </c>
       <c r="Q37" s="51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R37" s="51">
         <v>20</v>
@@ -8224,7 +8252,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C38" s="11">
         <v>1</v>
@@ -8234,19 +8262,19 @@
         <v>5</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K38" s="51">
         <f t="shared" si="2"/>
@@ -8257,31 +8285,31 @@
         <v>2031|2534|2533|2030|2027</v>
       </c>
       <c r="M38" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N38" s="51">
         <v>5</v>
       </c>
       <c r="O38" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P38" s="51">
         <v>10</v>
       </c>
       <c r="Q38" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R38" s="51">
         <v>10</v>
       </c>
       <c r="S38" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="T38" s="51">
         <v>200</v>
       </c>
       <c r="U38" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V38" s="51">
         <v>10</v>
@@ -8323,7 +8351,7 @@
       </c>
       <c r="AD38" s="64"/>
       <c r="AE38" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF38" s="18" t="str" cm="1">
         <f t="array" ref="AF38:AG38">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE38,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -8338,7 +8366,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
@@ -8348,19 +8376,19 @@
         <v>5</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K39" s="51">
         <f t="shared" si="2"/>
@@ -8371,31 +8399,31 @@
         <v>2537|2536|2539|2543|2542</v>
       </c>
       <c r="M39" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N39" s="51">
         <v>5</v>
       </c>
       <c r="O39" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P39" s="51">
         <v>10</v>
       </c>
       <c r="Q39" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R39" s="51">
         <v>10</v>
       </c>
       <c r="S39" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="T39" s="51">
         <v>200</v>
       </c>
       <c r="U39" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V39" s="51">
         <v>10</v>
@@ -8437,7 +8465,7 @@
       </c>
       <c r="AD39" s="64"/>
       <c r="AE39" s="17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AF39" s="18" t="str" cm="1">
         <f t="array" ref="AF39:AG39">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE39,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -8452,7 +8480,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
@@ -8462,16 +8490,16 @@
         <v>4</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="51">
@@ -8483,25 +8511,25 @@
         <v>3203|2912|2913|2911</v>
       </c>
       <c r="M40" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N40" s="51">
         <v>5</v>
       </c>
       <c r="O40" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P40" s="51">
         <v>25</v>
       </c>
       <c r="Q40" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="R40" s="51">
         <v>10</v>
       </c>
       <c r="S40" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T40" s="51">
         <v>25</v>
@@ -8543,7 +8571,7 @@
       </c>
       <c r="AD40" s="64"/>
       <c r="AE40" s="17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AF40" s="18" t="str" cm="1">
         <f t="array" ref="AF40:AH40">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE40,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -8561,7 +8589,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C41" s="11">
         <v>1</v>
@@ -8571,10 +8599,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -8588,13 +8616,13 @@
         <v>2537|2536</v>
       </c>
       <c r="M41" s="51" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N41" s="51">
         <v>3</v>
       </c>
       <c r="O41" s="51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P41" s="51">
         <v>5</v>
@@ -8649,7 +8677,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C42" s="11">
         <v>1</v>
@@ -8659,10 +8687,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -8676,13 +8704,13 @@
         <v>2535|2539</v>
       </c>
       <c r="M42" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N42" s="51">
         <v>300</v>
       </c>
       <c r="O42" s="51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P42" s="51">
         <v>5</v>
@@ -8737,7 +8765,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C43" s="11">
         <v>1</v>
@@ -8747,10 +8775,10 @@
         <v>2</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -8764,13 +8792,13 @@
         <v>2022|2532</v>
       </c>
       <c r="M43" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N43" s="51">
         <v>5</v>
       </c>
       <c r="O43" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P43" s="51">
         <v>5</v>
@@ -8826,7 +8854,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
@@ -8836,10 +8864,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -8853,13 +8881,13 @@
         <v>2034|2035</v>
       </c>
       <c r="M44" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N44" s="51">
         <v>200</v>
       </c>
       <c r="O44" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P44" s="51">
         <v>5</v>
@@ -8914,7 +8942,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
@@ -8924,19 +8952,19 @@
         <v>5</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K45" s="51">
         <f t="shared" si="2"/>
@@ -8947,31 +8975,31 @@
         <v>2041|2037|2547|2038|2042</v>
       </c>
       <c r="M45" s="51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N45" s="51">
         <v>5</v>
       </c>
       <c r="O45" s="51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P45" s="51">
         <v>5</v>
       </c>
       <c r="Q45" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R45" s="51">
         <v>5</v>
       </c>
       <c r="S45" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T45" s="51">
         <v>5</v>
       </c>
       <c r="U45" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="V45" s="51">
         <v>10</v>
@@ -9013,7 +9041,7 @@
       </c>
       <c r="AD45" s="64"/>
       <c r="AE45" s="17" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF45" s="18" t="str" cm="1">
         <f t="array" ref="AF45:AG45">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE45,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -9028,7 +9056,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
@@ -9038,19 +9066,19 @@
         <v>5</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K46" s="51">
         <f t="shared" si="2"/>
@@ -9061,31 +9089,31 @@
         <v>2039|2546|2558|2548|2035</v>
       </c>
       <c r="M46" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N46" s="51">
         <v>5</v>
       </c>
       <c r="O46" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P46" s="51">
         <v>5</v>
       </c>
       <c r="Q46" s="51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="R46" s="51">
         <v>5</v>
       </c>
       <c r="S46" s="51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="T46" s="51">
         <v>5</v>
       </c>
       <c r="U46" s="51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V46" s="51">
         <v>20</v>
@@ -9127,7 +9155,7 @@
       </c>
       <c r="AD46" s="64"/>
       <c r="AE46" s="17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AF46" s="18" t="str" cm="1">
         <f t="array" ref="AF46:AG46">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE46,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -9143,7 +9171,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
@@ -9153,10 +9181,10 @@
         <v>2</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -9170,13 +9198,13 @@
         <v>2556|2916</v>
       </c>
       <c r="M47" s="51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N47" s="51">
         <v>15</v>
       </c>
       <c r="O47" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P47" s="51">
         <v>500</v>
@@ -9218,7 +9246,7 @@
       </c>
       <c r="AD47" s="64"/>
       <c r="AE47" s="17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AF47" s="18" t="str" cm="1">
         <f t="array" ref="AF47:AG47">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE47,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -9233,7 +9261,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C48" s="11">
         <v>1</v>
@@ -9243,13 +9271,13 @@
         <v>3</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>221</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
@@ -9262,19 +9290,19 @@
         <v>3204|2917|2916</v>
       </c>
       <c r="M48" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N48" s="51">
         <v>20</v>
       </c>
       <c r="O48" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P48" s="51">
         <v>10</v>
       </c>
       <c r="Q48" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R48" s="51">
         <v>10</v>
@@ -9316,7 +9344,7 @@
       </c>
       <c r="AD48" s="64"/>
       <c r="AE48" s="17" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF48" s="18" t="str" cm="1">
         <f t="array" ref="AF48:AG48">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE48,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -9331,7 +9359,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
@@ -9341,16 +9369,16 @@
         <v>4</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="51">
@@ -9362,25 +9390,25 @@
         <v>2550|2044|2552|2045</v>
       </c>
       <c r="M49" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N49" s="51">
         <v>10</v>
       </c>
       <c r="O49" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P49" s="51">
         <v>5</v>
       </c>
       <c r="Q49" s="51" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R49" s="51">
         <v>20</v>
       </c>
       <c r="S49" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T49" s="51">
         <v>10</v>
@@ -9422,7 +9450,7 @@
       </c>
       <c r="AD49" s="64"/>
       <c r="AE49" s="9" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AF49" s="18" t="str" cm="1">
         <f t="array" ref="AF49:AG49">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE49,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -9437,7 +9465,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
@@ -9447,16 +9475,16 @@
         <v>4</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="51">
@@ -9468,25 +9496,25 @@
         <v>2553|2554|2557|2555</v>
       </c>
       <c r="M50" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N50" s="51">
         <v>30</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P50" s="51">
         <v>5</v>
       </c>
       <c r="Q50" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R50" s="51">
         <v>10</v>
       </c>
       <c r="S50" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T50" s="51">
         <v>25</v>
@@ -9528,7 +9556,7 @@
       </c>
       <c r="AD50" s="64"/>
       <c r="AE50" s="17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AF50" s="18" t="str" cm="1">
         <f t="array" ref="AF50:AG50">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE50,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -9543,7 +9571,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
@@ -9553,10 +9581,10 @@
         <v>2</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -9570,13 +9598,13 @@
         <v>2555|2914</v>
       </c>
       <c r="M51" s="51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N51" s="51">
         <v>500</v>
       </c>
       <c r="O51" s="51" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P51" s="51">
         <v>5</v>
@@ -9631,7 +9659,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
@@ -9641,13 +9669,13 @@
         <v>3</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -9660,19 +9688,19 @@
         <v>2559|2556|2916</v>
       </c>
       <c r="M52" s="51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N52" s="51">
         <v>30</v>
       </c>
       <c r="O52" s="51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P52" s="51">
         <v>10</v>
       </c>
       <c r="Q52" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R52" s="51">
         <v>10</v>
@@ -9727,7 +9755,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
@@ -9737,10 +9765,10 @@
         <v>2</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -9754,13 +9782,13 @@
         <v>2519|2551</v>
       </c>
       <c r="M53" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N53" s="51">
         <v>5</v>
       </c>
       <c r="O53" s="51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P53" s="51">
         <v>5</v>
@@ -9815,7 +9843,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C54" s="11">
         <v>1</v>
@@ -9825,10 +9853,10 @@
         <v>2</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -9842,13 +9870,13 @@
         <v>2917|2915</v>
       </c>
       <c r="M54" s="51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N54" s="51">
         <v>10</v>
       </c>
       <c r="O54" s="51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P54" s="51">
         <v>5</v>
@@ -9890,7 +9918,7 @@
       </c>
       <c r="AD54" s="64"/>
       <c r="AE54" s="17" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AF54" s="18" t="str" cm="1">
         <f t="array" ref="AF54:AG54">VLOOKUP(VALUE(_xlfn.TEXTSPLIT(AE54,"|")),pictuer_fetter_ability!A:B,2,TRUE)</f>
@@ -10511,15 +10539,15 @@
   <sheetPr/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.3416666666667" style="31" customWidth="1"/>
     <col min="2" max="3" width="12.0083333333333" style="31" customWidth="1"/>
-    <col min="4" max="4" width="20.675" style="32" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="32" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="31" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="31" customWidth="1"/>
     <col min="7" max="7" width="20.175" style="31" customWidth="1"/>
@@ -10533,56 +10561,58 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:10">
       <c r="A1" s="33" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:8">
       <c r="A2" s="28" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>264</v>
+      </c>
       <c r="E2" s="29" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:10">
@@ -10594,16 +10624,16 @@
         <v>2001</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" s="39">
         <v>1</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="40">
@@ -10624,16 +10654,16 @@
         <v>2002</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="41">
@@ -10644,10 +10674,10 @@
         <v>2002</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
@@ -10659,16 +10689,16 @@
         <v>2003</v>
       </c>
       <c r="C5" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>269</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>264</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="42">
@@ -10688,16 +10718,16 @@
         <v>2004</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="29">
         <v>1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="42">
@@ -10726,16 +10756,16 @@
         <v>2005</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E7" s="29">
         <v>1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="42">
@@ -10764,16 +10794,16 @@
         <v>2006</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E8" s="29">
         <v>1</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="42">
@@ -10802,16 +10832,16 @@
         <v>2007</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E9" s="29">
         <v>1</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="42">
@@ -10840,16 +10870,16 @@
         <v>2008</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E10" s="29">
         <v>1</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="42">
@@ -10869,16 +10899,16 @@
         <v>2009</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E11" s="29">
         <v>1</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="42">
@@ -10898,16 +10928,16 @@
         <v>2010</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E12" s="29">
         <v>1</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="42">
@@ -10927,16 +10957,16 @@
         <v>2011</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E13" s="29">
         <v>1</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="42">
@@ -10956,16 +10986,16 @@
         <v>2012</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E14" s="29">
         <v>1</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="42">
@@ -10985,16 +11015,16 @@
         <v>2013</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E15" s="29">
         <v>1</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="42">
@@ -11014,16 +11044,16 @@
         <v>2014</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E16" s="29">
         <v>1</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="42">
@@ -11043,16 +11073,16 @@
         <v>2015</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E17" s="29">
         <v>1</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="42">
@@ -11072,16 +11102,16 @@
         <v>2016</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E18" s="29">
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="42">
@@ -11101,16 +11131,16 @@
         <v>2017</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E19" s="29">
         <v>1</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="42">
@@ -11130,16 +11160,16 @@
         <v>2018</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="42">
@@ -11159,16 +11189,16 @@
         <v>2019</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="42">
@@ -11188,16 +11218,16 @@
         <v>2020</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22" s="29">
         <v>1</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="42">
@@ -11217,16 +11247,16 @@
         <v>2021</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E23" s="29">
         <v>1</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="42">
@@ -11246,16 +11276,16 @@
         <v>2022</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" s="29">
         <v>1</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="42">
@@ -11275,16 +11305,16 @@
         <v>2023</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E25" s="29">
         <v>1</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="42">
@@ -11304,16 +11334,16 @@
         <v>2024</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E26" s="29">
         <v>1</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G26" s="29"/>
       <c r="H26" s="42">
@@ -11333,16 +11363,16 @@
         <v>2025</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E27" s="29">
         <v>1</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="42">
@@ -11362,16 +11392,16 @@
         <v>2026</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E28" s="29">
         <v>1</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="42">
@@ -11391,16 +11421,16 @@
         <v>2027</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E29" s="29">
         <v>1</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="42">
@@ -11420,16 +11450,16 @@
         <v>2028</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E30" s="29">
         <v>1</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="42">
@@ -11449,16 +11479,16 @@
         <v>2029</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E31" s="29">
         <v>1</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="42">
@@ -11478,16 +11508,16 @@
         <v>2030</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E32" s="29">
         <v>1</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="42">
@@ -11507,16 +11537,16 @@
         <v>2031</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E33" s="29">
         <v>1</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="42">
@@ -11536,16 +11566,16 @@
         <v>2032</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E34" s="29">
         <v>1</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="42">
@@ -11565,16 +11595,16 @@
         <v>2033</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="42">
@@ -11594,16 +11624,16 @@
         <v>2034</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E36" s="29">
         <v>1</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="42">
@@ -11623,16 +11653,16 @@
         <v>2035</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E37" s="29">
         <v>1</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="42">
@@ -11652,16 +11682,16 @@
         <v>2036</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E38" s="29">
         <v>1</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="42">
@@ -11681,16 +11711,16 @@
         <v>2037</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E39" s="29">
         <v>1</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="42">
@@ -11710,16 +11740,16 @@
         <v>2038</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E40" s="29">
         <v>1</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="42">
@@ -11739,16 +11769,16 @@
         <v>2039</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E41" s="29">
         <v>1</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="42">
@@ -11768,16 +11798,16 @@
         <v>2040</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E42" s="29">
         <v>1</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="42">
@@ -11797,16 +11827,16 @@
         <v>2041</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E43" s="29">
         <v>1</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="42">
@@ -11826,16 +11856,16 @@
         <v>2042</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="42">
@@ -11855,16 +11885,16 @@
         <v>2043</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E45" s="29">
         <v>1</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G45" s="29"/>
       <c r="H45" s="42">
@@ -11884,16 +11914,16 @@
         <v>2044</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G46" s="29"/>
       <c r="H46" s="42">
@@ -11913,16 +11943,16 @@
         <v>2045</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E47" s="29">
         <v>1</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G47" s="29"/>
       <c r="H47" s="42">
@@ -11942,16 +11972,16 @@
         <v>2501</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E48" s="29">
         <v>1</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="42">
@@ -11971,16 +12001,16 @@
         <v>2502</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E49" s="29">
         <v>1</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="42">
@@ -12000,16 +12030,16 @@
         <v>2503</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E50" s="29">
         <v>1</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="42">
@@ -12029,16 +12059,16 @@
         <v>2504</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E51" s="29">
         <v>1</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G51" s="29"/>
       <c r="H51" s="42">
@@ -12058,16 +12088,16 @@
         <v>2505</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E52" s="29">
         <v>1</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G52" s="29"/>
       <c r="H52" s="42">
@@ -12087,16 +12117,16 @@
         <v>2506</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E53" s="29">
         <v>1</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G53" s="29"/>
       <c r="H53" s="42">
@@ -12116,16 +12146,16 @@
         <v>2507</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E54" s="29">
         <v>1</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G54" s="29"/>
       <c r="H54" s="42">
@@ -12145,16 +12175,16 @@
         <v>2508</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E55" s="29">
         <v>1</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G55" s="29"/>
       <c r="H55" s="42">
@@ -12174,16 +12204,16 @@
         <v>2509</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E56" s="29">
         <v>1</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="42">
@@ -12203,16 +12233,16 @@
         <v>2510</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E57" s="29">
         <v>1</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G57" s="29"/>
       <c r="H57" s="42">
@@ -12232,16 +12262,16 @@
         <v>2511</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E58" s="29">
         <v>1</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="42">
@@ -12261,16 +12291,16 @@
         <v>2512</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E59" s="29">
         <v>1</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="42">
@@ -12290,16 +12320,16 @@
         <v>2513</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E60" s="29">
         <v>1</v>
       </c>
       <c r="F60" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G60" s="29"/>
       <c r="H60" s="42">
@@ -12319,16 +12349,16 @@
         <v>2514</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E61" s="29">
         <v>1</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G61" s="29"/>
       <c r="H61" s="42">
@@ -12348,16 +12378,16 @@
         <v>2515</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E62" s="29">
         <v>2</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G62" s="29"/>
       <c r="H62" s="42">
@@ -12377,16 +12407,16 @@
         <v>2516</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E63" s="29">
         <v>2</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G63" s="29"/>
       <c r="H63" s="42">
@@ -12406,16 +12436,16 @@
         <v>2517</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E64" s="29">
         <v>1</v>
       </c>
       <c r="F64" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G64" s="29"/>
       <c r="H64" s="42">
@@ -12435,16 +12465,16 @@
         <v>2518</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E65" s="29">
         <v>1</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G65" s="29"/>
       <c r="H65" s="42">
@@ -12464,16 +12494,16 @@
         <v>2519</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E66" s="29">
         <v>1</v>
       </c>
       <c r="F66" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G66" s="29"/>
       <c r="H66" s="42">
@@ -12493,16 +12523,16 @@
         <v>2520</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E67" s="29">
         <v>1</v>
       </c>
       <c r="F67" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G67" s="29"/>
       <c r="H67" s="42">
@@ -12522,16 +12552,16 @@
         <v>2521</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E68" s="29">
         <v>1</v>
       </c>
       <c r="F68" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G68" s="29"/>
       <c r="H68" s="42">
@@ -12551,16 +12581,16 @@
         <v>2522</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E69" s="29">
         <v>1</v>
       </c>
       <c r="F69" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G69" s="29"/>
       <c r="H69" s="42">
@@ -12580,16 +12610,16 @@
         <v>2523</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="E70" s="29">
         <v>1</v>
       </c>
       <c r="F70" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G70" s="29"/>
       <c r="H70" s="42">
@@ -12609,16 +12639,16 @@
         <v>2524</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E71" s="29">
         <v>1</v>
       </c>
       <c r="F71" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G71" s="29"/>
       <c r="H71" s="42">
@@ -12638,16 +12668,16 @@
         <v>2525</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
       </c>
       <c r="F72" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G72" s="29"/>
       <c r="H72" s="42">
@@ -12667,16 +12697,16 @@
         <v>2526</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E73" s="29">
         <v>1</v>
       </c>
       <c r="F73" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G73" s="29"/>
       <c r="H73" s="42">
@@ -12696,16 +12726,16 @@
         <v>2527</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E74" s="29">
         <v>1</v>
       </c>
       <c r="F74" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G74" s="29"/>
       <c r="H74" s="42">
@@ -12725,16 +12755,16 @@
         <v>2528</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E75" s="29">
         <v>1</v>
       </c>
       <c r="F75" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G75" s="29"/>
       <c r="H75" s="42">
@@ -12754,16 +12784,16 @@
         <v>2529</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E76" s="29">
         <v>1</v>
       </c>
       <c r="F76" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G76" s="29"/>
       <c r="H76" s="42">
@@ -12783,16 +12813,16 @@
         <v>2530</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E77" s="29">
         <v>1</v>
       </c>
       <c r="F77" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G77" s="29"/>
       <c r="H77" s="42">
@@ -12812,16 +12842,16 @@
         <v>2531</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E78" s="29">
         <v>1</v>
       </c>
       <c r="F78" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="42">
@@ -12841,16 +12871,16 @@
         <v>2532</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E79" s="29">
         <v>1</v>
       </c>
       <c r="F79" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G79" s="29"/>
       <c r="H79" s="42">
@@ -12870,16 +12900,16 @@
         <v>2533</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E80" s="29">
         <v>1</v>
       </c>
       <c r="F80" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G80" s="29"/>
       <c r="H80" s="42">
@@ -12899,16 +12929,16 @@
         <v>2534</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E81" s="29">
         <v>1</v>
       </c>
       <c r="F81" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G81" s="29"/>
       <c r="H81" s="42">
@@ -12928,16 +12958,16 @@
         <v>2535</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E82" s="29">
         <v>1</v>
       </c>
       <c r="F82" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G82" s="29"/>
       <c r="H82" s="42">
@@ -12957,16 +12987,16 @@
         <v>2536</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E83" s="29">
         <v>1</v>
       </c>
       <c r="F83" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G83" s="29"/>
       <c r="H83" s="42">
@@ -12986,16 +13016,16 @@
         <v>2537</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E84" s="29">
         <v>1</v>
       </c>
       <c r="F84" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G84" s="29"/>
       <c r="H84" s="42">
@@ -13015,16 +13045,16 @@
         <v>2538</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E85" s="29">
         <v>1</v>
       </c>
       <c r="F85" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G85" s="29"/>
       <c r="H85" s="42">
@@ -13044,16 +13074,16 @@
         <v>2539</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E86" s="29">
         <v>1</v>
       </c>
       <c r="F86" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G86" s="29"/>
       <c r="H86" s="42">
@@ -13073,16 +13103,16 @@
         <v>2540</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E87" s="29">
         <v>1</v>
       </c>
       <c r="F87" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G87" s="29"/>
       <c r="H87" s="42">
@@ -13102,16 +13132,16 @@
         <v>2541</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E88" s="29">
         <v>1</v>
       </c>
       <c r="F88" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G88" s="29"/>
       <c r="H88" s="42">
@@ -13131,16 +13161,16 @@
         <v>2542</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E89" s="29">
         <v>1</v>
       </c>
       <c r="F89" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G89" s="29"/>
       <c r="H89" s="42">
@@ -13160,16 +13190,16 @@
         <v>2543</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E90" s="29">
         <v>1</v>
       </c>
       <c r="F90" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="42">
@@ -13189,16 +13219,16 @@
         <v>2544</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E91" s="29">
         <v>1</v>
       </c>
       <c r="F91" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G91" s="29"/>
       <c r="H91" s="42">
@@ -13218,16 +13248,16 @@
         <v>2545</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E92" s="29">
         <v>1</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="42">
@@ -13247,16 +13277,16 @@
         <v>2546</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E93" s="29">
         <v>2</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G93" s="29"/>
       <c r="H93" s="42">
@@ -13276,16 +13306,16 @@
         <v>2547</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E94" s="29">
         <v>2</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G94" s="29"/>
       <c r="H94" s="42">
@@ -13305,16 +13335,16 @@
         <v>2548</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E95" s="29">
         <v>1</v>
       </c>
       <c r="F95" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G95" s="29"/>
       <c r="H95" s="42">
@@ -13334,16 +13364,16 @@
         <v>2549</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E96" s="29">
         <v>1</v>
       </c>
       <c r="F96" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G96" s="29"/>
       <c r="H96" s="42">
@@ -13363,16 +13393,16 @@
         <v>2550</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E97" s="29">
         <v>1</v>
       </c>
       <c r="F97" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G97" s="29"/>
       <c r="H97" s="42">
@@ -13392,16 +13422,16 @@
         <v>2551</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E98" s="29">
         <v>1</v>
       </c>
       <c r="F98" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G98" s="29"/>
       <c r="H98" s="42">
@@ -13421,16 +13451,16 @@
         <v>2552</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E99" s="29">
         <v>1</v>
       </c>
       <c r="F99" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G99" s="29"/>
       <c r="H99" s="42">
@@ -13450,16 +13480,16 @@
         <v>2553</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E100" s="29">
         <v>1</v>
       </c>
       <c r="F100" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G100" s="29"/>
       <c r="H100" s="42">
@@ -13479,16 +13509,16 @@
         <v>2554</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E101" s="29">
         <v>1</v>
       </c>
       <c r="F101" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G101" s="29"/>
       <c r="H101" s="42">
@@ -13508,16 +13538,16 @@
         <v>2555</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E102" s="29">
         <v>1</v>
       </c>
       <c r="F102" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G102" s="29"/>
       <c r="H102" s="42">
@@ -13537,16 +13567,16 @@
         <v>2556</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E103" s="29">
         <v>1</v>
       </c>
       <c r="F103" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G103" s="29"/>
       <c r="H103" s="42">
@@ -13566,16 +13596,16 @@
         <v>2557</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E104" s="29">
         <v>1</v>
       </c>
       <c r="F104" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G104" s="29"/>
       <c r="H104" s="42">
@@ -13595,16 +13625,16 @@
         <v>2558</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E105" s="29">
         <v>1</v>
       </c>
       <c r="F105" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G105" s="29"/>
       <c r="H105" s="42">
@@ -13624,16 +13654,16 @@
         <v>2559</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E106" s="29">
         <v>1</v>
       </c>
       <c r="F106" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G106" s="29"/>
       <c r="H106" s="42">
@@ -13653,16 +13683,16 @@
         <v>2901</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E107" s="29">
         <v>2</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G107" s="29"/>
       <c r="H107" s="42">
@@ -13682,16 +13712,16 @@
         <v>2902</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E108" s="29">
         <v>1</v>
       </c>
       <c r="F108" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G108" s="29"/>
       <c r="H108" s="42">
@@ -13711,16 +13741,16 @@
         <v>2903</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E109" s="29">
         <v>1</v>
       </c>
       <c r="F109" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G109" s="29"/>
       <c r="H109" s="42">
@@ -13740,16 +13770,16 @@
         <v>2904</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E110" s="29">
         <v>2</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="G110" s="29"/>
       <c r="H110" s="42">
@@ -13769,16 +13799,16 @@
         <v>2905</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E111" s="29">
         <v>1</v>
       </c>
       <c r="F111" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G111" s="29"/>
       <c r="H111" s="42">
@@ -13798,16 +13828,16 @@
         <v>2906</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E112" s="29">
         <v>2</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G112" s="29"/>
       <c r="H112" s="42">
@@ -13827,16 +13857,16 @@
         <v>2907</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E113" s="29">
         <v>1</v>
       </c>
       <c r="F113" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G113" s="29"/>
       <c r="H113" s="42">
@@ -13856,16 +13886,16 @@
         <v>2908</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E114" s="29">
         <v>2</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G114" s="29"/>
       <c r="H114" s="42">
@@ -13885,16 +13915,16 @@
         <v>2909</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E115" s="29">
         <v>1</v>
       </c>
       <c r="F115" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G115" s="29"/>
       <c r="H115" s="42">
@@ -13914,16 +13944,16 @@
         <v>2910</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E116" s="29">
         <v>1</v>
       </c>
       <c r="F116" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G116" s="29"/>
       <c r="H116" s="42">
@@ -13943,16 +13973,16 @@
         <v>2911</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E117" s="29">
         <v>1</v>
       </c>
       <c r="F117" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G117" s="29"/>
       <c r="H117" s="42">
@@ -13972,16 +14002,16 @@
         <v>2912</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E118" s="29">
         <v>2</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G118" s="29"/>
       <c r="H118" s="42">
@@ -14001,16 +14031,16 @@
         <v>2913</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E119" s="29">
         <v>2</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G119" s="29"/>
       <c r="H119" s="42">
@@ -14030,16 +14060,16 @@
         <v>2914</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E120" s="29">
         <v>1</v>
       </c>
       <c r="F120" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G120" s="29"/>
       <c r="H120" s="42">
@@ -14059,16 +14089,16 @@
         <v>2915</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E121" s="29">
         <v>1</v>
       </c>
       <c r="F121" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G121" s="29"/>
       <c r="H121" s="42">
@@ -14088,16 +14118,16 @@
         <v>2916</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D122" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E122" s="29">
         <v>1</v>
       </c>
       <c r="F122" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G122" s="29"/>
       <c r="H122" s="42">
@@ -14117,16 +14147,16 @@
         <v>2917</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E123" s="29">
         <v>2</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G123" s="29"/>
       <c r="H123" s="42">
@@ -14146,16 +14176,16 @@
         <v>2918</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E124" s="29">
         <v>1</v>
       </c>
       <c r="F124" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G124" s="29"/>
       <c r="H124" s="42">
@@ -14175,16 +14205,16 @@
         <v>2919</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E125" s="29">
         <v>1</v>
       </c>
       <c r="F125" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G125" s="29"/>
       <c r="H125" s="42">
@@ -14204,16 +14234,16 @@
         <v>2920</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E126" s="29">
         <v>1</v>
       </c>
       <c r="F126" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G126" s="29"/>
       <c r="H126" s="42">
@@ -14233,16 +14263,16 @@
         <v>2921</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E127" s="29">
         <v>1</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G127" s="29"/>
       <c r="H127" s="42">
@@ -14262,16 +14292,16 @@
         <v>3201</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E128" s="29">
         <v>2</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="G128" s="29"/>
       <c r="H128" s="42">
@@ -14291,16 +14321,16 @@
         <v>3202</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D129" s="29" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E129" s="29">
         <v>2</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G129" s="29"/>
       <c r="H129" s="42">
@@ -14320,16 +14350,16 @@
         <v>3203</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D130" s="29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E130" s="29">
         <v>2</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G130" s="29"/>
       <c r="H130" s="42">
@@ -14349,16 +14379,16 @@
         <v>3204</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E131" s="29">
         <v>2</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G131" s="29"/>
       <c r="H131" s="42">
@@ -14378,16 +14408,16 @@
         <v>3205</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E132" s="29">
         <v>2</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G132" s="29"/>
       <c r="H132" s="42">
@@ -16473,21 +16503,21 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:4">
       <c r="A2" s="26" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -16498,13 +16528,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:4">
@@ -16512,13 +16542,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:4">
@@ -16526,13 +16556,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:4">
@@ -16540,13 +16570,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:4">
@@ -16554,13 +16584,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:4">
@@ -16568,13 +16598,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:4">
@@ -16582,13 +16612,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:4">
@@ -16596,13 +16626,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:4">
@@ -16610,13 +16640,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:4">
@@ -16624,13 +16654,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:4">
@@ -16638,13 +16668,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:4">
@@ -16652,13 +16682,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:4">
@@ -16666,13 +16696,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:4">
@@ -16680,13 +16710,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:4">
@@ -16694,13 +16724,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:4">
@@ -16708,13 +16738,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:4">
@@ -16722,13 +16752,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:4">
@@ -16736,13 +16766,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:4">
@@ -16750,13 +16780,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:4">
@@ -16764,13 +16794,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16778,13 +16808,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16792,13 +16822,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16806,13 +16836,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16820,13 +16850,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" ht="51.5" customHeight="1" spans="1:4">
@@ -16834,13 +16864,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:4">
@@ -16848,13 +16878,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:4">
@@ -16862,13 +16892,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:4">
@@ -16876,13 +16906,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -16916,27 +16946,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K1" s="1" t="e">
         <f>VLOOKUP("攻击力+5",pictuer_fetter_attr!B:G,7,FALSE)</f>
@@ -16945,17 +16975,17 @@
     </row>
     <row r="2" ht="30.5" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -16964,7 +16994,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>468</v>
+        <v>27</v>
       </c>
       <c r="I2" s="13"/>
     </row>
@@ -16973,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
@@ -16986,7 +17016,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="14" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L3" s="15">
         <f>A3</f>
@@ -16998,7 +17028,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -17011,7 +17041,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="14" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" ref="L4:L35" si="0">A4</f>
@@ -17023,7 +17053,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -17036,7 +17066,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="14" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="0"/>
@@ -17048,7 +17078,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
@@ -17061,7 +17091,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="14" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="0"/>
@@ -17073,7 +17103,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C7" s="11">
         <v>2</v>
@@ -17086,7 +17116,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="14" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
@@ -17098,7 +17128,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
@@ -17111,7 +17141,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="14" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
@@ -17123,7 +17153,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C9" s="11">
         <v>3</v>
@@ -17136,7 +17166,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="14" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
@@ -17148,7 +17178,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C10" s="11">
         <v>3</v>
@@ -17161,7 +17191,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="14" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
@@ -17173,7 +17203,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C11" s="11">
         <v>3</v>
@@ -17186,7 +17216,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="14" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
@@ -17198,7 +17228,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C12" s="11">
         <v>4</v>
@@ -17211,7 +17241,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="14" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
@@ -17223,7 +17253,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C13" s="11">
         <v>4</v>
@@ -17236,7 +17266,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="14" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
@@ -17248,7 +17278,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C14" s="11">
         <v>4</v>
@@ -17261,7 +17291,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="14" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="0"/>
@@ -17273,7 +17303,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C15" s="11">
         <v>5</v>
@@ -17286,7 +17316,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="14" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="0"/>
@@ -17298,7 +17328,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C16" s="11">
         <v>5</v>
@@ -17311,7 +17341,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="14" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="0"/>
@@ -17323,7 +17353,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C17" s="11">
         <v>5</v>
@@ -17336,7 +17366,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="14" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="0"/>
@@ -17348,7 +17378,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C18" s="11">
         <v>6</v>
@@ -17361,7 +17391,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="14" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="0"/>
@@ -17373,7 +17403,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C19" s="11">
         <v>6</v>
@@ -17386,7 +17416,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="14" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="0"/>
@@ -17398,7 +17428,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C20" s="11">
         <v>6</v>
@@ -17411,7 +17441,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="14" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="0"/>
@@ -17423,7 +17453,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C21" s="11">
         <v>7</v>
@@ -17436,7 +17466,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="14" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="0"/>
@@ -17448,7 +17478,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C22" s="11">
         <v>7</v>
@@ -17461,7 +17491,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="14" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="0"/>
@@ -17473,7 +17503,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C23" s="11">
         <v>7</v>
@@ -17486,7 +17516,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="14" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="0"/>
@@ -17498,7 +17528,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C24" s="11">
         <v>8</v>
@@ -17511,7 +17541,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="14" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="0"/>
@@ -17523,7 +17553,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C25" s="11">
         <v>8</v>
@@ -17536,7 +17566,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="14" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="0"/>
@@ -17548,7 +17578,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C26" s="11">
         <v>8</v>
@@ -17561,7 +17591,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="14" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="0"/>
@@ -17573,7 +17603,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C27" s="11">
         <v>9</v>
@@ -17586,7 +17616,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="14" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="0"/>
@@ -17598,7 +17628,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C28" s="11">
         <v>9</v>
@@ -17611,7 +17641,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="14" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="0"/>
@@ -17623,7 +17653,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C29" s="11">
         <v>9</v>
@@ -17636,7 +17666,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="14" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="0"/>
@@ -17648,7 +17678,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C30" s="11">
         <v>10</v>
@@ -17661,7 +17691,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="14" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="0"/>
@@ -17673,7 +17703,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C31" s="11">
         <v>10</v>
@@ -17686,7 +17716,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="14" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="0"/>
@@ -17698,7 +17728,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C32" s="11">
         <v>10</v>
@@ -17711,7 +17741,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="14" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="0"/>
@@ -17723,7 +17753,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C33" s="11">
         <v>11</v>
@@ -17736,7 +17766,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="14" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="0"/>
@@ -17748,7 +17778,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C34" s="11">
         <v>11</v>
@@ -17761,7 +17791,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="14" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="0"/>
@@ -17773,7 +17803,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C35" s="11">
         <v>11</v>
@@ -17786,7 +17816,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="14" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="0"/>
@@ -17798,7 +17828,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C36" s="11">
         <v>12</v>
@@ -17811,7 +17841,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="14" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" ref="L36:L67" si="1">A36</f>
@@ -17823,7 +17853,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C37" s="11">
         <v>12</v>
@@ -17836,7 +17866,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="14" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="1"/>
@@ -17848,7 +17878,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C38" s="11">
         <v>12</v>
@@ -17861,7 +17891,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="14" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="1"/>
@@ -17873,7 +17903,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C39" s="11">
         <v>13</v>
@@ -17886,7 +17916,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
@@ -17898,7 +17928,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C40" s="11">
         <v>13</v>
@@ -17911,7 +17941,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="1"/>
@@ -17923,7 +17953,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C41" s="11">
         <v>13</v>
@@ -17936,7 +17966,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="1"/>
@@ -17948,7 +17978,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C42" s="11">
         <v>14</v>
@@ -17961,7 +17991,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="14" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="1"/>
@@ -17973,7 +18003,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C43" s="11">
         <v>14</v>
@@ -17986,7 +18016,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="14" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L43" s="16">
         <f t="shared" si="1"/>
@@ -17998,7 +18028,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C44" s="11">
         <v>14</v>
@@ -18011,7 +18041,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="14" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L44" s="16">
         <f t="shared" si="1"/>
@@ -18023,7 +18053,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C45" s="11">
         <v>15</v>
@@ -18036,7 +18066,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="14" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L45" s="16">
         <f t="shared" si="1"/>
@@ -18048,7 +18078,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C46" s="11">
         <v>15</v>
@@ -18061,7 +18091,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="14" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L46" s="16">
         <f t="shared" si="1"/>
@@ -18073,7 +18103,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C47" s="11">
         <v>15</v>
@@ -18086,7 +18116,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="14" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L47" s="16">
         <f t="shared" si="1"/>
@@ -18098,7 +18128,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C48" s="11">
         <v>16</v>
@@ -18111,7 +18141,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="14" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L48" s="16">
         <f t="shared" si="1"/>
@@ -18123,7 +18153,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C49" s="11">
         <v>16</v>
@@ -18136,7 +18166,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="14" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L49" s="16">
         <f t="shared" si="1"/>
@@ -18148,7 +18178,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C50" s="11">
         <v>16</v>
@@ -18161,7 +18191,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="14" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L50" s="16">
         <f t="shared" si="1"/>
@@ -18173,7 +18203,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C51" s="11">
         <v>17</v>
@@ -18186,7 +18216,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="14" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L51" s="16">
         <f t="shared" si="1"/>
@@ -18198,7 +18228,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C52" s="11">
         <v>17</v>
@@ -18211,7 +18241,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="14" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="1"/>
@@ -18223,7 +18253,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C53" s="11">
         <v>17</v>
@@ -18236,7 +18266,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="14" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L53" s="16">
         <f t="shared" si="1"/>
@@ -18248,7 +18278,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C54" s="11">
         <v>18</v>
@@ -18261,7 +18291,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="14" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L54" s="16">
         <f t="shared" si="1"/>
@@ -18273,7 +18303,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C55" s="11">
         <v>18</v>
@@ -18286,7 +18316,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="14" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="1"/>
@@ -18298,7 +18328,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C56" s="11">
         <v>18</v>
@@ -18311,7 +18341,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="14" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L56" s="16">
         <f t="shared" si="1"/>
@@ -18323,7 +18353,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C57" s="11">
         <v>19</v>
@@ -18336,7 +18366,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="14" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L57" s="16">
         <f t="shared" si="1"/>
@@ -18348,7 +18378,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C58" s="11">
         <v>19</v>
@@ -18371,7 +18401,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C59" s="11">
         <v>19</v>
@@ -18394,7 +18424,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C60" s="11">
         <v>20</v>
@@ -18407,7 +18437,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="1"/>
@@ -18419,7 +18449,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C61" s="11">
         <v>20</v>
@@ -18432,7 +18462,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L61" s="16">
         <f t="shared" si="1"/>
@@ -18444,7 +18474,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C62" s="11">
         <v>20</v>
@@ -18457,7 +18487,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="14" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L62" s="16">
         <f t="shared" si="1"/>
@@ -18469,7 +18499,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C63" s="11">
         <v>21</v>
@@ -18482,7 +18512,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L63" s="16">
         <f t="shared" si="1"/>
@@ -18494,7 +18524,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C64" s="11">
         <v>21</v>
@@ -18507,7 +18537,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L64" s="16">
         <f t="shared" si="1"/>
@@ -18519,7 +18549,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C65" s="11">
         <v>21</v>
@@ -18532,7 +18562,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L65" s="16">
         <f t="shared" si="1"/>
@@ -18544,7 +18574,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C66" s="11">
         <v>21</v>
@@ -18557,7 +18587,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="L66" s="16">
         <f t="shared" si="1"/>
@@ -18569,7 +18599,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C67" s="11">
         <v>22</v>
@@ -18592,7 +18622,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C68" s="11">
         <v>22</v>
@@ -18615,7 +18645,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C69" s="11">
         <v>22</v>
@@ -18628,7 +18658,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="14" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L69" s="16">
         <f t="shared" si="2"/>
@@ -18640,7 +18670,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C70" s="11">
         <v>23</v>
@@ -18653,7 +18683,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="14" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L70" s="16">
         <f t="shared" si="2"/>
@@ -18665,7 +18695,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C71" s="11">
         <v>23</v>
@@ -18678,7 +18708,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="14" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L71" s="16">
         <f t="shared" si="2"/>
@@ -18690,7 +18720,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C72" s="11">
         <v>23</v>
@@ -18703,7 +18733,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="14" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L72" s="16">
         <f t="shared" si="2"/>
@@ -18715,7 +18745,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C73" s="11">
         <v>24</v>
@@ -18728,7 +18758,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="14" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L73" s="16">
         <f t="shared" si="2"/>
@@ -18740,7 +18770,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C74" s="11">
         <v>24</v>
@@ -18763,7 +18793,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C75" s="11">
         <v>24</v>
@@ -18786,7 +18816,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C76" s="11">
         <v>25</v>
@@ -18799,7 +18829,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="14" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L76" s="16">
         <f t="shared" si="2"/>
@@ -18811,7 +18841,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C77" s="11">
         <v>25</v>
@@ -18834,7 +18864,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C78" s="11">
         <v>25</v>
@@ -18857,7 +18887,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C79" s="11">
         <v>26</v>
@@ -18870,7 +18900,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="14" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L79" s="16">
         <f t="shared" si="2"/>
@@ -18882,7 +18912,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C80" s="11">
         <v>26</v>
@@ -18905,7 +18935,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C81" s="19">
         <v>26</v>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="579">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -831,7 +831,7 @@
     <t>合成所需特殊卡片id</t>
   </si>
   <si>
-    <t>卡片图片</t>
+    <t>卡片路径</t>
   </si>
   <si>
     <t>稀有度</t>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>0|0</t>
+  </si>
+  <si>
+    <t>item_custom/card/default_icon</t>
   </si>
   <si>
     <t>a2</t>
@@ -4239,16 +4242,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{D18FD970-31E4-4B92-8239-DABC094B4A1E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A70EEA14-BFE9-4F6C-B5AB-0E0FDAADCCC8}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C1C7A578-9612-4DEC-BF92-CA751E63F8E8}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F63C13A0-50D8-4409-A922-8803C31A4168}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{CD0DE840-5C2C-441D-84A9-DDF3FA07A34A}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C4125EF2-71CB-4ED8-ACF6-52542A5D7403}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -4257,7 +4260,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E2C647E9-615F-4DCD-ABC1-26EE96377034}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C8029AC2-D296-4C6B-AFA4-0E4B6F958FA6}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -4269,7 +4272,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{E8606899-B279-4005-930D-C0E56585C740}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{47A4CB46-B8A3-4AC3-98F6-36F00B86CC59}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4587,10 +4590,10 @@
   <sheetPr/>
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10539,8 +10542,8 @@
   <sheetPr/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10550,7 +10553,7 @@
     <col min="4" max="4" width="28.125" style="32" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="31" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="20.175" style="31" customWidth="1"/>
+    <col min="7" max="7" width="28.125" style="32" customWidth="1"/>
     <col min="8" max="8" width="8.50833333333333" style="31" customWidth="1"/>
     <col min="9" max="9" width="25.25" style="31" customWidth="1"/>
     <col min="10" max="10" width="27.25" style="31" customWidth="1"/>
@@ -10635,7 +10638,9 @@
       <c r="F3" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H3" s="40">
         <v>2</v>
       </c>
@@ -10654,10 +10659,10 @@
         <v>2002</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E4" s="27">
         <v>1</v>
@@ -10665,7 +10670,9 @@
       <c r="F4" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H4" s="41">
         <v>2</v>
       </c>
@@ -10674,10 +10681,10 @@
         <v>2002</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
@@ -10689,7 +10696,7 @@
         <v>2003</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>91</v>
@@ -10700,7 +10707,9 @@
       <c r="F5" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H5" s="42">
         <v>2</v>
       </c>
@@ -10718,7 +10727,7 @@
         <v>2004</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>30</v>
@@ -10729,7 +10738,9 @@
       <c r="F6" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H6" s="42">
         <v>2</v>
       </c>
@@ -10756,7 +10767,7 @@
         <v>2005</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>99</v>
@@ -10767,7 +10778,9 @@
       <c r="F7" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H7" s="42">
         <v>2</v>
       </c>
@@ -10794,7 +10807,7 @@
         <v>2006</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>101</v>
@@ -10805,7 +10818,9 @@
       <c r="F8" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H8" s="42">
         <v>2</v>
       </c>
@@ -10832,10 +10847,10 @@
         <v>2007</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E9" s="29">
         <v>1</v>
@@ -10843,7 +10858,9 @@
       <c r="F9" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H9" s="42">
         <v>2</v>
       </c>
@@ -10870,7 +10887,7 @@
         <v>2008</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>95</v>
@@ -10881,7 +10898,9 @@
       <c r="F10" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H10" s="42">
         <v>2</v>
       </c>
@@ -10899,7 +10918,7 @@
         <v>2009</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>106</v>
@@ -10910,7 +10929,9 @@
       <c r="F11" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H11" s="42">
         <v>2</v>
       </c>
@@ -10928,7 +10949,7 @@
         <v>2010</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>121</v>
@@ -10939,7 +10960,9 @@
       <c r="F12" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H12" s="42">
         <v>2</v>
       </c>
@@ -10957,7 +10980,7 @@
         <v>2011</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>134</v>
@@ -10968,7 +10991,9 @@
       <c r="F13" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H13" s="42">
         <v>2</v>
       </c>
@@ -10986,10 +11011,10 @@
         <v>2012</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E14" s="29">
         <v>1</v>
@@ -10997,7 +11022,9 @@
       <c r="F14" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H14" s="42">
         <v>2</v>
       </c>
@@ -11015,10 +11042,10 @@
         <v>2013</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E15" s="29">
         <v>1</v>
@@ -11026,7 +11053,9 @@
       <c r="F15" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H15" s="42">
         <v>2</v>
       </c>
@@ -11044,10 +11073,10 @@
         <v>2014</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E16" s="29">
         <v>1</v>
@@ -11055,7 +11084,9 @@
       <c r="F16" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H16" s="42">
         <v>2</v>
       </c>
@@ -11073,7 +11104,7 @@
         <v>2015</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>146</v>
@@ -11084,7 +11115,9 @@
       <c r="F17" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H17" s="42">
         <v>2</v>
       </c>
@@ -11102,7 +11135,7 @@
         <v>2016</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>137</v>
@@ -11113,7 +11146,9 @@
       <c r="F18" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H18" s="42">
         <v>2</v>
       </c>
@@ -11131,7 +11166,7 @@
         <v>2017</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>72</v>
@@ -11142,7 +11177,9 @@
       <c r="F19" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="G19" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H19" s="42">
         <v>2</v>
       </c>
@@ -11160,7 +11197,7 @@
         <v>2018</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>164</v>
@@ -11171,7 +11208,9 @@
       <c r="F20" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H20" s="42">
         <v>2</v>
       </c>
@@ -11189,7 +11228,7 @@
         <v>2019</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>52</v>
@@ -11200,7 +11239,9 @@
       <c r="F21" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H21" s="42">
         <v>2</v>
       </c>
@@ -11218,7 +11259,7 @@
         <v>2020</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>53</v>
@@ -11229,7 +11270,9 @@
       <c r="F22" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="G22" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H22" s="42">
         <v>2</v>
       </c>
@@ -11247,7 +11290,7 @@
         <v>2021</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>54</v>
@@ -11258,7 +11301,9 @@
       <c r="F23" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G23" s="29"/>
+      <c r="G23" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H23" s="42">
         <v>2</v>
       </c>
@@ -11276,7 +11321,7 @@
         <v>2022</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>31</v>
@@ -11287,7 +11332,9 @@
       <c r="F24" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="G24" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H24" s="42">
         <v>2</v>
       </c>
@@ -11305,7 +11352,7 @@
         <v>2023</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>171</v>
@@ -11316,7 +11363,9 @@
       <c r="F25" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="G25" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H25" s="42">
         <v>2</v>
       </c>
@@ -11334,7 +11383,7 @@
         <v>2024</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>166</v>
@@ -11345,7 +11394,9 @@
       <c r="F26" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="G26" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H26" s="42">
         <v>2</v>
       </c>
@@ -11363,7 +11414,7 @@
         <v>2025</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>173</v>
@@ -11374,7 +11425,9 @@
       <c r="F27" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H27" s="42">
         <v>2</v>
       </c>
@@ -11392,7 +11445,7 @@
         <v>2026</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>185</v>
@@ -11403,7 +11456,9 @@
       <c r="F28" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G28" s="29"/>
+      <c r="G28" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H28" s="42">
         <v>2</v>
       </c>
@@ -11421,7 +11476,7 @@
         <v>2027</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>61</v>
@@ -11432,7 +11487,9 @@
       <c r="F29" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="G29" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H29" s="42">
         <v>2</v>
       </c>
@@ -11450,7 +11507,7 @@
         <v>2028</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>174</v>
@@ -11461,7 +11518,9 @@
       <c r="F30" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H30" s="42">
         <v>2</v>
       </c>
@@ -11479,7 +11538,7 @@
         <v>2029</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>175</v>
@@ -11490,7 +11549,9 @@
       <c r="F31" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H31" s="42">
         <v>2</v>
       </c>
@@ -11508,7 +11569,7 @@
         <v>2030</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>191</v>
@@ -11519,7 +11580,9 @@
       <c r="F32" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H32" s="42">
         <v>2</v>
       </c>
@@ -11537,7 +11600,7 @@
         <v>2031</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>48</v>
@@ -11548,7 +11611,9 @@
       <c r="F33" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G33" s="29"/>
+      <c r="G33" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H33" s="42">
         <v>2</v>
       </c>
@@ -11566,7 +11631,7 @@
         <v>2032</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>180</v>
@@ -11577,7 +11642,9 @@
       <c r="F34" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H34" s="42">
         <v>2</v>
       </c>
@@ -11595,7 +11662,7 @@
         <v>2033</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>179</v>
@@ -11606,7 +11673,9 @@
       <c r="F35" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H35" s="42">
         <v>2</v>
       </c>
@@ -11624,7 +11693,7 @@
         <v>2034</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>32</v>
@@ -11635,7 +11704,9 @@
       <c r="F36" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H36" s="42">
         <v>2</v>
       </c>
@@ -11653,7 +11724,7 @@
         <v>2035</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>209</v>
@@ -11664,7 +11735,9 @@
       <c r="F37" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H37" s="42">
         <v>2</v>
       </c>
@@ -11682,7 +11755,7 @@
         <v>2036</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>65</v>
@@ -11693,7 +11766,9 @@
       <c r="F38" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G38" s="29"/>
+      <c r="G38" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H38" s="42">
         <v>2</v>
       </c>
@@ -11711,7 +11786,7 @@
         <v>2037</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>66</v>
@@ -11722,7 +11797,9 @@
       <c r="F39" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G39" s="29"/>
+      <c r="G39" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H39" s="42">
         <v>2</v>
       </c>
@@ -11740,7 +11817,7 @@
         <v>2038</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>213</v>
@@ -11751,7 +11828,9 @@
       <c r="F40" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G40" s="29"/>
+      <c r="G40" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H40" s="42">
         <v>2</v>
       </c>
@@ -11769,7 +11848,7 @@
         <v>2039</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>218</v>
@@ -11780,7 +11859,9 @@
       <c r="F41" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G41" s="29"/>
+      <c r="G41" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H41" s="42">
         <v>2</v>
       </c>
@@ -11798,7 +11879,7 @@
         <v>2040</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>73</v>
@@ -11809,7 +11890,9 @@
       <c r="F42" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G42" s="29"/>
+      <c r="G42" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H42" s="42">
         <v>2</v>
       </c>
@@ -11827,7 +11910,7 @@
         <v>2041</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>211</v>
@@ -11838,7 +11921,9 @@
       <c r="F43" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G43" s="29"/>
+      <c r="G43" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H43" s="42">
         <v>2</v>
       </c>
@@ -11856,7 +11941,7 @@
         <v>2042</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>214</v>
@@ -11867,7 +11952,9 @@
       <c r="F44" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G44" s="29"/>
+      <c r="G44" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H44" s="42">
         <v>2</v>
       </c>
@@ -11885,7 +11972,7 @@
         <v>2043</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>42</v>
@@ -11896,7 +11983,9 @@
       <c r="F45" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G45" s="29"/>
+      <c r="G45" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H45" s="42">
         <v>2</v>
       </c>
@@ -11914,7 +12003,7 @@
         <v>2044</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>232</v>
@@ -11925,7 +12014,9 @@
       <c r="F46" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G46" s="29"/>
+      <c r="G46" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H46" s="42">
         <v>2</v>
       </c>
@@ -11943,7 +12034,7 @@
         <v>2045</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>234</v>
@@ -11954,7 +12045,9 @@
       <c r="F47" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G47" s="29"/>
+      <c r="G47" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H47" s="42">
         <v>2</v>
       </c>
@@ -11972,7 +12065,7 @@
         <v>2501</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D48" s="29" t="s">
         <v>60</v>
@@ -11983,7 +12076,9 @@
       <c r="F48" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G48" s="29"/>
+      <c r="G48" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H48" s="42">
         <v>3</v>
       </c>
@@ -12001,7 +12096,7 @@
         <v>2502</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>100</v>
@@ -12012,7 +12107,9 @@
       <c r="F49" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G49" s="29"/>
+      <c r="G49" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H49" s="42">
         <v>3</v>
       </c>
@@ -12030,7 +12127,7 @@
         <v>2503</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>94</v>
@@ -12041,7 +12138,9 @@
       <c r="F50" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G50" s="29"/>
+      <c r="G50" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H50" s="42">
         <v>3</v>
       </c>
@@ -12059,7 +12158,7 @@
         <v>2504</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>102</v>
@@ -12070,7 +12169,9 @@
       <c r="F51" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G51" s="29"/>
+      <c r="G51" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H51" s="42">
         <v>3</v>
       </c>
@@ -12088,7 +12189,7 @@
         <v>2505</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>38</v>
@@ -12099,7 +12200,9 @@
       <c r="F52" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G52" s="29"/>
+      <c r="G52" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H52" s="42">
         <v>3</v>
       </c>
@@ -12117,7 +12220,7 @@
         <v>2506</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>92</v>
@@ -12128,7 +12231,9 @@
       <c r="F53" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G53" s="29"/>
+      <c r="G53" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H53" s="42">
         <v>3</v>
       </c>
@@ -12146,7 +12251,7 @@
         <v>2507</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D54" s="29" t="s">
         <v>112</v>
@@ -12157,7 +12262,9 @@
       <c r="F54" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G54" s="29"/>
+      <c r="G54" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H54" s="42">
         <v>3</v>
       </c>
@@ -12175,7 +12282,7 @@
         <v>2508</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>43</v>
@@ -12186,7 +12293,9 @@
       <c r="F55" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G55" s="29"/>
+      <c r="G55" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H55" s="42">
         <v>3</v>
       </c>
@@ -12204,7 +12313,7 @@
         <v>2509</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>114</v>
@@ -12215,7 +12324,9 @@
       <c r="F56" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G56" s="29"/>
+      <c r="G56" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H56" s="42">
         <v>3</v>
       </c>
@@ -12233,7 +12344,7 @@
         <v>2510</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D57" s="29" t="s">
         <v>113</v>
@@ -12244,7 +12355,9 @@
       <c r="F57" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G57" s="29"/>
+      <c r="G57" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H57" s="42">
         <v>3</v>
       </c>
@@ -12262,7 +12375,7 @@
         <v>2511</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>107</v>
@@ -12273,7 +12386,9 @@
       <c r="F58" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G58" s="29"/>
+      <c r="G58" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H58" s="42">
         <v>3</v>
       </c>
@@ -12291,7 +12406,7 @@
         <v>2512</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>118</v>
@@ -12302,7 +12417,9 @@
       <c r="F59" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G59" s="29"/>
+      <c r="G59" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H59" s="42">
         <v>3</v>
       </c>
@@ -12320,7 +12437,7 @@
         <v>2513</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>122</v>
@@ -12331,7 +12448,9 @@
       <c r="F60" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G60" s="29"/>
+      <c r="G60" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H60" s="42">
         <v>3</v>
       </c>
@@ -12349,7 +12468,7 @@
         <v>2514</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D61" s="29" t="s">
         <v>117</v>
@@ -12360,7 +12479,9 @@
       <c r="F61" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G61" s="29"/>
+      <c r="G61" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H61" s="42">
         <v>3</v>
       </c>
@@ -12378,7 +12499,7 @@
         <v>2515</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>108</v>
@@ -12387,9 +12508,11 @@
         <v>2</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="G62" s="29"/>
+        <v>337</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H62" s="42">
         <v>3</v>
       </c>
@@ -12407,7 +12530,7 @@
         <v>2516</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>136</v>
@@ -12416,9 +12539,11 @@
         <v>2</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="G63" s="29"/>
+        <v>339</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H63" s="42">
         <v>3</v>
       </c>
@@ -12436,7 +12561,7 @@
         <v>2517</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>44</v>
@@ -12447,7 +12572,9 @@
       <c r="F64" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G64" s="29"/>
+      <c r="G64" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H64" s="42">
         <v>3</v>
       </c>
@@ -12465,7 +12592,7 @@
         <v>2518</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>147</v>
@@ -12476,7 +12603,9 @@
       <c r="F65" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G65" s="29"/>
+      <c r="G65" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H65" s="42">
         <v>3</v>
       </c>
@@ -12494,7 +12623,7 @@
         <v>2519</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>247</v>
@@ -12505,7 +12634,9 @@
       <c r="F66" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G66" s="29"/>
+      <c r="G66" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H66" s="42">
         <v>3</v>
       </c>
@@ -12523,10 +12654,10 @@
         <v>2520</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E67" s="29">
         <v>1</v>
@@ -12534,7 +12665,9 @@
       <c r="F67" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G67" s="29"/>
+      <c r="G67" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H67" s="42">
         <v>3</v>
       </c>
@@ -12552,7 +12685,7 @@
         <v>2521</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>161</v>
@@ -12563,7 +12696,9 @@
       <c r="F68" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G68" s="29"/>
+      <c r="G68" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H68" s="42">
         <v>3</v>
       </c>
@@ -12581,7 +12716,7 @@
         <v>2522</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>167</v>
@@ -12592,7 +12727,9 @@
       <c r="F69" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G69" s="29"/>
+      <c r="G69" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H69" s="42">
         <v>3</v>
       </c>
@@ -12610,10 +12747,10 @@
         <v>2523</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E70" s="29">
         <v>1</v>
@@ -12621,7 +12758,9 @@
       <c r="F70" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G70" s="29"/>
+      <c r="G70" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H70" s="42">
         <v>3</v>
       </c>
@@ -12639,7 +12778,7 @@
         <v>2524</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D71" s="29" t="s">
         <v>159</v>
@@ -12650,7 +12789,9 @@
       <c r="F71" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G71" s="29"/>
+      <c r="G71" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H71" s="42">
         <v>3</v>
       </c>
@@ -12668,7 +12809,7 @@
         <v>2525</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>148</v>
@@ -12679,7 +12820,9 @@
       <c r="F72" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G72" s="29"/>
+      <c r="G72" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H72" s="42">
         <v>3</v>
       </c>
@@ -12697,7 +12840,7 @@
         <v>2526</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D73" s="29" t="s">
         <v>162</v>
@@ -12708,7 +12851,9 @@
       <c r="F73" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G73" s="29"/>
+      <c r="G73" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H73" s="42">
         <v>3</v>
       </c>
@@ -12726,10 +12871,10 @@
         <v>2527</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E74" s="29">
         <v>1</v>
@@ -12737,7 +12882,9 @@
       <c r="F74" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G74" s="29"/>
+      <c r="G74" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H74" s="42">
         <v>3</v>
       </c>
@@ -12755,7 +12902,7 @@
         <v>2528</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D75" s="29" t="s">
         <v>155</v>
@@ -12766,7 +12913,9 @@
       <c r="F75" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G75" s="29"/>
+      <c r="G75" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H75" s="42">
         <v>3</v>
       </c>
@@ -12784,7 +12933,7 @@
         <v>2529</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>156</v>
@@ -12795,7 +12944,9 @@
       <c r="F76" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G76" s="29"/>
+      <c r="G76" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H76" s="42">
         <v>3</v>
       </c>
@@ -12813,7 +12964,7 @@
         <v>2530</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D77" s="29" t="s">
         <v>160</v>
@@ -12824,7 +12975,9 @@
       <c r="F77" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G77" s="29"/>
+      <c r="G77" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H77" s="42">
         <v>3</v>
       </c>
@@ -12842,7 +12995,7 @@
         <v>2531</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D78" s="29" t="s">
         <v>41</v>
@@ -12853,7 +13006,9 @@
       <c r="F78" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G78" s="29"/>
+      <c r="G78" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H78" s="42">
         <v>3</v>
       </c>
@@ -12871,7 +13026,7 @@
         <v>2532</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>207</v>
@@ -12882,7 +13037,9 @@
       <c r="F79" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G79" s="29"/>
+      <c r="G79" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H79" s="42">
         <v>3</v>
       </c>
@@ -12900,7 +13057,7 @@
         <v>2533</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D80" s="29" t="s">
         <v>37</v>
@@ -12911,7 +13068,9 @@
       <c r="F80" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G80" s="29"/>
+      <c r="G80" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H80" s="42">
         <v>3</v>
       </c>
@@ -12929,7 +13088,7 @@
         <v>2534</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D81" s="29" t="s">
         <v>49</v>
@@ -12940,7 +13099,9 @@
       <c r="F81" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G81" s="29"/>
+      <c r="G81" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H81" s="42">
         <v>3</v>
       </c>
@@ -12958,7 +13119,7 @@
         <v>2535</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D82" s="29" t="s">
         <v>205</v>
@@ -12969,7 +13130,9 @@
       <c r="F82" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G82" s="29"/>
+      <c r="G82" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H82" s="42">
         <v>3</v>
       </c>
@@ -12987,7 +13150,7 @@
         <v>2536</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>195</v>
@@ -12998,7 +13161,9 @@
       <c r="F83" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G83" s="29"/>
+      <c r="G83" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H83" s="42">
         <v>3</v>
       </c>
@@ -13016,7 +13181,7 @@
         <v>2537</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D84" s="29" t="s">
         <v>194</v>
@@ -13027,7 +13192,9 @@
       <c r="F84" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G84" s="29"/>
+      <c r="G84" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H84" s="42">
         <v>3</v>
       </c>
@@ -13045,7 +13212,7 @@
         <v>2538</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D85" s="29" t="s">
         <v>186</v>
@@ -13056,7 +13223,9 @@
       <c r="F85" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G85" s="29"/>
+      <c r="G85" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H85" s="42">
         <v>3</v>
       </c>
@@ -13074,7 +13243,7 @@
         <v>2539</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D86" s="29" t="s">
         <v>196</v>
@@ -13085,7 +13254,9 @@
       <c r="F86" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G86" s="29"/>
+      <c r="G86" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H86" s="42">
         <v>3</v>
       </c>
@@ -13103,7 +13274,7 @@
         <v>2540</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D87" s="29" t="s">
         <v>189</v>
@@ -13114,7 +13285,9 @@
       <c r="F87" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G87" s="29"/>
+      <c r="G87" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H87" s="42">
         <v>3</v>
       </c>
@@ -13132,10 +13305,10 @@
         <v>2541</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E88" s="29">
         <v>1</v>
@@ -13143,7 +13316,9 @@
       <c r="F88" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G88" s="29"/>
+      <c r="G88" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H88" s="42">
         <v>3</v>
       </c>
@@ -13161,7 +13336,7 @@
         <v>2542</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D89" s="29" t="s">
         <v>198</v>
@@ -13172,7 +13347,9 @@
       <c r="F89" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G89" s="29"/>
+      <c r="G89" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H89" s="42">
         <v>3</v>
       </c>
@@ -13190,7 +13367,7 @@
         <v>2543</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D90" s="29" t="s">
         <v>197</v>
@@ -13201,7 +13378,9 @@
       <c r="F90" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G90" s="29"/>
+      <c r="G90" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H90" s="42">
         <v>3</v>
       </c>
@@ -13219,10 +13398,10 @@
         <v>2544</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E91" s="29">
         <v>1</v>
@@ -13230,7 +13409,9 @@
       <c r="F91" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G91" s="29"/>
+      <c r="G91" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H91" s="42">
         <v>3</v>
       </c>
@@ -13248,7 +13429,7 @@
         <v>2545</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D92" s="29" t="s">
         <v>184</v>
@@ -13259,7 +13440,9 @@
       <c r="F92" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G92" s="29"/>
+      <c r="G92" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H92" s="42">
         <v>3</v>
       </c>
@@ -13277,7 +13460,7 @@
         <v>2546</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D93" s="29" t="s">
         <v>219</v>
@@ -13286,9 +13469,11 @@
         <v>2</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="G93" s="29"/>
+        <v>375</v>
+      </c>
+      <c r="G93" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H93" s="42">
         <v>3</v>
       </c>
@@ -13306,7 +13491,7 @@
         <v>2547</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D94" s="29" t="s">
         <v>212</v>
@@ -13315,9 +13500,11 @@
         <v>2</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="G94" s="29"/>
+        <v>377</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H94" s="42">
         <v>3</v>
       </c>
@@ -13335,7 +13522,7 @@
         <v>2548</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>74</v>
@@ -13346,7 +13533,9 @@
       <c r="F95" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G95" s="29"/>
+      <c r="G95" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H95" s="42">
         <v>3</v>
       </c>
@@ -13364,7 +13553,7 @@
         <v>2549</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D96" s="29" t="s">
         <v>55</v>
@@ -13375,7 +13564,9 @@
       <c r="F96" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G96" s="29"/>
+      <c r="G96" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H96" s="42">
         <v>3</v>
       </c>
@@ -13393,7 +13584,7 @@
         <v>2550</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D97" s="29" t="s">
         <v>231</v>
@@ -13404,7 +13595,9 @@
       <c r="F97" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G97" s="29"/>
+      <c r="G97" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H97" s="42">
         <v>3</v>
       </c>
@@ -13422,7 +13615,7 @@
         <v>2551</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D98" s="29" t="s">
         <v>248</v>
@@ -13433,7 +13626,9 @@
       <c r="F98" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G98" s="29"/>
+      <c r="G98" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H98" s="42">
         <v>3</v>
       </c>
@@ -13451,7 +13646,7 @@
         <v>2552</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D99" s="29" t="s">
         <v>233</v>
@@ -13462,7 +13657,9 @@
       <c r="F99" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G99" s="29"/>
+      <c r="G99" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H99" s="42">
         <v>3</v>
       </c>
@@ -13480,7 +13677,7 @@
         <v>2553</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D100" s="29" t="s">
         <v>237</v>
@@ -13491,7 +13688,9 @@
       <c r="F100" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G100" s="29"/>
+      <c r="G100" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H100" s="42">
         <v>3</v>
       </c>
@@ -13509,7 +13708,7 @@
         <v>2554</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D101" s="29" t="s">
         <v>238</v>
@@ -13520,7 +13719,9 @@
       <c r="F101" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G101" s="29"/>
+      <c r="G101" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H101" s="42">
         <v>3</v>
       </c>
@@ -13538,7 +13739,7 @@
         <v>2555</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D102" s="29" t="s">
         <v>240</v>
@@ -13549,7 +13750,9 @@
       <c r="F102" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G102" s="29"/>
+      <c r="G102" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H102" s="42">
         <v>3</v>
       </c>
@@ -13567,7 +13770,7 @@
         <v>2556</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>223</v>
@@ -13578,7 +13781,9 @@
       <c r="F103" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G103" s="29"/>
+      <c r="G103" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H103" s="42">
         <v>3</v>
       </c>
@@ -13596,7 +13801,7 @@
         <v>2557</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D104" s="29" t="s">
         <v>239</v>
@@ -13607,7 +13812,9 @@
       <c r="F104" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G104" s="29"/>
+      <c r="G104" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H104" s="42">
         <v>3</v>
       </c>
@@ -13625,7 +13832,7 @@
         <v>2558</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D105" s="29" t="s">
         <v>220</v>
@@ -13636,7 +13843,9 @@
       <c r="F105" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G105" s="29"/>
+      <c r="G105" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H105" s="42">
         <v>3</v>
       </c>
@@ -13654,7 +13863,7 @@
         <v>2559</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>245</v>
@@ -13665,7 +13874,9 @@
       <c r="F106" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G106" s="29"/>
+      <c r="G106" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H106" s="42">
         <v>3</v>
       </c>
@@ -13683,7 +13894,7 @@
         <v>2901</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D107" s="29" t="s">
         <v>69</v>
@@ -13692,9 +13903,11 @@
         <v>2</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="G107" s="29"/>
+        <v>391</v>
+      </c>
+      <c r="G107" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H107" s="42">
         <v>4</v>
       </c>
@@ -13712,7 +13925,7 @@
         <v>2902</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D108" s="29" t="s">
         <v>105</v>
@@ -13723,7 +13936,9 @@
       <c r="F108" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G108" s="29"/>
+      <c r="G108" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H108" s="42">
         <v>4</v>
       </c>
@@ -13741,7 +13956,7 @@
         <v>2903</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D109" s="29" t="s">
         <v>131</v>
@@ -13752,7 +13967,9 @@
       <c r="F109" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G109" s="29"/>
+      <c r="G109" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H109" s="42">
         <v>4</v>
       </c>
@@ -13770,7 +13987,7 @@
         <v>2904</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D110" s="29" t="s">
         <v>124</v>
@@ -13779,9 +13996,11 @@
         <v>2</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="G110" s="29"/>
+        <v>395</v>
+      </c>
+      <c r="G110" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H110" s="42">
         <v>4</v>
       </c>
@@ -13799,7 +14018,7 @@
         <v>2905</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D111" s="29" t="s">
         <v>130</v>
@@ -13810,7 +14029,9 @@
       <c r="F111" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G111" s="29"/>
+      <c r="G111" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H111" s="42">
         <v>4</v>
       </c>
@@ -13828,7 +14049,7 @@
         <v>2906</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D112" s="29" t="s">
         <v>143</v>
@@ -13837,9 +14058,11 @@
         <v>2</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="G112" s="29"/>
+        <v>398</v>
+      </c>
+      <c r="G112" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H112" s="42">
         <v>4</v>
       </c>
@@ -13857,7 +14080,7 @@
         <v>2907</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D113" s="29" t="s">
         <v>154</v>
@@ -13868,7 +14091,9 @@
       <c r="F113" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G113" s="29"/>
+      <c r="G113" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H113" s="42">
         <v>4</v>
       </c>
@@ -13886,7 +14111,7 @@
         <v>2908</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D114" s="29" t="s">
         <v>151</v>
@@ -13895,9 +14120,11 @@
         <v>2</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="G114" s="29"/>
+        <v>401</v>
+      </c>
+      <c r="G114" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H114" s="42">
         <v>4</v>
       </c>
@@ -13915,7 +14142,7 @@
         <v>2909</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D115" s="29" t="s">
         <v>141</v>
@@ -13926,7 +14153,9 @@
       <c r="F115" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G115" s="29"/>
+      <c r="G115" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H115" s="42">
         <v>4</v>
       </c>
@@ -13944,7 +14173,7 @@
         <v>2910</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D116" s="29" t="s">
         <v>150</v>
@@ -13955,7 +14184,9 @@
       <c r="F116" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G116" s="29"/>
+      <c r="G116" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H116" s="42">
         <v>4</v>
       </c>
@@ -13973,7 +14204,7 @@
         <v>2911</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>170</v>
@@ -13984,7 +14215,9 @@
       <c r="F117" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G117" s="29"/>
+      <c r="G117" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H117" s="42">
         <v>4</v>
       </c>
@@ -14002,7 +14235,7 @@
         <v>2912</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D118" s="29" t="s">
         <v>201</v>
@@ -14011,9 +14244,11 @@
         <v>2</v>
       </c>
       <c r="F118" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="G118" s="29"/>
+        <v>406</v>
+      </c>
+      <c r="G118" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H118" s="42">
         <v>4</v>
       </c>
@@ -14031,7 +14266,7 @@
         <v>2913</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D119" s="29" t="s">
         <v>183</v>
@@ -14040,9 +14275,11 @@
         <v>2</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="G119" s="29"/>
+        <v>408</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H119" s="42">
         <v>4</v>
       </c>
@@ -14060,7 +14297,7 @@
         <v>2914</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D120" s="29" t="s">
         <v>243</v>
@@ -14071,7 +14308,9 @@
       <c r="F120" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G120" s="29"/>
+      <c r="G120" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H120" s="42">
         <v>4</v>
       </c>
@@ -14089,7 +14328,7 @@
         <v>2915</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D121" s="29" t="s">
         <v>250</v>
@@ -14100,7 +14339,9 @@
       <c r="F121" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G121" s="29"/>
+      <c r="G121" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H121" s="42">
         <v>4</v>
       </c>
@@ -14118,7 +14359,7 @@
         <v>2916</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D122" s="29" t="s">
         <v>224</v>
@@ -14129,7 +14370,9 @@
       <c r="F122" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G122" s="29"/>
+      <c r="G122" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H122" s="42">
         <v>4</v>
       </c>
@@ -14147,7 +14390,7 @@
         <v>2917</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>228</v>
@@ -14156,9 +14399,11 @@
         <v>2</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="G123" s="29"/>
+        <v>413</v>
+      </c>
+      <c r="G123" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H123" s="42">
         <v>4</v>
       </c>
@@ -14176,7 +14421,7 @@
         <v>2918</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D124" s="29" t="s">
         <v>78</v>
@@ -14187,7 +14432,9 @@
       <c r="F124" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G124" s="29"/>
+      <c r="G124" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H124" s="42">
         <v>4</v>
       </c>
@@ -14205,7 +14452,7 @@
         <v>2919</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D125" s="29" t="s">
         <v>79</v>
@@ -14216,7 +14463,9 @@
       <c r="F125" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G125" s="29"/>
+      <c r="G125" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H125" s="42">
         <v>4</v>
       </c>
@@ -14234,7 +14483,7 @@
         <v>2920</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D126" s="29" t="s">
         <v>80</v>
@@ -14245,7 +14494,9 @@
       <c r="F126" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G126" s="29"/>
+      <c r="G126" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H126" s="42">
         <v>4</v>
       </c>
@@ -14263,7 +14514,7 @@
         <v>2921</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D127" s="29" t="s">
         <v>81</v>
@@ -14274,7 +14525,9 @@
       <c r="F127" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="G127" s="29"/>
+      <c r="G127" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H127" s="42">
         <v>4</v>
       </c>
@@ -14292,7 +14545,7 @@
         <v>3201</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D128" s="29" t="s">
         <v>127</v>
@@ -14301,9 +14554,11 @@
         <v>2</v>
       </c>
       <c r="F128" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="G128" s="29"/>
+        <v>419</v>
+      </c>
+      <c r="G128" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H128" s="42">
         <v>5</v>
       </c>
@@ -14321,7 +14576,7 @@
         <v>3202</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D129" s="29" t="s">
         <v>142</v>
@@ -14330,9 +14585,11 @@
         <v>2</v>
       </c>
       <c r="F129" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="G129" s="29"/>
+        <v>421</v>
+      </c>
+      <c r="G129" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H129" s="42">
         <v>5</v>
       </c>
@@ -14350,7 +14607,7 @@
         <v>3203</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D130" s="29" t="s">
         <v>178</v>
@@ -14359,9 +14616,11 @@
         <v>2</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="G130" s="29"/>
+        <v>423</v>
+      </c>
+      <c r="G130" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H130" s="42">
         <v>5</v>
       </c>
@@ -14379,7 +14638,7 @@
         <v>3204</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D131" s="29" t="s">
         <v>227</v>
@@ -14388,9 +14647,11 @@
         <v>2</v>
       </c>
       <c r="F131" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="G131" s="29"/>
+        <v>425</v>
+      </c>
+      <c r="G131" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H131" s="42">
         <v>5</v>
       </c>
@@ -14408,7 +14669,7 @@
         <v>3205</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D132" s="29" t="s">
         <v>86</v>
@@ -14417,9 +14678,11 @@
         <v>2</v>
       </c>
       <c r="F132" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="G132" s="29"/>
+        <v>427</v>
+      </c>
+      <c r="G132" s="39" t="s">
+        <v>270</v>
+      </c>
       <c r="H132" s="42">
         <v>5</v>
       </c>
@@ -16476,7 +16739,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="H1:H424" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
-  <sortState ref="A1:M424">
+  <sortState ref="A1:N424">
     <sortCondition ref="H1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16503,21 +16766,21 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:4">
       <c r="A1" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:4">
       <c r="A2" s="26" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -16531,10 +16794,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:4">
@@ -16545,10 +16808,10 @@
         <v>125</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:4">
@@ -16559,10 +16822,10 @@
         <v>39</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:4">
@@ -16573,10 +16836,10 @@
         <v>109</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:4">
@@ -16587,10 +16850,10 @@
         <v>75</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:4">
@@ -16601,10 +16864,10 @@
         <v>76</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:4">
@@ -16615,10 +16878,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>439</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:4">
@@ -16629,10 +16892,10 @@
         <v>35</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:4">
@@ -16640,13 +16903,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:4">
@@ -16657,10 +16920,10 @@
         <v>45</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:4">
@@ -16671,10 +16934,10 @@
         <v>57</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:4">
@@ -16682,13 +16945,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:4">
@@ -16696,13 +16959,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:4">
@@ -16713,10 +16976,10 @@
         <v>70</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:4">
@@ -16727,10 +16990,10 @@
         <v>56</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:4">
@@ -16741,10 +17004,10 @@
         <v>87</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:4">
@@ -16755,10 +17018,10 @@
         <v>82</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:4">
@@ -16769,10 +17032,10 @@
         <v>83</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:4">
@@ -16780,13 +17043,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:4">
@@ -16797,10 +17060,10 @@
         <v>46</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16811,10 +17074,10 @@
         <v>96</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16825,10 +17088,10 @@
         <v>139</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16839,10 +17102,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16853,10 +17116,10 @@
         <v>67</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" ht="51.5" customHeight="1" spans="1:4">
@@ -16867,10 +17130,10 @@
         <v>62</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:4">
@@ -16881,10 +17144,10 @@
         <v>138</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:4">
@@ -16895,10 +17158,10 @@
         <v>63</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:4">
@@ -16909,10 +17172,10 @@
         <v>215</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -16946,27 +17209,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K1" s="1" t="e">
         <f>VLOOKUP("攻击力+5",pictuer_fetter_attr!B:G,7,FALSE)</f>
@@ -16979,13 +17242,13 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -17003,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
@@ -17016,7 +17279,7 @@
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L3" s="15">
         <f>A3</f>
@@ -17028,7 +17291,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -17041,7 +17304,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" ref="L4:L35" si="0">A4</f>
@@ -17053,7 +17316,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -17066,7 +17329,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L5" s="16">
         <f t="shared" si="0"/>
@@ -17078,7 +17341,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C6" s="11">
         <v>2</v>
@@ -17091,7 +17354,7 @@
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="0"/>
@@ -17103,7 +17366,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C7" s="11">
         <v>2</v>
@@ -17116,7 +17379,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
@@ -17128,7 +17391,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C8" s="11">
         <v>2</v>
@@ -17141,7 +17404,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
@@ -17153,7 +17416,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C9" s="11">
         <v>3</v>
@@ -17166,7 +17429,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
@@ -17178,7 +17441,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C10" s="11">
         <v>3</v>
@@ -17191,7 +17454,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
@@ -17203,7 +17466,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C11" s="11">
         <v>3</v>
@@ -17216,7 +17479,7 @@
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
@@ -17228,7 +17491,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C12" s="11">
         <v>4</v>
@@ -17241,7 +17504,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
@@ -17253,7 +17516,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C13" s="11">
         <v>4</v>
@@ -17266,7 +17529,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L13" s="16">
         <f t="shared" si="0"/>
@@ -17278,7 +17541,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C14" s="11">
         <v>4</v>
@@ -17291,7 +17554,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="14" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" si="0"/>
@@ -17303,7 +17566,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C15" s="11">
         <v>5</v>
@@ -17316,7 +17579,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="0"/>
@@ -17328,7 +17591,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C16" s="11">
         <v>5</v>
@@ -17341,7 +17604,7 @@
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="0"/>
@@ -17353,7 +17616,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C17" s="11">
         <v>5</v>
@@ -17366,7 +17629,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="0"/>
@@ -17378,7 +17641,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C18" s="11">
         <v>6</v>
@@ -17391,7 +17654,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="0"/>
@@ -17403,7 +17666,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C19" s="11">
         <v>6</v>
@@ -17416,7 +17679,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="0"/>
@@ -17428,7 +17691,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C20" s="11">
         <v>6</v>
@@ -17441,7 +17704,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="14" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="0"/>
@@ -17453,7 +17716,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C21" s="11">
         <v>7</v>
@@ -17466,7 +17729,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="0"/>
@@ -17478,7 +17741,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C22" s="11">
         <v>7</v>
@@ -17491,7 +17754,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="0"/>
@@ -17503,7 +17766,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C23" s="11">
         <v>7</v>
@@ -17516,7 +17779,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="0"/>
@@ -17528,7 +17791,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C24" s="11">
         <v>8</v>
@@ -17541,7 +17804,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="0"/>
@@ -17553,7 +17816,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C25" s="11">
         <v>8</v>
@@ -17566,7 +17829,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="0"/>
@@ -17578,7 +17841,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C26" s="11">
         <v>8</v>
@@ -17591,7 +17854,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="0"/>
@@ -17603,7 +17866,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C27" s="11">
         <v>9</v>
@@ -17616,7 +17879,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="0"/>
@@ -17628,7 +17891,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C28" s="11">
         <v>9</v>
@@ -17641,7 +17904,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L28" s="16">
         <f t="shared" si="0"/>
@@ -17653,7 +17916,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C29" s="11">
         <v>9</v>
@@ -17666,7 +17929,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="14" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="0"/>
@@ -17678,7 +17941,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C30" s="11">
         <v>10</v>
@@ -17691,7 +17954,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L30" s="16">
         <f t="shared" si="0"/>
@@ -17703,7 +17966,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C31" s="11">
         <v>10</v>
@@ -17716,7 +17979,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L31" s="16">
         <f t="shared" si="0"/>
@@ -17728,7 +17991,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C32" s="11">
         <v>10</v>
@@ -17741,7 +18004,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L32" s="16">
         <f t="shared" si="0"/>
@@ -17753,7 +18016,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C33" s="11">
         <v>11</v>
@@ -17766,7 +18029,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L33" s="16">
         <f t="shared" si="0"/>
@@ -17778,7 +18041,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C34" s="11">
         <v>11</v>
@@ -17791,7 +18054,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" si="0"/>
@@ -17803,7 +18066,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C35" s="11">
         <v>11</v>
@@ -17816,7 +18079,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="14" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="0"/>
@@ -17828,7 +18091,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C36" s="11">
         <v>12</v>
@@ -17841,7 +18104,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" ref="L36:L67" si="1">A36</f>
@@ -17853,7 +18116,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C37" s="11">
         <v>12</v>
@@ -17866,7 +18129,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="1"/>
@@ -17878,7 +18141,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C38" s="11">
         <v>12</v>
@@ -17891,7 +18154,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="14" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="1"/>
@@ -17903,7 +18166,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C39" s="11">
         <v>13</v>
@@ -17916,7 +18179,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="1"/>
@@ -17928,7 +18191,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C40" s="11">
         <v>13</v>
@@ -17941,7 +18204,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="1"/>
@@ -17953,7 +18216,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C41" s="11">
         <v>13</v>
@@ -17966,7 +18229,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L41" s="16">
         <f t="shared" si="1"/>
@@ -17978,7 +18241,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C42" s="11">
         <v>14</v>
@@ -17991,7 +18254,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L42" s="16">
         <f t="shared" si="1"/>
@@ -18003,7 +18266,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C43" s="11">
         <v>14</v>
@@ -18016,7 +18279,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L43" s="16">
         <f t="shared" si="1"/>
@@ -18028,7 +18291,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C44" s="11">
         <v>14</v>
@@ -18041,7 +18304,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="14" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L44" s="16">
         <f t="shared" si="1"/>
@@ -18053,7 +18316,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C45" s="11">
         <v>15</v>
@@ -18066,7 +18329,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L45" s="16">
         <f t="shared" si="1"/>
@@ -18078,7 +18341,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C46" s="11">
         <v>15</v>
@@ -18091,7 +18354,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L46" s="16">
         <f t="shared" si="1"/>
@@ -18103,7 +18366,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C47" s="11">
         <v>15</v>
@@ -18116,7 +18379,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="14" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L47" s="16">
         <f t="shared" si="1"/>
@@ -18128,7 +18391,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C48" s="11">
         <v>16</v>
@@ -18141,7 +18404,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
       <c r="I48" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L48" s="16">
         <f t="shared" si="1"/>
@@ -18153,7 +18416,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C49" s="11">
         <v>16</v>
@@ -18166,7 +18429,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L49" s="16">
         <f t="shared" si="1"/>
@@ -18178,7 +18441,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C50" s="11">
         <v>16</v>
@@ -18191,7 +18454,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L50" s="16">
         <f t="shared" si="1"/>
@@ -18203,7 +18466,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C51" s="11">
         <v>17</v>
@@ -18216,7 +18479,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L51" s="16">
         <f t="shared" si="1"/>
@@ -18228,7 +18491,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C52" s="11">
         <v>17</v>
@@ -18241,7 +18504,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L52" s="16">
         <f t="shared" si="1"/>
@@ -18253,7 +18516,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C53" s="11">
         <v>17</v>
@@ -18266,7 +18529,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L53" s="16">
         <f t="shared" si="1"/>
@@ -18278,7 +18541,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C54" s="11">
         <v>18</v>
@@ -18291,7 +18554,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L54" s="16">
         <f t="shared" si="1"/>
@@ -18303,7 +18566,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C55" s="11">
         <v>18</v>
@@ -18316,7 +18579,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L55" s="16">
         <f t="shared" si="1"/>
@@ -18328,7 +18591,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C56" s="11">
         <v>18</v>
@@ -18341,7 +18604,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="14" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L56" s="16">
         <f t="shared" si="1"/>
@@ -18353,7 +18616,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C57" s="11">
         <v>19</v>
@@ -18366,7 +18629,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="14" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L57" s="16">
         <f t="shared" si="1"/>
@@ -18378,7 +18641,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C58" s="11">
         <v>19</v>
@@ -18401,7 +18664,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C59" s="11">
         <v>19</v>
@@ -18424,7 +18687,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C60" s="11">
         <v>20</v>
@@ -18437,7 +18700,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L60" s="16">
         <f t="shared" si="1"/>
@@ -18449,7 +18712,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C61" s="11">
         <v>20</v>
@@ -18462,7 +18725,7 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L61" s="16">
         <f t="shared" si="1"/>
@@ -18474,7 +18737,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C62" s="11">
         <v>20</v>
@@ -18487,7 +18750,7 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L62" s="16">
         <f t="shared" si="1"/>
@@ -18499,7 +18762,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C63" s="11">
         <v>21</v>
@@ -18512,7 +18775,7 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L63" s="16">
         <f t="shared" si="1"/>
@@ -18524,7 +18787,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C64" s="11">
         <v>21</v>
@@ -18537,7 +18800,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L64" s="16">
         <f t="shared" si="1"/>
@@ -18549,7 +18812,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C65" s="11">
         <v>21</v>
@@ -18562,7 +18825,7 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L65" s="16">
         <f t="shared" si="1"/>
@@ -18574,7 +18837,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C66" s="11">
         <v>21</v>
@@ -18587,7 +18850,7 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L66" s="16">
         <f t="shared" si="1"/>
@@ -18599,7 +18862,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C67" s="11">
         <v>22</v>
@@ -18622,7 +18885,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C68" s="11">
         <v>22</v>
@@ -18645,7 +18908,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C69" s="11">
         <v>22</v>
@@ -18658,7 +18921,7 @@
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L69" s="16">
         <f t="shared" si="2"/>
@@ -18670,7 +18933,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C70" s="11">
         <v>23</v>
@@ -18683,7 +18946,7 @@
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L70" s="16">
         <f t="shared" si="2"/>
@@ -18695,7 +18958,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C71" s="11">
         <v>23</v>
@@ -18708,7 +18971,7 @@
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L71" s="16">
         <f t="shared" si="2"/>
@@ -18720,7 +18983,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C72" s="11">
         <v>23</v>
@@ -18733,7 +18996,7 @@
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L72" s="16">
         <f t="shared" si="2"/>
@@ -18745,7 +19008,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C73" s="11">
         <v>24</v>
@@ -18758,7 +19021,7 @@
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L73" s="16">
         <f t="shared" si="2"/>
@@ -18770,7 +19033,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C74" s="11">
         <v>24</v>
@@ -18793,7 +19056,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C75" s="11">
         <v>24</v>
@@ -18816,7 +19079,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C76" s="11">
         <v>25</v>
@@ -18829,7 +19092,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L76" s="16">
         <f t="shared" si="2"/>
@@ -18841,7 +19104,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C77" s="11">
         <v>25</v>
@@ -18864,7 +19127,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C78" s="11">
         <v>25</v>
@@ -18887,7 +19150,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C79" s="11">
         <v>26</v>
@@ -18900,7 +19163,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L79" s="16">
         <f t="shared" si="2"/>
@@ -18912,7 +19175,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C80" s="11">
         <v>26</v>
@@ -18935,7 +19198,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C81" s="19">
         <v>26</v>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -4242,16 +4242,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A70EEA14-BFE9-4F6C-B5AB-0E0FDAADCCC8}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A4228E1F-E9AB-4D68-ADE7-59E4527FB365}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F63C13A0-50D8-4409-A922-8803C31A4168}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6F73661B-C999-499A-9E7D-ED974B06B63E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{C4125EF2-71CB-4ED8-ACF6-52542A5D7403}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DBA35CB9-E884-4608-A42A-4028BD3BEFEF}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -4260,7 +4260,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C8029AC2-D296-4C6B-AFA4-0E4B6F958FA6}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5EDC90D8-E6D0-424B-87AE-3EC696D1F6E8}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -4272,7 +4272,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{47A4CB46-B8A3-4AC3-98F6-36F00B86CC59}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{56F825C6-8EE0-4584-B8BB-990565103B94}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -10543,7 +10543,7 @@
   <dimension ref="A1:M424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="1"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -939,376 +939,376 @@
     <t>a39</t>
   </si>
   <si>
+    <t>a42</t>
+  </si>
+  <si>
+    <t>a43</t>
+  </si>
+  <si>
+    <t>a44</t>
+  </si>
+  <si>
+    <t>a64</t>
+  </si>
+  <si>
+    <t>a65</t>
+  </si>
+  <si>
+    <t>a66</t>
+  </si>
+  <si>
+    <t>a67</t>
+  </si>
+  <si>
+    <t>a69</t>
+  </si>
+  <si>
+    <t>a71</t>
+  </si>
+  <si>
+    <t>a72</t>
+  </si>
+  <si>
+    <t>a73</t>
+  </si>
+  <si>
+    <t>a75</t>
+  </si>
+  <si>
+    <t>a76</t>
+  </si>
+  <si>
+    <t>a78</t>
+  </si>
+  <si>
+    <t>a79</t>
+  </si>
+  <si>
+    <t>a95</t>
+  </si>
+  <si>
+    <t>a96</t>
+  </si>
+  <si>
+    <t>a97</t>
+  </si>
+  <si>
+    <t>a98</t>
+  </si>
+  <si>
+    <t>a99</t>
+  </si>
+  <si>
+    <t>a100</t>
+  </si>
+  <si>
+    <t>a102</t>
+  </si>
+  <si>
+    <t>a103</t>
+  </si>
+  <si>
+    <t>a107</t>
+  </si>
+  <si>
+    <t>a108</t>
+  </si>
+  <si>
+    <t>a109</t>
+  </si>
+  <si>
+    <t>a112</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>a25</t>
+  </si>
+  <si>
+    <t>a38</t>
+  </si>
+  <si>
+    <t>2016|2016</t>
+  </si>
+  <si>
+    <t>a40</t>
+  </si>
+  <si>
+    <t>a45</t>
+  </si>
+  <si>
+    <t>a46</t>
+  </si>
+  <si>
+    <t>a47</t>
+  </si>
+  <si>
+    <t>雷电见习者</t>
+  </si>
+  <si>
+    <t>a48</t>
+  </si>
+  <si>
+    <t>a49</t>
+  </si>
+  <si>
+    <t>a50</t>
+  </si>
+  <si>
+    <t>远古黑龙</t>
+  </si>
+  <si>
+    <t>a51</t>
+  </si>
+  <si>
+    <t>a53</t>
+  </si>
+  <si>
+    <t>a54</t>
+  </si>
+  <si>
+    <t>a55</t>
+  </si>
+  <si>
+    <t>霹雳女妖</t>
+  </si>
+  <si>
+    <t>a56</t>
+  </si>
+  <si>
+    <t>a57</t>
+  </si>
+  <si>
+    <t>a58</t>
+  </si>
+  <si>
+    <t>a68</t>
+  </si>
+  <si>
+    <t>a70</t>
+  </si>
+  <si>
+    <t>a74</t>
+  </si>
+  <si>
+    <t>a77</t>
+  </si>
+  <si>
+    <t>a80</t>
+  </si>
+  <si>
+    <t>a81</t>
+  </si>
+  <si>
+    <t>a82</t>
+  </si>
+  <si>
+    <t>a83</t>
+  </si>
+  <si>
+    <t>a84</t>
+  </si>
+  <si>
+    <t>a85</t>
+  </si>
+  <si>
+    <t>a86</t>
+  </si>
+  <si>
+    <t>极地巨人</t>
+  </si>
+  <si>
+    <t>a87</t>
+  </si>
+  <si>
+    <t>a88</t>
+  </si>
+  <si>
+    <t>a89</t>
+  </si>
+  <si>
+    <t>极冰守卫</t>
+  </si>
+  <si>
+    <t>a90</t>
+  </si>
+  <si>
+    <t>a101</t>
+  </si>
+  <si>
+    <t>2039|2039</t>
+  </si>
+  <si>
+    <t>a104</t>
+  </si>
+  <si>
+    <t>2041|2041</t>
+  </si>
+  <si>
+    <t>a105</t>
+  </si>
+  <si>
+    <t>a106</t>
+  </si>
+  <si>
+    <t>a110</t>
+  </si>
+  <si>
+    <t>a111</t>
+  </si>
+  <si>
+    <t>a113</t>
+  </si>
+  <si>
+    <t>a114</t>
+  </si>
+  <si>
+    <t>a115</t>
+  </si>
+  <si>
+    <t>a116</t>
+  </si>
+  <si>
+    <t>a117</t>
+  </si>
+  <si>
+    <t>a118</t>
+  </si>
+  <si>
+    <t>a119</t>
+  </si>
+  <si>
+    <t>a120</t>
+  </si>
+  <si>
     <t>a41</t>
   </si>
   <si>
-    <t>a42</t>
-  </si>
-  <si>
-    <t>a43</t>
-  </si>
-  <si>
-    <t>a44</t>
-  </si>
-  <si>
-    <t>a64</t>
-  </si>
-  <si>
-    <t>a65</t>
-  </si>
-  <si>
-    <t>a66</t>
-  </si>
-  <si>
-    <t>a67</t>
-  </si>
-  <si>
-    <t>a69</t>
-  </si>
-  <si>
-    <t>a71</t>
-  </si>
-  <si>
-    <t>a72</t>
-  </si>
-  <si>
-    <t>a73</t>
-  </si>
-  <si>
-    <t>a75</t>
-  </si>
-  <si>
-    <t>a76</t>
-  </si>
-  <si>
-    <t>a78</t>
-  </si>
-  <si>
-    <t>a79</t>
-  </si>
-  <si>
-    <t>a95</t>
-  </si>
-  <si>
-    <t>a96</t>
-  </si>
-  <si>
-    <t>a97</t>
-  </si>
-  <si>
-    <t>a98</t>
-  </si>
-  <si>
-    <t>a99</t>
-  </si>
-  <si>
-    <t>a100</t>
-  </si>
-  <si>
-    <t>a102</t>
-  </si>
-  <si>
-    <t>a103</t>
-  </si>
-  <si>
-    <t>a107</t>
-  </si>
-  <si>
-    <t>a108</t>
-  </si>
-  <si>
-    <t>a109</t>
-  </si>
-  <si>
-    <t>a112</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a15</t>
-  </si>
-  <si>
-    <t>a16</t>
-  </si>
-  <si>
-    <t>a17</t>
-  </si>
-  <si>
-    <t>a18</t>
-  </si>
-  <si>
-    <t>a19</t>
-  </si>
-  <si>
-    <t>a20</t>
-  </si>
-  <si>
-    <t>a22</t>
-  </si>
-  <si>
-    <t>a24</t>
-  </si>
-  <si>
-    <t>a25</t>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>2506|2507|2509|2510</t>
+  </si>
+  <si>
+    <t>a27</t>
+  </si>
+  <si>
+    <t>a28</t>
+  </si>
+  <si>
+    <t>a29</t>
+  </si>
+  <si>
+    <t>2503|2503</t>
+  </si>
+  <si>
+    <t>a30</t>
+  </si>
+  <si>
+    <t>a52</t>
+  </si>
+  <si>
+    <t>2560|2560</t>
+  </si>
+  <si>
+    <t>a59</t>
+  </si>
+  <si>
+    <t>a60</t>
+  </si>
+  <si>
+    <t>2520|2520</t>
+  </si>
+  <si>
+    <t>a61</t>
+  </si>
+  <si>
+    <t>a62</t>
+  </si>
+  <si>
+    <t>a91</t>
+  </si>
+  <si>
+    <t>a92</t>
+  </si>
+  <si>
+    <t>2533|2533</t>
+  </si>
+  <si>
+    <t>a93</t>
+  </si>
+  <si>
+    <t>2538|2540|2545</t>
+  </si>
+  <si>
+    <t>a121</t>
+  </si>
+  <si>
+    <t>a122</t>
+  </si>
+  <si>
+    <t>a123</t>
+  </si>
+  <si>
+    <t>a124</t>
+  </si>
+  <si>
+    <t>2553|2554|2555|2557</t>
+  </si>
+  <si>
+    <t>a126</t>
+  </si>
+  <si>
+    <t>a127</t>
+  </si>
+  <si>
+    <t>a128</t>
+  </si>
+  <si>
+    <t>a129</t>
   </si>
   <si>
     <t>a26</t>
   </si>
   <si>
     <t>2511|2511</t>
-  </si>
-  <si>
-    <t>a38</t>
-  </si>
-  <si>
-    <t>2016|2016</t>
-  </si>
-  <si>
-    <t>a40</t>
-  </si>
-  <si>
-    <t>a45</t>
-  </si>
-  <si>
-    <t>a46</t>
-  </si>
-  <si>
-    <t>a47</t>
-  </si>
-  <si>
-    <t>雷电见习者</t>
-  </si>
-  <si>
-    <t>a48</t>
-  </si>
-  <si>
-    <t>a49</t>
-  </si>
-  <si>
-    <t>a50</t>
-  </si>
-  <si>
-    <t>远古黑龙</t>
-  </si>
-  <si>
-    <t>a51</t>
-  </si>
-  <si>
-    <t>a53</t>
-  </si>
-  <si>
-    <t>a54</t>
-  </si>
-  <si>
-    <t>a55</t>
-  </si>
-  <si>
-    <t>霹雳女妖</t>
-  </si>
-  <si>
-    <t>a56</t>
-  </si>
-  <si>
-    <t>a57</t>
-  </si>
-  <si>
-    <t>a58</t>
-  </si>
-  <si>
-    <t>a68</t>
-  </si>
-  <si>
-    <t>a70</t>
-  </si>
-  <si>
-    <t>a74</t>
-  </si>
-  <si>
-    <t>a77</t>
-  </si>
-  <si>
-    <t>a80</t>
-  </si>
-  <si>
-    <t>a81</t>
-  </si>
-  <si>
-    <t>a82</t>
-  </si>
-  <si>
-    <t>a83</t>
-  </si>
-  <si>
-    <t>a84</t>
-  </si>
-  <si>
-    <t>a85</t>
-  </si>
-  <si>
-    <t>a86</t>
-  </si>
-  <si>
-    <t>极地巨人</t>
-  </si>
-  <si>
-    <t>a87</t>
-  </si>
-  <si>
-    <t>a88</t>
-  </si>
-  <si>
-    <t>a89</t>
-  </si>
-  <si>
-    <t>极冰守卫</t>
-  </si>
-  <si>
-    <t>a90</t>
-  </si>
-  <si>
-    <t>a101</t>
-  </si>
-  <si>
-    <t>2039|2039</t>
-  </si>
-  <si>
-    <t>a104</t>
-  </si>
-  <si>
-    <t>2041|2041</t>
-  </si>
-  <si>
-    <t>a105</t>
-  </si>
-  <si>
-    <t>a106</t>
-  </si>
-  <si>
-    <t>a110</t>
-  </si>
-  <si>
-    <t>a111</t>
-  </si>
-  <si>
-    <t>a113</t>
-  </si>
-  <si>
-    <t>a114</t>
-  </si>
-  <si>
-    <t>a115</t>
-  </si>
-  <si>
-    <t>a116</t>
-  </si>
-  <si>
-    <t>a117</t>
-  </si>
-  <si>
-    <t>a118</t>
-  </si>
-  <si>
-    <t>a119</t>
-  </si>
-  <si>
-    <t>a120</t>
-  </si>
-  <si>
-    <t>a21</t>
-  </si>
-  <si>
-    <t>2506|2507|2509|2510|2511</t>
-  </si>
-  <si>
-    <t>a27</t>
-  </si>
-  <si>
-    <t>a28</t>
-  </si>
-  <si>
-    <t>a29</t>
-  </si>
-  <si>
-    <t>2503|2503</t>
-  </si>
-  <si>
-    <t>a30</t>
-  </si>
-  <si>
-    <t>a52</t>
-  </si>
-  <si>
-    <t>2018|2018</t>
-  </si>
-  <si>
-    <t>a59</t>
-  </si>
-  <si>
-    <t>a60</t>
-  </si>
-  <si>
-    <t>2520|2520</t>
-  </si>
-  <si>
-    <t>a61</t>
-  </si>
-  <si>
-    <t>a62</t>
-  </si>
-  <si>
-    <t>a91</t>
-  </si>
-  <si>
-    <t>a92</t>
-  </si>
-  <si>
-    <t>2533|2533</t>
-  </si>
-  <si>
-    <t>a93</t>
-  </si>
-  <si>
-    <t>2538|2540|2545</t>
-  </si>
-  <si>
-    <t>a121</t>
-  </si>
-  <si>
-    <t>a122</t>
-  </si>
-  <si>
-    <t>a123</t>
-  </si>
-  <si>
-    <t>a124</t>
-  </si>
-  <si>
-    <t>2553|2554|2555|2557</t>
-  </si>
-  <si>
-    <t>a126</t>
-  </si>
-  <si>
-    <t>a127</t>
-  </si>
-  <si>
-    <t>a128</t>
-  </si>
-  <si>
-    <t>a129</t>
   </si>
   <si>
     <t>a31</t>
@@ -4242,16 +4242,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A4228E1F-E9AB-4D68-ADE7-59E4527FB365}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2BD55E68-9BA9-4581-A8D1-762036B560B7}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6F73661B-C999-499A-9E7D-ED974B06B63E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FF9F99E1-9C99-473E-A04A-355D96302846}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{DBA35CB9-E884-4608-A42A-4028BD3BEFEF}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{A47FF48B-3C9E-4D92-A895-DCD987717444}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -4260,7 +4260,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{5EDC90D8-E6D0-424B-87AE-3EC696D1F6E8}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E58FF543-616B-4CA1-87FC-351247BC836B}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -4272,7 +4272,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{56F825C6-8EE0-4584-B8BB-990565103B94}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{7B4BF7CA-B219-414D-A10D-DC88DB53E1F4}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="L17" s="51" t="str">
         <f>IF(K17&gt;0,IF(K17&gt;1,VLOOKUP(F17,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(F17,pictuer_card_data!D:J,7,FALSE)),"")&amp;IF(K17&gt;1,IF(K17&gt;2,VLOOKUP(G17,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(G17,pictuer_card_data!D:J,7,FALSE)),"")&amp;IF(K17&gt;2,IF(K17&gt;3,VLOOKUP(H17,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(H17,pictuer_card_data!D:J,7,FALSE)),"")&amp;IF(K17&gt;3,IF(K17&gt;4,VLOOKUP(I17,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(I17,pictuer_card_data!D:J,7,FALSE)),"")&amp;IF(K17&gt;4,IF(K17&gt;5,VLOOKUP(J17,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(J17,pictuer_card_data!D:J,7,FALSE)),"")</f>
-        <v>2902|2009|2511|2515</v>
+        <v>2902|2009|2511|2922</v>
       </c>
       <c r="M17" s="51" t="s">
         <v>109</v>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="L31" s="51" t="str">
         <f>IF(K31&gt;0,IF(K31&gt;1,VLOOKUP(F31,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(F31,pictuer_card_data!D:J,7,FALSE)),"")&amp;IF(K31&gt;1,IF(K31&gt;2,VLOOKUP(G31,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(G31,pictuer_card_data!D:J,7,FALSE)),"")&amp;IF(K31&gt;2,IF(K31&gt;3,VLOOKUP(H31,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(H31,pictuer_card_data!D:J,7,FALSE)),"")&amp;IF(K31&gt;3,IF(K31&gt;4,VLOOKUP(I31,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(I31,pictuer_card_data!D:J,7,FALSE)),"")&amp;IF(K31&gt;4,IF(K31&gt;5,VLOOKUP(J31,pictuer_card_data!D:J,7,FALSE)&amp;"|",VLOOKUP(J31,pictuer_card_data!D:J,7,FALSE)),"")</f>
-        <v>2018|2906</v>
+        <v>2560|2906</v>
       </c>
       <c r="M31" s="51" t="s">
         <v>138</v>
@@ -10542,8 +10542,8 @@
   <sheetPr/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10646,13 +10646,13 @@
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="31">
-        <f t="shared" ref="J3:J66" si="0">A3</f>
+        <f>A3</f>
         <v>2001</v>
       </c>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:13">
       <c r="A4" s="38">
-        <f t="shared" ref="A4:A35" si="1">B4</f>
+        <f t="shared" ref="A4:A35" si="0">B4</f>
         <v>2002</v>
       </c>
       <c r="B4" s="39">
@@ -10677,7 +10677,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="31">
-        <f t="shared" si="0"/>
+        <f>A4</f>
         <v>2002</v>
       </c>
       <c r="L4" s="31" t="s">
@@ -10689,7 +10689,7 @@
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
       <c r="A5" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="B5" s="39">
@@ -10714,13 +10714,13 @@
         <v>2</v>
       </c>
       <c r="J5" s="31">
-        <f t="shared" si="0"/>
+        <f>A5</f>
         <v>2003</v>
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:13">
       <c r="A6" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="B6" s="39">
@@ -10745,7 +10745,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="31">
-        <f t="shared" si="0"/>
+        <f>A6</f>
         <v>2004</v>
       </c>
       <c r="K6" s="31">
@@ -10760,7 +10760,7 @@
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:13">
       <c r="A7" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2005</v>
       </c>
       <c r="B7" s="39">
@@ -10785,7 +10785,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="31">
-        <f t="shared" si="0"/>
+        <f>A7</f>
         <v>2005</v>
       </c>
       <c r="K7" s="31">
@@ -10800,7 +10800,7 @@
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:13">
       <c r="A8" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="B8" s="39">
@@ -10825,7 +10825,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="31">
-        <f t="shared" si="0"/>
+        <f>A8</f>
         <v>2006</v>
       </c>
       <c r="K8" s="31">
@@ -10840,7 +10840,7 @@
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:13">
       <c r="A9" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="B9" s="39">
@@ -10865,7 +10865,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="31">
-        <f t="shared" si="0"/>
+        <f>A9</f>
         <v>2007</v>
       </c>
       <c r="K9" s="31">
@@ -10880,7 +10880,7 @@
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:10">
       <c r="A10" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="B10" s="39">
@@ -10905,13 +10905,13 @@
         <v>2</v>
       </c>
       <c r="J10" s="31">
-        <f t="shared" si="0"/>
+        <f>A10</f>
         <v>2008</v>
       </c>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:10">
       <c r="A11" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="B11" s="39">
@@ -10936,13 +10936,13 @@
         <v>2</v>
       </c>
       <c r="J11" s="31">
-        <f t="shared" si="0"/>
+        <f>A11</f>
         <v>2009</v>
       </c>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:10">
       <c r="A12" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2010</v>
       </c>
       <c r="B12" s="39">
@@ -10967,13 +10967,13 @@
         <v>2</v>
       </c>
       <c r="J12" s="31">
-        <f t="shared" si="0"/>
+        <f>A12</f>
         <v>2010</v>
       </c>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:10">
       <c r="A13" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="B13" s="39">
@@ -10998,13 +10998,13 @@
         <v>2</v>
       </c>
       <c r="J13" s="31">
-        <f t="shared" si="0"/>
+        <f>A13</f>
         <v>2011</v>
       </c>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:10">
       <c r="A14" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2012</v>
       </c>
       <c r="B14" s="39">
@@ -11029,13 +11029,13 @@
         <v>2</v>
       </c>
       <c r="J14" s="31">
-        <f t="shared" si="0"/>
+        <f>A14</f>
         <v>2012</v>
       </c>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:10">
       <c r="A15" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="B15" s="39">
@@ -11060,13 +11060,13 @@
         <v>2</v>
       </c>
       <c r="J15" s="31">
-        <f t="shared" si="0"/>
+        <f>A15</f>
         <v>2013</v>
       </c>
     </row>
     <row r="16" ht="18.5" customHeight="1" spans="1:10">
       <c r="A16" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="B16" s="39">
@@ -11091,13 +11091,13 @@
         <v>2</v>
       </c>
       <c r="J16" s="31">
-        <f t="shared" si="0"/>
+        <f>A16</f>
         <v>2014</v>
       </c>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:10">
       <c r="A17" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2015</v>
       </c>
       <c r="B17" s="39">
@@ -11122,13 +11122,13 @@
         <v>2</v>
       </c>
       <c r="J17" s="31">
-        <f t="shared" si="0"/>
+        <f>A17</f>
         <v>2015</v>
       </c>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:10">
       <c r="A18" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2016</v>
       </c>
       <c r="B18" s="39">
@@ -11153,13 +11153,13 @@
         <v>2</v>
       </c>
       <c r="J18" s="31">
-        <f t="shared" si="0"/>
+        <f>A18</f>
         <v>2016</v>
       </c>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:10">
       <c r="A19" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2017</v>
       </c>
       <c r="B19" s="39">
@@ -11184,23 +11184,23 @@
         <v>2</v>
       </c>
       <c r="J19" s="31">
-        <f t="shared" si="0"/>
+        <f>A19</f>
         <v>2017</v>
       </c>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:10">
       <c r="A20" s="38">
-        <f t="shared" si="1"/>
-        <v>2018</v>
+        <f>B20</f>
+        <v>2019</v>
       </c>
       <c r="B20" s="39">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>294</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="E20" s="29">
         <v>1</v>
@@ -11215,23 +11215,23 @@
         <v>2</v>
       </c>
       <c r="J20" s="31">
-        <f t="shared" si="0"/>
-        <v>2018</v>
+        <f t="shared" ref="J20:J65" si="1">A20</f>
+        <v>2019</v>
       </c>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:10">
       <c r="A21" s="38">
-        <f t="shared" si="1"/>
-        <v>2019</v>
+        <f>B21</f>
+        <v>2020</v>
       </c>
       <c r="B21" s="39">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>295</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="29">
         <v>1</v>
@@ -11246,23 +11246,23 @@
         <v>2</v>
       </c>
       <c r="J21" s="31">
-        <f t="shared" si="0"/>
-        <v>2019</v>
+        <f t="shared" si="1"/>
+        <v>2020</v>
       </c>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:10">
       <c r="A22" s="38">
-        <f t="shared" si="1"/>
-        <v>2020</v>
+        <f>B22</f>
+        <v>2021</v>
       </c>
       <c r="B22" s="39">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>296</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="29">
         <v>1</v>
@@ -11277,23 +11277,23 @@
         <v>2</v>
       </c>
       <c r="J22" s="31">
-        <f t="shared" si="0"/>
-        <v>2020</v>
+        <f t="shared" si="1"/>
+        <v>2021</v>
       </c>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:10">
       <c r="A23" s="38">
-        <f t="shared" si="1"/>
-        <v>2021</v>
+        <f>B23</f>
+        <v>2022</v>
       </c>
       <c r="B23" s="39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>297</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E23" s="29">
         <v>1</v>
@@ -11308,23 +11308,23 @@
         <v>2</v>
       </c>
       <c r="J23" s="31">
-        <f t="shared" si="0"/>
-        <v>2021</v>
+        <f t="shared" si="1"/>
+        <v>2022</v>
       </c>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:10">
       <c r="A24" s="38">
-        <f t="shared" si="1"/>
-        <v>2022</v>
+        <f>B24</f>
+        <v>2023</v>
       </c>
       <c r="B24" s="39">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>298</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="E24" s="29">
         <v>1</v>
@@ -11339,23 +11339,23 @@
         <v>2</v>
       </c>
       <c r="J24" s="31">
-        <f t="shared" si="0"/>
-        <v>2022</v>
+        <f t="shared" si="1"/>
+        <v>2023</v>
       </c>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:10">
       <c r="A25" s="38">
-        <f t="shared" si="1"/>
-        <v>2023</v>
+        <f>B25</f>
+        <v>2024</v>
       </c>
       <c r="B25" s="39">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>299</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E25" s="29">
         <v>1</v>
@@ -11370,23 +11370,23 @@
         <v>2</v>
       </c>
       <c r="J25" s="31">
-        <f t="shared" si="0"/>
-        <v>2023</v>
+        <f t="shared" si="1"/>
+        <v>2024</v>
       </c>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:10">
       <c r="A26" s="38">
-        <f t="shared" si="1"/>
-        <v>2024</v>
+        <f>B26</f>
+        <v>2025</v>
       </c>
       <c r="B26" s="39">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>300</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E26" s="29">
         <v>1</v>
@@ -11401,23 +11401,23 @@
         <v>2</v>
       </c>
       <c r="J26" s="31">
-        <f t="shared" si="0"/>
-        <v>2024</v>
+        <f t="shared" si="1"/>
+        <v>2025</v>
       </c>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:10">
       <c r="A27" s="38">
-        <f t="shared" si="1"/>
-        <v>2025</v>
+        <f>B27</f>
+        <v>2026</v>
       </c>
       <c r="B27" s="39">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>301</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E27" s="29">
         <v>1</v>
@@ -11432,23 +11432,23 @@
         <v>2</v>
       </c>
       <c r="J27" s="31">
-        <f t="shared" si="0"/>
-        <v>2025</v>
+        <f t="shared" si="1"/>
+        <v>2026</v>
       </c>
     </row>
     <row r="28" ht="18.5" customHeight="1" spans="1:10">
       <c r="A28" s="38">
-        <f t="shared" si="1"/>
-        <v>2026</v>
+        <f>B28</f>
+        <v>2027</v>
       </c>
       <c r="B28" s="39">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>302</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="E28" s="29">
         <v>1</v>
@@ -11463,23 +11463,23 @@
         <v>2</v>
       </c>
       <c r="J28" s="31">
-        <f t="shared" si="0"/>
-        <v>2026</v>
+        <f t="shared" si="1"/>
+        <v>2027</v>
       </c>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:10">
       <c r="A29" s="38">
-        <f t="shared" si="1"/>
-        <v>2027</v>
+        <f>B29</f>
+        <v>2028</v>
       </c>
       <c r="B29" s="39">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>303</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="E29" s="29">
         <v>1</v>
@@ -11494,23 +11494,23 @@
         <v>2</v>
       </c>
       <c r="J29" s="31">
-        <f t="shared" si="0"/>
-        <v>2027</v>
+        <f t="shared" si="1"/>
+        <v>2028</v>
       </c>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:10">
       <c r="A30" s="38">
-        <f t="shared" si="1"/>
-        <v>2028</v>
+        <f>B30</f>
+        <v>2029</v>
       </c>
       <c r="B30" s="39">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>304</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E30" s="29">
         <v>1</v>
@@ -11525,23 +11525,23 @@
         <v>2</v>
       </c>
       <c r="J30" s="31">
-        <f t="shared" si="0"/>
-        <v>2028</v>
+        <f t="shared" si="1"/>
+        <v>2029</v>
       </c>
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:10">
       <c r="A31" s="38">
-        <f t="shared" si="1"/>
-        <v>2029</v>
+        <f>B31</f>
+        <v>2030</v>
       </c>
       <c r="B31" s="39">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>305</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E31" s="29">
         <v>1</v>
@@ -11556,23 +11556,23 @@
         <v>2</v>
       </c>
       <c r="J31" s="31">
-        <f t="shared" si="0"/>
-        <v>2029</v>
+        <f t="shared" si="1"/>
+        <v>2030</v>
       </c>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:10">
       <c r="A32" s="38">
-        <f t="shared" si="1"/>
-        <v>2030</v>
+        <f>B32</f>
+        <v>2031</v>
       </c>
       <c r="B32" s="39">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C32" s="29" t="s">
         <v>306</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="E32" s="29">
         <v>1</v>
@@ -11587,23 +11587,23 @@
         <v>2</v>
       </c>
       <c r="J32" s="31">
-        <f t="shared" si="0"/>
-        <v>2030</v>
+        <f t="shared" si="1"/>
+        <v>2031</v>
       </c>
     </row>
     <row r="33" ht="18.5" customHeight="1" spans="1:10">
       <c r="A33" s="38">
-        <f t="shared" si="1"/>
-        <v>2031</v>
+        <f>B33</f>
+        <v>2032</v>
       </c>
       <c r="B33" s="39">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>307</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="E33" s="29">
         <v>1</v>
@@ -11618,23 +11618,23 @@
         <v>2</v>
       </c>
       <c r="J33" s="31">
-        <f t="shared" si="0"/>
-        <v>2031</v>
+        <f t="shared" si="1"/>
+        <v>2032</v>
       </c>
     </row>
     <row r="34" ht="18.5" customHeight="1" spans="1:10">
       <c r="A34" s="38">
-        <f t="shared" si="1"/>
-        <v>2032</v>
+        <f>B34</f>
+        <v>2033</v>
       </c>
       <c r="B34" s="39">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C34" s="29" t="s">
         <v>308</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E34" s="29">
         <v>1</v>
@@ -11649,23 +11649,23 @@
         <v>2</v>
       </c>
       <c r="J34" s="31">
-        <f t="shared" si="0"/>
-        <v>2032</v>
+        <f t="shared" si="1"/>
+        <v>2033</v>
       </c>
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:10">
       <c r="A35" s="38">
-        <f t="shared" si="1"/>
-        <v>2033</v>
+        <f t="shared" ref="A35:A66" si="2">B35</f>
+        <v>2034</v>
       </c>
       <c r="B35" s="39">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>309</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="E35" s="29">
         <v>1</v>
@@ -11680,23 +11680,23 @@
         <v>2</v>
       </c>
       <c r="J35" s="31">
-        <f t="shared" si="0"/>
-        <v>2033</v>
+        <f t="shared" si="1"/>
+        <v>2034</v>
       </c>
     </row>
     <row r="36" ht="18.5" customHeight="1" spans="1:10">
       <c r="A36" s="38">
-        <f t="shared" ref="A36:A67" si="2">B36</f>
-        <v>2034</v>
+        <f t="shared" si="2"/>
+        <v>2035</v>
       </c>
       <c r="B36" s="39">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>310</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="E36" s="29">
         <v>1</v>
@@ -11711,23 +11711,23 @@
         <v>2</v>
       </c>
       <c r="J36" s="31">
-        <f t="shared" si="0"/>
-        <v>2034</v>
+        <f t="shared" si="1"/>
+        <v>2035</v>
       </c>
     </row>
     <row r="37" ht="18.5" customHeight="1" spans="1:10">
       <c r="A37" s="38">
         <f t="shared" si="2"/>
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B37" s="39">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>311</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="E37" s="29">
         <v>1</v>
@@ -11742,23 +11742,23 @@
         <v>2</v>
       </c>
       <c r="J37" s="31">
-        <f t="shared" si="0"/>
-        <v>2035</v>
+        <f t="shared" si="1"/>
+        <v>2036</v>
       </c>
     </row>
     <row r="38" ht="18.5" customHeight="1" spans="1:10">
       <c r="A38" s="38">
         <f t="shared" si="2"/>
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B38" s="39">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>312</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38" s="29">
         <v>1</v>
@@ -11773,23 +11773,23 @@
         <v>2</v>
       </c>
       <c r="J38" s="31">
-        <f t="shared" si="0"/>
-        <v>2036</v>
+        <f t="shared" si="1"/>
+        <v>2037</v>
       </c>
     </row>
     <row r="39" ht="18.5" customHeight="1" spans="1:10">
       <c r="A39" s="38">
         <f t="shared" si="2"/>
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B39" s="39">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>313</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="E39" s="29">
         <v>1</v>
@@ -11804,23 +11804,23 @@
         <v>2</v>
       </c>
       <c r="J39" s="31">
-        <f t="shared" si="0"/>
-        <v>2037</v>
+        <f t="shared" si="1"/>
+        <v>2038</v>
       </c>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:10">
       <c r="A40" s="38">
         <f t="shared" si="2"/>
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B40" s="39">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>314</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E40" s="29">
         <v>1</v>
@@ -11835,23 +11835,23 @@
         <v>2</v>
       </c>
       <c r="J40" s="31">
-        <f t="shared" si="0"/>
-        <v>2038</v>
+        <f t="shared" si="1"/>
+        <v>2039</v>
       </c>
     </row>
     <row r="41" ht="18.5" customHeight="1" spans="1:10">
       <c r="A41" s="38">
         <f t="shared" si="2"/>
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B41" s="39">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>315</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="E41" s="29">
         <v>1</v>
@@ -11866,23 +11866,23 @@
         <v>2</v>
       </c>
       <c r="J41" s="31">
-        <f t="shared" si="0"/>
-        <v>2039</v>
+        <f t="shared" si="1"/>
+        <v>2040</v>
       </c>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:10">
       <c r="A42" s="38">
         <f t="shared" si="2"/>
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B42" s="39">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>316</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="E42" s="29">
         <v>1</v>
@@ -11897,23 +11897,23 @@
         <v>2</v>
       </c>
       <c r="J42" s="31">
-        <f t="shared" si="0"/>
-        <v>2040</v>
+        <f t="shared" si="1"/>
+        <v>2041</v>
       </c>
     </row>
     <row r="43" ht="18.5" customHeight="1" spans="1:10">
       <c r="A43" s="38">
         <f t="shared" si="2"/>
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B43" s="39">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>317</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E43" s="29">
         <v>1</v>
@@ -11928,23 +11928,23 @@
         <v>2</v>
       </c>
       <c r="J43" s="31">
-        <f t="shared" si="0"/>
-        <v>2041</v>
+        <f t="shared" si="1"/>
+        <v>2042</v>
       </c>
     </row>
     <row r="44" ht="18.5" customHeight="1" spans="1:10">
       <c r="A44" s="38">
         <f t="shared" si="2"/>
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B44" s="39">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>318</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="E44" s="29">
         <v>1</v>
@@ -11959,23 +11959,23 @@
         <v>2</v>
       </c>
       <c r="J44" s="31">
-        <f t="shared" si="0"/>
-        <v>2042</v>
+        <f t="shared" si="1"/>
+        <v>2043</v>
       </c>
     </row>
     <row r="45" ht="18.5" customHeight="1" spans="1:10">
       <c r="A45" s="38">
         <f t="shared" si="2"/>
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B45" s="39">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>319</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="E45" s="29">
         <v>1</v>
@@ -11990,23 +11990,23 @@
         <v>2</v>
       </c>
       <c r="J45" s="31">
-        <f t="shared" si="0"/>
-        <v>2043</v>
+        <f t="shared" si="1"/>
+        <v>2044</v>
       </c>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:10">
       <c r="A46" s="38">
         <f t="shared" si="2"/>
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B46" s="39">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>320</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E46" s="29">
         <v>1</v>
@@ -12021,23 +12021,23 @@
         <v>2</v>
       </c>
       <c r="J46" s="31">
-        <f t="shared" si="0"/>
-        <v>2044</v>
+        <f t="shared" si="1"/>
+        <v>2045</v>
       </c>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:10">
       <c r="A47" s="38">
         <f t="shared" si="2"/>
-        <v>2045</v>
-      </c>
-      <c r="B47" s="39">
-        <v>2045</v>
+        <v>2501</v>
+      </c>
+      <c r="B47" s="29">
+        <v>2501</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>321</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="E47" s="29">
         <v>1</v>
@@ -12049,26 +12049,26 @@
         <v>270</v>
       </c>
       <c r="H47" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" s="31">
-        <f t="shared" si="0"/>
-        <v>2045</v>
+        <f t="shared" si="1"/>
+        <v>2501</v>
       </c>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:10">
       <c r="A48" s="38">
         <f t="shared" si="2"/>
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="B48" s="29">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>322</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E48" s="29">
         <v>1</v>
@@ -12083,23 +12083,23 @@
         <v>3</v>
       </c>
       <c r="J48" s="31">
-        <f t="shared" si="0"/>
-        <v>2501</v>
+        <f t="shared" si="1"/>
+        <v>2502</v>
       </c>
     </row>
     <row r="49" ht="18.5" customHeight="1" spans="1:10">
       <c r="A49" s="38">
         <f t="shared" si="2"/>
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="B49" s="29">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>323</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E49" s="29">
         <v>1</v>
@@ -12114,23 +12114,23 @@
         <v>3</v>
       </c>
       <c r="J49" s="31">
-        <f t="shared" si="0"/>
-        <v>2502</v>
+        <f t="shared" si="1"/>
+        <v>2503</v>
       </c>
     </row>
     <row r="50" ht="18.5" customHeight="1" spans="1:10">
       <c r="A50" s="38">
         <f t="shared" si="2"/>
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="B50" s="29">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>324</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E50" s="29">
         <v>1</v>
@@ -12145,23 +12145,23 @@
         <v>3</v>
       </c>
       <c r="J50" s="31">
-        <f t="shared" si="0"/>
-        <v>2503</v>
+        <f t="shared" si="1"/>
+        <v>2504</v>
       </c>
     </row>
     <row r="51" ht="18.5" customHeight="1" spans="1:10">
       <c r="A51" s="38">
         <f t="shared" si="2"/>
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B51" s="29">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>325</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="E51" s="29">
         <v>1</v>
@@ -12176,23 +12176,23 @@
         <v>3</v>
       </c>
       <c r="J51" s="31">
-        <f t="shared" si="0"/>
-        <v>2504</v>
+        <f t="shared" si="1"/>
+        <v>2505</v>
       </c>
     </row>
     <row r="52" ht="18.5" customHeight="1" spans="1:10">
       <c r="A52" s="38">
         <f t="shared" si="2"/>
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="B52" s="29">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>326</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E52" s="29">
         <v>1</v>
@@ -12207,23 +12207,23 @@
         <v>3</v>
       </c>
       <c r="J52" s="31">
-        <f t="shared" si="0"/>
-        <v>2505</v>
+        <f t="shared" si="1"/>
+        <v>2506</v>
       </c>
     </row>
     <row r="53" ht="18.5" customHeight="1" spans="1:10">
       <c r="A53" s="38">
         <f t="shared" si="2"/>
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="B53" s="29">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>327</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="E53" s="29">
         <v>1</v>
@@ -12238,23 +12238,23 @@
         <v>3</v>
       </c>
       <c r="J53" s="31">
-        <f t="shared" si="0"/>
-        <v>2506</v>
+        <f t="shared" si="1"/>
+        <v>2507</v>
       </c>
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:10">
       <c r="A54" s="38">
         <f t="shared" si="2"/>
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="B54" s="29">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>328</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E54" s="29">
         <v>1</v>
@@ -12269,23 +12269,23 @@
         <v>3</v>
       </c>
       <c r="J54" s="31">
-        <f t="shared" si="0"/>
-        <v>2507</v>
+        <f t="shared" si="1"/>
+        <v>2508</v>
       </c>
     </row>
     <row r="55" ht="18.5" customHeight="1" spans="1:10">
       <c r="A55" s="38">
         <f t="shared" si="2"/>
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="B55" s="29">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="C55" s="29" t="s">
         <v>329</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="E55" s="29">
         <v>1</v>
@@ -12300,23 +12300,23 @@
         <v>3</v>
       </c>
       <c r="J55" s="31">
-        <f t="shared" si="0"/>
-        <v>2508</v>
+        <f t="shared" si="1"/>
+        <v>2509</v>
       </c>
     </row>
     <row r="56" ht="18.5" customHeight="1" spans="1:10">
       <c r="A56" s="38">
         <f t="shared" si="2"/>
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B56" s="29">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>330</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E56" s="29">
         <v>1</v>
@@ -12331,23 +12331,23 @@
         <v>3</v>
       </c>
       <c r="J56" s="31">
-        <f t="shared" si="0"/>
-        <v>2509</v>
+        <f t="shared" si="1"/>
+        <v>2510</v>
       </c>
     </row>
     <row r="57" ht="18.5" customHeight="1" spans="1:10">
       <c r="A57" s="38">
         <f t="shared" si="2"/>
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="B57" s="29">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>331</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E57" s="29">
         <v>1</v>
@@ -12362,23 +12362,23 @@
         <v>3</v>
       </c>
       <c r="J57" s="31">
-        <f t="shared" si="0"/>
-        <v>2510</v>
+        <f t="shared" si="1"/>
+        <v>2511</v>
       </c>
     </row>
     <row r="58" ht="18.5" customHeight="1" spans="1:10">
       <c r="A58" s="38">
         <f t="shared" si="2"/>
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B58" s="29">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>332</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E58" s="29">
         <v>1</v>
@@ -12393,23 +12393,23 @@
         <v>3</v>
       </c>
       <c r="J58" s="31">
-        <f t="shared" si="0"/>
-        <v>2511</v>
+        <f t="shared" si="1"/>
+        <v>2512</v>
       </c>
     </row>
     <row r="59" ht="18.5" customHeight="1" spans="1:10">
       <c r="A59" s="38">
         <f t="shared" si="2"/>
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="B59" s="29">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>333</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E59" s="29">
         <v>1</v>
@@ -12424,23 +12424,23 @@
         <v>3</v>
       </c>
       <c r="J59" s="31">
-        <f t="shared" si="0"/>
-        <v>2512</v>
+        <f t="shared" si="1"/>
+        <v>2513</v>
       </c>
     </row>
     <row r="60" ht="18.5" customHeight="1" spans="1:10">
       <c r="A60" s="38">
         <f t="shared" si="2"/>
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="B60" s="29">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>334</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E60" s="29">
         <v>1</v>
@@ -12455,29 +12455,29 @@
         <v>3</v>
       </c>
       <c r="J60" s="31">
-        <f t="shared" si="0"/>
-        <v>2513</v>
+        <f t="shared" si="1"/>
+        <v>2514</v>
       </c>
     </row>
     <row r="61" ht="18.5" customHeight="1" spans="1:10">
       <c r="A61" s="38">
-        <f t="shared" si="2"/>
-        <v>2514</v>
+        <f>B61</f>
+        <v>2516</v>
       </c>
       <c r="B61" s="29">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>335</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E61" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="29" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="G61" s="39" t="s">
         <v>270</v>
@@ -12486,29 +12486,29 @@
         <v>3</v>
       </c>
       <c r="J61" s="31">
-        <f t="shared" si="0"/>
-        <v>2514</v>
+        <f>A61</f>
+        <v>2516</v>
       </c>
     </row>
     <row r="62" ht="18.5" customHeight="1" spans="1:10">
       <c r="A62" s="38">
-        <f t="shared" si="2"/>
-        <v>2515</v>
+        <f>B62</f>
+        <v>2517</v>
       </c>
       <c r="B62" s="29">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="E62" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" s="29" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>270</v>
@@ -12517,29 +12517,29 @@
         <v>3</v>
       </c>
       <c r="J62" s="31">
-        <f t="shared" si="0"/>
-        <v>2515</v>
+        <f>A62</f>
+        <v>2517</v>
       </c>
     </row>
     <row r="63" ht="18.5" customHeight="1" spans="1:10">
       <c r="A63" s="38">
-        <f t="shared" si="2"/>
-        <v>2516</v>
+        <f>B63</f>
+        <v>2518</v>
       </c>
       <c r="B63" s="29">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>338</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E63" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="29" t="s">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="G63" s="39" t="s">
         <v>270</v>
@@ -12548,23 +12548,23 @@
         <v>3</v>
       </c>
       <c r="J63" s="31">
-        <f t="shared" si="0"/>
-        <v>2516</v>
+        <f>A63</f>
+        <v>2518</v>
       </c>
     </row>
     <row r="64" ht="18.5" customHeight="1" spans="1:10">
       <c r="A64" s="38">
-        <f t="shared" si="2"/>
-        <v>2517</v>
+        <f>B64</f>
+        <v>2519</v>
       </c>
       <c r="B64" s="29">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="E64" s="29">
         <v>1</v>
@@ -12579,23 +12579,23 @@
         <v>3</v>
       </c>
       <c r="J64" s="31">
-        <f t="shared" si="0"/>
-        <v>2517</v>
+        <f>A64</f>
+        <v>2519</v>
       </c>
     </row>
     <row r="65" ht="18.5" customHeight="1" spans="1:10">
       <c r="A65" s="38">
-        <f t="shared" si="2"/>
-        <v>2518</v>
+        <f>B65</f>
+        <v>2520</v>
       </c>
       <c r="B65" s="29">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="C65" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="D65" s="29" t="s">
         <v>341</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="E65" s="29">
         <v>1</v>
@@ -12610,23 +12610,23 @@
         <v>3</v>
       </c>
       <c r="J65" s="31">
-        <f t="shared" si="0"/>
-        <v>2518</v>
+        <f t="shared" ref="J65:J104" si="3">A65</f>
+        <v>2520</v>
       </c>
     </row>
     <row r="66" ht="18.5" customHeight="1" spans="1:10">
       <c r="A66" s="38">
-        <f t="shared" si="2"/>
-        <v>2519</v>
+        <f t="shared" ref="A66:A97" si="4">B66</f>
+        <v>2521</v>
       </c>
       <c r="B66" s="29">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>342</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="E66" s="29">
         <v>1</v>
@@ -12641,23 +12641,23 @@
         <v>3</v>
       </c>
       <c r="J66" s="31">
-        <f t="shared" si="0"/>
-        <v>2519</v>
+        <f t="shared" si="3"/>
+        <v>2521</v>
       </c>
     </row>
     <row r="67" ht="18.5" customHeight="1" spans="1:10">
       <c r="A67" s="38">
-        <f t="shared" si="2"/>
-        <v>2520</v>
+        <f t="shared" si="4"/>
+        <v>2522</v>
       </c>
       <c r="B67" s="29">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>343</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>344</v>
+        <v>167</v>
       </c>
       <c r="E67" s="29">
         <v>1</v>
@@ -12672,23 +12672,23 @@
         <v>3</v>
       </c>
       <c r="J67" s="31">
-        <f t="shared" ref="J67:J130" si="3">A67</f>
-        <v>2520</v>
+        <f t="shared" si="3"/>
+        <v>2522</v>
       </c>
     </row>
     <row r="68" ht="18.5" customHeight="1" spans="1:10">
       <c r="A68" s="38">
-        <f t="shared" ref="A68:A99" si="4">B68</f>
-        <v>2521</v>
+        <f t="shared" si="4"/>
+        <v>2523</v>
       </c>
       <c r="B68" s="29">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="C68" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>345</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>161</v>
       </c>
       <c r="E68" s="29">
         <v>1</v>
@@ -12704,22 +12704,22 @@
       </c>
       <c r="J68" s="31">
         <f t="shared" si="3"/>
-        <v>2521</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="69" ht="18.5" customHeight="1" spans="1:10">
       <c r="A69" s="38">
         <f t="shared" si="4"/>
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="B69" s="29">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="C69" s="29" t="s">
         <v>346</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E69" s="29">
         <v>1</v>
@@ -12735,22 +12735,22 @@
       </c>
       <c r="J69" s="31">
         <f t="shared" si="3"/>
-        <v>2522</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="70" ht="18.5" customHeight="1" spans="1:10">
       <c r="A70" s="38">
         <f t="shared" si="4"/>
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="B70" s="29">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>347</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>348</v>
+        <v>148</v>
       </c>
       <c r="E70" s="29">
         <v>1</v>
@@ -12766,22 +12766,22 @@
       </c>
       <c r="J70" s="31">
         <f t="shared" si="3"/>
-        <v>2523</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="71" ht="18.5" customHeight="1" spans="1:10">
       <c r="A71" s="38">
         <f t="shared" si="4"/>
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="B71" s="29">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E71" s="29">
         <v>1</v>
@@ -12797,22 +12797,22 @@
       </c>
       <c r="J71" s="31">
         <f t="shared" si="3"/>
-        <v>2524</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="72" ht="18.5" customHeight="1" spans="1:10">
       <c r="A72" s="38">
         <f t="shared" si="4"/>
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="B72" s="29">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="C72" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="D72" s="29" t="s">
         <v>350</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>148</v>
       </c>
       <c r="E72" s="29">
         <v>1</v>
@@ -12828,22 +12828,22 @@
       </c>
       <c r="J72" s="31">
         <f t="shared" si="3"/>
-        <v>2525</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="73" ht="18.5" customHeight="1" spans="1:10">
       <c r="A73" s="38">
         <f t="shared" si="4"/>
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="B73" s="29">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>351</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E73" s="29">
         <v>1</v>
@@ -12859,22 +12859,22 @@
       </c>
       <c r="J73" s="31">
         <f t="shared" si="3"/>
-        <v>2526</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="74" ht="18.5" customHeight="1" spans="1:10">
       <c r="A74" s="38">
         <f t="shared" si="4"/>
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="B74" s="29">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="C74" s="29" t="s">
         <v>352</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>353</v>
+        <v>156</v>
       </c>
       <c r="E74" s="29">
         <v>1</v>
@@ -12890,22 +12890,22 @@
       </c>
       <c r="J74" s="31">
         <f t="shared" si="3"/>
-        <v>2527</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="75" ht="18.5" customHeight="1" spans="1:10">
       <c r="A75" s="38">
         <f t="shared" si="4"/>
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="B75" s="29">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E75" s="29">
         <v>1</v>
@@ -12921,22 +12921,22 @@
       </c>
       <c r="J75" s="31">
         <f t="shared" si="3"/>
-        <v>2528</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="76" ht="18.5" customHeight="1" spans="1:10">
       <c r="A76" s="38">
         <f t="shared" si="4"/>
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="B76" s="29">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="E76" s="29">
         <v>1</v>
@@ -12952,22 +12952,22 @@
       </c>
       <c r="J76" s="31">
         <f t="shared" si="3"/>
-        <v>2529</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="77" ht="18.5" customHeight="1" spans="1:10">
       <c r="A77" s="38">
         <f t="shared" si="4"/>
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="B77" s="29">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="E77" s="29">
         <v>1</v>
@@ -12983,22 +12983,22 @@
       </c>
       <c r="J77" s="31">
         <f t="shared" si="3"/>
-        <v>2530</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="78" ht="18.5" customHeight="1" spans="1:10">
       <c r="A78" s="38">
         <f t="shared" si="4"/>
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B78" s="29">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E78" s="29">
         <v>1</v>
@@ -13014,22 +13014,22 @@
       </c>
       <c r="J78" s="31">
         <f t="shared" si="3"/>
-        <v>2531</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:10">
       <c r="A79" s="38">
         <f t="shared" si="4"/>
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="B79" s="29">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="E79" s="29">
         <v>1</v>
@@ -13045,22 +13045,22 @@
       </c>
       <c r="J79" s="31">
         <f t="shared" si="3"/>
-        <v>2532</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="80" ht="18.5" customHeight="1" spans="1:10">
       <c r="A80" s="38">
         <f t="shared" si="4"/>
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="B80" s="29">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="E80" s="29">
         <v>1</v>
@@ -13076,22 +13076,22 @@
       </c>
       <c r="J80" s="31">
         <f t="shared" si="3"/>
-        <v>2533</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="81" ht="18.5" customHeight="1" spans="1:10">
       <c r="A81" s="38">
         <f t="shared" si="4"/>
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="B81" s="29">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="E81" s="29">
         <v>1</v>
@@ -13107,22 +13107,22 @@
       </c>
       <c r="J81" s="31">
         <f t="shared" si="3"/>
-        <v>2534</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="82" ht="18.5" customHeight="1" spans="1:10">
       <c r="A82" s="38">
         <f t="shared" si="4"/>
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="B82" s="29">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E82" s="29">
         <v>1</v>
@@ -13138,22 +13138,22 @@
       </c>
       <c r="J82" s="31">
         <f t="shared" si="3"/>
-        <v>2535</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="83" ht="18.5" customHeight="1" spans="1:10">
       <c r="A83" s="38">
         <f t="shared" si="4"/>
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="B83" s="29">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E83" s="29">
         <v>1</v>
@@ -13169,22 +13169,22 @@
       </c>
       <c r="J83" s="31">
         <f t="shared" si="3"/>
-        <v>2536</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="84" ht="18.5" customHeight="1" spans="1:10">
       <c r="A84" s="38">
         <f t="shared" si="4"/>
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="B84" s="29">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E84" s="29">
         <v>1</v>
@@ -13200,22 +13200,22 @@
       </c>
       <c r="J84" s="31">
         <f t="shared" si="3"/>
-        <v>2537</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="85" ht="18.5" customHeight="1" spans="1:10">
       <c r="A85" s="38">
         <f t="shared" si="4"/>
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="B85" s="29">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E85" s="29">
         <v>1</v>
@@ -13231,22 +13231,22 @@
       </c>
       <c r="J85" s="31">
         <f t="shared" si="3"/>
-        <v>2538</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="86" ht="18.5" customHeight="1" spans="1:10">
       <c r="A86" s="38">
         <f t="shared" si="4"/>
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="B86" s="29">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="C86" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>365</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="E86" s="29">
         <v>1</v>
@@ -13262,22 +13262,22 @@
       </c>
       <c r="J86" s="31">
         <f t="shared" si="3"/>
-        <v>2539</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="87" ht="18.5" customHeight="1" spans="1:10">
       <c r="A87" s="38">
         <f t="shared" si="4"/>
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="B87" s="29">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="C87" s="29" t="s">
         <v>366</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E87" s="29">
         <v>1</v>
@@ -13293,22 +13293,22 @@
       </c>
       <c r="J87" s="31">
         <f t="shared" si="3"/>
-        <v>2540</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="88" ht="18.5" customHeight="1" spans="1:10">
       <c r="A88" s="38">
         <f t="shared" si="4"/>
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="B88" s="29">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="C88" s="29" t="s">
         <v>367</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>368</v>
+        <v>197</v>
       </c>
       <c r="E88" s="29">
         <v>1</v>
@@ -13324,22 +13324,22 @@
       </c>
       <c r="J88" s="31">
         <f t="shared" si="3"/>
-        <v>2541</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="89" ht="18.5" customHeight="1" spans="1:10">
       <c r="A89" s="38">
         <f t="shared" si="4"/>
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="B89" s="29">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="C89" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D89" s="29" t="s">
         <v>369</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="E89" s="29">
         <v>1</v>
@@ -13355,22 +13355,22 @@
       </c>
       <c r="J89" s="31">
         <f t="shared" si="3"/>
-        <v>2542</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="90" ht="18.5" customHeight="1" spans="1:10">
       <c r="A90" s="38">
         <f t="shared" si="4"/>
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="B90" s="29">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C90" s="29" t="s">
         <v>370</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E90" s="29">
         <v>1</v>
@@ -13386,28 +13386,28 @@
       </c>
       <c r="J90" s="31">
         <f t="shared" si="3"/>
-        <v>2543</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="91" ht="18.5" customHeight="1" spans="1:10">
       <c r="A91" s="38">
         <f t="shared" si="4"/>
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="B91" s="29">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="C91" s="29" t="s">
         <v>371</v>
       </c>
       <c r="D91" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="29">
+        <v>2</v>
+      </c>
+      <c r="F91" s="29" t="s">
         <v>372</v>
-      </c>
-      <c r="E91" s="29">
-        <v>1</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G91" s="39" t="s">
         <v>270</v>
@@ -13417,28 +13417,28 @@
       </c>
       <c r="J91" s="31">
         <f t="shared" si="3"/>
-        <v>2544</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="92" ht="18.5" customHeight="1" spans="1:10">
       <c r="A92" s="38">
         <f t="shared" si="4"/>
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="B92" s="29">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="C92" s="29" t="s">
         <v>373</v>
       </c>
       <c r="D92" s="29" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="E92" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" s="29" t="s">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="G92" s="39" t="s">
         <v>270</v>
@@ -13448,28 +13448,28 @@
       </c>
       <c r="J92" s="31">
         <f t="shared" si="3"/>
-        <v>2545</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="93" ht="18.5" customHeight="1" spans="1:10">
       <c r="A93" s="38">
         <f t="shared" si="4"/>
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B93" s="29">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D93" s="29" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="E93" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93" s="29" t="s">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="G93" s="39" t="s">
         <v>270</v>
@@ -13479,28 +13479,28 @@
       </c>
       <c r="J93" s="31">
         <f t="shared" si="3"/>
-        <v>2546</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="94" ht="18.5" customHeight="1" spans="1:10">
       <c r="A94" s="38">
         <f t="shared" si="4"/>
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="B94" s="29">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>376</v>
       </c>
       <c r="D94" s="29" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="E94" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="29" t="s">
-        <v>377</v>
+        <v>269</v>
       </c>
       <c r="G94" s="39" t="s">
         <v>270</v>
@@ -13510,22 +13510,22 @@
       </c>
       <c r="J94" s="31">
         <f t="shared" si="3"/>
-        <v>2547</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="95" ht="18.5" customHeight="1" spans="1:10">
       <c r="A95" s="38">
         <f t="shared" si="4"/>
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="B95" s="29">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="E95" s="29">
         <v>1</v>
@@ -13541,22 +13541,22 @@
       </c>
       <c r="J95" s="31">
         <f t="shared" si="3"/>
-        <v>2548</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="96" ht="18.5" customHeight="1" spans="1:10">
       <c r="A96" s="38">
         <f t="shared" si="4"/>
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="B96" s="29">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="E96" s="29">
         <v>1</v>
@@ -13572,22 +13572,22 @@
       </c>
       <c r="J96" s="31">
         <f t="shared" si="3"/>
-        <v>2549</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="97" ht="18.5" customHeight="1" spans="1:10">
       <c r="A97" s="38">
         <f t="shared" si="4"/>
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="B97" s="29">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E97" s="29">
         <v>1</v>
@@ -13603,22 +13603,22 @@
       </c>
       <c r="J97" s="31">
         <f t="shared" si="3"/>
-        <v>2550</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="98" ht="18.5" customHeight="1" spans="1:10">
       <c r="A98" s="38">
-        <f t="shared" si="4"/>
-        <v>2551</v>
+        <f>B98</f>
+        <v>2553</v>
       </c>
       <c r="B98" s="29">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E98" s="29">
         <v>1</v>
@@ -13634,22 +13634,22 @@
       </c>
       <c r="J98" s="31">
         <f t="shared" si="3"/>
-        <v>2551</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="99" ht="18.5" customHeight="1" spans="1:10">
       <c r="A99" s="38">
-        <f t="shared" si="4"/>
-        <v>2552</v>
+        <f>B99</f>
+        <v>2554</v>
       </c>
       <c r="B99" s="29">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E99" s="29">
         <v>1</v>
@@ -13665,22 +13665,22 @@
       </c>
       <c r="J99" s="31">
         <f t="shared" si="3"/>
-        <v>2552</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="100" ht="18.5" customHeight="1" spans="1:10">
       <c r="A100" s="38">
-        <f t="shared" ref="A100:A132" si="5">B100</f>
-        <v>2553</v>
+        <f>B100</f>
+        <v>2555</v>
       </c>
       <c r="B100" s="29">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E100" s="29">
         <v>1</v>
@@ -13696,22 +13696,22 @@
       </c>
       <c r="J100" s="31">
         <f t="shared" si="3"/>
-        <v>2553</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="101" ht="18.5" customHeight="1" spans="1:10">
       <c r="A101" s="38">
-        <f t="shared" si="5"/>
-        <v>2554</v>
+        <f>B101</f>
+        <v>2556</v>
       </c>
       <c r="B101" s="29">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E101" s="29">
         <v>1</v>
@@ -13727,22 +13727,22 @@
       </c>
       <c r="J101" s="31">
         <f t="shared" si="3"/>
-        <v>2554</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="102" ht="18.5" customHeight="1" spans="1:10">
       <c r="A102" s="38">
-        <f t="shared" si="5"/>
-        <v>2555</v>
+        <f>B102</f>
+        <v>2557</v>
       </c>
       <c r="B102" s="29">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E102" s="29">
         <v>1</v>
@@ -13758,22 +13758,22 @@
       </c>
       <c r="J102" s="31">
         <f t="shared" si="3"/>
-        <v>2555</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="103" ht="18.5" customHeight="1" spans="1:10">
       <c r="A103" s="38">
-        <f t="shared" si="5"/>
-        <v>2556</v>
+        <f>B103</f>
+        <v>2558</v>
       </c>
       <c r="B103" s="29">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E103" s="29">
         <v>1</v>
@@ -13789,22 +13789,22 @@
       </c>
       <c r="J103" s="31">
         <f t="shared" si="3"/>
-        <v>2556</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="104" ht="18.5" customHeight="1" spans="1:10">
       <c r="A104" s="38">
-        <f t="shared" si="5"/>
-        <v>2557</v>
+        <f>B104</f>
+        <v>2559</v>
       </c>
       <c r="B104" s="29">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E104" s="29">
         <v>1</v>
@@ -13820,22 +13820,22 @@
       </c>
       <c r="J104" s="31">
         <f t="shared" si="3"/>
-        <v>2557</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="105" ht="18.5" customHeight="1" spans="1:10">
       <c r="A105" s="38">
-        <f t="shared" si="5"/>
-        <v>2558</v>
-      </c>
-      <c r="B105" s="29">
-        <v>2558</v>
+        <f>B105</f>
+        <v>2560</v>
+      </c>
+      <c r="B105" s="39">
+        <v>2560</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="E105" s="29">
         <v>1</v>
@@ -13850,60 +13850,60 @@
         <v>3</v>
       </c>
       <c r="J105" s="31">
-        <f t="shared" si="3"/>
-        <v>2558</v>
+        <f>A105</f>
+        <v>2560</v>
       </c>
     </row>
     <row r="106" ht="18.5" customHeight="1" spans="1:10">
       <c r="A106" s="38">
-        <f t="shared" si="5"/>
-        <v>2559</v>
+        <f t="shared" ref="A99:A126" si="5">B106</f>
+        <v>2901</v>
       </c>
       <c r="B106" s="29">
-        <v>2559</v>
+        <v>2901</v>
       </c>
       <c r="C106" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="29">
+        <v>2</v>
+      </c>
+      <c r="F106" s="29" t="s">
         <v>389</v>
-      </c>
-      <c r="D106" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="E106" s="29">
-        <v>1</v>
-      </c>
-      <c r="F106" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G106" s="39" t="s">
         <v>270</v>
       </c>
       <c r="H106" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J106" s="31">
-        <f t="shared" si="3"/>
-        <v>2559</v>
+        <f>A106</f>
+        <v>2901</v>
       </c>
     </row>
     <row r="107" ht="18.5" customHeight="1" spans="1:10">
       <c r="A107" s="38">
         <f t="shared" si="5"/>
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="B107" s="29">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>390</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E107" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107" s="29" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="G107" s="39" t="s">
         <v>270</v>
@@ -13912,23 +13912,23 @@
         <v>4</v>
       </c>
       <c r="J107" s="31">
-        <f t="shared" si="3"/>
-        <v>2901</v>
+        <f>A107</f>
+        <v>2902</v>
       </c>
     </row>
     <row r="108" ht="18.5" customHeight="1" spans="1:10">
       <c r="A108" s="38">
         <f t="shared" si="5"/>
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="B108" s="29">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E108" s="29">
         <v>1</v>
@@ -13943,29 +13943,29 @@
         <v>4</v>
       </c>
       <c r="J108" s="31">
-        <f t="shared" si="3"/>
-        <v>2902</v>
+        <f>A108</f>
+        <v>2903</v>
       </c>
     </row>
     <row r="109" ht="18.5" customHeight="1" spans="1:10">
       <c r="A109" s="38">
         <f t="shared" si="5"/>
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="B109" s="29">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="C109" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E109" s="29">
+        <v>2</v>
+      </c>
+      <c r="F109" s="29" t="s">
         <v>393</v>
-      </c>
-      <c r="D109" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E109" s="29">
-        <v>1</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G109" s="39" t="s">
         <v>270</v>
@@ -13974,29 +13974,29 @@
         <v>4</v>
       </c>
       <c r="J109" s="31">
-        <f t="shared" si="3"/>
-        <v>2903</v>
+        <f>A109</f>
+        <v>2904</v>
       </c>
     </row>
     <row r="110" ht="18.5" customHeight="1" spans="1:10">
       <c r="A110" s="38">
         <f t="shared" si="5"/>
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="B110" s="29">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="C110" s="29" t="s">
         <v>394</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E110" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" s="29" t="s">
-        <v>395</v>
+        <v>269</v>
       </c>
       <c r="G110" s="39" t="s">
         <v>270</v>
@@ -14005,29 +14005,29 @@
         <v>4</v>
       </c>
       <c r="J110" s="31">
-        <f t="shared" si="3"/>
-        <v>2904</v>
+        <f>A110</f>
+        <v>2905</v>
       </c>
     </row>
     <row r="111" ht="18.5" customHeight="1" spans="1:10">
       <c r="A111" s="38">
         <f t="shared" si="5"/>
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="B111" s="29">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="C111" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="29">
+        <v>2</v>
+      </c>
+      <c r="F111" s="29" t="s">
         <v>396</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E111" s="29">
-        <v>1</v>
-      </c>
-      <c r="F111" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G111" s="39" t="s">
         <v>270</v>
@@ -14036,29 +14036,29 @@
         <v>4</v>
       </c>
       <c r="J111" s="31">
-        <f t="shared" si="3"/>
-        <v>2905</v>
+        <f>A111</f>
+        <v>2906</v>
       </c>
     </row>
     <row r="112" ht="18.5" customHeight="1" spans="1:10">
       <c r="A112" s="38">
         <f t="shared" si="5"/>
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="B112" s="29">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="C112" s="29" t="s">
         <v>397</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E112" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="29" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="G112" s="39" t="s">
         <v>270</v>
@@ -14067,29 +14067,29 @@
         <v>4</v>
       </c>
       <c r="J112" s="31">
-        <f t="shared" si="3"/>
-        <v>2906</v>
+        <f>A112</f>
+        <v>2907</v>
       </c>
     </row>
     <row r="113" ht="18.5" customHeight="1" spans="1:10">
       <c r="A113" s="38">
         <f t="shared" si="5"/>
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="B113" s="29">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="C113" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E113" s="29">
+        <v>2</v>
+      </c>
+      <c r="F113" s="29" t="s">
         <v>399</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E113" s="29">
-        <v>1</v>
-      </c>
-      <c r="F113" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G113" s="39" t="s">
         <v>270</v>
@@ -14098,29 +14098,29 @@
         <v>4</v>
       </c>
       <c r="J113" s="31">
-        <f t="shared" si="3"/>
-        <v>2907</v>
+        <f>A113</f>
+        <v>2908</v>
       </c>
     </row>
     <row r="114" ht="18.5" customHeight="1" spans="1:10">
       <c r="A114" s="38">
         <f t="shared" si="5"/>
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="B114" s="29">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="C114" s="29" t="s">
         <v>400</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E114" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114" s="29" t="s">
-        <v>401</v>
+        <v>269</v>
       </c>
       <c r="G114" s="39" t="s">
         <v>270</v>
@@ -14129,23 +14129,23 @@
         <v>4</v>
       </c>
       <c r="J114" s="31">
-        <f t="shared" si="3"/>
-        <v>2908</v>
+        <f>A114</f>
+        <v>2909</v>
       </c>
     </row>
     <row r="115" ht="18.5" customHeight="1" spans="1:10">
       <c r="A115" s="38">
         <f t="shared" si="5"/>
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="B115" s="29">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E115" s="29">
         <v>1</v>
@@ -14160,23 +14160,23 @@
         <v>4</v>
       </c>
       <c r="J115" s="31">
-        <f t="shared" si="3"/>
-        <v>2909</v>
+        <f>A115</f>
+        <v>2910</v>
       </c>
     </row>
     <row r="116" ht="18.5" customHeight="1" spans="1:10">
       <c r="A116" s="38">
         <f t="shared" si="5"/>
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="B116" s="29">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E116" s="29">
         <v>1</v>
@@ -14191,29 +14191,29 @@
         <v>4</v>
       </c>
       <c r="J116" s="31">
-        <f t="shared" si="3"/>
-        <v>2910</v>
+        <f>A116</f>
+        <v>2911</v>
       </c>
     </row>
     <row r="117" ht="18.5" customHeight="1" spans="1:10">
       <c r="A117" s="38">
         <f t="shared" si="5"/>
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="B117" s="29">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="C117" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="D117" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="E117" s="29">
+        <v>2</v>
+      </c>
+      <c r="F117" s="29" t="s">
         <v>404</v>
-      </c>
-      <c r="D117" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="E117" s="29">
-        <v>1</v>
-      </c>
-      <c r="F117" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G117" s="39" t="s">
         <v>270</v>
@@ -14222,23 +14222,23 @@
         <v>4</v>
       </c>
       <c r="J117" s="31">
-        <f t="shared" si="3"/>
-        <v>2911</v>
+        <f>A117</f>
+        <v>2912</v>
       </c>
     </row>
     <row r="118" ht="18.5" customHeight="1" spans="1:10">
       <c r="A118" s="38">
         <f t="shared" si="5"/>
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="B118" s="29">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="C118" s="29" t="s">
         <v>405</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="E118" s="29">
         <v>2</v>
@@ -14253,29 +14253,29 @@
         <v>4</v>
       </c>
       <c r="J118" s="31">
-        <f t="shared" si="3"/>
-        <v>2912</v>
+        <f>A118</f>
+        <v>2913</v>
       </c>
     </row>
     <row r="119" ht="18.5" customHeight="1" spans="1:10">
       <c r="A119" s="38">
         <f t="shared" si="5"/>
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="B119" s="29">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C119" s="29" t="s">
         <v>407</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="E119" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" s="29" t="s">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="G119" s="39" t="s">
         <v>270</v>
@@ -14284,23 +14284,23 @@
         <v>4</v>
       </c>
       <c r="J119" s="31">
-        <f t="shared" si="3"/>
-        <v>2913</v>
+        <f>A119</f>
+        <v>2914</v>
       </c>
     </row>
     <row r="120" ht="18.5" customHeight="1" spans="1:10">
       <c r="A120" s="38">
         <f t="shared" si="5"/>
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="B120" s="29">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E120" s="29">
         <v>1</v>
@@ -14315,23 +14315,23 @@
         <v>4</v>
       </c>
       <c r="J120" s="31">
-        <f t="shared" si="3"/>
-        <v>2914</v>
+        <f>A120</f>
+        <v>2915</v>
       </c>
     </row>
     <row r="121" ht="18.5" customHeight="1" spans="1:10">
       <c r="A121" s="38">
         <f t="shared" si="5"/>
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="B121" s="29">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="E121" s="29">
         <v>1</v>
@@ -14346,29 +14346,29 @@
         <v>4</v>
       </c>
       <c r="J121" s="31">
-        <f t="shared" si="3"/>
-        <v>2915</v>
+        <f>A121</f>
+        <v>2916</v>
       </c>
     </row>
     <row r="122" ht="18.5" customHeight="1" spans="1:10">
       <c r="A122" s="38">
         <f t="shared" si="5"/>
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="B122" s="29">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="C122" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E122" s="29">
+        <v>2</v>
+      </c>
+      <c r="F122" s="29" t="s">
         <v>411</v>
-      </c>
-      <c r="D122" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E122" s="29">
-        <v>1</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G122" s="39" t="s">
         <v>270</v>
@@ -14377,29 +14377,29 @@
         <v>4</v>
       </c>
       <c r="J122" s="31">
-        <f t="shared" si="3"/>
-        <v>2916</v>
+        <f>A122</f>
+        <v>2917</v>
       </c>
     </row>
     <row r="123" ht="18.5" customHeight="1" spans="1:10">
       <c r="A123" s="38">
         <f t="shared" si="5"/>
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="B123" s="29">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="C123" s="29" t="s">
         <v>412</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="E123" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F123" s="29" t="s">
-        <v>413</v>
+        <v>269</v>
       </c>
       <c r="G123" s="39" t="s">
         <v>270</v>
@@ -14408,23 +14408,23 @@
         <v>4</v>
       </c>
       <c r="J123" s="31">
-        <f t="shared" si="3"/>
-        <v>2917</v>
+        <f>A123</f>
+        <v>2918</v>
       </c>
     </row>
     <row r="124" ht="18.5" customHeight="1" spans="1:10">
       <c r="A124" s="38">
         <f t="shared" si="5"/>
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="B124" s="29">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D124" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E124" s="29">
         <v>1</v>
@@ -14439,23 +14439,23 @@
         <v>4</v>
       </c>
       <c r="J124" s="31">
-        <f t="shared" si="3"/>
-        <v>2918</v>
+        <f>A124</f>
+        <v>2919</v>
       </c>
     </row>
     <row r="125" ht="18.5" customHeight="1" spans="1:10">
       <c r="A125" s="38">
         <f t="shared" si="5"/>
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="B125" s="29">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D125" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E125" s="29">
         <v>1</v>
@@ -14470,23 +14470,23 @@
         <v>4</v>
       </c>
       <c r="J125" s="31">
-        <f t="shared" si="3"/>
-        <v>2919</v>
+        <f>A125</f>
+        <v>2920</v>
       </c>
     </row>
     <row r="126" ht="18.5" customHeight="1" spans="1:10">
       <c r="A126" s="38">
         <f t="shared" si="5"/>
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="B126" s="29">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E126" s="29">
         <v>1</v>
@@ -14501,29 +14501,29 @@
         <v>4</v>
       </c>
       <c r="J126" s="31">
-        <f t="shared" si="3"/>
-        <v>2920</v>
+        <f>A126</f>
+        <v>2921</v>
       </c>
     </row>
     <row r="127" ht="18.5" customHeight="1" spans="1:10">
       <c r="A127" s="38">
-        <f t="shared" si="5"/>
-        <v>2921</v>
+        <f>B127</f>
+        <v>2922</v>
       </c>
       <c r="B127" s="29">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="C127" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" s="29">
+        <v>2</v>
+      </c>
+      <c r="F127" s="29" t="s">
         <v>417</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="E127" s="29">
-        <v>1</v>
-      </c>
-      <c r="F127" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G127" s="39" t="s">
         <v>270</v>
@@ -14532,13 +14532,13 @@
         <v>4</v>
       </c>
       <c r="J127" s="31">
-        <f t="shared" si="3"/>
-        <v>2921</v>
+        <f>A127</f>
+        <v>2922</v>
       </c>
     </row>
     <row r="128" ht="18.5" customHeight="1" spans="1:10">
       <c r="A128" s="38">
-        <f t="shared" si="5"/>
+        <f>B128</f>
         <v>3201</v>
       </c>
       <c r="B128" s="29">
@@ -14563,13 +14563,13 @@
         <v>5</v>
       </c>
       <c r="J128" s="31">
-        <f t="shared" si="3"/>
+        <f>A128</f>
         <v>3201</v>
       </c>
     </row>
     <row r="129" ht="18.5" customHeight="1" spans="1:10">
       <c r="A129" s="38">
-        <f t="shared" si="5"/>
+        <f>B129</f>
         <v>3202</v>
       </c>
       <c r="B129" s="29">
@@ -14594,13 +14594,13 @@
         <v>5</v>
       </c>
       <c r="J129" s="31">
-        <f t="shared" si="3"/>
+        <f>A129</f>
         <v>3202</v>
       </c>
     </row>
     <row r="130" ht="18.5" customHeight="1" spans="1:10">
       <c r="A130" s="38">
-        <f t="shared" si="5"/>
+        <f>B130</f>
         <v>3203</v>
       </c>
       <c r="B130" s="29">
@@ -14625,13 +14625,13 @@
         <v>5</v>
       </c>
       <c r="J130" s="31">
-        <f t="shared" si="3"/>
+        <f>A130</f>
         <v>3203</v>
       </c>
     </row>
     <row r="131" ht="18.5" customHeight="1" spans="1:10">
       <c r="A131" s="38">
-        <f t="shared" si="5"/>
+        <f>B131</f>
         <v>3204</v>
       </c>
       <c r="B131" s="29">
@@ -14662,7 +14662,7 @@
     </row>
     <row r="132" ht="18.5" customHeight="1" spans="1:10">
       <c r="A132" s="38">
-        <f t="shared" si="5"/>
+        <f>B132</f>
         <v>3205</v>
       </c>
       <c r="B132" s="29">

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pictuer_fetter_config" sheetId="5" r:id="rId1"/>
@@ -912,7 +912,7 @@
     <t>0|0</t>
   </si>
   <si>
-    <t>item_custom/card/default_icon</t>
+    <t>item_custom/card/冰川幼龟</t>
   </si>
   <si>
     <t>a2</t>
@@ -4140,16 +4140,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{06A079D4-D7B8-4B5E-BBED-8DBEA276A322}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C0BFE29E-22B0-4059-953E-B908E8856B48}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9AA63850-C0F5-4448-A003-E57AD29E38A0}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0B7C43B0-2234-468E-A8DA-716CE919578C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{445EE677-0B3B-4A2C-8B8C-7D7C55C95595}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EE0E9484-337E-4218-9740-7DB156CFEE57}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -4158,7 +4158,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{760ED05A-CBD3-4592-AF4F-6E39E9D6CC1D}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F97F218A-75C7-4283-9962-E3FE85C99523}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -4170,7 +4170,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{54B246CE-1136-4210-AC34-BDB7AAFA56C5}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{13E7261A-5020-4752-8A9F-9BE8B31F0CFD}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -10028,8 +10028,8 @@
   <sheetPr/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16675,7 +16675,7 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -17162,7 +17162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="49.5" spans="1:14">
+    <row r="18" ht="33" spans="1:14">
       <c r="A18" s="11">
         <v>16</v>
       </c>

--- a/excels/config/server/picture/picture_config.xlsx
+++ b/excels/config/server/picture/picture_config.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="583">
   <si>
     <t>图鉴索引</t>
   </si>
@@ -910,9 +910,6 @@
   </si>
   <si>
     <t>0|0</t>
-  </si>
-  <si>
-    <t>item_custom/card/冰川幼龟</t>
   </si>
   <si>
     <t>a2</t>
@@ -4140,16 +4137,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C0BFE29E-22B0-4059-953E-B908E8856B48}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FABFE5B3-D7F3-4396-A70F-FBFAA747A6E2}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{0B7C43B0-2234-468E-A8DA-716CE919578C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7D578C6D-73C9-4062-B8CC-6F516DCB4125}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{EE0E9484-337E-4218-9740-7DB156CFEE57}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{6D41E48E-A282-4980-A0D1-C2312080A8D8}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -4158,7 +4155,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F97F218A-75C7-4283-9962-E3FE85C99523}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3A22E29F-6E5C-44AF-9988-29E19BE6246E}">
       <tableStyleElement type="wholeTable" dxfId="21"/>
       <tableStyleElement type="headerRow" dxfId="20"/>
       <tableStyleElement type="totalRow" dxfId="19"/>
@@ -4170,7 +4167,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="13"/>
       <tableStyleElement type="lastTotalCell" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{13E7261A-5020-4752-8A9F-9BE8B31F0CFD}">
+    <tableStyle name="简约浅色系标题行表格样式_e1d59c" count="12" xr9:uid="{BCF48F17-28AC-4357-9F74-00238B5C5D7D}">
       <tableStyleElement type="wholeTable" dxfId="33"/>
       <tableStyleElement type="headerRow" dxfId="32"/>
       <tableStyleElement type="totalRow" dxfId="31"/>
@@ -4491,7 +4488,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10028,8 +10025,8 @@
   <sheetPr/>
   <dimension ref="A1:M424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10124,8 +10121,9 @@
       <c r="F3" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>292</v>
+      <c r="G3" s="37" t="str">
+        <f>"item_custom/card/"&amp;D3</f>
+        <v>item_custom/card/炼狱熊怪</v>
       </c>
       <c r="H3" s="38">
         <v>2</v>
@@ -10145,10 +10143,10 @@
         <v>2002</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>293</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>294</v>
       </c>
       <c r="E4" s="25">
         <v>1</v>
@@ -10156,8 +10154,9 @@
       <c r="F4" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>292</v>
+      <c r="G4" s="37" t="str">
+        <f t="shared" ref="G4:G35" si="2">"item_custom/card/"&amp;D4</f>
+        <v>item_custom/card/炼狱羚羊</v>
       </c>
       <c r="H4" s="39">
         <v>2</v>
@@ -10167,10 +10166,10 @@
         <v>2002</v>
       </c>
       <c r="L4" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="29" t="s">
         <v>295</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:10">
@@ -10182,7 +10181,7 @@
         <v>2003</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>99</v>
@@ -10193,8 +10192,9 @@
       <c r="F5" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>292</v>
+      <c r="G5" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/疾行火熊</v>
       </c>
       <c r="H5" s="40">
         <v>2</v>
@@ -10213,7 +10213,7 @@
         <v>2004</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>30</v>
@@ -10224,8 +10224,9 @@
       <c r="F6" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>292</v>
+      <c r="G6" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/炼狱亡魂</v>
       </c>
       <c r="H6" s="40">
         <v>2</v>
@@ -10253,7 +10254,7 @@
         <v>2005</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>108</v>
@@ -10264,8 +10265,9 @@
       <c r="F7" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>292</v>
+      <c r="G7" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/夜魇近战兵</v>
       </c>
       <c r="H7" s="40">
         <v>2</v>
@@ -10293,7 +10295,7 @@
         <v>2006</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>110</v>
@@ -10304,8 +10306,9 @@
       <c r="F8" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G8" s="37" t="s">
-        <v>292</v>
+      <c r="G8" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/炽甲虫战士</v>
       </c>
       <c r="H8" s="40">
         <v>2</v>
@@ -10333,10 +10336,10 @@
         <v>2007</v>
       </c>
       <c r="C9" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>301</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>302</v>
       </c>
       <c r="E9" s="27">
         <v>1</v>
@@ -10344,8 +10347,9 @@
       <c r="F9" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="37" t="s">
-        <v>292</v>
+      <c r="G9" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/远古炼狱巨人</v>
       </c>
       <c r="H9" s="40">
         <v>2</v>
@@ -10373,7 +10377,7 @@
         <v>2008</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>104</v>
@@ -10384,8 +10388,9 @@
       <c r="F10" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>292</v>
+      <c r="G10" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/骷髅勇士</v>
       </c>
       <c r="H10" s="40">
         <v>2</v>
@@ -10404,7 +10409,7 @@
         <v>2009</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>115</v>
@@ -10415,8 +10420,9 @@
       <c r="F11" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>292</v>
+      <c r="G11" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/炼狱火</v>
       </c>
       <c r="H11" s="40">
         <v>2</v>
@@ -10435,7 +10441,7 @@
         <v>2010</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>130</v>
@@ -10446,8 +10452,9 @@
       <c r="F12" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>292</v>
+      <c r="G12" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/冥火剑圣</v>
       </c>
       <c r="H12" s="40">
         <v>2</v>
@@ -10466,7 +10473,7 @@
         <v>2011</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>145</v>
@@ -10477,8 +10484,9 @@
       <c r="F13" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G13" s="37" t="s">
-        <v>292</v>
+      <c r="G13" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/小狗头人</v>
       </c>
       <c r="H13" s="40">
         <v>2</v>
@@ -10497,10 +10505,10 @@
         <v>2012</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>307</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>308</v>
       </c>
       <c r="E14" s="27">
         <v>1</v>
@@ -10508,8 +10516,9 @@
       <c r="F14" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>292</v>
+      <c r="G14" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/雷电之魂</v>
       </c>
       <c r="H14" s="40">
         <v>2</v>
@@ -10528,10 +10537,10 @@
         <v>2013</v>
       </c>
       <c r="C15" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>309</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>310</v>
       </c>
       <c r="E15" s="27">
         <v>1</v>
@@ -10539,8 +10548,9 @@
       <c r="F15" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>292</v>
+      <c r="G15" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/萨特窃神者</v>
       </c>
       <c r="H15" s="40">
         <v>2</v>
@@ -10559,10 +10569,10 @@
         <v>2014</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>311</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>312</v>
       </c>
       <c r="E16" s="27">
         <v>1</v>
@@ -10570,8 +10580,9 @@
       <c r="F16" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>292</v>
+      <c r="G16" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/远古岚肤兽</v>
       </c>
       <c r="H16" s="40">
         <v>2</v>
@@ -10590,7 +10601,7 @@
         <v>2015</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>159</v>
@@ -10601,8 +10612,9 @@
       <c r="F17" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>292</v>
+      <c r="G17" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/雷树精兽</v>
       </c>
       <c r="H17" s="40">
         <v>2</v>
@@ -10621,7 +10633,7 @@
         <v>2016</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>149</v>
@@ -10632,8 +10644,9 @@
       <c r="F18" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>292</v>
+      <c r="G18" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/雷角兽</v>
       </c>
       <c r="H18" s="40">
         <v>2</v>
@@ -10652,7 +10665,7 @@
         <v>2017</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>79</v>
@@ -10663,8 +10676,9 @@
       <c r="F19" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G19" s="37" t="s">
-        <v>292</v>
+      <c r="G19" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/霹雳怪手</v>
       </c>
       <c r="H19" s="40">
         <v>2</v>
@@ -10683,7 +10697,7 @@
         <v>2019</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>56</v>
@@ -10694,14 +10708,15 @@
       <c r="F20" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G20" s="37" t="s">
-        <v>292</v>
+      <c r="G20" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/雷羽鹫</v>
       </c>
       <c r="H20" s="40">
         <v>2</v>
       </c>
       <c r="J20" s="29">
-        <f t="shared" ref="J20:J65" si="2">A20</f>
+        <f t="shared" ref="J20:J65" si="3">A20</f>
         <v>2019</v>
       </c>
     </row>
@@ -10714,7 +10729,7 @@
         <v>2020</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D21" s="27" t="s">
         <v>57</v>
@@ -10725,14 +10740,15 @@
       <c r="F21" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>292</v>
+      <c r="G21" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/雷山鹫</v>
       </c>
       <c r="H21" s="40">
         <v>2</v>
       </c>
       <c r="J21" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2020</v>
       </c>
     </row>
@@ -10745,7 +10761,7 @@
         <v>2021</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>58</v>
@@ -10756,14 +10772,15 @@
       <c r="F22" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>292</v>
+      <c r="G22" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/雷翼鹫</v>
       </c>
       <c r="H22" s="40">
         <v>2</v>
       </c>
       <c r="J22" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2021</v>
       </c>
     </row>
@@ -10776,7 +10793,7 @@
         <v>2022</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>31</v>
@@ -10787,14 +10804,15 @@
       <c r="F23" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G23" s="37" t="s">
-        <v>292</v>
+      <c r="G23" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/冰川鬼魂</v>
       </c>
       <c r="H23" s="40">
         <v>2</v>
       </c>
       <c r="J23" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2022</v>
       </c>
     </row>
@@ -10807,7 +10825,7 @@
         <v>2023</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D24" s="27" t="s">
         <v>185</v>
@@ -10818,14 +10836,15 @@
       <c r="F24" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G24" s="37" t="s">
-        <v>292</v>
+      <c r="G24" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/极寒精灵</v>
       </c>
       <c r="H24" s="40">
         <v>2</v>
       </c>
       <c r="J24" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2023</v>
       </c>
     </row>
@@ -10838,7 +10857,7 @@
         <v>2024</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>180</v>
@@ -10849,14 +10868,15 @@
       <c r="F25" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G25" s="37" t="s">
-        <v>292</v>
+      <c r="G25" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/极寒冰狐</v>
       </c>
       <c r="H25" s="40">
         <v>2</v>
       </c>
       <c r="J25" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2024</v>
       </c>
     </row>
@@ -10869,7 +10889,7 @@
         <v>2025</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>188</v>
@@ -10880,14 +10900,15 @@
       <c r="F26" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G26" s="37" t="s">
-        <v>292</v>
+      <c r="G26" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/极地少女</v>
       </c>
       <c r="H26" s="40">
         <v>2</v>
       </c>
       <c r="J26" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2025</v>
       </c>
     </row>
@@ -10900,7 +10921,7 @@
         <v>2026</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>200</v>
@@ -10911,14 +10932,15 @@
       <c r="F27" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G27" s="37" t="s">
-        <v>292</v>
+      <c r="G27" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/冰原行者</v>
       </c>
       <c r="H27" s="40">
         <v>2</v>
       </c>
       <c r="J27" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2026</v>
       </c>
     </row>
@@ -10931,7 +10953,7 @@
         <v>2027</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>65</v>
@@ -10942,14 +10964,15 @@
       <c r="F28" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>292</v>
+      <c r="G28" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/极地虎</v>
       </c>
       <c r="H28" s="40">
         <v>2</v>
       </c>
       <c r="J28" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2027</v>
       </c>
     </row>
@@ -10962,7 +10985,7 @@
         <v>2028</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>189</v>
@@ -10973,14 +10996,15 @@
       <c r="F29" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G29" s="37" t="s">
-        <v>292</v>
+      <c r="G29" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/极地小冰龙</v>
       </c>
       <c r="H29" s="40">
         <v>2</v>
       </c>
       <c r="J29" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2028</v>
       </c>
     </row>
@@ -10993,7 +11017,7 @@
         <v>2029</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>190</v>
@@ -11004,14 +11028,15 @@
       <c r="F30" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G30" s="37" t="s">
-        <v>292</v>
+      <c r="G30" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/极地小飞龙</v>
       </c>
       <c r="H30" s="40">
         <v>2</v>
       </c>
       <c r="J30" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2029</v>
       </c>
     </row>
@@ -11024,7 +11049,7 @@
         <v>2030</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>207</v>
@@ -11035,14 +11060,15 @@
       <c r="F31" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G31" s="37" t="s">
-        <v>292</v>
+      <c r="G31" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/冰晶小海马</v>
       </c>
       <c r="H31" s="40">
         <v>2</v>
       </c>
       <c r="J31" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2030</v>
       </c>
     </row>
@@ -11055,7 +11081,7 @@
         <v>2031</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>51</v>
@@ -11066,14 +11092,15 @@
       <c r="F32" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G32" s="37" t="s">
-        <v>292</v>
+      <c r="G32" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/冰原狐</v>
       </c>
       <c r="H32" s="40">
         <v>2</v>
       </c>
       <c r="J32" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2031</v>
       </c>
     </row>
@@ -11086,7 +11113,7 @@
         <v>2032</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>195</v>
@@ -11097,14 +11124,15 @@
       <c r="F33" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>292</v>
+      <c r="G33" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/冰宫守卫</v>
       </c>
       <c r="H33" s="40">
         <v>2</v>
       </c>
       <c r="J33" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2032</v>
       </c>
     </row>
@@ -11117,7 +11145,7 @@
         <v>2033</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>194</v>
@@ -11128,27 +11156,28 @@
       <c r="F34" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G34" s="37" t="s">
-        <v>292</v>
+      <c r="G34" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/冰宫奴仆</v>
       </c>
       <c r="H34" s="40">
         <v>2</v>
       </c>
       <c r="J34" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2033</v>
       </c>
     </row>
     <row r="35" ht="18.5" customHeight="1" spans="1:10">
       <c r="A35" s="36">
-        <f t="shared" ref="A35:A66" si="3">B35</f>
+        <f t="shared" ref="A35:A66" si="4">B35</f>
         <v>2034</v>
       </c>
       <c r="B35" s="37">
         <v>2034</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>32</v>
@@ -11159,929 +11188,959 @@
       <c r="F35" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G35" s="37" t="s">
-        <v>292</v>
+      <c r="G35" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v>item_custom/card/绿洲鬼魂</v>
       </c>
       <c r="H35" s="40">
         <v>2</v>
       </c>
       <c r="J35" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2034</v>
       </c>
     </row>
     <row r="36" ht="18.5" customHeight="1" spans="1:10">
       <c r="A36" s="36">
+        <f t="shared" si="4"/>
+        <v>2035</v>
+      </c>
+      <c r="B36" s="37">
+        <v>2035</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="27">
+        <v>1</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" s="37" t="str">
+        <f t="shared" ref="G36:G67" si="5">"item_custom/card/"&amp;D36</f>
+        <v>item_custom/card/绿洲丧尸</v>
+      </c>
+      <c r="H36" s="40">
+        <v>2</v>
+      </c>
+      <c r="J36" s="29">
         <f t="shared" si="3"/>
         <v>2035</v>
       </c>
-      <c r="B36" s="37">
-        <v>2035</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E36" s="27">
-        <v>1</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H36" s="40">
-        <v>2</v>
-      </c>
-      <c r="J36" s="29">
-        <f t="shared" si="2"/>
-        <v>2035</v>
-      </c>
     </row>
     <row r="37" ht="18.5" customHeight="1" spans="1:10">
       <c r="A37" s="36">
+        <f t="shared" si="4"/>
+        <v>2036</v>
+      </c>
+      <c r="B37" s="37">
+        <v>2036</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="27">
+        <v>1</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/幼年沙龙</v>
+      </c>
+      <c r="H37" s="40">
+        <v>2</v>
+      </c>
+      <c r="J37" s="29">
         <f t="shared" si="3"/>
         <v>2036</v>
       </c>
-      <c r="B37" s="37">
-        <v>2036</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="27">
-        <v>1</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H37" s="40">
-        <v>2</v>
-      </c>
-      <c r="J37" s="29">
-        <f t="shared" si="2"/>
-        <v>2036</v>
-      </c>
     </row>
     <row r="38" ht="18.5" customHeight="1" spans="1:10">
       <c r="A38" s="36">
+        <f t="shared" si="4"/>
+        <v>2037</v>
+      </c>
+      <c r="B38" s="37">
+        <v>2037</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="27">
+        <v>1</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G38" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/绿洲精灵幼龙</v>
+      </c>
+      <c r="H38" s="40">
+        <v>2</v>
+      </c>
+      <c r="J38" s="29">
         <f t="shared" si="3"/>
         <v>2037</v>
       </c>
-      <c r="B38" s="37">
-        <v>2037</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="27">
-        <v>1</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H38" s="40">
-        <v>2</v>
-      </c>
-      <c r="J38" s="29">
-        <f t="shared" si="2"/>
-        <v>2037</v>
-      </c>
     </row>
     <row r="39" ht="18.5" customHeight="1" spans="1:10">
       <c r="A39" s="36">
+        <f t="shared" si="4"/>
+        <v>2038</v>
+      </c>
+      <c r="B39" s="37">
+        <v>2038</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="27">
+        <v>1</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/绿洲跳跳蛙</v>
+      </c>
+      <c r="H39" s="40">
+        <v>2</v>
+      </c>
+      <c r="J39" s="29">
         <f t="shared" si="3"/>
         <v>2038</v>
       </c>
-      <c r="B39" s="37">
-        <v>2038</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="27">
-        <v>1</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H39" s="40">
-        <v>2</v>
-      </c>
-      <c r="J39" s="29">
-        <f t="shared" si="2"/>
-        <v>2038</v>
-      </c>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:10">
       <c r="A40" s="36">
+        <f t="shared" si="4"/>
+        <v>2039</v>
+      </c>
+      <c r="B40" s="37">
+        <v>2039</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="27">
+        <v>1</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/绿洲剧毒蛇</v>
+      </c>
+      <c r="H40" s="40">
+        <v>2</v>
+      </c>
+      <c r="J40" s="29">
         <f t="shared" si="3"/>
         <v>2039</v>
       </c>
-      <c r="B40" s="37">
-        <v>2039</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="27">
-        <v>1</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G40" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H40" s="40">
-        <v>2</v>
-      </c>
-      <c r="J40" s="29">
-        <f t="shared" si="2"/>
-        <v>2039</v>
-      </c>
     </row>
     <row r="41" ht="18.5" customHeight="1" spans="1:10">
       <c r="A41" s="36">
+        <f t="shared" si="4"/>
+        <v>2040</v>
+      </c>
+      <c r="B41" s="37">
+        <v>2040</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="27">
+        <v>1</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/狂沙怪手</v>
+      </c>
+      <c r="H41" s="40">
+        <v>2</v>
+      </c>
+      <c r="J41" s="29">
         <f t="shared" si="3"/>
         <v>2040</v>
       </c>
-      <c r="B41" s="37">
-        <v>2040</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="27">
-        <v>1</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G41" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H41" s="40">
-        <v>2</v>
-      </c>
-      <c r="J41" s="29">
-        <f t="shared" si="2"/>
-        <v>2040</v>
-      </c>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:10">
       <c r="A42" s="36">
+        <f t="shared" si="4"/>
+        <v>2041</v>
+      </c>
+      <c r="B42" s="37">
+        <v>2041</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="27">
+        <v>1</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/绿洲精灵马</v>
+      </c>
+      <c r="H42" s="40">
+        <v>2</v>
+      </c>
+      <c r="J42" s="29">
         <f t="shared" si="3"/>
         <v>2041</v>
       </c>
-      <c r="B42" s="37">
-        <v>2041</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" s="27">
-        <v>1</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G42" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H42" s="40">
-        <v>2</v>
-      </c>
-      <c r="J42" s="29">
-        <f t="shared" si="2"/>
-        <v>2041</v>
-      </c>
     </row>
     <row r="43" ht="18.5" customHeight="1" spans="1:10">
       <c r="A43" s="36">
+        <f t="shared" si="4"/>
+        <v>2042</v>
+      </c>
+      <c r="B43" s="37">
+        <v>2042</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="27">
+        <v>1</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/绿洲小精灵</v>
+      </c>
+      <c r="H43" s="40">
+        <v>2</v>
+      </c>
+      <c r="J43" s="29">
         <f t="shared" si="3"/>
         <v>2042</v>
       </c>
-      <c r="B43" s="37">
-        <v>2042</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" s="27">
-        <v>1</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G43" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H43" s="40">
-        <v>2</v>
-      </c>
-      <c r="J43" s="29">
-        <f t="shared" si="2"/>
-        <v>2042</v>
-      </c>
     </row>
     <row r="44" ht="18.5" customHeight="1" spans="1:10">
       <c r="A44" s="36">
+        <f t="shared" si="4"/>
+        <v>2043</v>
+      </c>
+      <c r="B44" s="37">
+        <v>2043</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="27">
+        <v>1</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/沙漠金龟</v>
+      </c>
+      <c r="H44" s="40">
+        <v>2</v>
+      </c>
+      <c r="J44" s="29">
         <f t="shared" si="3"/>
         <v>2043</v>
       </c>
-      <c r="B44" s="37">
-        <v>2043</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="27">
-        <v>1</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G44" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H44" s="40">
-        <v>2</v>
-      </c>
-      <c r="J44" s="29">
-        <f t="shared" si="2"/>
-        <v>2043</v>
-      </c>
     </row>
     <row r="45" ht="18.5" customHeight="1" spans="1:10">
       <c r="A45" s="36">
+        <f t="shared" si="4"/>
+        <v>2044</v>
+      </c>
+      <c r="B45" s="37">
+        <v>2044</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="27">
+        <v>1</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G45" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/天辉高级战士</v>
+      </c>
+      <c r="H45" s="40">
+        <v>2</v>
+      </c>
+      <c r="J45" s="29">
         <f t="shared" si="3"/>
         <v>2044</v>
       </c>
-      <c r="B45" s="37">
-        <v>2044</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="E45" s="27">
-        <v>1</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H45" s="40">
-        <v>2</v>
-      </c>
-      <c r="J45" s="29">
-        <f t="shared" si="2"/>
-        <v>2044</v>
-      </c>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:10">
       <c r="A46" s="36">
+        <f t="shared" si="4"/>
+        <v>2045</v>
+      </c>
+      <c r="B46" s="37">
+        <v>2045</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="27">
+        <v>1</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/高级精灵战士</v>
+      </c>
+      <c r="H46" s="40">
+        <v>2</v>
+      </c>
+      <c r="J46" s="29">
         <f t="shared" si="3"/>
         <v>2045</v>
       </c>
-      <c r="B46" s="37">
-        <v>2045</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="27">
-        <v>1</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G46" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H46" s="40">
-        <v>2</v>
-      </c>
-      <c r="J46" s="29">
-        <f t="shared" si="2"/>
-        <v>2045</v>
-      </c>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:10">
       <c r="A47" s="36">
+        <f t="shared" si="4"/>
+        <v>2501</v>
+      </c>
+      <c r="B47" s="27">
+        <v>2501</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="27">
+        <v>1</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炼狱狼</v>
+      </c>
+      <c r="H47" s="40">
+        <v>3</v>
+      </c>
+      <c r="J47" s="29">
         <f t="shared" si="3"/>
         <v>2501</v>
       </c>
-      <c r="B47" s="27">
-        <v>2501</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="27">
-        <v>1</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H47" s="40">
-        <v>3</v>
-      </c>
-      <c r="J47" s="29">
-        <f t="shared" si="2"/>
-        <v>2501</v>
-      </c>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:10">
       <c r="A48" s="36">
+        <f t="shared" si="4"/>
+        <v>2502</v>
+      </c>
+      <c r="B48" s="27">
+        <v>2502</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="27">
+        <v>1</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G48" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/夜魇远程兵</v>
+      </c>
+      <c r="H48" s="40">
+        <v>3</v>
+      </c>
+      <c r="J48" s="29">
         <f t="shared" si="3"/>
         <v>2502</v>
       </c>
-      <c r="B48" s="27">
-        <v>2502</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="27">
-        <v>1</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G48" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H48" s="40">
-        <v>3</v>
-      </c>
-      <c r="J48" s="29">
-        <f t="shared" si="2"/>
-        <v>2502</v>
-      </c>
     </row>
     <row r="49" ht="18.5" customHeight="1" spans="1:10">
       <c r="A49" s="36">
+        <f t="shared" si="4"/>
+        <v>2503</v>
+      </c>
+      <c r="B49" s="27">
+        <v>2503</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="27">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G49" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炼狱小双头犬</v>
+      </c>
+      <c r="H49" s="40">
+        <v>3</v>
+      </c>
+      <c r="J49" s="29">
         <f t="shared" si="3"/>
         <v>2503</v>
       </c>
-      <c r="B49" s="27">
-        <v>2503</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="27">
-        <v>1</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G49" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H49" s="40">
-        <v>3</v>
-      </c>
-      <c r="J49" s="29">
-        <f t="shared" si="2"/>
-        <v>2503</v>
-      </c>
     </row>
     <row r="50" ht="18.5" customHeight="1" spans="1:10">
       <c r="A50" s="36">
+        <f t="shared" si="4"/>
+        <v>2504</v>
+      </c>
+      <c r="B50" s="27">
+        <v>2504</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="27">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炽甲虫战车</v>
+      </c>
+      <c r="H50" s="40">
+        <v>3</v>
+      </c>
+      <c r="J50" s="29">
         <f t="shared" si="3"/>
         <v>2504</v>
       </c>
-      <c r="B50" s="27">
-        <v>2504</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="27">
-        <v>1</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H50" s="40">
-        <v>3</v>
-      </c>
-      <c r="J50" s="29">
-        <f t="shared" si="2"/>
-        <v>2504</v>
-      </c>
     </row>
     <row r="51" ht="18.5" customHeight="1" spans="1:10">
       <c r="A51" s="36">
+        <f t="shared" si="4"/>
+        <v>2505</v>
+      </c>
+      <c r="B51" s="27">
+        <v>2505</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="27">
+        <v>1</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炼狱石甲虫</v>
+      </c>
+      <c r="H51" s="40">
+        <v>3</v>
+      </c>
+      <c r="J51" s="29">
         <f t="shared" si="3"/>
         <v>2505</v>
       </c>
-      <c r="B51" s="27">
-        <v>2505</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="27">
-        <v>1</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H51" s="40">
-        <v>3</v>
-      </c>
-      <c r="J51" s="29">
-        <f t="shared" si="2"/>
-        <v>2505</v>
-      </c>
     </row>
     <row r="52" ht="18.5" customHeight="1" spans="1:10">
       <c r="A52" s="36">
+        <f t="shared" si="4"/>
+        <v>2506</v>
+      </c>
+      <c r="B52" s="27">
+        <v>2506</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="27">
+        <v>1</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G52" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炼狱战熊</v>
+      </c>
+      <c r="H52" s="40">
+        <v>3</v>
+      </c>
+      <c r="J52" s="29">
         <f t="shared" si="3"/>
         <v>2506</v>
       </c>
-      <c r="B52" s="27">
-        <v>2506</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="27">
-        <v>1</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H52" s="40">
-        <v>3</v>
-      </c>
-      <c r="J52" s="29">
-        <f t="shared" si="2"/>
-        <v>2506</v>
-      </c>
     </row>
     <row r="53" ht="18.5" customHeight="1" spans="1:10">
       <c r="A53" s="36">
+        <f t="shared" si="4"/>
+        <v>2507</v>
+      </c>
+      <c r="B53" s="27">
+        <v>2507</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="27">
+        <v>1</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炼狱界弓</v>
+      </c>
+      <c r="H53" s="40">
+        <v>3</v>
+      </c>
+      <c r="J53" s="29">
         <f t="shared" si="3"/>
         <v>2507</v>
       </c>
-      <c r="B53" s="27">
-        <v>2507</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="27">
-        <v>1</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G53" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H53" s="40">
-        <v>3</v>
-      </c>
-      <c r="J53" s="29">
-        <f t="shared" si="2"/>
-        <v>2507</v>
-      </c>
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:10">
       <c r="A54" s="36">
+        <f t="shared" si="4"/>
+        <v>2508</v>
+      </c>
+      <c r="B54" s="27">
+        <v>2508</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="27">
+        <v>1</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/烈焰战龟</v>
+      </c>
+      <c r="H54" s="40">
+        <v>3</v>
+      </c>
+      <c r="J54" s="29">
         <f t="shared" si="3"/>
         <v>2508</v>
       </c>
-      <c r="B54" s="27">
-        <v>2508</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="27">
-        <v>1</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G54" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H54" s="40">
-        <v>3</v>
-      </c>
-      <c r="J54" s="29">
-        <f t="shared" si="2"/>
-        <v>2508</v>
-      </c>
     </row>
     <row r="55" ht="18.5" customHeight="1" spans="1:10">
       <c r="A55" s="36">
+        <f t="shared" si="4"/>
+        <v>2509</v>
+      </c>
+      <c r="B55" s="27">
+        <v>2509</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="27">
+        <v>1</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炼狱蜘蛛</v>
+      </c>
+      <c r="H55" s="40">
+        <v>3</v>
+      </c>
+      <c r="J55" s="29">
         <f t="shared" si="3"/>
         <v>2509</v>
       </c>
-      <c r="B55" s="27">
-        <v>2509</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="27">
-        <v>1</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H55" s="40">
-        <v>3</v>
-      </c>
-      <c r="J55" s="29">
-        <f t="shared" si="2"/>
-        <v>2509</v>
-      </c>
     </row>
     <row r="56" ht="18.5" customHeight="1" spans="1:10">
       <c r="A56" s="36">
+        <f t="shared" si="4"/>
+        <v>2510</v>
+      </c>
+      <c r="B56" s="27">
+        <v>2510</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="27">
+        <v>1</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炼狱猎蜥</v>
+      </c>
+      <c r="H56" s="40">
+        <v>3</v>
+      </c>
+      <c r="J56" s="29">
         <f t="shared" si="3"/>
         <v>2510</v>
       </c>
-      <c r="B56" s="27">
-        <v>2510</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="27">
-        <v>1</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H56" s="40">
-        <v>3</v>
-      </c>
-      <c r="J56" s="29">
-        <f t="shared" si="2"/>
-        <v>2510</v>
-      </c>
     </row>
     <row r="57" ht="18.5" customHeight="1" spans="1:10">
       <c r="A57" s="36">
+        <f t="shared" si="4"/>
+        <v>2511</v>
+      </c>
+      <c r="B57" s="27">
+        <v>2511</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="27">
+        <v>1</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G57" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/炼狱火精灵</v>
+      </c>
+      <c r="H57" s="40">
+        <v>3</v>
+      </c>
+      <c r="J57" s="29">
         <f t="shared" si="3"/>
         <v>2511</v>
       </c>
-      <c r="B57" s="27">
-        <v>2511</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="27">
-        <v>1</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G57" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H57" s="40">
-        <v>3</v>
-      </c>
-      <c r="J57" s="29">
-        <f t="shared" si="2"/>
-        <v>2511</v>
-      </c>
     </row>
     <row r="58" ht="18.5" customHeight="1" spans="1:10">
       <c r="A58" s="36">
+        <f t="shared" si="4"/>
+        <v>2512</v>
+      </c>
+      <c r="B58" s="27">
+        <v>2512</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="27">
+        <v>1</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G58" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/熔岩飞翼兽</v>
+      </c>
+      <c r="H58" s="40">
+        <v>3</v>
+      </c>
+      <c r="J58" s="29">
         <f t="shared" si="3"/>
         <v>2512</v>
       </c>
-      <c r="B58" s="27">
-        <v>2512</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="27">
-        <v>1</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G58" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H58" s="40">
-        <v>3</v>
-      </c>
-      <c r="J58" s="29">
-        <f t="shared" si="2"/>
-        <v>2512</v>
-      </c>
     </row>
     <row r="59" ht="18.5" customHeight="1" spans="1:10">
       <c r="A59" s="36">
+        <f t="shared" si="4"/>
+        <v>2513</v>
+      </c>
+      <c r="B59" s="27">
+        <v>2513</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="27">
+        <v>1</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/双斧狂战</v>
+      </c>
+      <c r="H59" s="40">
+        <v>3</v>
+      </c>
+      <c r="J59" s="29">
         <f t="shared" si="3"/>
         <v>2513</v>
       </c>
-      <c r="B59" s="27">
-        <v>2513</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="27">
-        <v>1</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G59" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H59" s="40">
-        <v>3</v>
-      </c>
-      <c r="J59" s="29">
-        <f t="shared" si="2"/>
-        <v>2513</v>
-      </c>
     </row>
     <row r="60" ht="18.5" customHeight="1" spans="1:10">
       <c r="A60" s="36">
+        <f t="shared" si="4"/>
+        <v>2514</v>
+      </c>
+      <c r="B60" s="27">
+        <v>2514</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="27">
+        <v>1</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/熔岩卫兵</v>
+      </c>
+      <c r="H60" s="40">
+        <v>3</v>
+      </c>
+      <c r="J60" s="29">
         <f t="shared" si="3"/>
         <v>2514</v>
       </c>
-      <c r="B60" s="27">
-        <v>2514</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="27">
-        <v>1</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G60" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H60" s="40">
-        <v>3</v>
-      </c>
-      <c r="J60" s="29">
-        <f t="shared" si="2"/>
-        <v>2514</v>
-      </c>
     </row>
     <row r="61" ht="18.5" customHeight="1" spans="1:10">
       <c r="A61" s="36">
+        <f t="shared" si="4"/>
+        <v>2516</v>
+      </c>
+      <c r="B61" s="27">
+        <v>2516</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="27">
+        <v>2</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G61" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/雷须兽</v>
+      </c>
+      <c r="H61" s="40">
+        <v>3</v>
+      </c>
+      <c r="J61" s="29">
         <f t="shared" si="3"/>
         <v>2516</v>
       </c>
-      <c r="B61" s="27">
-        <v>2516</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="27">
-        <v>2</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="G61" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H61" s="40">
-        <v>3</v>
-      </c>
-      <c r="J61" s="29">
-        <f t="shared" si="2"/>
-        <v>2516</v>
-      </c>
     </row>
     <row r="62" ht="18.5" customHeight="1" spans="1:10">
       <c r="A62" s="36">
+        <f t="shared" si="4"/>
+        <v>2517</v>
+      </c>
+      <c r="B62" s="27">
+        <v>2517</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="27">
+        <v>1</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G62" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/雷霆晶龟</v>
+      </c>
+      <c r="H62" s="40">
+        <v>3</v>
+      </c>
+      <c r="J62" s="29">
         <f t="shared" si="3"/>
         <v>2517</v>
       </c>
-      <c r="B62" s="27">
-        <v>2517</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="27">
-        <v>1</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G62" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H62" s="40">
-        <v>3</v>
-      </c>
-      <c r="J62" s="29">
-        <f t="shared" si="2"/>
-        <v>2517</v>
-      </c>
     </row>
     <row r="63" ht="18.5" customHeight="1" spans="1:10">
       <c r="A63" s="36">
+        <f t="shared" si="4"/>
+        <v>2518</v>
+      </c>
+      <c r="B63" s="27">
+        <v>2518</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="27">
+        <v>1</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G63" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/霹雳怪虫</v>
+      </c>
+      <c r="H63" s="40">
+        <v>3</v>
+      </c>
+      <c r="J63" s="29">
         <f t="shared" si="3"/>
         <v>2518</v>
       </c>
-      <c r="B63" s="27">
-        <v>2518</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="E63" s="27">
-        <v>1</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H63" s="40">
-        <v>3</v>
-      </c>
-      <c r="J63" s="29">
-        <f t="shared" si="2"/>
-        <v>2518</v>
-      </c>
     </row>
     <row r="64" ht="18.5" customHeight="1" spans="1:10">
       <c r="A64" s="36">
+        <f t="shared" si="4"/>
+        <v>2519</v>
+      </c>
+      <c r="B64" s="27">
+        <v>2519</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" s="27">
+        <v>1</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G64" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/独角雷兽</v>
+      </c>
+      <c r="H64" s="40">
+        <v>3</v>
+      </c>
+      <c r="J64" s="29">
         <f t="shared" si="3"/>
         <v>2519</v>
       </c>
-      <c r="B64" s="27">
-        <v>2519</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="E64" s="27">
-        <v>1</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H64" s="40">
-        <v>3</v>
-      </c>
-      <c r="J64" s="29">
-        <f t="shared" si="2"/>
-        <v>2519</v>
-      </c>
     </row>
     <row r="65" ht="18.5" customHeight="1" spans="1:10">
       <c r="A65" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2520</v>
       </c>
       <c r="B65" s="27">
         <v>2520</v>
       </c>
       <c r="C65" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>362</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>363</v>
       </c>
       <c r="E65" s="27">
         <v>1</v>
@@ -12089,27 +12148,28 @@
       <c r="F65" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G65" s="37" t="s">
-        <v>292</v>
+      <c r="G65" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/雷电见习者</v>
       </c>
       <c r="H65" s="40">
         <v>3</v>
       </c>
       <c r="J65" s="29">
-        <f t="shared" ref="J65:J128" si="4">A65</f>
+        <f t="shared" ref="J65:J128" si="6">A65</f>
         <v>2520</v>
       </c>
     </row>
     <row r="66" ht="18.5" customHeight="1" spans="1:10">
       <c r="A66" s="36">
-        <f t="shared" ref="A66:A105" si="5">B66</f>
+        <f t="shared" ref="A66:A105" si="7">B66</f>
         <v>2521</v>
       </c>
       <c r="B66" s="27">
         <v>2521</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>175</v>
@@ -12120,27 +12180,28 @@
       <c r="F66" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G66" s="37" t="s">
-        <v>292</v>
+      <c r="G66" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/雷霆拍熊</v>
       </c>
       <c r="H66" s="40">
         <v>3</v>
       </c>
       <c r="J66" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2521</v>
       </c>
     </row>
     <row r="67" ht="18.5" customHeight="1" spans="1:10">
       <c r="A67" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2522</v>
       </c>
       <c r="B67" s="27">
         <v>2522</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D67" s="27" t="s">
         <v>181</v>
@@ -12151,30 +12212,31 @@
       <c r="F67" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G67" s="37" t="s">
-        <v>292</v>
+      <c r="G67" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>item_custom/card/雷翼飞狐</v>
       </c>
       <c r="H67" s="40">
         <v>3</v>
       </c>
       <c r="J67" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2522</v>
       </c>
     </row>
     <row r="68" ht="18.5" customHeight="1" spans="1:10">
       <c r="A68" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2523</v>
       </c>
       <c r="B68" s="27">
         <v>2523</v>
       </c>
       <c r="C68" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>366</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>367</v>
       </c>
       <c r="E68" s="27">
         <v>1</v>
@@ -12182,27 +12244,28 @@
       <c r="F68" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G68" s="37" t="s">
-        <v>292</v>
+      <c r="G68" s="37" t="str">
+        <f t="shared" ref="G68:G99" si="8">"item_custom/card/"&amp;D68</f>
+        <v>item_custom/card/远古黑龙</v>
       </c>
       <c r="H68" s="40">
         <v>3</v>
       </c>
       <c r="J68" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2523</v>
       </c>
     </row>
     <row r="69" ht="18.5" customHeight="1" spans="1:10">
       <c r="A69" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2524</v>
       </c>
       <c r="B69" s="27">
         <v>2524</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D69" s="27" t="s">
         <v>173</v>
@@ -12213,27 +12276,28 @@
       <c r="F69" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G69" s="37" t="s">
-        <v>292</v>
+      <c r="G69" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/雷霆领主</v>
       </c>
       <c r="H69" s="40">
         <v>3</v>
       </c>
       <c r="J69" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2524</v>
       </c>
     </row>
     <row r="70" ht="18.5" customHeight="1" spans="1:10">
       <c r="A70" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2525</v>
       </c>
       <c r="B70" s="27">
         <v>2525</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D70" s="27" t="s">
         <v>161</v>
@@ -12244,27 +12308,28 @@
       <c r="F70" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G70" s="37" t="s">
-        <v>292</v>
+      <c r="G70" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/霹雳怪泥</v>
       </c>
       <c r="H70" s="40">
         <v>3</v>
       </c>
       <c r="J70" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2525</v>
       </c>
     </row>
     <row r="71" ht="18.5" customHeight="1" spans="1:10">
       <c r="A71" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2526</v>
       </c>
       <c r="B71" s="27">
         <v>2526</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>176</v>
@@ -12275,30 +12340,31 @@
       <c r="F71" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G71" s="37" t="s">
-        <v>292</v>
+      <c r="G71" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/雷霆战蜥</v>
       </c>
       <c r="H71" s="40">
         <v>3</v>
       </c>
       <c r="J71" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2526</v>
       </c>
     </row>
     <row r="72" ht="18.5" customHeight="1" spans="1:10">
       <c r="A72" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2527</v>
       </c>
       <c r="B72" s="27">
         <v>2527</v>
       </c>
       <c r="C72" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>371</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>372</v>
       </c>
       <c r="E72" s="27">
         <v>1</v>
@@ -12306,27 +12372,28 @@
       <c r="F72" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G72" s="37" t="s">
-        <v>292</v>
+      <c r="G72" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/霹雳女妖</v>
       </c>
       <c r="H72" s="40">
         <v>3</v>
       </c>
       <c r="J72" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2527</v>
       </c>
     </row>
     <row r="73" ht="18.5" customHeight="1" spans="1:10">
       <c r="A73" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2528</v>
       </c>
       <c r="B73" s="27">
         <v>2528</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D73" s="27" t="s">
         <v>169</v>
@@ -12337,27 +12404,28 @@
       <c r="F73" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G73" s="37" t="s">
-        <v>292</v>
+      <c r="G73" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/雷压巨兽</v>
       </c>
       <c r="H73" s="40">
         <v>3</v>
       </c>
       <c r="J73" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2528</v>
       </c>
     </row>
     <row r="74" ht="18.5" customHeight="1" spans="1:10">
       <c r="A74" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2529</v>
       </c>
       <c r="B74" s="27">
         <v>2529</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D74" s="27" t="s">
         <v>170</v>
@@ -12368,27 +12436,28 @@
       <c r="F74" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G74" s="37" t="s">
-        <v>292</v>
+      <c r="G74" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/雷压射手</v>
       </c>
       <c r="H74" s="40">
         <v>3</v>
       </c>
       <c r="J74" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2529</v>
       </c>
     </row>
     <row r="75" ht="18.5" customHeight="1" spans="1:10">
       <c r="A75" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2530</v>
       </c>
       <c r="B75" s="27">
         <v>2530</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>174</v>
@@ -12399,27 +12468,28 @@
       <c r="F75" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G75" s="37" t="s">
-        <v>292</v>
+      <c r="G75" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/雷霆梦魇</v>
       </c>
       <c r="H75" s="40">
         <v>3</v>
       </c>
       <c r="J75" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2530</v>
       </c>
     </row>
     <row r="76" ht="18.5" customHeight="1" spans="1:10">
       <c r="A76" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2531</v>
       </c>
       <c r="B76" s="27">
         <v>2531</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>43</v>
@@ -12430,27 +12500,28 @@
       <c r="F76" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G76" s="37" t="s">
-        <v>292</v>
+      <c r="G76" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/冰川幼龟</v>
       </c>
       <c r="H76" s="40">
         <v>3</v>
       </c>
       <c r="J76" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2531</v>
       </c>
     </row>
     <row r="77" ht="18.5" customHeight="1" spans="1:10">
       <c r="A77" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2532</v>
       </c>
       <c r="B77" s="27">
         <v>2532</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D77" s="27" t="s">
         <v>224</v>
@@ -12461,27 +12532,28 @@
       <c r="F77" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G77" s="37" t="s">
-        <v>292</v>
+      <c r="G77" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/近代冰魂</v>
       </c>
       <c r="H77" s="40">
         <v>3</v>
       </c>
       <c r="J77" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2532</v>
       </c>
     </row>
     <row r="78" ht="18.5" customHeight="1" spans="1:10">
       <c r="A78" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2533</v>
       </c>
       <c r="B78" s="27">
         <v>2533</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>38</v>
@@ -12492,27 +12564,28 @@
       <c r="F78" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G78" s="37" t="s">
-        <v>292</v>
+      <c r="G78" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/冰晶石甲虫</v>
       </c>
       <c r="H78" s="40">
         <v>3</v>
       </c>
       <c r="J78" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2533</v>
       </c>
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:10">
       <c r="A79" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2534</v>
       </c>
       <c r="B79" s="27">
         <v>2534</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D79" s="27" t="s">
         <v>52</v>
@@ -12523,27 +12596,28 @@
       <c r="F79" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G79" s="37" t="s">
-        <v>292</v>
+      <c r="G79" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/冰原犬</v>
       </c>
       <c r="H79" s="40">
         <v>3</v>
       </c>
       <c r="J79" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2534</v>
       </c>
     </row>
     <row r="80" ht="18.5" customHeight="1" spans="1:10">
       <c r="A80" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2535</v>
       </c>
       <c r="B80" s="27">
         <v>2535</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D80" s="27" t="s">
         <v>222</v>
@@ -12554,27 +12628,28 @@
       <c r="F80" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G80" s="37" t="s">
-        <v>292</v>
+      <c r="G80" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/冰甲战熊</v>
       </c>
       <c r="H80" s="40">
         <v>3</v>
       </c>
       <c r="J80" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2535</v>
       </c>
     </row>
     <row r="81" ht="18.5" customHeight="1" spans="1:10">
       <c r="A81" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2536</v>
       </c>
       <c r="B81" s="27">
         <v>2536</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>211</v>
@@ -12585,27 +12660,28 @@
       <c r="F81" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G81" s="37" t="s">
-        <v>292</v>
+      <c r="G81" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/寒霜战士</v>
       </c>
       <c r="H81" s="40">
         <v>3</v>
       </c>
       <c r="J81" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2536</v>
       </c>
     </row>
     <row r="82" ht="18.5" customHeight="1" spans="1:10">
       <c r="A82" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2537</v>
       </c>
       <c r="B82" s="27">
         <v>2537</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>210</v>
@@ -12616,27 +12692,28 @@
       <c r="F82" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G82" s="37" t="s">
-        <v>292</v>
+      <c r="G82" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/寒霜萨满</v>
       </c>
       <c r="H82" s="40">
         <v>3</v>
       </c>
       <c r="J82" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2537</v>
       </c>
     </row>
     <row r="83" ht="18.5" customHeight="1" spans="1:10">
       <c r="A83" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2538</v>
       </c>
       <c r="B83" s="27">
         <v>2538</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D83" s="27" t="s">
         <v>201</v>
@@ -12647,27 +12724,28 @@
       <c r="F83" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G83" s="37" t="s">
-        <v>292</v>
+      <c r="G83" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/冰原巨兽</v>
       </c>
       <c r="H83" s="40">
         <v>3</v>
       </c>
       <c r="J83" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2538</v>
       </c>
     </row>
     <row r="84" ht="18.5" customHeight="1" spans="1:10">
       <c r="A84" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2539</v>
       </c>
       <c r="B84" s="27">
         <v>2539</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>212</v>
@@ -12678,27 +12756,28 @@
       <c r="F84" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G84" s="37" t="s">
-        <v>292</v>
+      <c r="G84" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/极地熊战士</v>
       </c>
       <c r="H84" s="40">
         <v>3</v>
       </c>
       <c r="J84" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2539</v>
       </c>
     </row>
     <row r="85" ht="18.5" customHeight="1" spans="1:10">
       <c r="A85" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2540</v>
       </c>
       <c r="B85" s="27">
         <v>2540</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>204</v>
@@ -12709,30 +12788,31 @@
       <c r="F85" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G85" s="37" t="s">
-        <v>292</v>
+      <c r="G85" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/冰原猩猩兽</v>
       </c>
       <c r="H85" s="40">
         <v>3</v>
       </c>
       <c r="J85" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2540</v>
       </c>
     </row>
     <row r="86" ht="18.5" customHeight="1" spans="1:10">
       <c r="A86" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2541</v>
       </c>
       <c r="B86" s="27">
         <v>2541</v>
       </c>
       <c r="C86" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>386</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>387</v>
       </c>
       <c r="E86" s="27">
         <v>1</v>
@@ -12740,27 +12820,28 @@
       <c r="F86" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G86" s="37" t="s">
-        <v>292</v>
+      <c r="G86" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/极地巨人</v>
       </c>
       <c r="H86" s="40">
         <v>3</v>
       </c>
       <c r="J86" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2541</v>
       </c>
     </row>
     <row r="87" ht="18.5" customHeight="1" spans="1:10">
       <c r="A87" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2542</v>
       </c>
       <c r="B87" s="27">
         <v>2542</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D87" s="27" t="s">
         <v>214</v>
@@ -12771,27 +12852,28 @@
       <c r="F87" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G87" s="37" t="s">
-        <v>292</v>
+      <c r="G87" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/极地四脚兽</v>
       </c>
       <c r="H87" s="40">
         <v>3</v>
       </c>
       <c r="J87" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2542</v>
       </c>
     </row>
     <row r="88" ht="18.5" customHeight="1" spans="1:10">
       <c r="A88" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2543</v>
       </c>
       <c r="B88" s="27">
         <v>2543</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D88" s="27" t="s">
         <v>213</v>
@@ -12802,30 +12884,31 @@
       <c r="F88" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G88" s="37" t="s">
-        <v>292</v>
+      <c r="G88" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/极地飞翼兽</v>
       </c>
       <c r="H88" s="40">
         <v>3</v>
       </c>
       <c r="J88" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2543</v>
       </c>
     </row>
     <row r="89" ht="18.5" customHeight="1" spans="1:10">
       <c r="A89" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2544</v>
       </c>
       <c r="B89" s="27">
         <v>2544</v>
       </c>
       <c r="C89" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>390</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>391</v>
       </c>
       <c r="E89" s="27">
         <v>1</v>
@@ -12833,27 +12916,28 @@
       <c r="F89" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G89" s="37" t="s">
-        <v>292</v>
+      <c r="G89" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/极冰守卫</v>
       </c>
       <c r="H89" s="40">
         <v>3</v>
       </c>
       <c r="J89" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2544</v>
       </c>
     </row>
     <row r="90" ht="18.5" customHeight="1" spans="1:10">
       <c r="A90" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2545</v>
       </c>
       <c r="B90" s="27">
         <v>2545</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D90" s="27" t="s">
         <v>199</v>
@@ -12864,27 +12948,28 @@
       <c r="F90" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G90" s="37" t="s">
-        <v>292</v>
+      <c r="G90" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/冰原守卫</v>
       </c>
       <c r="H90" s="40">
         <v>3</v>
       </c>
       <c r="J90" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2545</v>
       </c>
     </row>
     <row r="91" ht="18.5" customHeight="1" spans="1:10">
       <c r="A91" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2546</v>
       </c>
       <c r="B91" s="27">
         <v>2546</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D91" s="27" t="s">
         <v>238</v>
@@ -12893,29 +12978,30 @@
         <v>2</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="G91" s="37" t="s">
-        <v>292</v>
+        <v>393</v>
+      </c>
+      <c r="G91" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/绿洲剧毒飞蛇</v>
       </c>
       <c r="H91" s="40">
         <v>3</v>
       </c>
       <c r="J91" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2546</v>
       </c>
     </row>
     <row r="92" ht="18.5" customHeight="1" spans="1:10">
       <c r="A92" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2547</v>
       </c>
       <c r="B92" s="27">
         <v>2547</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D92" s="27" t="s">
         <v>231</v>
@@ -12924,29 +13010,30 @@
         <v>2</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="G92" s="37" t="s">
-        <v>292</v>
+        <v>395</v>
+      </c>
+      <c r="G92" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/绿洲魔法飞马</v>
       </c>
       <c r="H92" s="40">
         <v>3</v>
       </c>
       <c r="J92" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2547</v>
       </c>
     </row>
     <row r="93" ht="18.5" customHeight="1" spans="1:10">
       <c r="A93" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2548</v>
       </c>
       <c r="B93" s="27">
         <v>2548</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>81</v>
@@ -12957,27 +13044,28 @@
       <c r="F93" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G93" s="37" t="s">
-        <v>292</v>
+      <c r="G93" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/绿洲怪手</v>
       </c>
       <c r="H93" s="40">
         <v>3</v>
       </c>
       <c r="J93" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2548</v>
       </c>
     </row>
     <row r="94" ht="18.5" customHeight="1" spans="1:10">
       <c r="A94" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2549</v>
       </c>
       <c r="B94" s="27">
         <v>2549</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>59</v>
@@ -12988,27 +13076,28 @@
       <c r="F94" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G94" s="37" t="s">
-        <v>292</v>
+      <c r="G94" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/毒风鹫</v>
       </c>
       <c r="H94" s="40">
         <v>3</v>
       </c>
       <c r="J94" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2549</v>
       </c>
     </row>
     <row r="95" ht="18.5" customHeight="1" spans="1:10">
       <c r="A95" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2550</v>
       </c>
       <c r="B95" s="27">
         <v>2550</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D95" s="27" t="s">
         <v>250</v>
@@ -13019,27 +13108,28 @@
       <c r="F95" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G95" s="37" t="s">
-        <v>292</v>
+      <c r="G95" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/天辉高级术士</v>
       </c>
       <c r="H95" s="40">
         <v>3</v>
       </c>
       <c r="J95" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2550</v>
       </c>
     </row>
     <row r="96" ht="18.5" customHeight="1" spans="1:10">
       <c r="A96" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2551</v>
       </c>
       <c r="B96" s="27">
         <v>2551</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>269</v>
@@ -13050,27 +13140,28 @@
       <c r="F96" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G96" s="37" t="s">
-        <v>292</v>
+      <c r="G96" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/独角沙兽</v>
       </c>
       <c r="H96" s="40">
         <v>3</v>
       </c>
       <c r="J96" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2551</v>
       </c>
     </row>
     <row r="97" ht="18.5" customHeight="1" spans="1:10">
       <c r="A97" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2552</v>
       </c>
       <c r="B97" s="27">
         <v>2552</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>252</v>
@@ -13081,27 +13172,28 @@
       <c r="F97" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G97" s="37" t="s">
-        <v>292</v>
+      <c r="G97" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/高级精灵战车</v>
       </c>
       <c r="H97" s="40">
         <v>3</v>
       </c>
       <c r="J97" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2552</v>
       </c>
     </row>
     <row r="98" ht="18.5" customHeight="1" spans="1:10">
       <c r="A98" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2553</v>
       </c>
       <c r="B98" s="27">
         <v>2553</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>256</v>
@@ -13112,27 +13204,28 @@
       <c r="F98" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G98" s="37" t="s">
-        <v>292</v>
+      <c r="G98" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/风沙狼</v>
       </c>
       <c r="H98" s="40">
         <v>3</v>
       </c>
       <c r="J98" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2553</v>
       </c>
     </row>
     <row r="99" ht="18.5" customHeight="1" spans="1:10">
       <c r="A99" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2554</v>
       </c>
       <c r="B99" s="27">
         <v>2554</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D99" s="27" t="s">
         <v>257</v>
@@ -13143,27 +13236,28 @@
       <c r="F99" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G99" s="37" t="s">
-        <v>292</v>
+      <c r="G99" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>item_custom/card/风沙狮</v>
       </c>
       <c r="H99" s="40">
         <v>3</v>
       </c>
       <c r="J99" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2554</v>
       </c>
     </row>
     <row r="100" ht="18.5" customHeight="1" spans="1:10">
       <c r="A100" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2555</v>
       </c>
       <c r="B100" s="27">
         <v>2555</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D100" s="27" t="s">
         <v>259</v>
@@ -13174,27 +13268,28 @@
       <c r="F100" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G100" s="37" t="s">
-        <v>292</v>
+      <c r="G100" s="37" t="str">
+        <f t="shared" ref="G100:G131" si="9">"item_custom/card/"&amp;D100</f>
+        <v>item_custom/card/风沙战熊</v>
       </c>
       <c r="H100" s="40">
         <v>3</v>
       </c>
       <c r="J100" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2555</v>
       </c>
     </row>
     <row r="101" ht="18.5" customHeight="1" spans="1:10">
       <c r="A101" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2556</v>
       </c>
       <c r="B101" s="27">
         <v>2556</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D101" s="27" t="s">
         <v>242</v>
@@ -13205,27 +13300,28 @@
       <c r="F101" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G101" s="37" t="s">
-        <v>292</v>
+      <c r="G101" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/绿洲守卫</v>
       </c>
       <c r="H101" s="40">
         <v>3</v>
       </c>
       <c r="J101" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2556</v>
       </c>
     </row>
     <row r="102" ht="18.5" customHeight="1" spans="1:10">
       <c r="A102" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2557</v>
       </c>
       <c r="B102" s="27">
         <v>2557</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>258</v>
@@ -13236,27 +13332,28 @@
       <c r="F102" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G102" s="37" t="s">
-        <v>292</v>
+      <c r="G102" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/风沙刺鼬</v>
       </c>
       <c r="H102" s="40">
         <v>3</v>
       </c>
       <c r="J102" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2557</v>
       </c>
     </row>
     <row r="103" ht="18.5" customHeight="1" spans="1:10">
       <c r="A103" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2558</v>
       </c>
       <c r="B103" s="27">
         <v>2558</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D103" s="27" t="s">
         <v>239</v>
@@ -13267,27 +13364,28 @@
       <c r="F103" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G103" s="37" t="s">
-        <v>292</v>
+      <c r="G103" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/绿洲女巫</v>
       </c>
       <c r="H103" s="40">
         <v>3</v>
       </c>
       <c r="J103" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2558</v>
       </c>
     </row>
     <row r="104" ht="18.5" customHeight="1" spans="1:10">
       <c r="A104" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2559</v>
       </c>
       <c r="B104" s="27">
         <v>2559</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D104" s="27" t="s">
         <v>265</v>
@@ -13298,27 +13396,28 @@
       <c r="F104" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G104" s="37" t="s">
-        <v>292</v>
+      <c r="G104" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/砂砾小巨人</v>
       </c>
       <c r="H104" s="40">
         <v>3</v>
       </c>
       <c r="J104" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2559</v>
       </c>
     </row>
     <row r="105" ht="18.5" customHeight="1" spans="1:10">
       <c r="A105" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2560</v>
       </c>
       <c r="B105" s="37">
         <v>2560</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D105" s="27" t="s">
         <v>178</v>
@@ -13329,27 +13428,28 @@
       <c r="F105" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="G105" s="37" t="s">
-        <v>292</v>
+      <c r="G105" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/幼年青眼雷龙</v>
       </c>
       <c r="H105" s="40">
         <v>3</v>
       </c>
       <c r="J105" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2560</v>
       </c>
     </row>
     <row r="106" ht="18.5" customHeight="1" spans="1:10">
       <c r="A106" s="36">
-        <f t="shared" ref="A99:A132" si="6">B106</f>
+        <f t="shared" ref="A99:A132" si="10">B106</f>
         <v>2901</v>
       </c>
       <c r="B106" s="27">
         <v>2901</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>75</v>
@@ -13358,711 +13458,734 @@
         <v>2</v>
       </c>
       <c r="F106" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="G106" s="37" t="s">
-        <v>292</v>
+        <v>410</v>
+      </c>
+      <c r="G106" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/炼狱领主</v>
       </c>
       <c r="H106" s="40">
         <v>4</v>
       </c>
       <c r="J106" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2901</v>
       </c>
     </row>
     <row r="107" ht="18.5" customHeight="1" spans="1:10">
       <c r="A107" s="36">
+        <f t="shared" si="10"/>
+        <v>2902</v>
+      </c>
+      <c r="B107" s="27">
+        <v>2902</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" s="27">
+        <v>1</v>
+      </c>
+      <c r="F107" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G107" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/熔岩巨人</v>
+      </c>
+      <c r="H107" s="40">
+        <v>4</v>
+      </c>
+      <c r="J107" s="29">
         <f t="shared" si="6"/>
         <v>2902</v>
       </c>
-      <c r="B107" s="27">
-        <v>2902</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="E107" s="27">
-        <v>1</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G107" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H107" s="40">
-        <v>4</v>
-      </c>
-      <c r="J107" s="29">
-        <f t="shared" si="4"/>
-        <v>2902</v>
-      </c>
     </row>
     <row r="108" ht="18.5" customHeight="1" spans="1:10">
       <c r="A108" s="36">
+        <f t="shared" si="10"/>
+        <v>2903</v>
+      </c>
+      <c r="B108" s="27">
+        <v>2903</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="27">
+        <v>1</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G108" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/烈焰神狐</v>
+      </c>
+      <c r="H108" s="40">
+        <v>4</v>
+      </c>
+      <c r="J108" s="29">
         <f t="shared" si="6"/>
         <v>2903</v>
       </c>
-      <c r="B108" s="27">
-        <v>2903</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E108" s="27">
-        <v>1</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G108" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H108" s="40">
-        <v>4</v>
-      </c>
-      <c r="J108" s="29">
-        <f t="shared" si="4"/>
-        <v>2903</v>
-      </c>
     </row>
     <row r="109" ht="18.5" customHeight="1" spans="1:10">
       <c r="A109" s="36">
+        <f t="shared" si="10"/>
+        <v>2904</v>
+      </c>
+      <c r="B109" s="27">
+        <v>2904</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="27">
+        <v>2</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="G109" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/炼狱双头犬</v>
+      </c>
+      <c r="H109" s="40">
+        <v>4</v>
+      </c>
+      <c r="J109" s="29">
         <f t="shared" si="6"/>
         <v>2904</v>
       </c>
-      <c r="B109" s="27">
-        <v>2904</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" s="27">
-        <v>2</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="G109" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H109" s="40">
-        <v>4</v>
-      </c>
-      <c r="J109" s="29">
-        <f t="shared" si="4"/>
-        <v>2904</v>
-      </c>
     </row>
     <row r="110" ht="18.5" customHeight="1" spans="1:10">
       <c r="A110" s="36">
+        <f t="shared" si="10"/>
+        <v>2905</v>
+      </c>
+      <c r="B110" s="27">
+        <v>2905</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E110" s="27">
+        <v>1</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G110" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/烈焰战神</v>
+      </c>
+      <c r="H110" s="40">
+        <v>4</v>
+      </c>
+      <c r="J110" s="29">
         <f t="shared" si="6"/>
         <v>2905</v>
       </c>
-      <c r="B110" s="27">
-        <v>2905</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E110" s="27">
-        <v>1</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G110" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H110" s="40">
-        <v>4</v>
-      </c>
-      <c r="J110" s="29">
-        <f t="shared" si="4"/>
-        <v>2905</v>
-      </c>
     </row>
     <row r="111" ht="18.5" customHeight="1" spans="1:10">
       <c r="A111" s="36">
+        <f t="shared" si="10"/>
+        <v>2906</v>
+      </c>
+      <c r="B111" s="27">
+        <v>2906</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="27">
+        <v>2</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="G111" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/青眼雷龙</v>
+      </c>
+      <c r="H111" s="40">
+        <v>4</v>
+      </c>
+      <c r="J111" s="29">
         <f t="shared" si="6"/>
         <v>2906</v>
       </c>
-      <c r="B111" s="27">
-        <v>2906</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E111" s="27">
-        <v>2</v>
-      </c>
-      <c r="F111" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="G111" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H111" s="40">
-        <v>4</v>
-      </c>
-      <c r="J111" s="29">
-        <f t="shared" si="4"/>
-        <v>2906</v>
-      </c>
     </row>
     <row r="112" ht="18.5" customHeight="1" spans="1:10">
       <c r="A112" s="36">
+        <f t="shared" si="10"/>
+        <v>2907</v>
+      </c>
+      <c r="B112" s="27">
+        <v>2907</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E112" s="27">
+        <v>1</v>
+      </c>
+      <c r="F112" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G112" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/雷压飞翼兽</v>
+      </c>
+      <c r="H112" s="40">
+        <v>4</v>
+      </c>
+      <c r="J112" s="29">
         <f t="shared" si="6"/>
         <v>2907</v>
       </c>
-      <c r="B112" s="27">
-        <v>2907</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E112" s="27">
-        <v>1</v>
-      </c>
-      <c r="F112" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G112" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H112" s="40">
-        <v>4</v>
-      </c>
-      <c r="J112" s="29">
-        <f t="shared" si="4"/>
-        <v>2907</v>
-      </c>
     </row>
     <row r="113" ht="18.5" customHeight="1" spans="1:10">
       <c r="A113" s="36">
+        <f t="shared" si="10"/>
+        <v>2908</v>
+      </c>
+      <c r="B113" s="27">
+        <v>2908</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E113" s="27">
+        <v>2</v>
+      </c>
+      <c r="F113" s="27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G113" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/雷电掌控者</v>
+      </c>
+      <c r="H113" s="40">
+        <v>4</v>
+      </c>
+      <c r="J113" s="29">
         <f t="shared" si="6"/>
         <v>2908</v>
       </c>
-      <c r="B113" s="27">
-        <v>2908</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E113" s="27">
-        <v>2</v>
-      </c>
-      <c r="F113" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="G113" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H113" s="40">
-        <v>4</v>
-      </c>
-      <c r="J113" s="29">
-        <f t="shared" si="4"/>
-        <v>2908</v>
-      </c>
     </row>
     <row r="114" ht="18.5" customHeight="1" spans="1:10">
       <c r="A114" s="36">
+        <f t="shared" si="10"/>
+        <v>2909</v>
+      </c>
+      <c r="B114" s="27">
+        <v>2909</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E114" s="27">
+        <v>1</v>
+      </c>
+      <c r="F114" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G114" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/雷神鸟</v>
+      </c>
+      <c r="H114" s="40">
+        <v>4</v>
+      </c>
+      <c r="J114" s="29">
         <f t="shared" si="6"/>
         <v>2909</v>
       </c>
-      <c r="B114" s="27">
-        <v>2909</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E114" s="27">
-        <v>1</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G114" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H114" s="40">
-        <v>4</v>
-      </c>
-      <c r="J114" s="29">
-        <f t="shared" si="4"/>
-        <v>2909</v>
-      </c>
     </row>
     <row r="115" ht="18.5" customHeight="1" spans="1:10">
       <c r="A115" s="36">
+        <f t="shared" si="10"/>
+        <v>2910</v>
+      </c>
+      <c r="B115" s="27">
+        <v>2910</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115" s="27">
+        <v>1</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G115" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/闪电制造者</v>
+      </c>
+      <c r="H115" s="40">
+        <v>4</v>
+      </c>
+      <c r="J115" s="29">
         <f t="shared" si="6"/>
         <v>2910</v>
       </c>
-      <c r="B115" s="27">
-        <v>2910</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="E115" s="27">
-        <v>1</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G115" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H115" s="40">
-        <v>4</v>
-      </c>
-      <c r="J115" s="29">
-        <f t="shared" si="4"/>
-        <v>2910</v>
-      </c>
     </row>
     <row r="116" ht="18.5" customHeight="1" spans="1:10">
       <c r="A116" s="36">
+        <f t="shared" si="10"/>
+        <v>2911</v>
+      </c>
+      <c r="B116" s="27">
+        <v>2911</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" s="27">
+        <v>1</v>
+      </c>
+      <c r="F116" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G116" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/极寒领主</v>
+      </c>
+      <c r="H116" s="40">
+        <v>4</v>
+      </c>
+      <c r="J116" s="29">
         <f t="shared" si="6"/>
         <v>2911</v>
       </c>
-      <c r="B116" s="27">
-        <v>2911</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="E116" s="27">
-        <v>1</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G116" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H116" s="40">
-        <v>4</v>
-      </c>
-      <c r="J116" s="29">
-        <f t="shared" si="4"/>
-        <v>2911</v>
-      </c>
     </row>
     <row r="117" ht="18.5" customHeight="1" spans="1:10">
       <c r="A117" s="36">
+        <f t="shared" si="10"/>
+        <v>2912</v>
+      </c>
+      <c r="B117" s="27">
+        <v>2912</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E117" s="27">
+        <v>2</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="G117" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/极寒蛛美丽</v>
+      </c>
+      <c r="H117" s="40">
+        <v>4</v>
+      </c>
+      <c r="J117" s="29">
         <f t="shared" si="6"/>
         <v>2912</v>
       </c>
-      <c r="B117" s="27">
-        <v>2912</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E117" s="27">
-        <v>2</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G117" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H117" s="40">
-        <v>4</v>
-      </c>
-      <c r="J117" s="29">
-        <f t="shared" si="4"/>
-        <v>2912</v>
-      </c>
     </row>
     <row r="118" ht="18.5" customHeight="1" spans="1:10">
       <c r="A118" s="36">
+        <f t="shared" si="10"/>
+        <v>2913</v>
+      </c>
+      <c r="B118" s="27">
+        <v>2913</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E118" s="27">
+        <v>2</v>
+      </c>
+      <c r="F118" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="G118" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/冰原领主</v>
+      </c>
+      <c r="H118" s="40">
+        <v>4</v>
+      </c>
+      <c r="J118" s="29">
         <f t="shared" si="6"/>
         <v>2913</v>
       </c>
-      <c r="B118" s="27">
-        <v>2913</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E118" s="27">
-        <v>2</v>
-      </c>
-      <c r="F118" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G118" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H118" s="40">
-        <v>4</v>
-      </c>
-      <c r="J118" s="29">
-        <f t="shared" si="4"/>
-        <v>2913</v>
-      </c>
     </row>
     <row r="119" ht="18.5" customHeight="1" spans="1:10">
       <c r="A119" s="36">
+        <f t="shared" si="10"/>
+        <v>2914</v>
+      </c>
+      <c r="B119" s="27">
+        <v>2914</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="D119" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E119" s="27">
+        <v>1</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G119" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/狂沙熊战士</v>
+      </c>
+      <c r="H119" s="40">
+        <v>4</v>
+      </c>
+      <c r="J119" s="29">
         <f t="shared" si="6"/>
         <v>2914</v>
       </c>
-      <c r="B119" s="27">
-        <v>2914</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="E119" s="27">
-        <v>1</v>
-      </c>
-      <c r="F119" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G119" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H119" s="40">
-        <v>4</v>
-      </c>
-      <c r="J119" s="29">
-        <f t="shared" si="4"/>
-        <v>2914</v>
-      </c>
     </row>
     <row r="120" ht="18.5" customHeight="1" spans="1:10">
       <c r="A120" s="36">
+        <f t="shared" si="10"/>
+        <v>2915</v>
+      </c>
+      <c r="B120" s="27">
+        <v>2915</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E120" s="27">
+        <v>1</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G120" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/黄沙护卫</v>
+      </c>
+      <c r="H120" s="40">
+        <v>4</v>
+      </c>
+      <c r="J120" s="29">
         <f t="shared" si="6"/>
         <v>2915</v>
       </c>
-      <c r="B120" s="27">
-        <v>2915</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="E120" s="27">
-        <v>1</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G120" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H120" s="40">
-        <v>4</v>
-      </c>
-      <c r="J120" s="29">
-        <f t="shared" si="4"/>
-        <v>2915</v>
-      </c>
     </row>
     <row r="121" ht="18.5" customHeight="1" spans="1:10">
       <c r="A121" s="36">
+        <f t="shared" si="10"/>
+        <v>2916</v>
+      </c>
+      <c r="B121" s="27">
+        <v>2916</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D121" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E121" s="27">
+        <v>1</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G121" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/绿洲之主</v>
+      </c>
+      <c r="H121" s="40">
+        <v>4</v>
+      </c>
+      <c r="J121" s="29">
         <f t="shared" si="6"/>
         <v>2916</v>
       </c>
-      <c r="B121" s="27">
-        <v>2916</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="E121" s="27">
-        <v>1</v>
-      </c>
-      <c r="F121" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G121" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H121" s="40">
-        <v>4</v>
-      </c>
-      <c r="J121" s="29">
-        <f t="shared" si="4"/>
-        <v>2916</v>
-      </c>
     </row>
     <row r="122" ht="18.5" customHeight="1" spans="1:10">
       <c r="A122" s="36">
+        <f t="shared" si="10"/>
+        <v>2917</v>
+      </c>
+      <c r="B122" s="27">
+        <v>2917</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E122" s="27">
+        <v>2</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="G122" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/黄沙之主</v>
+      </c>
+      <c r="H122" s="40">
+        <v>4</v>
+      </c>
+      <c r="J122" s="29">
         <f t="shared" si="6"/>
         <v>2917</v>
       </c>
-      <c r="B122" s="27">
-        <v>2917</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="D122" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E122" s="27">
-        <v>2</v>
-      </c>
-      <c r="F122" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G122" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H122" s="40">
-        <v>4</v>
-      </c>
-      <c r="J122" s="29">
-        <f t="shared" si="4"/>
-        <v>2917</v>
-      </c>
     </row>
     <row r="123" ht="18.5" customHeight="1" spans="1:10">
       <c r="A123" s="36">
+        <f t="shared" si="10"/>
+        <v>2918</v>
+      </c>
+      <c r="B123" s="27">
+        <v>2918</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="D123" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E123" s="27">
+        <v>1</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G123" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/祈风使</v>
+      </c>
+      <c r="H123" s="40">
+        <v>4</v>
+      </c>
+      <c r="J123" s="29">
         <f t="shared" si="6"/>
         <v>2918</v>
       </c>
-      <c r="B123" s="27">
-        <v>2918</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="D123" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E123" s="27">
-        <v>1</v>
-      </c>
-      <c r="F123" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G123" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H123" s="40">
-        <v>4</v>
-      </c>
-      <c r="J123" s="29">
-        <f t="shared" si="4"/>
-        <v>2918</v>
-      </c>
     </row>
     <row r="124" ht="18.5" customHeight="1" spans="1:10">
       <c r="A124" s="36">
+        <f t="shared" si="10"/>
+        <v>2919</v>
+      </c>
+      <c r="B124" s="27">
+        <v>2919</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E124" s="27">
+        <v>1</v>
+      </c>
+      <c r="F124" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G124" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/寒冰使</v>
+      </c>
+      <c r="H124" s="40">
+        <v>4</v>
+      </c>
+      <c r="J124" s="29">
         <f t="shared" si="6"/>
         <v>2919</v>
       </c>
-      <c r="B124" s="27">
-        <v>2919</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="D124" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E124" s="27">
-        <v>1</v>
-      </c>
-      <c r="F124" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G124" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H124" s="40">
-        <v>4</v>
-      </c>
-      <c r="J124" s="29">
-        <f t="shared" si="4"/>
-        <v>2919</v>
-      </c>
     </row>
     <row r="125" ht="18.5" customHeight="1" spans="1:10">
       <c r="A125" s="36">
+        <f t="shared" si="10"/>
+        <v>2920</v>
+      </c>
+      <c r="B125" s="27">
+        <v>2920</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125" s="27">
+        <v>1</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G125" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/霹雳使</v>
+      </c>
+      <c r="H125" s="40">
+        <v>4</v>
+      </c>
+      <c r="J125" s="29">
         <f t="shared" si="6"/>
         <v>2920</v>
       </c>
-      <c r="B125" s="27">
-        <v>2920</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E125" s="27">
-        <v>1</v>
-      </c>
-      <c r="F125" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G125" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H125" s="40">
-        <v>4</v>
-      </c>
-      <c r="J125" s="29">
-        <f t="shared" si="4"/>
-        <v>2920</v>
-      </c>
     </row>
     <row r="126" ht="18.5" customHeight="1" spans="1:10">
       <c r="A126" s="36">
+        <f t="shared" si="10"/>
+        <v>2921</v>
+      </c>
+      <c r="B126" s="27">
+        <v>2921</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E126" s="27">
+        <v>1</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="G126" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/烈火使</v>
+      </c>
+      <c r="H126" s="40">
+        <v>4</v>
+      </c>
+      <c r="J126" s="29">
         <f t="shared" si="6"/>
         <v>2921</v>
       </c>
-      <c r="B126" s="27">
-        <v>2921</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="D126" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E126" s="27">
-        <v>1</v>
-      </c>
-      <c r="F126" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G126" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H126" s="40">
-        <v>4</v>
-      </c>
-      <c r="J126" s="29">
-        <f t="shared" si="4"/>
-        <v>2921</v>
-      </c>
     </row>
     <row r="127" ht="18.5" customHeight="1" spans="1:10">
       <c r="A127" s="36">
+        <f t="shared" si="10"/>
+        <v>2922</v>
+      </c>
+      <c r="B127" s="27">
+        <v>2922</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" s="27">
+        <v>2</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="G127" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/远古炼狱火</v>
+      </c>
+      <c r="H127" s="40">
+        <v>4</v>
+      </c>
+      <c r="J127" s="29">
         <f t="shared" si="6"/>
         <v>2922</v>
       </c>
-      <c r="B127" s="27">
-        <v>2922</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="D127" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="E127" s="27">
-        <v>2</v>
-      </c>
-      <c r="F127" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="G127" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H127" s="40">
-        <v>4</v>
-      </c>
-      <c r="J127" s="29">
-        <f t="shared" si="4"/>
-        <v>2922</v>
-      </c>
     </row>
     <row r="128" ht="18.5" customHeight="1" spans="1:10">
       <c r="A128" s="36">
+        <f t="shared" si="10"/>
+        <v>3201</v>
+      </c>
+      <c r="B128" s="27">
+        <v>3201</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E128" s="27">
+        <v>2</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="G128" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/炼狱之王</v>
+      </c>
+      <c r="H128" s="40">
+        <v>5</v>
+      </c>
+      <c r="J128" s="29">
         <f t="shared" si="6"/>
         <v>3201</v>
       </c>
-      <c r="B128" s="27">
-        <v>3201</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E128" s="27">
-        <v>2</v>
-      </c>
-      <c r="F128" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="G128" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="H128" s="40">
-        <v>5</v>
-      </c>
-      <c r="J128" s="29">
-        <f t="shared" si="4"/>
-        <v>3201</v>
-      </c>
     </row>
     <row r="129" ht="18.5" customHeight="1" spans="1:10">
       <c r="A129" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3202</v>
       </c>
       <c r="B129" s="27">
         <v>3202</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D129" s="27" t="s">
         <v>155</v>
@@ -14071,10 +14194,11 @@
         <v>2</v>
       </c>
       <c r="F129" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="G129" s="37" t="s">
-        <v>292</v>
+        <v>442</v>
+      </c>
+      <c r="G129" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/雷神</v>
       </c>
       <c r="H129" s="40">
         <v>5</v>
@@ -14086,14 +14210,14 @@
     </row>
     <row r="130" ht="18.5" customHeight="1" spans="1:10">
       <c r="A130" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3203</v>
       </c>
       <c r="B130" s="27">
         <v>3203</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D130" s="27" t="s">
         <v>193</v>
@@ -14102,10 +14226,11 @@
         <v>2</v>
       </c>
       <c r="F130" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="G130" s="37" t="s">
-        <v>292</v>
+        <v>444</v>
+      </c>
+      <c r="G130" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/冰宫女王</v>
       </c>
       <c r="H130" s="40">
         <v>5</v>
@@ -14117,14 +14242,14 @@
     </row>
     <row r="131" ht="18.5" customHeight="1" spans="1:10">
       <c r="A131" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3204</v>
       </c>
       <c r="B131" s="27">
         <v>3204</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D131" s="27" t="s">
         <v>246</v>
@@ -14133,10 +14258,11 @@
         <v>2</v>
       </c>
       <c r="F131" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="G131" s="37" t="s">
-        <v>292</v>
+        <v>446</v>
+      </c>
+      <c r="G131" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>item_custom/card/风神</v>
       </c>
       <c r="H131" s="40">
         <v>5</v>
@@ -14148,14 +14274,14 @@
     </row>
     <row r="132" ht="18.5" customHeight="1" spans="1:10">
       <c r="A132" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3205</v>
       </c>
       <c r="B132" s="27">
         <v>3205</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D132" s="27" t="s">
         <v>94</v>
@@ -14164,10 +14290,11 @@
         <v>2</v>
       </c>
       <c r="F132" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="G132" s="37" t="s">
-        <v>292</v>
+        <v>448</v>
+      </c>
+      <c r="G132" s="37" t="str">
+        <f>"item_custom/card/"&amp;D132</f>
+        <v>item_custom/card/元素之主</v>
       </c>
       <c r="H132" s="40">
         <v>5</v>
@@ -14180,2044 +14307,2044 @@
     <row r="133" customFormat="1" ht="16.5" spans="3:10">
       <c r="C133" s="27"/>
       <c r="J133" s="29">
-        <f t="shared" ref="J132:J195" si="7">A133</f>
+        <f t="shared" ref="J132:J195" si="11">A133</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" customFormat="1" ht="16.5" spans="3:10">
       <c r="C134" s="27"/>
       <c r="J134" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" customFormat="1" ht="16.5" spans="3:10">
       <c r="C135" s="27"/>
       <c r="J135" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" customFormat="1" ht="16.5" spans="3:10">
       <c r="C136" s="27"/>
       <c r="J136" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" customFormat="1" ht="16.5" spans="3:10">
       <c r="C137" s="27"/>
       <c r="J137" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" customFormat="1" ht="16.5" spans="3:10">
       <c r="C138" s="27"/>
       <c r="J138" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" customFormat="1" ht="16.5" spans="3:10">
       <c r="C139" s="27"/>
       <c r="J139" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" customFormat="1" ht="16.5" spans="3:10">
       <c r="C140" s="27"/>
       <c r="J140" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" customFormat="1" ht="16.5" spans="3:10">
       <c r="C141" s="27"/>
       <c r="J141" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" customFormat="1" ht="16.5" spans="3:10">
       <c r="C142" s="27"/>
       <c r="J142" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" customFormat="1" ht="16.5" spans="3:10">
       <c r="C143" s="27"/>
       <c r="J143" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="1" ht="16.5" spans="3:10">
       <c r="C144" s="27"/>
       <c r="J144" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" customFormat="1" ht="16.5" spans="3:10">
       <c r="C145" s="27"/>
       <c r="J145" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="1" ht="16.5" spans="3:10">
       <c r="C146" s="27"/>
       <c r="J146" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="1" ht="16.5" spans="3:10">
       <c r="C147" s="27"/>
       <c r="J147" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" customFormat="1" ht="16.5" spans="3:10">
       <c r="C148" s="27"/>
       <c r="J148" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" customFormat="1" ht="16.5" spans="3:10">
       <c r="C149" s="27"/>
       <c r="J149" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" customFormat="1" ht="16.5" spans="3:10">
       <c r="C150" s="27"/>
       <c r="J150" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="1" ht="16.5" spans="3:10">
       <c r="C151" s="27"/>
       <c r="J151" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" ht="16.5" spans="3:10">
       <c r="C152" s="27"/>
       <c r="J152" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" ht="16.5" spans="3:10">
       <c r="C153" s="27"/>
       <c r="J153" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" ht="16.5" spans="3:10">
       <c r="C154" s="27"/>
       <c r="J154" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" ht="16.5" spans="3:10">
       <c r="C155" s="27"/>
       <c r="J155" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" ht="16.5" spans="3:10">
       <c r="C156" s="27"/>
       <c r="J156" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" ht="16.5" spans="3:10">
       <c r="C157" s="27"/>
       <c r="J157" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" ht="16.5" spans="3:10">
       <c r="C158" s="27"/>
       <c r="J158" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" ht="16.5" spans="3:10">
       <c r="C159" s="27"/>
       <c r="J159" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" ht="16.5" spans="3:10">
       <c r="C160" s="27"/>
       <c r="J160" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" ht="16.5" spans="3:10">
       <c r="C161" s="27"/>
       <c r="J161" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" ht="16.5" spans="3:10">
       <c r="C162" s="27"/>
       <c r="J162" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" ht="16.5" spans="3:10">
       <c r="C163" s="27"/>
       <c r="J163" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" ht="16.5" spans="3:10">
       <c r="C164" s="27"/>
       <c r="J164" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" ht="16.5" spans="3:10">
       <c r="C165" s="27"/>
       <c r="J165" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" ht="16.5" spans="3:10">
       <c r="C166" s="27"/>
       <c r="J166" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" ht="16.5" spans="3:10">
       <c r="C167" s="27"/>
       <c r="J167" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" ht="16.5" spans="3:10">
       <c r="C168" s="27"/>
       <c r="J168" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" ht="16.5" spans="3:10">
       <c r="C169" s="27"/>
       <c r="J169" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" ht="16.5" spans="3:10">
       <c r="C170" s="27"/>
       <c r="J170" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" ht="16.5" spans="3:10">
       <c r="C171" s="27"/>
       <c r="J171" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" ht="16.5" spans="3:10">
       <c r="C172" s="27"/>
       <c r="J172" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" ht="16.5" spans="3:10">
       <c r="C173" s="27"/>
       <c r="J173" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" ht="16.5" spans="3:10">
       <c r="C174" s="27"/>
       <c r="J174" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" ht="16.5" spans="3:10">
       <c r="C175" s="27"/>
       <c r="J175" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" ht="16.5" spans="3:10">
       <c r="C176" s="27"/>
       <c r="J176" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" ht="16.5" spans="3:10">
       <c r="C177" s="27"/>
       <c r="J177" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" ht="16.5" spans="3:10">
       <c r="C178" s="27"/>
       <c r="J178" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" ht="16.5" spans="3:10">
       <c r="C179" s="27"/>
       <c r="J179" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" ht="16.5" spans="3:10">
       <c r="C180" s="27"/>
       <c r="J180" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" ht="16.5" spans="3:10">
       <c r="C181" s="27"/>
       <c r="J181" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" ht="16.5" spans="3:10">
       <c r="C182" s="27"/>
       <c r="J182" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" ht="16.5" spans="3:10">
       <c r="C183" s="27"/>
       <c r="J183" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" ht="16.5" spans="3:10">
       <c r="C184" s="27"/>
       <c r="J184" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" ht="16.5" spans="3:10">
       <c r="C185" s="27"/>
       <c r="J185" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" ht="16.5" spans="3:10">
       <c r="C186" s="27"/>
       <c r="J186" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" ht="16.5" spans="3:10">
       <c r="C187" s="27"/>
       <c r="J187" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" ht="16.5" spans="3:10">
       <c r="C188" s="27"/>
       <c r="J188" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" ht="16.5" spans="3:10">
       <c r="C189" s="27"/>
       <c r="J189" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" ht="16.5" spans="3:10">
       <c r="C190" s="27"/>
       <c r="J190" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" ht="16.5" spans="3:10">
       <c r="C191" s="27"/>
       <c r="J191" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" ht="16.5" spans="3:10">
       <c r="C192" s="27"/>
       <c r="J192" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="193" ht="16.5" spans="3:10">
       <c r="C193" s="27"/>
       <c r="J193" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="194" ht="16.5" spans="3:10">
       <c r="C194" s="27"/>
       <c r="J194" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="195" ht="16.5" spans="3:10">
       <c r="C195" s="27"/>
       <c r="J195" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="196" ht="16.5" spans="3:10">
       <c r="C196" s="27"/>
       <c r="J196" s="29">
-        <f t="shared" ref="J196:J259" si="8">A196</f>
+        <f t="shared" ref="J196:J259" si="12">A196</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" ht="16.5" spans="3:10">
       <c r="C197" s="27"/>
       <c r="J197" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="198" ht="16.5" spans="3:10">
       <c r="C198" s="27"/>
       <c r="J198" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" ht="16.5" spans="3:10">
       <c r="C199" s="27"/>
       <c r="J199" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" ht="16.5" spans="3:10">
       <c r="C200" s="27"/>
       <c r="J200" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" ht="16.5" spans="3:10">
       <c r="C201" s="27"/>
       <c r="J201" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="202" ht="16.5" spans="3:10">
       <c r="C202" s="27"/>
       <c r="J202" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="203" ht="16.5" spans="3:10">
       <c r="C203" s="27"/>
       <c r="J203" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="204" ht="16.5" spans="3:10">
       <c r="C204" s="27"/>
       <c r="J204" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="205" ht="16.5" spans="3:10">
       <c r="C205" s="27"/>
       <c r="J205" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="206" ht="16.5" spans="3:10">
       <c r="C206" s="27"/>
       <c r="J206" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="207" ht="16.5" spans="3:10">
       <c r="C207" s="27"/>
       <c r="J207" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" ht="16.5" spans="3:10">
       <c r="C208" s="27"/>
       <c r="J208" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" ht="16.5" spans="3:10">
       <c r="C209" s="27"/>
       <c r="J209" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="210" ht="16.5" spans="3:10">
       <c r="C210" s="27"/>
       <c r="J210" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" ht="16.5" spans="3:10">
       <c r="C211" s="27"/>
       <c r="J211" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" ht="16.5" spans="3:10">
       <c r="C212" s="27"/>
       <c r="J212" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="213" ht="16.5" spans="3:10">
       <c r="C213" s="27"/>
       <c r="J213" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" ht="16.5" spans="3:10">
       <c r="C214" s="27"/>
       <c r="J214" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" ht="16.5" spans="3:10">
       <c r="C215" s="27"/>
       <c r="J215" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" ht="16.5" spans="3:10">
       <c r="C216" s="27"/>
       <c r="J216" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" ht="16.5" spans="3:10">
       <c r="C217" s="27"/>
       <c r="J217" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" ht="16.5" spans="3:10">
       <c r="C218" s="27"/>
       <c r="J218" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" ht="16.5" spans="3:10">
       <c r="C219" s="27"/>
       <c r="J219" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" ht="16.5" spans="3:10">
       <c r="C220" s="27"/>
       <c r="J220" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" ht="16.5" spans="3:10">
       <c r="C221" s="27"/>
       <c r="J221" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" ht="16.5" spans="3:10">
       <c r="C222" s="27"/>
       <c r="J222" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" ht="16.5" spans="3:10">
       <c r="C223" s="27"/>
       <c r="J223" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="224" ht="16.5" spans="3:10">
       <c r="C224" s="27"/>
       <c r="J224" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="225" ht="16.5" spans="3:10">
       <c r="C225" s="27"/>
       <c r="J225" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="226" ht="16.5" spans="3:10">
       <c r="C226" s="27"/>
       <c r="J226" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" ht="16.5" spans="3:10">
       <c r="C227" s="27"/>
       <c r="J227" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" ht="16.5" spans="3:10">
       <c r="C228" s="27"/>
       <c r="J228" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" ht="16.5" spans="3:10">
       <c r="C229" s="27"/>
       <c r="J229" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" ht="16.5" spans="3:10">
       <c r="C230" s="27"/>
       <c r="J230" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" ht="16.5" spans="3:10">
       <c r="C231" s="27"/>
       <c r="J231" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" ht="16.5" spans="3:10">
       <c r="C232" s="27"/>
       <c r="J232" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="233" ht="16.5" spans="3:10">
       <c r="C233" s="27"/>
       <c r="J233" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="234" ht="16.5" spans="3:10">
       <c r="C234" s="27"/>
       <c r="J234" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" ht="16.5" spans="3:10">
       <c r="C235" s="27"/>
       <c r="J235" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="236" ht="16.5" spans="3:10">
       <c r="C236" s="27"/>
       <c r="J236" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" ht="16.5" spans="3:10">
       <c r="C237" s="27"/>
       <c r="J237" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" ht="16.5" spans="3:10">
       <c r="C238" s="27"/>
       <c r="J238" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" ht="16.5" spans="3:10">
       <c r="C239" s="27"/>
       <c r="J239" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="240" ht="16.5" spans="3:10">
       <c r="C240" s="27"/>
       <c r="J240" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="241" ht="16.5" spans="3:10">
       <c r="C241" s="27"/>
       <c r="J241" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="242" ht="16.5" spans="3:10">
       <c r="C242" s="27"/>
       <c r="J242" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="243" ht="16.5" spans="3:10">
       <c r="C243" s="27"/>
       <c r="J243" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="244" ht="16.5" spans="3:10">
       <c r="C244" s="27"/>
       <c r="J244" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" ht="16.5" spans="3:10">
       <c r="C245" s="27"/>
       <c r="J245" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="246" ht="16.5" spans="3:10">
       <c r="C246" s="27"/>
       <c r="J246" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="247" ht="16.5" spans="3:10">
       <c r="C247" s="27"/>
       <c r="J247" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="248" ht="16.5" spans="3:10">
       <c r="C248" s="27"/>
       <c r="J248" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="249" ht="16.5" spans="3:10">
       <c r="C249" s="27"/>
       <c r="J249" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="250" ht="16.5" spans="3:10">
       <c r="C250" s="27"/>
       <c r="J250" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="251" ht="16.5" spans="3:10">
       <c r="C251" s="27"/>
       <c r="J251" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="252" ht="16.5" spans="3:10">
       <c r="C252" s="27"/>
       <c r="J252" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" ht="16.5" spans="3:10">
       <c r="C253" s="27"/>
       <c r="J253" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="254" ht="16.5" spans="3:10">
       <c r="C254" s="27"/>
       <c r="J254" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" ht="16.5" spans="3:10">
       <c r="C255" s="27"/>
       <c r="J255" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="256" ht="16.5" spans="3:10">
       <c r="C256" s="27"/>
       <c r="J256" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" ht="16.5" spans="3:10">
       <c r="C257" s="27"/>
       <c r="J257" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" ht="16.5" spans="3:10">
       <c r="C258" s="27"/>
       <c r="J258" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="259" ht="16.5" spans="3:10">
       <c r="C259" s="27"/>
       <c r="J259" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" ht="16.5" spans="3:10">
       <c r="C260" s="27"/>
       <c r="J260" s="29">
-        <f t="shared" ref="J260:J323" si="9">A260</f>
+        <f t="shared" ref="J260:J323" si="13">A260</f>
         <v>0</v>
       </c>
     </row>
     <row r="261" ht="16.5" spans="3:10">
       <c r="C261" s="27"/>
       <c r="J261" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="262" ht="16.5" spans="3:10">
       <c r="C262" s="27"/>
       <c r="J262" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" ht="16.5" spans="3:10">
       <c r="C263" s="27"/>
       <c r="J263" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="264" ht="16.5" spans="3:10">
       <c r="C264" s="27"/>
       <c r="J264" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" ht="16.5" spans="3:10">
       <c r="C265" s="27"/>
       <c r="J265" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" ht="16.5" spans="3:10">
       <c r="C266" s="27"/>
       <c r="J266" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="267" ht="16.5" spans="3:10">
       <c r="C267" s="27"/>
       <c r="J267" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="268" ht="16.5" spans="3:10">
       <c r="C268" s="27"/>
       <c r="J268" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="269" ht="16.5" spans="3:10">
       <c r="C269" s="27"/>
       <c r="J269" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="270" ht="16.5" spans="3:10">
       <c r="C270" s="27"/>
       <c r="J270" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" ht="16.5" spans="3:10">
       <c r="C271" s="27"/>
       <c r="J271" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="272" ht="16.5" spans="3:10">
       <c r="C272" s="27"/>
       <c r="J272" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" ht="16.5" spans="3:10">
       <c r="C273" s="27"/>
       <c r="J273" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="274" ht="16.5" spans="3:10">
       <c r="C274" s="27"/>
       <c r="J274" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="275" ht="16.5" spans="3:10">
       <c r="C275" s="27"/>
       <c r="J275" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="276" ht="16.5" spans="3:10">
       <c r="C276" s="27"/>
       <c r="J276" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="277" ht="16.5" spans="3:10">
       <c r="C277" s="27"/>
       <c r="J277" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="278" ht="16.5" spans="3:10">
       <c r="C278" s="27"/>
       <c r="J278" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="279" ht="16.5" spans="3:10">
       <c r="C279" s="27"/>
       <c r="J279" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" ht="16.5" spans="3:10">
       <c r="C280" s="27"/>
       <c r="J280" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="281" ht="16.5" spans="3:10">
       <c r="C281" s="27"/>
       <c r="J281" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" ht="16.5" spans="3:10">
       <c r="C282" s="27"/>
       <c r="J282" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="283" ht="16.5" spans="3:10">
       <c r="C283" s="27"/>
       <c r="J283" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" ht="16.5" spans="3:10">
       <c r="C284" s="27"/>
       <c r="J284" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="285" ht="16.5" spans="3:10">
       <c r="C285" s="27"/>
       <c r="J285" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="286" ht="16.5" spans="3:10">
       <c r="C286" s="27"/>
       <c r="J286" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="287" ht="16.5" spans="3:10">
       <c r="C287" s="27"/>
       <c r="J287" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="288" ht="16.5" spans="3:10">
       <c r="C288" s="27"/>
       <c r="J288" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" ht="16.5" spans="3:10">
       <c r="C289" s="27"/>
       <c r="J289" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" ht="16.5" spans="3:10">
       <c r="C290" s="27"/>
       <c r="J290" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" ht="16.5" spans="3:10">
       <c r="C291" s="27"/>
       <c r="J291" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" ht="16.5" spans="3:10">
       <c r="C292" s="27"/>
       <c r="J292" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" ht="16.5" spans="3:10">
       <c r="C293" s="27"/>
       <c r="J293" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="294" ht="16.5" spans="3:10">
       <c r="C294" s="27"/>
       <c r="J294" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="295" ht="16.5" spans="3:10">
       <c r="C295" s="27"/>
       <c r="J295" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="296" ht="16.5" spans="3:10">
       <c r="C296" s="27"/>
       <c r="J296" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="297" ht="16.5" spans="3:10">
       <c r="C297" s="27"/>
       <c r="J297" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="298" ht="16.5" spans="3:10">
       <c r="C298" s="27"/>
       <c r="J298" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" ht="16.5" spans="3:10">
       <c r="C299" s="27"/>
       <c r="J299" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" ht="16.5" spans="3:10">
       <c r="C300" s="27"/>
       <c r="J300" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="301" ht="16.5" spans="3:10">
       <c r="C301" s="27"/>
       <c r="J301" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="302" ht="16.5" spans="3:10">
       <c r="C302" s="27"/>
       <c r="J302" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" ht="16.5" spans="3:10">
       <c r="C303" s="27"/>
       <c r="J303" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" ht="16.5" spans="3:10">
       <c r="C304" s="27"/>
       <c r="J304" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="305" ht="16.5" spans="3:10">
       <c r="C305" s="27"/>
       <c r="J305" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" ht="16.5" spans="3:10">
       <c r="C306" s="27"/>
       <c r="J306" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" ht="16.5" spans="3:10">
       <c r="C307" s="27"/>
       <c r="J307" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" ht="16.5" spans="3:10">
       <c r="C308" s="27"/>
       <c r="J308" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="309" ht="16.5" spans="3:10">
       <c r="C309" s="27"/>
       <c r="J309" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="310" ht="16.5" spans="3:10">
       <c r="C310" s="27"/>
       <c r="J310" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="311" ht="16.5" spans="3:10">
       <c r="C311" s="27"/>
       <c r="J311" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="312" ht="16.5" spans="3:10">
       <c r="C312" s="27"/>
       <c r="J312" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="313" ht="16.5" spans="3:10">
       <c r="C313" s="27"/>
       <c r="J313" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="314" ht="16.5" spans="3:10">
       <c r="C314" s="27"/>
       <c r="J314" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="315" ht="16.5" spans="3:10">
       <c r="C315" s="27"/>
       <c r="J315" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="316" ht="16.5" spans="3:10">
       <c r="C316" s="27"/>
       <c r="J316" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="317" ht="16.5" spans="3:10">
       <c r="C317" s="27"/>
       <c r="J317" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="318" ht="16.5" spans="3:10">
       <c r="C318" s="27"/>
       <c r="J318" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="319" ht="16.5" spans="3:10">
       <c r="C319" s="27"/>
       <c r="J319" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" ht="16.5" spans="3:10">
       <c r="C320" s="27"/>
       <c r="J320" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="321" ht="16.5" spans="3:10">
       <c r="C321" s="27"/>
       <c r="J321" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="322" ht="16.5" spans="3:10">
       <c r="C322" s="27"/>
       <c r="J322" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="323" ht="16.5" spans="3:10">
       <c r="C323" s="27"/>
       <c r="J323" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="324" ht="16.5" spans="3:10">
       <c r="C324" s="27"/>
       <c r="J324" s="29">
-        <f t="shared" ref="J324:J387" si="10">A324</f>
+        <f t="shared" ref="J324:J387" si="14">A324</f>
         <v>0</v>
       </c>
     </row>
     <row r="325" ht="16.5" spans="3:10">
       <c r="C325" s="27"/>
       <c r="J325" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" ht="16.5" spans="3:10">
       <c r="C326" s="27"/>
       <c r="J326" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" ht="16.5" spans="3:10">
       <c r="C327" s="27"/>
       <c r="J327" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" ht="16.5" spans="3:10">
       <c r="C328" s="27"/>
       <c r="J328" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" ht="16.5" spans="3:10">
       <c r="C329" s="27"/>
       <c r="J329" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="330" ht="16.5" spans="3:10">
       <c r="C330" s="27"/>
       <c r="J330" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="331" ht="16.5" spans="3:10">
       <c r="C331" s="27"/>
       <c r="J331" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="332" ht="16.5" spans="3:10">
       <c r="C332" s="27"/>
       <c r="J332" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="333" ht="16.5" spans="3:10">
       <c r="C333" s="27"/>
       <c r="J333" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" ht="16.5" spans="3:10">
       <c r="C334" s="27"/>
       <c r="J334" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" ht="16.5" spans="3:10">
       <c r="C335" s="27"/>
       <c r="J335" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" ht="16.5" spans="3:10">
       <c r="C336" s="27"/>
       <c r="J336" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="337" ht="16.5" spans="3:10">
       <c r="C337" s="27"/>
       <c r="J337" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="338" ht="16.5" spans="3:10">
       <c r="C338" s="27"/>
       <c r="J338" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="339" ht="16.5" spans="3:10">
       <c r="C339" s="27"/>
       <c r="J339" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="340" ht="16.5" spans="3:10">
       <c r="C340" s="27"/>
       <c r="J340" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="341" ht="16.5" spans="3:10">
       <c r="C341" s="27"/>
       <c r="J341" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="342" ht="16.5" spans="3:10">
       <c r="C342" s="27"/>
       <c r="J342" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="343" ht="16.5" spans="3:10">
       <c r="C343" s="27"/>
       <c r="J343" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="344" ht="16.5" spans="3:10">
       <c r="C344" s="27"/>
       <c r="J344" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="345" ht="16.5" spans="3:10">
       <c r="C345" s="27"/>
       <c r="J345" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="346" ht="16.5" spans="3:10">
       <c r="C346" s="27"/>
       <c r="J346" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="347" ht="16.5" spans="3:10">
       <c r="C347" s="27"/>
       <c r="J347" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="348" ht="16.5" spans="3:10">
       <c r="C348" s="27"/>
       <c r="J348" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="349" ht="16.5" spans="3:10">
       <c r="C349" s="27"/>
       <c r="J349" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="350" ht="16.5" spans="3:10">
       <c r="C350" s="27"/>
       <c r="J350" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" ht="16.5" spans="3:10">
       <c r="C351" s="27"/>
       <c r="J351" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" ht="16.5" spans="3:10">
       <c r="C352" s="27"/>
       <c r="J352" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" ht="16.5" spans="3:10">
       <c r="C353" s="27"/>
       <c r="J353" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" ht="16.5" spans="3:10">
       <c r="C354" s="27"/>
       <c r="J354" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" ht="16.5" spans="3:10">
       <c r="C355" s="27"/>
       <c r="J355" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="356" ht="16.5" spans="3:10">
       <c r="C356" s="27"/>
       <c r="J356" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="357" ht="16.5" spans="3:10">
       <c r="C357" s="27"/>
       <c r="J357" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="358" ht="16.5" spans="3:10">
       <c r="C358" s="27"/>
       <c r="J358" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="359" ht="16.5" spans="3:10">
       <c r="C359" s="27"/>
       <c r="J359" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="360" ht="16.5" spans="3:10">
       <c r="C360" s="27"/>
       <c r="J360" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="361" ht="16.5" spans="3:10">
       <c r="C361" s="27"/>
       <c r="J361" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="362" ht="16.5" spans="3:10">
       <c r="C362" s="27"/>
       <c r="J362" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="363" ht="16.5" spans="3:10">
       <c r="C363" s="27"/>
       <c r="J363" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="364" ht="16.5" spans="3:10">
       <c r="C364" s="27"/>
       <c r="J364" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="365" ht="16.5" spans="3:10">
       <c r="C365" s="27"/>
       <c r="J365" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="366" ht="16.5" spans="3:10">
       <c r="C366" s="27"/>
       <c r="J366" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="367" ht="16.5" spans="3:10">
       <c r="C367" s="27"/>
       <c r="J367" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="368" ht="16.5" spans="3:10">
       <c r="C368" s="27"/>
       <c r="J368" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="369" ht="16.5" spans="3:10">
       <c r="C369" s="27"/>
       <c r="J369" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="370" ht="16.5" spans="3:10">
       <c r="C370" s="27"/>
       <c r="J370" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="371" ht="16.5" spans="3:10">
       <c r="C371" s="27"/>
       <c r="J371" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="372" ht="16.5" spans="3:10">
       <c r="C372" s="27"/>
       <c r="J372" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="373" ht="16.5" spans="3:10">
       <c r="C373" s="27"/>
       <c r="J373" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="374" ht="16.5" spans="3:10">
       <c r="C374" s="27"/>
       <c r="J374" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="375" ht="16.5" spans="3:10">
       <c r="C375" s="27"/>
       <c r="J375" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="376" ht="16.5" spans="3:10">
       <c r="C376" s="27"/>
       <c r="J376" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="377" ht="16.5" spans="3:10">
       <c r="C377" s="27"/>
       <c r="J377" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="378" ht="16.5" spans="3:10">
       <c r="C378" s="27"/>
       <c r="J378" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="379" ht="16.5" spans="3:10">
       <c r="C379" s="27"/>
       <c r="J379" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="380" ht="16.5" spans="3:10">
       <c r="C380" s="27"/>
       <c r="J380" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="381" ht="16.5" spans="3:10">
       <c r="C381" s="27"/>
       <c r="J381" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="382" ht="16.5" spans="3:10">
       <c r="C382" s="27"/>
       <c r="J382" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="383" ht="16.5" spans="3:10">
       <c r="C383" s="27"/>
       <c r="J383" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="384" ht="16.5" spans="3:10">
       <c r="C384" s="27"/>
       <c r="J384" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="385" ht="16.5" spans="3:10">
       <c r="C385" s="27"/>
       <c r="J385" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="386" ht="16.5" spans="3:10">
       <c r="C386" s="27"/>
       <c r="J386" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="387" ht="16.5" spans="3:10">
       <c r="C387" s="27"/>
       <c r="J387" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="388" ht="16.5" spans="3:10">
       <c r="C388" s="27"/>
       <c r="J388" s="29">
-        <f t="shared" ref="J388:J424" si="11">A388</f>
+        <f t="shared" ref="J388:J424" si="15">A388</f>
         <v>0</v>
       </c>
     </row>
     <row r="389" ht="16.5" spans="3:10">
       <c r="C389" s="27"/>
       <c r="J389" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="390" ht="16.5" spans="3:10">
       <c r="C390" s="27"/>
       <c r="J390" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="391" ht="16.5" spans="3:10">
       <c r="C391" s="27"/>
       <c r="J391" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="392" ht="16.5" spans="3:10">
       <c r="C392" s="27"/>
       <c r="J392" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="393" ht="16.5" spans="3:10">
       <c r="C393" s="27"/>
       <c r="J393" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="394" ht="16.5" spans="3:10">
       <c r="C394" s="27"/>
       <c r="J394" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="395" ht="16.5" spans="3:10">
       <c r="C395" s="27"/>
       <c r="J395" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="396" ht="16.5" spans="3:10">
       <c r="C396" s="27"/>
       <c r="J396" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="397" ht="16.5" spans="3:10">
       <c r="C397" s="27"/>
       <c r="J397" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="398" ht="16.5" spans="3:10">
       <c r="C398" s="27"/>
       <c r="J398" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="399" ht="16.5" spans="3:10">
       <c r="C399" s="27"/>
       <c r="J399" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="400" ht="16.5" spans="3:10">
       <c r="C400" s="27"/>
       <c r="J400" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="401" ht="16.5" spans="3:10">
       <c r="C401" s="27"/>
       <c r="J401" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="402" ht="16.5" spans="3:10">
       <c r="C402" s="27"/>
       <c r="J402" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="403" ht="16.5" spans="3:10">
       <c r="C403" s="27"/>
       <c r="J403" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="404" ht="16.5" spans="3:10">
       <c r="C404" s="27"/>
       <c r="J404" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="405" ht="16.5" spans="3:10">
       <c r="C405" s="27"/>
       <c r="J405" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="406" ht="16.5" spans="3:10">
       <c r="C406" s="27"/>
       <c r="J406" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="407" ht="16.5" spans="3:10">
       <c r="C407" s="27"/>
       <c r="J407" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="408" ht="16.5" spans="3:10">
       <c r="C408" s="27"/>
       <c r="J408" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="409" ht="16.5" spans="3:10">
       <c r="C409" s="27"/>
       <c r="J409" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="410" ht="16.5" spans="3:10">
       <c r="C410" s="27"/>
       <c r="J410" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="411" ht="16.5" spans="3:10">
       <c r="C411" s="27"/>
       <c r="J411" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="412" ht="16.5" spans="3:10">
       <c r="C412" s="27"/>
       <c r="J412" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="413" ht="16.5" spans="3:10">
       <c r="C413" s="27"/>
       <c r="J413" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="414" ht="16.5" spans="3:10">
       <c r="C414" s="27"/>
       <c r="J414" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="415" ht="16.5" spans="3:10">
       <c r="C415" s="27"/>
       <c r="J415" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="416" ht="16.5" spans="3:10">
       <c r="C416" s="27"/>
       <c r="J416" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="417" ht="16.5" spans="3:10">
       <c r="C417" s="27"/>
       <c r="J417" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="418" ht="16.5" spans="3:10">
       <c r="C418" s="27"/>
       <c r="J418" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="419" ht="16.5" spans="3:10">
       <c r="C419" s="27"/>
       <c r="J419" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="420" ht="16.5" spans="3:10">
       <c r="C420" s="27"/>
       <c r="J420" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="421" ht="16.5" spans="3:10">
       <c r="C421" s="27"/>
       <c r="J421" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="422" ht="16.5" spans="3:10">
       <c r="C422" s="27"/>
       <c r="J422" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="423" ht="16.5" spans="3:10">
       <c r="C423" s="27"/>
       <c r="J423" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="424" ht="16.5" spans="3:10">
       <c r="C424" s="27"/>
       <c r="J424" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16252,21 +16379,21 @@
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:4">
       <c r="A1" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>452</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
@@ -16280,10 +16407,10 @@
         <v>33</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>455</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:4">
@@ -16294,10 +16421,10 @@
         <v>135</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:4">
@@ -16308,10 +16435,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:4">
@@ -16322,10 +16449,10 @@
         <v>118</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:4">
@@ -16336,10 +16463,10 @@
         <v>82</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:4">
@@ -16350,10 +16477,10 @@
         <v>83</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:4">
@@ -16364,10 +16491,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:4">
@@ -16378,10 +16505,10 @@
         <v>35</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:4">
@@ -16389,13 +16516,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>465</v>
-      </c>
       <c r="D11" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:4">
@@ -16406,10 +16533,10 @@
         <v>47</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:4">
@@ -16420,10 +16547,10 @@
         <v>61</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:4">
@@ -16431,13 +16558,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>469</v>
-      </c>
       <c r="D14" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:4">
@@ -16445,13 +16572,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>471</v>
-      </c>
       <c r="D15" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:4">
@@ -16462,10 +16589,10 @@
         <v>76</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" ht="51.5" customHeight="1" spans="1:4">
@@ -16476,10 +16603,10 @@
         <v>60</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18" ht="51.5" customHeight="1" spans="1:4">
@@ -16490,10 +16617,10 @@
         <v>95</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" ht="51.5" customHeight="1" spans="1:4">
@@ -16504,10 +16631,10 @@
         <v>90</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" ht="51.5" customHeight="1" spans="1:4">
@@ -16518,10 +16645,10 @@
         <v>91</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" ht="51.5" customHeight="1" spans="1:4">
@@ -16529,13 +16656,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>478</v>
-      </c>
       <c r="D21" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" ht="51.5" customHeight="1" spans="1:4">
@@ -16546,10 +16673,10 @@
         <v>48</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16560,10 +16687,10 @@
         <v>105</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16574,10 +16701,10 @@
         <v>151</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16588,10 +16715,10 @@
         <v>53</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="51.5" customHeight="1" spans="1:4">
@@ -16602,10 +16729,10 @@
         <v>72</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" ht="51.5" customHeight="1" spans="1:4">
@@ -16616,10 +16743,10 @@
         <v>66</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:4">
@@ -16630,10 +16757,10 @@
         <v>150</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:4">
@@ -16644,10 +16771,10 @@
         <v>67</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" ht="51.5" customHeight="1" spans="1:4">
@@ -16658,10 +16785,10 @@
         <v>234</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -16696,14 +16823,14 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="48.5" customHeight="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -16711,10 +16838,10 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>489</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" ht="30.5" customHeight="1" spans="1:11">
@@ -16722,11 +16849,11 @@
         <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" s="9">
         <v>1</v>
@@ -16753,20 +16880,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>495</v>
       </c>
       <c r="G3"/>
       <c r="J3" s="11"/>
       <c r="K3" s="19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" ref="N3:N28" si="0">A3</f>
@@ -16778,19 +16905,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="19" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N4" s="21">
         <f t="shared" si="0"/>
@@ -16802,19 +16929,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" si="0"/>
@@ -16826,19 +16953,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="19" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="0"/>
@@ -16850,28 +16977,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="G7" t="s">
         <v>507</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>508</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>509</v>
-      </c>
-      <c r="I7" t="s">
-        <v>510</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="0"/>
@@ -16883,24 +17010,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>513</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>514</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="0"/>
@@ -16912,26 +17039,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>517</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>518</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="19" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="0"/>
@@ -16943,24 +17070,24 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="0"/>
@@ -16972,22 +17099,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N11" s="21">
         <f t="shared" si="0"/>
@@ -16999,22 +17126,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N12" s="21">
         <f t="shared" si="0"/>
@@ -17026,22 +17153,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N13" s="21">
         <f t="shared" si="0"/>
@@ -17053,22 +17180,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N14" s="21">
         <f t="shared" si="0"/>
@@ -17080,22 +17207,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N15" s="21">
         <f t="shared" si="0"/>
@@ -17107,24 +17234,24 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>539</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>540</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N16" s="21">
         <f t="shared" si="0"/>
@@ -17136,26 +17263,26 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>544</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>545</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="19" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N17" s="21">
         <f t="shared" si="0"/>
@@ -17167,26 +17294,26 @@
         <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>549</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>550</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N18" s="21">
         <f t="shared" si="0"/>
@@ -17198,22 +17325,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N19" s="21">
         <f t="shared" si="0"/>
@@ -17225,22 +17352,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N20" s="21">
         <f t="shared" si="0"/>
@@ -17252,24 +17379,24 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>559</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>560</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N21" s="21">
         <f t="shared" si="0"/>
@@ -17281,26 +17408,26 @@
         <v>20</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>563</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>564</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N22" s="21">
         <f t="shared" si="0"/>
@@ -17312,22 +17439,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>568</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="19" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N23" s="21">
         <f t="shared" si="0"/>
@@ -17339,15 +17466,15 @@
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -17364,28 +17491,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F25" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>575</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>576</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="19" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N25" s="21">
         <f t="shared" si="0"/>
@@ -17397,28 +17524,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F26" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>575</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>576</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N26" s="21">
         <f t="shared" si="0"/>
@@ -17430,28 +17557,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>575</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>576</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="19" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" si="0"/>
@@ -17463,28 +17590,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>575</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>576</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N28" s="21">
         <f t="shared" si="0"/>
